--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ProductBacklog" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ProductBacklog!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Anodiam</t>
   </si>
   <si>
-    <t>Spreadsheet Name</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -44,20 +44,72 @@
     <t>AC</t>
   </si>
   <si>
-    <t>18/06/2020</t>
-  </si>
-  <si>
     <t>Initial version</t>
   </si>
   <si>
-    <t>Specific Info</t>
+    <t>Product Backlog</t>
+  </si>
+  <si>
+    <t>Rolling Versions</t>
+  </si>
+  <si>
+    <t>Item #</t>
+  </si>
+  <si>
+    <t>Item Size</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Item Type</t>
+  </si>
+  <si>
+    <t>As a…</t>
+  </si>
+  <si>
+    <t>I want to be able to…</t>
+  </si>
+  <si>
+    <t>So that…</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Enabler</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Business Value</t>
+  </si>
+  <si>
+    <t>Estimates
+(Sum of Story Points of Tasks)</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Sprint Number</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -104,16 +156,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,11 +201,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -159,6 +239,15 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -383,8 +472,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -397,62 +486,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="8">
+        <v>44002</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,12 +580,716 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="38.25">
+      <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <f t="shared" ref="J2:J24" si="0">IF(H2=0,0,I2/H2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9">
+        <v>2</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
+        <v>4</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9">
+        <v>5</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
+        <v>2</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9">
+        <v>3</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9">
+        <v>4</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9">
+        <v>5</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9">
+        <v>2</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9">
+        <v>3</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9">
+        <v>4</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9">
+        <v>5</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9">
+        <v>2</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9">
+        <v>3</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9">
+        <v>4</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9">
+        <v>5</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9">
+        <v>2</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9">
+        <v>3</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="9"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L1">
+    <filterColumn colId="6"/>
+    <sortState ref="A2:L24">
+      <sortCondition ref="J1"/>
+    </sortState>
+  </autoFilter>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B24">
+      <formula1>"Feature,Enabler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C24">
+      <formula1>"Epic,Story"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="I12:I24">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="I2:I11">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="K2:K24">
+      <formula1>"Initial,Scheduled,WIP,Done"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="L2:L24">
+      <formula1>1</formula1>
+      <formula2>999</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -584,7 +584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75"/>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
   <si>
     <t>Anodiam</t>
   </si>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>Acceptance Criteria</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Access Video Lessons page in My Account</t>
+  </si>
+  <si>
+    <t>I can watch the leasson videos</t>
+  </si>
+  <si>
+    <t>Student should be able to access only the courses in their own account</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
   </si>
 </sst>
 </file>
@@ -220,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -260,6 +275,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,7 +600,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75"/>
@@ -649,51 +665,67 @@
         <v>18</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="9">
+        <v>20</v>
+      </c>
       <c r="I2" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="9">
         <f t="shared" ref="J2:J24" si="0">IF(H2=0,0,I2/H2)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="L2" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="9">
+        <v>40</v>
+      </c>
       <c r="I3" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9">

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="42">
   <si>
     <t>Anodiam</t>
   </si>
@@ -108,23 +108,50 @@
     <t>Student</t>
   </si>
   <si>
-    <t>Access Video Lessons page in My Account</t>
-  </si>
-  <si>
-    <t>I can watch the leasson videos</t>
-  </si>
-  <si>
-    <t>Student should be able to access only the courses in their own account</t>
-  </si>
-  <si>
     <t>Scheduled</t>
+  </si>
+  <si>
+    <t>sign up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can see the free courses and best options for me before buying </t>
+  </si>
+  <si>
+    <t xml:space="preserve">can access free </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Login </t>
+  </si>
+  <si>
+    <t>I can go to my profile</t>
+  </si>
+  <si>
+    <t>login validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my profile is secure </t>
+  </si>
+  <si>
+    <t>password validation, forget password option</t>
+  </si>
+  <si>
+    <t>put secure Password</t>
+  </si>
+  <si>
+    <t>access forget password</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> able to access password if forgotton/change password</t>
+  </si>
+  <si>
+    <t>able to understand the steps to retrive password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -178,6 +205,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -193,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -231,11 +264,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -264,6 +358,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -275,7 +370,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,31 +606,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="1" t="s">
@@ -600,7 +704,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75"/>
@@ -667,30 +771,28 @@
       <c r="C2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="9">
-        <v>20</v>
-      </c>
+      <c r="G2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="9"/>
       <c r="I2" s="9">
         <v>5</v>
       </c>
       <c r="J2" s="9">
         <f t="shared" ref="J2:J24" si="0">IF(H2=0,0,I2/H2)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L2" s="9">
         <v>1</v>
@@ -706,22 +808,28 @@
       <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9">
-        <v>40</v>
-      </c>
+      <c r="D3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="9">
         <v>5</v>
       </c>
       <c r="J3" s="9">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L3" s="9">
         <v>1</v>
@@ -737,11 +845,19 @@
       <c r="C4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="D4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="22"/>
       <c r="I4" s="9">
         <v>3</v>
       </c>
@@ -764,12 +880,18 @@
       <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9">
+      <c r="D5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="20">
         <v>4</v>
       </c>
       <c r="J5" s="9">
@@ -792,11 +914,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9">
+      <c r="E6" s="19"/>
+      <c r="F6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="20">
         <v>5</v>
       </c>
       <c r="J6" s="9">
@@ -820,9 +944,9 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="9">
         <v>1</v>
       </c>
@@ -1323,5 +1447,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
   <si>
     <t>Anodiam</t>
   </si>
@@ -145,6 +145,24 @@
   </si>
   <si>
     <t>able to understand the steps to retrive password</t>
+  </si>
+  <si>
+    <t>Create CRUD functionality in a REST API web service in a .jar file using JPA and MySQL.</t>
+  </si>
+  <si>
+    <t>Containerize the .jar file of Item # 1 in a docker container</t>
+  </si>
+  <si>
+    <t>Deploy the Docker container on a Kubernetes Cluster in GCP</t>
+  </si>
+  <si>
+    <t>Item # 3 below should be properly doable</t>
+  </si>
+  <si>
+    <t>GET, POST, DELETE should work through Postman tool on a local desktop machine.</t>
+  </si>
+  <si>
+    <t>GET, POST, DELETE should work through Postman while the application runs on GCP cluster.</t>
   </si>
 </sst>
 </file>
@@ -226,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -265,19 +283,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -297,28 +302,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -329,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -358,7 +341,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -370,16 +354,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,31 +595,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="1" t="s">
@@ -702,9 +691,9 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10:F11"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75"/>
@@ -713,9 +702,9 @@
     <col min="2" max="2" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="10" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
@@ -761,114 +750,110 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="9">
+    <row r="2" spans="1:12" ht="39" customHeight="1">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="22">
+        <v>8</v>
+      </c>
+      <c r="I2" s="22">
         <v>5</v>
       </c>
-      <c r="J2" s="9">
-        <f t="shared" ref="J2:J24" si="0">IF(H2=0,0,I2/H2)</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="22">
+        <f t="shared" ref="J2:J7" si="0">IF(H2=0,0,I2/H2)</f>
+        <v>0.625</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="9">
+    <row r="3" spans="1:12" ht="25.5">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="22">
+        <v>8</v>
+      </c>
+      <c r="I3" s="22">
         <v>5</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="s">
+        <v>0.625</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="9">
+    <row r="4" spans="1:12" ht="51.75" customHeight="1">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="9">
-        <v>3</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="D4" s="23"/>
+      <c r="E4" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="23">
+        <v>8</v>
+      </c>
+      <c r="I4" s="23">
+        <v>1</v>
+      </c>
+      <c r="J4" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="9"/>
+        <v>0.125</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9">
@@ -880,19 +865,13 @@
       <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="20">
-        <v>4</v>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
+        <v>1</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="0"/>
@@ -914,14 +893,12 @@
         <v>13</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="20">
-        <v>5</v>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9">
+        <v>1</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" si="0"/>
@@ -942,11 +919,11 @@
       <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="9">
         <v>1</v>
       </c>
@@ -959,7 +936,7 @@
       </c>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="63.75">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -969,24 +946,34 @@
       <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9">
-        <v>2</v>
+      <c r="D8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="12">
+        <v>5</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(H8=0,0,I8/H8)</f>
         <v>0</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12">
+        <v>29</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="25.5">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -996,24 +983,34 @@
       <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9">
-        <v>3</v>
+      <c r="D9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="12">
+        <v>5</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(H9=0,0,I9/H9)</f>
         <v>0</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12">
+        <v>29</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="25.5">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1023,16 +1020,24 @@
       <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9">
-        <v>4</v>
+      <c r="D10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="12">
+        <v>3</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(H10=0,0,I10/H10)</f>
         <v>0</v>
       </c>
       <c r="K10" s="9" t="s">
@@ -1040,7 +1045,7 @@
       </c>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="51">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1050,16 +1055,22 @@
       <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9">
-        <v>5</v>
+      <c r="D11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="12">
+        <v>4</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(H11=0,0,I11/H11)</f>
         <v>0</v>
       </c>
       <c r="K11" s="9" t="s">
@@ -1067,7 +1078,7 @@
       </c>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="51">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1077,16 +1088,18 @@
       <c r="C12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9">
-        <v>1</v>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="12">
+        <v>5</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(H12=0,0,I12/H12)</f>
         <v>0</v>
       </c>
       <c r="K12" s="9" t="s">
@@ -1106,14 +1119,14 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(H13=0,0,I13/H13)</f>
         <v>0</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -1140,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J14:J24" si="1">IF(H14=0,0,I14/H14)</f>
         <v>0</v>
       </c>
       <c r="K14" s="9" t="s">
@@ -1167,7 +1180,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="9" t="s">
@@ -1194,7 +1207,7 @@
         <v>5</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="9" t="s">
@@ -1221,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17" s="9" t="s">
@@ -1248,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="9" t="s">
@@ -1275,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="J19" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19" s="9" t="s">
@@ -1302,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="9" t="s">
@@ -1329,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="9" t="s">
@@ -1356,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="9" t="s">
@@ -1383,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="9" t="s">
@@ -1410,7 +1423,7 @@
         <v>3</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="9" t="s">
@@ -1421,30 +1434,30 @@
   </sheetData>
   <autoFilter ref="A1:L1">
     <filterColumn colId="6"/>
-    <sortState ref="A2:L24">
+    <sortState ref="A2:M24">
       <sortCondition ref="J1"/>
     </sortState>
   </autoFilter>
   <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="I2:I13">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="K2:K24">
+      <formula1>"Initial,Scheduled,WIP,Done"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="L8:L24">
+      <formula1>1</formula1>
+      <formula2>999</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="I14:I24">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B24">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C24">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="I12:I24">
-      <formula1>"1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="I2:I11">
-      <formula1>"1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="K2:K24">
-      <formula1>"Initial,Scheduled,WIP,Done"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="L2:L24">
-      <formula1>1</formula1>
-      <formula2>999</formula2>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -17,8 +17,234 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sydney</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Help:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Acceptance Criteria in Product Backlog comprises of 4 fields, namely:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Scenerio, Given, When Then.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Here all 4 fields should be colated into one.
+E.g. Acceptance criteria for following should be as below:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User Story</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: As a logged out User I want to be able to sign into the website, so that I can see my profile.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Acceptance Criteria</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Scenario:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Registered User Signs with valid username and password.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Given: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">I am logged out of website.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>When:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> I fill in the username and password fields with my valid credentials and click in sign in button
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Then:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> I get signed into the website.
+Here,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Acceptance Criteria</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> could be written in 1 sentence as below:
+Given I am logged out of website, if I fill in the username and password fields with my valid credentials and click in sign in button, I should get signed into the website.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Help:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>XS         :    1 Story Point       :     0 to 2 person hours
+S            :   2 Story Points     :     2 to 4 person hours
+M           :   3 Story Points     :     4 to 8 person hours
+L             :   5 Story Points      :     1 to 1.5 person days
+XL          :   8 Story Points     :     1.5 to 2.5 person days
+XXL       :   13 Story Points    :     0.5 to 1 person weeks
+XXXL    :   21 Story Points    :     Larger and never used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="45">
   <si>
     <t>Anodiam</t>
   </si>
@@ -102,9 +328,6 @@
     <t>Initial</t>
   </si>
   <si>
-    <t>Acceptance Criteria</t>
-  </si>
-  <si>
     <t>Student</t>
   </si>
   <si>
@@ -147,29 +370,102 @@
     <t>able to understand the steps to retrive password</t>
   </si>
   <si>
-    <t>Create CRUD functionality in a REST API web service in a .jar file using JPA and MySQL.</t>
-  </si>
-  <si>
-    <t>Containerize the .jar file of Item # 1 in a docker container</t>
-  </si>
-  <si>
-    <t>Deploy the Docker container on a Kubernetes Cluster in GCP</t>
-  </si>
-  <si>
-    <t>Item # 3 below should be properly doable</t>
-  </si>
-  <si>
-    <t>GET, POST, DELETE should work through Postman tool on a local desktop machine.</t>
-  </si>
-  <si>
-    <t>GET, POST, DELETE should work through Postman while the application runs on GCP cluster.</t>
+    <t>Acceptance Criteria (inserta note)</t>
+  </si>
+  <si>
+    <t>Deploy the SEED APP and a basic MySQL database on one Kubernetes cluster on GCP. This will be a REST API web service capable of doing a complete crud operation.</t>
+  </si>
+  <si>
+    <t>Details on Sprint Backlog 001</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Given the application is running on a developer desktop, connected to a local MySQL Instance, if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Junit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Testing of CRUD operations are run on this local set up it should pass: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should return a valid data set. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Insert, Update. Delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> shou;d return  an Integer type, showing the number of rows affeced or -1 in case of an error or error code.
+2. Given the application is deployed on a GCP cluster, if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GET, POST, DELETE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> operations are performed on the exposed REST API through the Postman tool on a remote client, the client should get expected results.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -224,6 +520,33 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -312,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -343,17 +666,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -368,6 +681,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,31 +922,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="1" t="s">
@@ -689,11 +1016,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75"/>
@@ -704,7 +1031,7 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="52.7109375" style="10" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
@@ -732,7 +1059,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>22</v>
@@ -750,147 +1077,139 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="39" customHeight="1">
-      <c r="A2" s="22">
+    <row r="2" spans="1:12" ht="140.25">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="22">
-        <v>8</v>
-      </c>
-      <c r="I2" s="22">
+      <c r="F2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="25">
+        <v>34</v>
+      </c>
+      <c r="I2" s="18">
         <v>5</v>
       </c>
-      <c r="J2" s="22">
-        <f t="shared" ref="J2:J7" si="0">IF(H2=0,0,I2/H2)</f>
-        <v>0.625</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="22">
+      <c r="J2" s="18">
+        <f t="shared" ref="J2:J8" si="0">IF(H2=0,0,I2/H2)</f>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="25.5">
-      <c r="A3" s="22">
+    <row r="3" spans="1:12" s="14" customFormat="1">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="22">
-        <v>8</v>
-      </c>
-      <c r="I3" s="22">
-        <v>5</v>
-      </c>
-      <c r="J3" s="22">
+      <c r="D3" s="18"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
+      <c r="J3" s="18">
+        <f t="shared" ref="J3" si="1">IF(H3=0,0,I3/H3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18">
+        <v>1</v>
+      </c>
+      <c r="J4" s="18">
         <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="51.75" customHeight="1">
-      <c r="A4" s="23">
+    <row r="5" spans="1:12" ht="51.75" customHeight="1">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="23">
-        <v>8</v>
-      </c>
-      <c r="I4" s="23">
+      <c r="D5" s="19"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19">
         <v>1</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J5" s="19">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -911,19 +1230,19 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="9">
         <v>1</v>
       </c>
@@ -936,141 +1255,135 @@
       </c>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" ht="63.75">
+    <row r="8" spans="1:12">
       <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="38.25">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="12">
-        <v>5</v>
-      </c>
-      <c r="J8" s="9">
-        <f>IF(H8=0,0,I8/H8)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="25.5">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="19"/>
+      <c r="D9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="15"/>
       <c r="I9" s="12">
         <v>5</v>
       </c>
       <c r="J9" s="9">
-        <f>IF(H9=0,0,I9/H9)</f>
+        <f t="shared" ref="J9:J14" si="2">IF(H9=0,0,I9/H9)</f>
         <v>0</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L9" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="25.5">
+    <row r="10" spans="1:12">
       <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="12">
+        <v>5</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="25.5">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="12">
-        <v>3</v>
-      </c>
-      <c r="J10" s="9">
-        <f>IF(H10=0,0,I10/H10)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" ht="51">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="D11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="15"/>
       <c r="I11" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" s="9">
-        <f>IF(H11=0,0,I11/H11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="9" t="s">
@@ -1078,28 +1391,32 @@
       </c>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="51">
+    <row r="12" spans="1:12" ht="38.25">
       <c r="A12" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="9">
-        <f>IF(H12=0,0,I12/H12)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K12" s="9" t="s">
@@ -1107,26 +1424,28 @@
       </c>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="25.5">
       <c r="A13" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="9">
-        <v>1</v>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="12">
+        <v>5</v>
       </c>
       <c r="J13" s="9">
-        <f>IF(H13=0,0,I13/H13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -1136,24 +1455,24 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" ref="J14:J24" si="1">IF(H14=0,0,I14/H14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K14" s="9" t="s">
@@ -1163,10 +1482,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>13</v>
@@ -1177,10 +1496,10 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J15:J25" si="3">IF(H15=0,0,I15/H15)</f>
         <v>0</v>
       </c>
       <c r="K15" s="9" t="s">
@@ -1190,13 +1509,13 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -1204,10 +1523,10 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K16" s="9" t="s">
@@ -1217,10 +1536,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>20</v>
@@ -1231,10 +1550,10 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K17" s="9" t="s">
@@ -1244,13 +1563,13 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -1258,10 +1577,10 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K18" s="9" t="s">
@@ -1271,10 +1590,10 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>13</v>
@@ -1285,10 +1604,10 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K19" s="9" t="s">
@@ -1298,13 +1617,13 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="C20" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -1312,10 +1631,10 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K20" s="9" t="s">
@@ -1325,10 +1644,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>20</v>
@@ -1339,10 +1658,10 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K21" s="9" t="s">
@@ -1352,13 +1671,13 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -1366,10 +1685,10 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K22" s="9" t="s">
@@ -1379,10 +1698,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>13</v>
@@ -1393,10 +1712,10 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K23" s="9" t="s">
@@ -1406,13 +1725,13 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -1420,16 +1739,43 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9">
+        <v>3</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1">
@@ -1439,27 +1785,28 @@
     </sortState>
   </autoFilter>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="I2:I13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="I2:I14">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="K2:K24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="K2:K25">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="L8:L24">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="L9:L25">
       <formula1>1</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="I14:I24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="I15:I25">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B25">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C25">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="81">
   <si>
     <t>Anodiam</t>
   </si>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t>Item Size</t>
-  </si>
-  <si>
-    <t>Epic</t>
   </si>
   <si>
     <t>Item Type</t>
@@ -340,24 +337,15 @@
     <t xml:space="preserve">I can see the free courses and best options for me before buying </t>
   </si>
   <si>
-    <t xml:space="preserve">can access free </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Login </t>
   </si>
   <si>
     <t>I can go to my profile</t>
   </si>
   <si>
-    <t>login validation</t>
-  </si>
-  <si>
     <t xml:space="preserve">my profile is secure </t>
   </si>
   <si>
-    <t>password validation, forget password option</t>
-  </si>
-  <si>
     <t>put secure Password</t>
   </si>
   <si>
@@ -365,9 +353,6 @@
   </si>
   <si>
     <t xml:space="preserve"> able to access password if forgotton/change password</t>
-  </si>
-  <si>
-    <t>able to understand the steps to retrive password</t>
   </si>
   <si>
     <t>Acceptance Criteria (inserta note)</t>
@@ -459,6 +444,129 @@
       </rPr>
       <t xml:space="preserve"> operations are performed on the exposed REST API through the Postman tool on a remote client, the client should get expected results.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">given I'm signing up for the website when I sign up with fulfilling  valid criteria like name and passowrd and click in the sign up button then I will be able to sign up in to the website. </t>
+  </si>
+  <si>
+    <t>given I,m logged in to the website , when I fill in the user name and password field with my valid cridentials and click in the sign in button then I get signed into the website.</t>
+  </si>
+  <si>
+    <t>given I'm outting the password in the password field, when I give my valid password and click in the password button then I'll be able to go to my profile after validation .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see comment if put wrong password </t>
+  </si>
+  <si>
+    <t>given I put wrong password , when the password I give doesn’t match with my saved password then I'll receive a comment saying my password is wrong and then I can click on forget password button to change password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can change password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">given I want to change my password or I forget the password , when I click on forget password button then I'll be able to validate my account by  giving the email id I provided in the website during account creation so that the password change link can be sent in my email and I can change the password by clicking in the link and get in to the website </t>
+  </si>
+  <si>
+    <t>have my own profile</t>
+  </si>
+  <si>
+    <t>I can put my personal details</t>
+  </si>
+  <si>
+    <t>given I want to make my profile , when I give my details in the form like Name, DOB, Standard, Board, Subjects then I am creating my basic profile</t>
+  </si>
+  <si>
+    <t>I can put some further details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given I put further details in my profile for assistance , when I select which subject I'm best in and I'm weak in from the drop down menu then I'll be able to get assistance for the best courses designed for me </t>
+  </si>
+  <si>
+    <t>I can see my courses which I've bought already</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given I'm inside my profile when I buy courses then I can see them inside my profile </t>
+  </si>
+  <si>
+    <t>I can see the videos I bought or got free</t>
+  </si>
+  <si>
+    <t>given I'm inside my profile when I buy videos then I can see them inside my profile</t>
+  </si>
+  <si>
+    <t>given I'm inside my profile when I give tests on one or many subjects or many tests in on esubjects then the results should be there with the test papers in my profile</t>
+  </si>
+  <si>
+    <t>I can see my test papers  of all subjects which ive appeared for and results of all of them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can see the remarks given by the teacher on test papers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">given I'm inside my profile when I will see my checked test papers then I can see the special notes from teachers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">given I'm inside my profile when I will make notes about which area to improve based on teacher's remarks so that I can refer it when I appear for the test next time then I'll be able to make the notes with the subject as a tag or comment </t>
+  </si>
+  <si>
+    <t>I can make notes for teachers to check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given im inside a subject in my profile when I want to keep note for the teacher about any clarification then I can see that </t>
+  </si>
+  <si>
+    <t>I can make notes with date and time mentioned</t>
+  </si>
+  <si>
+    <t>given I'm inside my profile when I'm making notes for the teacher's reference then a date and time should be metioned for further reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given I'm inside my profile , when I'll check the response of my notes then I'll be able to see answers from the teacher's with date and time reference </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can make notes for future reference </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can see the notes from teachers with date and time reference </t>
+  </si>
+  <si>
+    <t xml:space="preserve">given I'm inside my profile when I'm given rating by teachers then I'll be able to see it </t>
+  </si>
+  <si>
+    <t>the private things in my profile are not visible by others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set the access of my profile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can set access public </t>
+  </si>
+  <si>
+    <t>given I'm in my rpofile and I'm adult, when I'll set the access as private then no one can see my profile</t>
+  </si>
+  <si>
+    <t>given I'm in my profile and I'm minor when I'll set the access to parents/gurdian then one of the parents (who is liked with the profile)  or gurdian (who is linked with the profile) can see my profile</t>
+  </si>
+  <si>
+    <t>get a unique identification number</t>
+  </si>
+  <si>
+    <t>only me or my designated gurdian or one of the parent's can access my profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given I want to study thorugh the website when I create my profile with validated criteria then an unique student number will be generated </t>
+  </si>
+  <si>
+    <t>see my rating given by the teachers</t>
+  </si>
+  <si>
+    <t>I can be motivated</t>
+  </si>
+  <si>
+    <t>get rewarded from Anodiam</t>
+  </si>
+  <si>
+    <t>rewaards can be given by Anodiam as a free course or badge which can be shared in social media</t>
   </si>
 </sst>
 </file>
@@ -553,7 +661,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +671,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -659,28 +773,19 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -693,7 +798,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -922,31 +1051,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="1" t="s">
@@ -1016,7 +1145,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1031,751 +1160,981 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="52.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="52.7109375" style="9" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="140.25">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="28">
+        <v>34</v>
+      </c>
+      <c r="I2" s="27">
+        <v>5</v>
+      </c>
+      <c r="J2" s="27">
+        <f t="shared" ref="J2" si="0">IF(H2=0,0,I2/H2)</f>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="51">
+      <c r="A3" s="12">
+        <v>7</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" ref="J3:J10" si="1">IF(H3=0,0,I3/H3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" ht="38.25">
+      <c r="A4" s="12">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23">
+        <v>5</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="38.25">
+      <c r="A5" s="12">
+        <v>9</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23">
+        <v>3</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" s="13" customFormat="1" ht="51">
+      <c r="A6" s="12"/>
+      <c r="B6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="76.5">
+      <c r="A7" s="12">
+        <v>10</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" s="13" customFormat="1" ht="51">
+      <c r="A8" s="12"/>
+      <c r="B8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="38.25">
+      <c r="A9" s="12">
+        <v>11</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23">
+        <v>5</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="51">
+      <c r="A10" s="12">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" s="13" customFormat="1" ht="38.25">
+      <c r="A11" s="12">
+        <v>13</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" s="13" customFormat="1" ht="51">
+      <c r="A12" s="12"/>
+      <c r="B12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="25.5">
+      <c r="A13" s="12">
+        <v>14</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12">
+        <v>3</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" ref="J13:J38" si="2">IF(H13=0,0,I13/H13)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="25.5">
+      <c r="A14" s="12">
         <v>15</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="B14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="140.25">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="C14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="25">
-        <v>34</v>
-      </c>
-      <c r="I2" s="18">
-        <v>5</v>
-      </c>
-      <c r="J2" s="18">
-        <f t="shared" ref="J2:J8" si="0">IF(H2=0,0,I2/H2)</f>
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="14" customFormat="1">
-      <c r="A3" s="18">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18">
-        <v>1</v>
-      </c>
-      <c r="J3" s="18">
-        <f t="shared" ref="J3" si="1">IF(H3=0,0,I3/H3)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="18">
-        <v>2</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18">
-        <v>1</v>
-      </c>
-      <c r="J4" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="51.75" customHeight="1">
-      <c r="A5" s="19">
-        <v>3</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19">
-        <v>1</v>
-      </c>
-      <c r="J5" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="9">
+      <c r="D14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="9">
-        <v>1</v>
-      </c>
-      <c r="J8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" ht="38.25">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="12">
-        <v>5</v>
-      </c>
-      <c r="J9" s="9">
-        <f t="shared" ref="J9:J14" si="2">IF(H9=0,0,I9/H9)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="12">
-        <v>5</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="J14" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="25.5">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="12">
-        <v>3</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="K14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="51">
+      <c r="A15" s="12">
+        <v>16</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12">
+        <v>5</v>
+      </c>
+      <c r="J15" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="38.25">
+      <c r="A16" s="12">
+        <v>17</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" ht="38.25">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="12">
-        <v>4</v>
-      </c>
-      <c r="J12" s="9">
+      <c r="E16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="63.75">
+      <c r="A17" s="12">
+        <v>18</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" ht="25.5">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="12">
-        <v>5</v>
-      </c>
-      <c r="J13" s="9">
+      <c r="E17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12">
+        <v>2</v>
+      </c>
+      <c r="J17" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" ht="38.25">
+      <c r="A18" s="12">
+        <v>19</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="E18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12">
+        <v>3</v>
+      </c>
+      <c r="J18" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" ht="38.25">
+      <c r="A19" s="12">
+        <v>20</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="E19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12">
+        <v>4</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" ht="38.25">
+      <c r="A20" s="12">
+        <v>21</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9">
-        <v>3</v>
-      </c>
-      <c r="J15" s="9">
-        <f t="shared" ref="J15:J25" si="3">IF(H15=0,0,I15/H15)</f>
+      <c r="C20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12">
+        <v>5</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" ht="25.5">
+      <c r="A21" s="12">
+        <v>22</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="E21" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12">
+        <v>1</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" ht="25.5">
+      <c r="A22" s="12">
+        <v>23</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9">
-        <v>4</v>
-      </c>
-      <c r="J16" s="9">
-        <f t="shared" si="3"/>
+      <c r="D22" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12">
+        <v>2</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="9">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9">
-        <v>5</v>
-      </c>
-      <c r="J17" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="9">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9">
-        <v>1</v>
-      </c>
-      <c r="J18" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="9">
-        <v>17</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9">
-        <v>2</v>
-      </c>
-      <c r="J19" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="9">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9">
-        <v>3</v>
-      </c>
-      <c r="J20" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="9">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9">
-        <v>4</v>
-      </c>
-      <c r="J21" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="9">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9">
-        <v>5</v>
-      </c>
-      <c r="J22" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="9">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9">
-        <v>1</v>
-      </c>
-      <c r="J23" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="9">
-        <v>22</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9">
-        <v>2</v>
-      </c>
-      <c r="J24" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="9">
-        <v>23</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9">
-        <v>3</v>
-      </c>
-      <c r="J25" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="9"/>
+      <c r="K22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" s="13" customFormat="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" s="13" customFormat="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" s="13" customFormat="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" s="13" customFormat="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" s="13" customFormat="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" s="13" customFormat="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" s="13" customFormat="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" s="13" customFormat="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" s="13" customFormat="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" s="13" customFormat="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="1:12" s="13" customFormat="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="1:12" s="13" customFormat="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="1:12" s="13" customFormat="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="1:12" s="13" customFormat="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" s="13" customFormat="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="G45" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1">
@@ -1785,23 +2144,23 @@
     </sortState>
   </autoFilter>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="I2:I14">
-      <formula1>"1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="K2:K25">
-      <formula1>"Initial,Scheduled,WIP,Done"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="L9:L25">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="L3:L38">
       <formula1>1</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="I15:I25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="I13:I38">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="I2:I12">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="K2:K38">
+      <formula1>"Initial,Scheduled,WIP,Done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B38">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C38">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ProductBacklog!$A$1:$L$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="140">
   <si>
     <t>Anodiam</t>
   </si>
@@ -332,9 +332,6 @@
   </si>
   <si>
     <t>sign up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can see the free courses and best options for me before buying </t>
   </si>
   <si>
     <t xml:space="preserve"> Login </t>
@@ -446,15 +443,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">given I'm signing up for the website when I sign up with fulfilling  valid criteria like name and passowrd and click in the sign up button then I will be able to sign up in to the website. </t>
-  </si>
-  <si>
     <t>given I,m logged in to the website , when I fill in the user name and password field with my valid cridentials and click in the sign in button then I get signed into the website.</t>
   </si>
   <si>
-    <t>given I'm outting the password in the password field, when I give my valid password and click in the password button then I'll be able to go to my profile after validation .</t>
-  </si>
-  <si>
     <t xml:space="preserve">see comment if put wrong password </t>
   </si>
   <si>
@@ -567,13 +558,199 @@
   </si>
   <si>
     <t>rewaards can be given by Anodiam as a free course or badge which can be shared in social media</t>
+  </si>
+  <si>
+    <t>not download the videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can always see the videos online </t>
+  </si>
+  <si>
+    <t>given I'm watching the video when I want to save or download the video then it should not be downloaded or saved in the local mechine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not take the screenshot </t>
+  </si>
+  <si>
+    <t>I can not keep any document saved</t>
+  </si>
+  <si>
+    <t>given I'm taking screen shot when I'll try to capture then it should not allow to take the screen shot.</t>
+  </si>
+  <si>
+    <t>not copy and paste from the document</t>
+  </si>
+  <si>
+    <t>given I'm copying the text when I'll copy  and paste the text then it wont allow to do so</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>have a secure password</t>
+  </si>
+  <si>
+    <t>access Forget Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> have my own profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> have edit profile option</t>
+  </si>
+  <si>
+    <t>upload videos</t>
+  </si>
+  <si>
+    <t>see the remarks by students</t>
+  </si>
+  <si>
+    <t>check answers of the test papers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> login </t>
+  </si>
+  <si>
+    <t>signup</t>
+  </si>
+  <si>
+    <t>I can register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given I'm signing up for the website when I sign up with fulfilling  valid criteria like name, date of birth, email id and click in the sign up button then I will be able to sign up in to the website. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can register myself and see the free courses and best options for me before buying </t>
+  </si>
+  <si>
+    <t>create password</t>
+  </si>
+  <si>
+    <t>I can get into my profile</t>
+  </si>
+  <si>
+    <t>given I'm creating my password when I'm putting password followed by the instructions like one capital letter, one character, one numner and minimum eight character then the password is created</t>
+  </si>
+  <si>
+    <t>confirm password</t>
+  </si>
+  <si>
+    <t>given I've created password when I'll confirm the password in confirm password firld then I'll be able to access my profile</t>
+  </si>
+  <si>
+    <t>given I'm putting the password in the password field, when I give my valid password and click in the password button then I'll be able to go to my profile after validation .</t>
+  </si>
+  <si>
+    <t>given I want to make my profile , when I give my details in the form like Name, DOB, profession, experience, Subjects that I teach then I am creating my basic profile</t>
+  </si>
+  <si>
+    <t>edit my profile</t>
+  </si>
+  <si>
+    <t>I can change details when needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given I'm editing my profile, when I change/add or alter details in m profile then I'll be able to edit them by clicking on edit profile button </t>
+  </si>
+  <si>
+    <t>I can change/add or alter my personal details if needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given I'm editing my profile, when I change/add or alter details in my profile regarding my personal data like experience, qualification,  then I'll be able to edit them by clicking on edit profile button </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can make the videos available for students</t>
+  </si>
+  <si>
+    <t>have direction to upload course/videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given I upload videos/course meterials, when I'll follow the instructions how to upload a video/course meterial then I'll be able to upload the course/videos </t>
+  </si>
+  <si>
+    <t>get options where to place my videos/course meterials</t>
+  </si>
+  <si>
+    <t>my videos/course meterials can be viewed by the students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given I want to place my video in the website, when I'll choose the proper option like free videos/paid videos then students can see the videos in the proper place </t>
+  </si>
+  <si>
+    <t>see remarks by parents</t>
+  </si>
+  <si>
+    <t>rate students</t>
+  </si>
+  <si>
+    <t>not edit or delete any video or course meterial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">editing option is not with me </t>
+  </si>
+  <si>
+    <t>given I want to delete an uploaded video or course meterial when I try to do this then I should get access denied option</t>
+  </si>
+  <si>
+    <t>videos are visible to the audience</t>
+  </si>
+  <si>
+    <t>given I'm in my profile when I will upload videos after fulfilling criteries likefree or paid and subject check, board check, class check, standard (easy or hard) check then I can upload videos</t>
+  </si>
+  <si>
+    <t>edit videos before publish</t>
+  </si>
+  <si>
+    <t>I can publish only error free videos</t>
+  </si>
+  <si>
+    <t>given I'm uploading my video when I'll check it before clicking publish button then my error checking is done</t>
+  </si>
+  <si>
+    <t>I can answer their remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given I'm in my profile when students will ask any question through remarks then I can view them and able to answer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">see the remarks date and time </t>
+  </si>
+  <si>
+    <t>I can answer accordingly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given I'm viewing the remarks by the students when I click on the remarks then I can see the date and time </t>
+  </si>
+  <si>
+    <t>see a notification in my mail</t>
+  </si>
+  <si>
+    <t>I can understand there is a remark in my profile</t>
+  </si>
+  <si>
+    <t>given I get a remarks notification when I get a remarks from the student with their UIN about asking any question then I get a system generated notification in my email about the remark so that I can keep a track of remarks from individual sudents.</t>
+  </si>
+  <si>
+    <t>given I get a remark by a parent referring the student's UIN when I get a remark from a parent with their student's UIN then I'll receive a system generated notification in my email</t>
+  </si>
+  <si>
+    <t>I can do the correction and give marks</t>
+  </si>
+  <si>
+    <t>given I'm checking a test paper when I'll check test papers for a subject of a class on a standard then I'll be able to correct wrong answers or give marks for right answers</t>
+  </si>
+  <si>
+    <t>students get motivation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given I'm rating a student when I student can satisfy certain criteria like course complication within time frame/ getting "A" grade marks in a subject / completing test after finishing  course within a time frame then the student will be rated stars </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -749,7 +926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -787,17 +964,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -825,12 +992,38 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1031,7 +1224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1041,7 +1234,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
@@ -1050,34 +1243,34 @@
     <col min="5" max="5" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" ht="15">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1094,7 +1287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1109,21 +1302,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1141,18 +1334,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
@@ -1168,7 +1361,7 @@
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25">
+    <row r="1" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -1188,7 +1381,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>21</v>
@@ -1206,51 +1399,51 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="140.25">
-      <c r="A2" s="27">
+    <row r="2" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28" t="s">
+      <c r="C2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="28">
+      <c r="H2" s="24">
         <v>34</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="23">
         <v>5</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="23">
         <f t="shared" ref="J2" si="0">IF(H2=0,0,I2/H2)</f>
         <v>0.14705882352941177</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="27">
+      <c r="L2" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="51">
-      <c r="A3" s="12">
-        <v>7</v>
+    <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="23">
+        <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1260,17 +1453,17 @@
         <v>28</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23">
+        <v>97</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19">
         <v>5</v>
       </c>
       <c r="J3" s="12">
-        <f t="shared" ref="J3:J10" si="1">IF(H3=0,0,I3/H3)</f>
+        <f t="shared" ref="J3:J12" si="1">IF(H3=0,0,I3/H3)</f>
         <v>0</v>
       </c>
       <c r="K3" s="12" t="s">
@@ -1278,12 +1471,12 @@
       </c>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="38.25">
-      <c r="A4" s="12">
-        <v>8</v>
+    <row r="4" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
+        <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>19</v>
@@ -1292,16 +1485,16 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="G4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23">
+        <v>39</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19">
         <v>5</v>
       </c>
       <c r="J4" s="12">
@@ -1313,9 +1506,9 @@
       </c>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="38.25">
-      <c r="A5" s="12">
-        <v>9</v>
+    <row r="5" spans="1:12" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
+        <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>17</v>
@@ -1327,81 +1520,76 @@
         <v>26</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23">
-        <v>3</v>
-      </c>
-      <c r="J5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" s="13" customFormat="1" ht="51">
-      <c r="A6" s="12"/>
-      <c r="B6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>45</v>
+    <row r="6" spans="1:12" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
+        <v>103</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="76.5">
-      <c r="A7" s="12">
-        <v>10</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23">
-        <v>4</v>
+        <v>104</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19">
+        <v>3</v>
       </c>
       <c r="J7" s="12">
-        <f t="shared" si="1"/>
+        <f>IF(H7=0,0,I7/H7)</f>
         <v>0</v>
       </c>
       <c r="K7" s="12" t="s">
@@ -1409,57 +1597,59 @@
       </c>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" s="13" customFormat="1" ht="51">
-      <c r="A8" s="12"/>
-      <c r="B8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="21" t="s">
+    <row r="8" spans="1:12" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="38.25">
-      <c r="A9" s="12">
-        <v>11</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>47</v>
+    <row r="9" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19">
+        <v>4</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" si="1"/>
@@ -1470,193 +1660,188 @@
       </c>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="51">
-      <c r="A10" s="12">
-        <v>12</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="21" t="s">
+    <row r="10" spans="1:12" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="12">
-        <v>1</v>
-      </c>
-      <c r="J10" s="12">
+        <v>71</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19">
+        <v>5</v>
+      </c>
+      <c r="J11" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" s="13" customFormat="1" ht="38.25">
-      <c r="A11" s="12">
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="23">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
         <v>13</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="B14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" s="13" customFormat="1" ht="51">
-      <c r="A12" s="12"/>
-      <c r="B12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" ht="25.5">
-      <c r="A13" s="12">
+      <c r="H14" s="21"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
         <v>14</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12">
-        <v>3</v>
-      </c>
-      <c r="J13" s="12">
-        <f t="shared" ref="J13:J38" si="2">IF(H13=0,0,I13/H13)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" ht="25.5">
-      <c r="A14" s="12">
-        <v>15</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12">
-        <v>4</v>
-      </c>
-      <c r="J14" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" ht="51">
-      <c r="A15" s="12">
-        <v>16</v>
-      </c>
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J15:J25" si="2">IF(H15=0,0,I15/H15)</f>
         <v>0</v>
       </c>
       <c r="K15" s="12" t="s">
@@ -1664,31 +1849,31 @@
       </c>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="38.25">
-      <c r="A16" s="12">
-        <v>17</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="21" t="s">
+    <row r="16" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="2"/>
@@ -1699,31 +1884,31 @@
       </c>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:12" ht="63.75">
-      <c r="A17" s="12">
-        <v>18</v>
+    <row r="17" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="23">
+        <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="2"/>
@@ -1734,31 +1919,31 @@
       </c>
       <c r="L17" s="12"/>
     </row>
-    <row r="18" spans="1:12" ht="38.25">
-      <c r="A18" s="12">
-        <v>19</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="21" t="s">
+    <row r="18" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="2"/>
@@ -1769,31 +1954,31 @@
       </c>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:12" ht="38.25">
-      <c r="A19" s="12">
-        <v>20</v>
+    <row r="19" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
+        <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>63</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" s="12">
         <f t="shared" si="2"/>
@@ -1804,31 +1989,31 @@
       </c>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:12" ht="38.25">
-      <c r="A20" s="12">
-        <v>21</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="21" t="s">
+    <row r="20" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="23">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J20" s="12">
         <f t="shared" si="2"/>
@@ -1839,31 +2024,31 @@
       </c>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="1:12" ht="25.5">
-      <c r="A21" s="12">
-        <v>22</v>
+    <row r="21" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>77</v>
+      <c r="C21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" s="12">
         <f t="shared" si="2"/>
@@ -1874,31 +2059,31 @@
       </c>
       <c r="L21" s="12"/>
     </row>
-    <row r="22" spans="1:12" ht="25.5">
-      <c r="A22" s="12">
-        <v>23</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>80</v>
+    <row r="22" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="2"/>
@@ -1909,258 +2094,742 @@
       </c>
       <c r="L22" s="12"/>
     </row>
-    <row r="23" spans="1:12" s="13" customFormat="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+    <row r="23" spans="1:12" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
     </row>
-    <row r="24" spans="1:12" s="13" customFormat="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+    <row r="24" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="I24" s="12">
+        <v>1</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="L24" s="12"/>
     </row>
-    <row r="25" spans="1:12" s="13" customFormat="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+    <row r="25" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
+        <v>24</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>77</v>
+      </c>
       <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="I25" s="12">
+        <v>2</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="L25" s="12"/>
     </row>
-    <row r="26" spans="1:12" s="13" customFormat="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+    <row r="26" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="23">
+        <v>25</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
     </row>
-    <row r="27" spans="1:12" s="13" customFormat="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+    <row r="27" spans="1:12" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="23">
+        <v>26</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
     </row>
-    <row r="28" spans="1:12" s="13" customFormat="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+    <row r="28" spans="1:12" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="23">
+        <v>27</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
     </row>
-    <row r="29" spans="1:12" s="13" customFormat="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+    <row r="29" spans="1:12" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="23">
+        <v>28</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
     </row>
-    <row r="30" spans="1:12" s="13" customFormat="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+    <row r="30" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
+        <v>29</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="1:12" s="13" customFormat="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+    <row r="31" spans="1:12" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="1:12" s="13" customFormat="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+    <row r="32" spans="1:12" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="23">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="1:12" s="13" customFormat="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+    <row r="33" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="23">
+        <v>32</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
     </row>
-    <row r="34" spans="1:12" s="13" customFormat="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+    <row r="34" spans="1:12" s="13" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="23">
+        <v>33</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
     </row>
-    <row r="35" spans="1:12" s="13" customFormat="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
+    <row r="35" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="23">
+        <v>34</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
     </row>
-    <row r="36" spans="1:12" s="13" customFormat="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+    <row r="36" spans="1:12" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="23">
+        <v>35</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
     </row>
-    <row r="37" spans="1:12" s="13" customFormat="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+    <row r="37" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="23">
+        <v>36</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>113</v>
+      </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
+    <row r="38" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="23">
+        <v>37</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
     </row>
-    <row r="45" spans="1:12">
-      <c r="G45" s="20"/>
+    <row r="39" spans="1:12" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="23">
+        <v>38</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+    </row>
+    <row r="40" spans="1:12" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="23">
+        <v>39</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+    </row>
+    <row r="41" spans="1:12" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="23">
+        <v>40</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="1:12" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="23">
+        <v>41</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="1:12" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="23">
+        <v>42</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="23">
+        <v>43</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+    </row>
+    <row r="45" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="23">
+        <v>44</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="23">
+        <v>45</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+    </row>
+    <row r="47" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="23">
+        <v>46</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G53" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1">
-    <filterColumn colId="6"/>
     <sortState ref="A2:M24">
       <sortCondition ref="J1"/>
     </sortState>
   </autoFilter>
   <dataValidations count="6">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="L3:L38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="I31:I32 I2:I14">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="I33:I46 I15:I30">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="L3:L46">
       <formula1>1</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="I13:I38">
-      <formula1>"1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="I2:I12">
-      <formula1>"1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="K2:K38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="K2:K46">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B46">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C46">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="ProductBacklog" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ProductBacklog!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ProductBacklog!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -209,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="179">
   <si>
     <t>Anodiam</t>
   </si>
@@ -473,9 +474,6 @@
     <t xml:space="preserve">given I put further details in my profile for assistance , when I select which subject I'm best in and I'm weak in from the drop down menu then I'll be able to get assistance for the best courses designed for me </t>
   </si>
   <si>
-    <t>I can see my courses which I've bought already</t>
-  </si>
-  <si>
     <t xml:space="preserve">given I'm inside my profile when I buy courses then I can see them inside my profile </t>
   </si>
   <si>
@@ -515,9 +513,6 @@
     <t xml:space="preserve">given I'm inside my profile , when I'll check the response of my notes then I'll be able to see answers from the teacher's with date and time reference </t>
   </si>
   <si>
-    <t xml:space="preserve">I can make notes for future reference </t>
-  </si>
-  <si>
     <t xml:space="preserve">I can see the notes from teachers with date and time reference </t>
   </si>
   <si>
@@ -744,13 +739,136 @@
   </si>
   <si>
     <t xml:space="preserve">given I'm rating a student when I student can satisfy certain criteria like course complication within time frame/ getting "A" grade marks in a subject / completing test after finishing  course within a time frame then the student will be rated stars </t>
+  </si>
+  <si>
+    <t>Fields of screen</t>
+  </si>
+  <si>
+    <t>User Name --&gt; Text (15),Password Text (15),Confirm Password Text (15)</t>
+  </si>
+  <si>
+    <t>Student Id --&gt; Integer,Student Code --&gt;Unique Auto Generated Text(10),Name (First Name Text (25),Middle Name (25),Last Name (25)),DOB(DD/MM/YYYY),Email Id Text (25)</t>
+  </si>
+  <si>
+    <t>Submit Button,Cancel Button</t>
+  </si>
+  <si>
+    <t>Each student can do login from maximum 5 devices</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Login Name should be unique,given I'm creating my password when I'm putting password followed by the instructions like one capital letter, one character, one numner and minimum eight character then the password is created</t>
+  </si>
+  <si>
+    <t>Student Code,Login name and Password,Submit button and Cancel button,Forget Password Link</t>
+  </si>
+  <si>
+    <t>1)Student Code,Login name and Password should not be blank 2) On hitting Submit button the data will be validated 3) If not matched then generate validation message otherwise user will get inside the system</t>
+  </si>
+  <si>
+    <t>Old Password,New Pass word,Confirm Password,Submit button and Cancel button</t>
+  </si>
+  <si>
+    <t>1)Old Password,New Pass word and Confirm Password should not be blank 2)Old Password should be validated 3)New Password and Confirm Password should match 4)Validation Logic of New Password should be handled</t>
+  </si>
+  <si>
+    <t>Emaild Id,Submit button and Cancel Button.</t>
+  </si>
+  <si>
+    <t>1)Email Id should be validated with Student Code 2) If Email is validated successfully then password is generated and sent to email otherwise error message is generated</t>
+  </si>
+  <si>
+    <t>After hitting Submit button , system will generate unique Student Code which will be mailed student and gurdian.</t>
+  </si>
+  <si>
+    <t>1) Name (First Name,Last Name Must,Middle Name may be optional,Any Name field only should have text characters) 2)DOB Should not be Blank 3)Email Id field validation and should not blank if age is greater or equal to 16 otherwise Email Id of Gurdian is must field</t>
+  </si>
+  <si>
+    <t>Standard,Board and Subjects are must field</t>
+  </si>
+  <si>
+    <t>1) Drop Down Box for Standard 2)Drop Down Box for Board or University 3)Other if nothing matches in drop down for board/University, he/she can write  4) Multiple select for subjects</t>
+  </si>
+  <si>
+    <t>1) Check Box for accessibility</t>
+  </si>
+  <si>
+    <t>purchase a course</t>
+  </si>
+  <si>
+    <t>I can see my courses which I've entered data</t>
+  </si>
+  <si>
+    <t>purchase videos</t>
+  </si>
+  <si>
+    <t>Examination Details</t>
+  </si>
+  <si>
+    <t>Entry of Student Details in Edit Mode</t>
+  </si>
+  <si>
+    <t>Edit screen of Examination Details and result data given by Teacher</t>
+  </si>
+  <si>
+    <t>I can make notes for future reference</t>
+  </si>
+  <si>
+    <t>2 Note Fields. 1) One for Student and 2)One for Teacher</t>
+  </si>
+  <si>
+    <t>Sign Out</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>RoleId</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>RoleCode</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>RoleName</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>UserCode</t>
+  </si>
+  <si>
+    <t>UserFirstName</t>
+  </si>
+  <si>
+    <t>UserMiddleName</t>
+  </si>
+  <si>
+    <t>UserLastName</t>
+  </si>
+  <si>
+    <t>UserGender</t>
+  </si>
+  <si>
+    <t>UserDOB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -838,7 +956,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,6 +972,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,7 +1116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -977,15 +1167,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -993,6 +1177,72 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1004,15 +1254,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1224,7 +1465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1234,7 +1475,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
@@ -1243,34 +1484,34 @@
     <col min="5" max="5" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:5" ht="60">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:5" ht="18">
+      <c r="A3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+    </row>
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1287,7 +1528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1302,21 +1543,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1334,34 +1575,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="52.7109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="52.7109375" style="24" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="38.25">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -1384,60 +1627,68 @@
         <v>35</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="23">
+    <row r="2" spans="1:14" ht="140.25">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24" t="s">
+      <c r="C2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22">
         <v>34</v>
       </c>
-      <c r="I2" s="23">
+      <c r="K2" s="21">
         <v>5</v>
       </c>
-      <c r="J2" s="23">
-        <f t="shared" ref="J2" si="0">IF(H2=0,0,I2/H2)</f>
+      <c r="L2" s="21">
+        <f t="shared" ref="L2" si="0">IF(J2=0,0,K2/J2)</f>
         <v>0.14705882352941177</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="M2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="23">
+      <c r="N2" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="23">
+    <row r="3" spans="1:14" ht="76.5">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1452,27 +1703,33 @@
       <c r="E3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19">
+      <c r="F3" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19">
         <v>5</v>
       </c>
-      <c r="J3" s="12">
-        <f t="shared" ref="J3:J12" si="1">IF(H3=0,0,I3/H3)</f>
+      <c r="L3" s="12">
+        <f t="shared" ref="L3:L12" si="1">IF(J3=0,0,K3/J3)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" ht="63.75">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1487,27 +1744,33 @@
       <c r="E4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19">
+      <c r="H4" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19">
         <v>5</v>
       </c>
-      <c r="J4" s="12">
+      <c r="L4" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" s="15" customFormat="1" ht="51">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -1520,22 +1783,28 @@
         <v>26</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="H5" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:12" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" s="15" customFormat="1" ht="25.5">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1548,22 +1817,24 @@
         <v>26</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="F6" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="51">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -1578,27 +1849,33 @@
       <c r="E7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19">
+      <c r="G7" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19">
         <v>3</v>
       </c>
-      <c r="J7" s="12">
-        <f>IF(H7=0,0,I7/H7)</f>
+      <c r="L7" s="12">
+        <f>IF(J7=0,0,K7/J7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="M7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="13" customFormat="1" ht="51">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -1613,20 +1890,26 @@
       <c r="E8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="H8" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" ht="76.5">
+      <c r="A9" s="21">
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -1641,27 +1924,33 @@
       <c r="E9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19">
+      <c r="H9" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19">
         <v>4</v>
       </c>
-      <c r="J9" s="12">
+      <c r="L9" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="13" customFormat="1" ht="38.25">
+      <c r="A10" s="21">
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -1674,22 +1963,26 @@
         <v>26</v>
       </c>
       <c r="E10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="H10" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="63.75">
+      <c r="A11" s="21">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -1704,27 +1997,33 @@
       <c r="E11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19">
+      <c r="H11" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19">
         <v>5</v>
       </c>
-      <c r="J11" s="12">
+      <c r="L11" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="M11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="51">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -1739,27 +2038,29 @@
       <c r="E12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="12">
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="12">
         <v>1</v>
       </c>
-      <c r="J12" s="12">
+      <c r="L12" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="M12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" s="13" customFormat="1" ht="38.25">
+      <c r="A13" s="21">
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -1772,22 +2073,26 @@
         <v>26</v>
       </c>
       <c r="E13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="H13" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" s="13" customFormat="1" ht="51">
+      <c r="A14" s="21">
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -1800,431 +2105,413 @@
         <v>26</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" s="24" customFormat="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" s="24" customFormat="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" s="24" customFormat="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" ht="25.5">
+      <c r="A18" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="17" t="s">
+      <c r="B18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E18" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F18" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="H18" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" s="41"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12">
+        <v>3</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" ref="L18:L28" si="2">IF(J18=0,0,K18/J18)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" ht="25.5">
+      <c r="A19" s="21">
+        <v>15</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12">
-        <v>3</v>
-      </c>
-      <c r="J15" s="12">
-        <f t="shared" ref="J15:J25" si="2">IF(H15=0,0,I15/H15)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
-        <v>15</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="14" t="s">
+      <c r="G19" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12">
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12">
         <v>4</v>
       </c>
-      <c r="J16" s="12">
+      <c r="L19" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="M19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" ht="51">
+      <c r="A20" s="21">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="17" t="s">
+      <c r="B20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="14" t="s">
+      <c r="F20" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12">
+      <c r="G20" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12">
         <v>5</v>
       </c>
-      <c r="J17" s="12">
+      <c r="L20" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="M20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
-        <v>17</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="17" t="s">
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" ht="38.25">
+      <c r="A21" s="21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F21" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12">
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12">
         <v>1</v>
       </c>
-      <c r="J18" s="12">
+      <c r="L21" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="M21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" ht="51">
+      <c r="A22" s="21">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="17" t="s">
+      <c r="B22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12">
+      <c r="F22" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12">
         <v>2</v>
       </c>
-      <c r="J19" s="12">
+      <c r="L22" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="M22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
-        <v>19</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="17" t="s">
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" ht="38.25">
+      <c r="A23" s="21">
+        <v>19</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F23" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12">
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12">
         <v>3</v>
       </c>
-      <c r="J20" s="12">
+      <c r="L23" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="M23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" ht="38.25">
+      <c r="A24" s="21">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="17" t="s">
+      <c r="B24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F24" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12">
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12">
         <v>4</v>
       </c>
-      <c r="J21" s="12">
+      <c r="L24" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="M24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="38.25">
+      <c r="A25" s="21">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="B25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E25" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="14" t="s">
+      <c r="F25" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12">
+      <c r="G25" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12">
         <v>5</v>
       </c>
-      <c r="J22" s="12">
+      <c r="L25" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="M25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" s="15" customFormat="1" ht="38.25">
+      <c r="A26" s="21">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
-        <v>23</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12">
-        <v>1</v>
-      </c>
-      <c r="J24" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="23">
-        <v>24</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12">
-        <v>2</v>
-      </c>
-      <c r="J25" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="23">
-        <v>25</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="17" t="s">
+      <c r="B26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+      <c r="E26" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
-        <v>26</v>
-      </c>
-      <c r="B27" s="17" t="s">
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="25.5">
+      <c r="A27" s="21">
+        <v>23</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="17" t="s">
@@ -2234,23 +2521,32 @@
         <v>26</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
       <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-    </row>
-    <row r="28" spans="1:12" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="23">
-        <v>27</v>
+      <c r="K27" s="12">
+        <v>1</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" ht="25.5">
+      <c r="A28" s="21">
+        <v>24</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>17</v>
@@ -2261,24 +2557,33 @@
       <c r="D28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+      <c r="E28" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="23">
-        <v>28</v>
+      <c r="K28" s="12">
+        <v>2</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" s="13" customFormat="1" ht="38.25">
+      <c r="A29" s="21">
+        <v>25</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>17</v>
@@ -2289,24 +2594,26 @@
       <c r="D29" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="E29" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="35"/>
+      <c r="I29" s="14"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="23">
-        <v>29</v>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" s="13" customFormat="1" ht="25.5">
+      <c r="A30" s="21">
+        <v>26</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>17</v>
@@ -2315,82 +2622,78 @@
         <v>19</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="35"/>
+      <c r="I30" s="14"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
-    </row>
-    <row r="31" spans="1:12" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
-        <v>30</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" s="13" customFormat="1" ht="25.5">
+      <c r="A31" s="21">
+        <v>27</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="14"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
-    </row>
-    <row r="32" spans="1:12" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
-        <v>31</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" s="24" customFormat="1">
+      <c r="A32" s="21"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="14"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
-    </row>
-    <row r="33" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="23">
-        <v>32</v>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" s="15" customFormat="1" ht="51">
+      <c r="A33" s="21">
+        <v>28</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>17</v>
@@ -2399,26 +2702,28 @@
         <v>19</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="44"/>
+      <c r="I33" s="14"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
-    </row>
-    <row r="34" spans="1:12" s="13" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="23">
-        <v>33</v>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" s="13" customFormat="1" ht="38.25">
+      <c r="A34" s="21">
+        <v>29</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>17</v>
@@ -2427,82 +2732,88 @@
         <v>19</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>34</v>
+        <v>84</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
-    </row>
-    <row r="35" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="23">
-        <v>34</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="17" t="s">
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" s="13" customFormat="1" ht="51">
+      <c r="A35" s="21">
+        <v>30</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>45</v>
+        <v>84</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+        <v>99</v>
+      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
       <c r="L35" s="12"/>
-    </row>
-    <row r="36" spans="1:12" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A36" s="23">
-        <v>35</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="17" t="s">
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" s="13" customFormat="1" ht="25.5">
+      <c r="A36" s="21">
+        <v>31</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>109</v>
+        <v>84</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
+        <v>101</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
       <c r="L36" s="12"/>
-    </row>
-    <row r="37" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="23">
-        <v>36</v>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" s="13" customFormat="1" ht="38.25">
+      <c r="A37" s="21">
+        <v>32</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>17</v>
@@ -2511,26 +2822,28 @@
         <v>19</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>111</v>
+        <v>84</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
+        <v>102</v>
+      </c>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
-    </row>
-    <row r="38" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="23">
-        <v>37</v>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" s="13" customFormat="1" ht="76.5">
+      <c r="A38" s="21">
+        <v>33</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>17</v>
@@ -2539,26 +2852,28 @@
         <v>19</v>
       </c>
       <c r="D38" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>114</v>
-      </c>
       <c r="F38" s="14" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-    </row>
-    <row r="39" spans="1:12" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="23">
-        <v>38</v>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" s="13" customFormat="1" ht="38.25">
+      <c r="A39" s="21">
+        <v>34</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>17</v>
@@ -2567,26 +2882,28 @@
         <v>19</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+        <v>103</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
-    </row>
-    <row r="40" spans="1:12" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="23">
-        <v>39</v>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" s="13" customFormat="1" ht="51">
+      <c r="A40" s="21">
+        <v>35</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>17</v>
@@ -2595,26 +2912,28 @@
         <v>19</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
-    </row>
-    <row r="41" spans="1:12" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="23">
-        <v>40</v>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" s="13" customFormat="1" ht="38.25">
+      <c r="A41" s="21">
+        <v>36</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>17</v>
@@ -2623,26 +2942,28 @@
         <v>19</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>127</v>
+        <v>84</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
+        <v>111</v>
+      </c>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
-    </row>
-    <row r="42" spans="1:12" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="23">
-        <v>41</v>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" s="13" customFormat="1" ht="38.25">
+      <c r="A42" s="21">
+        <v>37</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>17</v>
@@ -2651,26 +2972,28 @@
         <v>19</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>130</v>
+        <v>84</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
-    </row>
-    <row r="43" spans="1:12" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="23">
-        <v>42</v>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" s="13" customFormat="1" ht="51">
+      <c r="A43" s="21">
+        <v>38</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>17</v>
@@ -2679,26 +3002,28 @@
         <v>19</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
+        <v>121</v>
+      </c>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
-    </row>
-    <row r="44" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="23">
-        <v>43</v>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" s="13" customFormat="1" ht="25.5">
+      <c r="A44" s="21">
+        <v>39</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>17</v>
@@ -2707,26 +3032,28 @@
         <v>19</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>130</v>
+        <v>122</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
+        <v>124</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
-    </row>
-    <row r="45" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="23">
-        <v>44</v>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14" s="13" customFormat="1" ht="25.5">
+      <c r="A45" s="21">
+        <v>40</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>17</v>
@@ -2735,26 +3062,28 @@
         <v>19</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>136</v>
+        <v>90</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
-    </row>
-    <row r="46" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="23">
-        <v>45</v>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+    </row>
+    <row r="46" spans="1:14" s="23" customFormat="1" ht="25.5">
+      <c r="A46" s="21">
+        <v>41</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>17</v>
@@ -2763,73 +3092,201 @@
         <v>19</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
-    </row>
-    <row r="47" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="23">
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+    </row>
+    <row r="47" spans="1:14" s="23" customFormat="1" ht="63.75">
+      <c r="A47" s="21">
+        <v>42</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:14" ht="38.25">
+      <c r="A48" s="21">
+        <v>43</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+    </row>
+    <row r="49" spans="1:14" ht="38.25">
+      <c r="A49" s="21">
+        <v>44</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+    </row>
+    <row r="50" spans="1:14" ht="63.75">
+      <c r="A50" s="21">
+        <v>45</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+    </row>
+    <row r="51" spans="1:14" ht="25.5">
+      <c r="A51" s="21">
         <v>46</v>
       </c>
-      <c r="B47" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="32" t="s">
+      <c r="B51" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="F47" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="G47" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G53" s="16"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1">
-    <sortState ref="A2:M24">
-      <sortCondition ref="J1"/>
+  <autoFilter ref="A1:N1">
+    <filterColumn colId="7"/>
+    <filterColumn colId="8"/>
+    <sortState ref="A2:O24">
+      <sortCondition ref="L1"/>
     </sortState>
   </autoFilter>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="I31:I32 I2:I14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="K35:K36 K2:K17">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="I33:I46 I15:I30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="K37:K50 K18:K34">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="L3:L46">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="N3:N50">
       <formula1>1</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="K2:K46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="M2:M50">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B50">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C50">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2837,4 +3294,125 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="E6" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="E7" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="E8" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="E9" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="181">
   <si>
     <t>Anodiam</t>
   </si>
@@ -862,6 +862,12 @@
   </si>
   <si>
     <t>UserDOB</t>
+  </si>
+  <si>
+    <t>Service Registry</t>
+  </si>
+  <si>
+    <t>Devops Pipeline</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1243,6 +1249,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1254,17 +1261,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1485,31 +1496,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="1" t="s">
@@ -1579,11 +1590,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75"/>
@@ -1687,155 +1698,129 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="76.5">
-      <c r="A3" s="21">
+    <row r="3" spans="1:14" s="48" customFormat="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+    </row>
+    <row r="4" spans="1:14" s="48" customFormat="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+    </row>
+    <row r="5" spans="1:14" ht="76.5">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="B5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F5" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G5" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H5" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I5" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19">
+      <c r="J5" s="18"/>
+      <c r="K5" s="19">
         <v>5</v>
       </c>
-      <c r="L3" s="12">
-        <f t="shared" ref="L3:L12" si="1">IF(J3=0,0,K3/J3)</f>
+      <c r="L5" s="12">
+        <f t="shared" ref="L5:L14" si="1">IF(J5=0,0,K5/J5)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" ht="63.75">
-      <c r="A4" s="21">
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="63.75">
+      <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="B6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H6" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I6" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19">
+      <c r="J6" s="18"/>
+      <c r="K6" s="19">
         <v>5</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L6" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" s="15" customFormat="1" ht="51">
-      <c r="A5" s="21">
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="15" customFormat="1" ht="51">
+      <c r="A7" s="21">
         <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" s="15" customFormat="1" ht="25.5">
-      <c r="A6" s="21">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" ht="51">
-      <c r="A7" s="21">
-        <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>17</v>
@@ -1847,101 +1832,90 @@
         <v>26</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>146</v>
+        <v>97</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>142</v>
       </c>
       <c r="J7" s="18"/>
-      <c r="K7" s="19">
-        <v>3</v>
-      </c>
-      <c r="L7" s="12">
-        <f>IF(J7=0,0,K7/J7)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:14" s="13" customFormat="1" ht="51">
+    <row r="8" spans="1:14" s="15" customFormat="1" ht="25.5">
       <c r="A8" s="21">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>148</v>
-      </c>
+      <c r="E8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="18"/>
       <c r="K8" s="19"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="76.5">
+    <row r="9" spans="1:14" ht="51">
       <c r="A9" s="21">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>150</v>
+        <v>32</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>146</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" s="12">
-        <f t="shared" si="1"/>
+        <f>IF(J9=0,0,K9/J9)</f>
         <v>0</v>
       </c>
       <c r="M9" s="12" t="s">
@@ -1949,9 +1923,9 @@
       </c>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" s="13" customFormat="1" ht="38.25">
+    <row r="10" spans="1:14" s="13" customFormat="1" ht="51">
       <c r="A10" s="21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>17</v>
@@ -1963,55 +1937,57 @@
         <v>26</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="I10" s="31"/>
+        <v>40</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>148</v>
+      </c>
       <c r="J10" s="18"/>
       <c r="K10" s="19"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="1:14" ht="63.75">
+    <row r="11" spans="1:14" ht="76.5">
       <c r="A11" s="21">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>153</v>
+      <c r="E11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11" s="12">
         <f t="shared" si="1"/>
@@ -2022,135 +1998,172 @@
       </c>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" spans="1:14" ht="51">
+    <row r="12" spans="1:14" s="13" customFormat="1" ht="38.25">
       <c r="A12" s="21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="63.75">
+      <c r="A13" s="21">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="12">
-        <v>1</v>
-      </c>
-      <c r="L12" s="12">
+      <c r="F13" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19">
+        <v>5</v>
+      </c>
+      <c r="L13" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" s="13" customFormat="1" ht="38.25">
-      <c r="A13" s="21">
-        <v>12</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="1:14" s="13" customFormat="1" ht="51">
+    <row r="14" spans="1:14" ht="51">
       <c r="A14" s="21">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="12">
+        <v>1</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" s="13" customFormat="1" ht="38.25">
+      <c r="A15" s="21">
+        <v>12</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" s="24" customFormat="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="F15" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="39"/>
       <c r="J15" s="20"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="1:14" s="24" customFormat="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+    <row r="16" spans="1:14" s="13" customFormat="1" ht="51">
+      <c r="A16" s="21">
+        <v>13</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="E16" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+        <v>65</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="20"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
@@ -2163,7 +2176,7 @@
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
@@ -2175,114 +2188,74 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="1:14" ht="25.5">
-      <c r="A18" s="21">
+    <row r="18" spans="1:14" s="24" customFormat="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" s="24" customFormat="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" ht="25.5">
+      <c r="A20" s="21">
         <v>14</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12">
-        <v>3</v>
-      </c>
-      <c r="L18" s="12">
-        <f t="shared" ref="L18:L28" si="2">IF(J18=0,0,K18/J18)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" ht="25.5">
-      <c r="A19" s="21">
-        <v>15</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12">
-        <v>4</v>
-      </c>
-      <c r="L19" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:14" ht="51">
-      <c r="A20" s="21">
-        <v>16</v>
-      </c>
       <c r="B20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="I20" s="43"/>
+      <c r="F20" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" s="41"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L20:L30" si="2">IF(J20=0,0,K20/J20)</f>
         <v>0</v>
       </c>
       <c r="M20" s="12" t="s">
@@ -2290,33 +2263,33 @@
       </c>
       <c r="N20" s="12"/>
     </row>
-    <row r="21" spans="1:14" ht="38.25">
+    <row r="21" spans="1:14" ht="25.5">
       <c r="A21" s="21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
+      <c r="F21" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L21" s="12">
         <f t="shared" si="2"/>
@@ -2329,12 +2302,12 @@
     </row>
     <row r="22" spans="1:14" ht="51">
       <c r="A22" s="21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
@@ -2343,19 +2316,19 @@
       <c r="E22" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="I22" s="31"/>
+      <c r="F22" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22" s="43"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L22" s="12">
         <f t="shared" si="2"/>
@@ -2368,12 +2341,12 @@
     </row>
     <row r="23" spans="1:14" ht="38.25">
       <c r="A23" s="21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="17" t="s">
@@ -2382,17 +2355,17 @@
       <c r="E23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
+      <c r="F23" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23" s="12">
         <f t="shared" si="2"/>
@@ -2403,14 +2376,14 @@
       </c>
       <c r="N23" s="12"/>
     </row>
-    <row r="24" spans="1:14" ht="38.25">
+    <row r="24" spans="1:14" ht="51">
       <c r="A24" s="21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -2420,16 +2393,18 @@
         <v>44</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>163</v>
+      </c>
       <c r="I24" s="31"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L24" s="12">
         <f t="shared" si="2"/>
@@ -2442,12 +2417,12 @@
     </row>
     <row r="25" spans="1:14" ht="38.25">
       <c r="A25" s="21">
-        <v>21</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
@@ -2457,16 +2432,16 @@
         <v>44</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L25" s="12">
         <f t="shared" si="2"/>
@@ -2477,9 +2452,9 @@
       </c>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" s="15" customFormat="1" ht="38.25">
+    <row r="26" spans="1:14" ht="38.25">
       <c r="A26" s="21">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>17</v>
@@ -2491,49 +2466,56 @@
         <v>26</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="K26" s="12">
+        <v>4</v>
+      </c>
+      <c r="L26" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="N26" s="12"/>
     </row>
-    <row r="27" spans="1:14" ht="25.5">
+    <row r="27" spans="1:14" ht="38.25">
       <c r="A27" s="21">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
+      <c r="E27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L27" s="12">
         <f t="shared" si="2"/>
@@ -2544,76 +2526,76 @@
       </c>
       <c r="N27" s="12"/>
     </row>
-    <row r="28" spans="1:14" ht="25.5">
+    <row r="28" spans="1:14" s="15" customFormat="1" ht="38.25">
       <c r="A28" s="21">
-        <v>24</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="46" t="s">
+      <c r="E28" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" ht="25.5">
+      <c r="A29" s="21">
+        <v>23</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12">
-        <v>2</v>
-      </c>
-      <c r="L28" s="12">
+      <c r="G29" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12">
+        <v>1</v>
+      </c>
+      <c r="L29" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="M29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" s="13" customFormat="1" ht="38.25">
-      <c r="A29" s="21">
-        <v>25</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
       <c r="N29" s="12"/>
     </row>
-    <row r="30" spans="1:14" s="13" customFormat="1" ht="25.5">
+    <row r="30" spans="1:14" ht="25.5">
       <c r="A30" s="21">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>17</v>
@@ -2625,25 +2607,32 @@
         <v>26</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
+      <c r="K30" s="12">
+        <v>2</v>
+      </c>
+      <c r="L30" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="N30" s="12"/>
     </row>
-    <row r="31" spans="1:14" s="13" customFormat="1" ht="25.5">
+    <row r="31" spans="1:14" s="13" customFormat="1" ht="38.25">
       <c r="A31" s="21">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>17</v>
@@ -2654,14 +2643,14 @@
       <c r="D31" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>82</v>
+      <c r="E31" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H31" s="35"/>
       <c r="I31" s="14"/>
@@ -2671,19 +2660,29 @@
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
     </row>
-    <row r="32" spans="1:14" s="24" customFormat="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+    <row r="32" spans="1:14" s="13" customFormat="1" ht="25.5">
+      <c r="A32" s="21">
+        <v>26</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="D32" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
+      <c r="E32" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="35"/>
       <c r="I32" s="14"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
@@ -2691,9 +2690,9 @@
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
     </row>
-    <row r="33" spans="1:14" s="15" customFormat="1" ht="51">
+    <row r="33" spans="1:14" s="13" customFormat="1" ht="25.5">
       <c r="A33" s="21">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>17</v>
@@ -2702,18 +2701,18 @@
         <v>19</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="H33" s="44"/>
+        <v>82</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="35"/>
       <c r="I33" s="14"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
@@ -2721,29 +2720,19 @@
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
     </row>
-    <row r="34" spans="1:14" s="13" customFormat="1" ht="38.25">
-      <c r="A34" s="21">
-        <v>29</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>19</v>
-      </c>
+    <row r="34" spans="1:14" s="24" customFormat="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="17" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="14"/>
+        <v>164</v>
+      </c>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
       <c r="I34" s="14"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
@@ -2751,129 +2740,129 @@
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
     </row>
-    <row r="35" spans="1:14" s="13" customFormat="1" ht="51">
+    <row r="35" spans="1:14" s="15" customFormat="1" ht="51">
       <c r="A35" s="21">
-        <v>30</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H35" s="14"/>
+      <c r="E35" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="44"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="19"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
     </row>
-    <row r="36" spans="1:14" s="13" customFormat="1" ht="25.5">
+    <row r="36" spans="1:14" s="13" customFormat="1" ht="38.25">
       <c r="A36" s="21">
-        <v>31</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>100</v>
+      <c r="E36" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="19"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
     </row>
-    <row r="37" spans="1:14" s="13" customFormat="1" ht="38.25">
+    <row r="37" spans="1:14" s="13" customFormat="1" ht="51">
       <c r="A37" s="21">
-        <v>32</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>85</v>
+      <c r="E37" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
     </row>
-    <row r="38" spans="1:14" s="13" customFormat="1" ht="76.5">
+    <row r="38" spans="1:14" s="13" customFormat="1" ht="25.5">
       <c r="A38" s="21">
-        <v>33</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>34</v>
+      <c r="E38" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
     </row>
     <row r="39" spans="1:14" s="13" customFormat="1" ht="38.25">
       <c r="A39" s="21">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>17</v>
@@ -2885,13 +2874,13 @@
         <v>84</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>45</v>
+        <v>85</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -2901,9 +2890,9 @@
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
     </row>
-    <row r="40" spans="1:14" s="13" customFormat="1" ht="51">
+    <row r="40" spans="1:14" s="13" customFormat="1" ht="76.5">
       <c r="A40" s="21">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>17</v>
@@ -2915,13 +2904,13 @@
         <v>84</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -2933,7 +2922,7 @@
     </row>
     <row r="41" spans="1:14" s="13" customFormat="1" ht="38.25">
       <c r="A41" s="21">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>17</v>
@@ -2944,14 +2933,14 @@
       <c r="D41" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>110</v>
+      <c r="E41" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -2961,9 +2950,9 @@
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
     </row>
-    <row r="42" spans="1:14" s="13" customFormat="1" ht="38.25">
+    <row r="42" spans="1:14" s="13" customFormat="1" ht="51">
       <c r="A42" s="21">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>17</v>
@@ -2974,14 +2963,14 @@
       <c r="D42" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>112</v>
+      <c r="E42" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2991,9 +2980,9 @@
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
     </row>
-    <row r="43" spans="1:14" s="13" customFormat="1" ht="51">
+    <row r="43" spans="1:14" s="13" customFormat="1" ht="38.25">
       <c r="A43" s="21">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>17</v>
@@ -3004,14 +2993,14 @@
       <c r="D43" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>89</v>
+      <c r="E43" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -3021,9 +3010,9 @@
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
     </row>
-    <row r="44" spans="1:14" s="13" customFormat="1" ht="25.5">
+    <row r="44" spans="1:14" s="13" customFormat="1" ht="38.25">
       <c r="A44" s="21">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>17</v>
@@ -3034,14 +3023,14 @@
       <c r="D44" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>122</v>
+      <c r="E44" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -3051,9 +3040,9 @@
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
     </row>
-    <row r="45" spans="1:14" s="13" customFormat="1" ht="25.5">
+    <row r="45" spans="1:14" s="13" customFormat="1" ht="51">
       <c r="A45" s="21">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>17</v>
@@ -3065,13 +3054,13 @@
         <v>84</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>125</v>
+        <v>89</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -3081,9 +3070,9 @@
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
     </row>
-    <row r="46" spans="1:14" s="23" customFormat="1" ht="25.5">
+    <row r="46" spans="1:14" s="13" customFormat="1" ht="25.5">
       <c r="A46" s="21">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>17</v>
@@ -3092,16 +3081,16 @@
         <v>19</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -3111,9 +3100,9 @@
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
     </row>
-    <row r="47" spans="1:14" s="23" customFormat="1" ht="63.75">
+    <row r="47" spans="1:14" s="13" customFormat="1" ht="25.5">
       <c r="A47" s="21">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>17</v>
@@ -3122,16 +3111,16 @@
         <v>19</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>131</v>
+        <v>90</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
@@ -3141,9 +3130,9 @@
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
     </row>
-    <row r="48" spans="1:14" ht="38.25">
+    <row r="48" spans="1:14" s="23" customFormat="1" ht="25.5">
       <c r="A48" s="21">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>17</v>
@@ -3152,16 +3141,16 @@
         <v>19</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>128</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
@@ -3171,9 +3160,9 @@
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
     </row>
-    <row r="49" spans="1:14" ht="38.25">
+    <row r="49" spans="1:14" s="23" customFormat="1" ht="63.75">
       <c r="A49" s="21">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>17</v>
@@ -3182,16 +3171,16 @@
         <v>19</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -3201,9 +3190,9 @@
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
     </row>
-    <row r="50" spans="1:14" ht="63.75">
+    <row r="50" spans="1:14" ht="38.25">
       <c r="A50" s="21">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>17</v>
@@ -3214,52 +3203,112 @@
       <c r="D50" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
+      <c r="E50" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
     </row>
-    <row r="51" spans="1:14" ht="25.5">
+    <row r="51" spans="1:14" ht="38.25">
       <c r="A51" s="21">
+        <v>44</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+    </row>
+    <row r="52" spans="1:14" ht="63.75">
+      <c r="A52" s="21">
+        <v>45</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+    </row>
+    <row r="53" spans="1:14" ht="25.5">
+      <c r="A53" s="21">
         <v>46</v>
       </c>
-      <c r="B51" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="25" t="s">
+      <c r="B53" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E53" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F53" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="G51" s="27" t="s">
+      <c r="G53" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N1">
@@ -3270,23 +3319,23 @@
     </sortState>
   </autoFilter>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="K35:K36 K2:K17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="K37:K38 K2:K19">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="K37:K50 K18:K34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="K39:K52 K20:K36">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="N3:N50">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="N5:N52">
       <formula1>1</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="M2:M50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="M2:M52">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B52">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C52">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3300,7 +3349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ProductBacklog!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="196">
   <si>
     <t>Anodiam</t>
   </si>
@@ -741,9 +741,6 @@
     <t xml:space="preserve">given I'm rating a student when I student can satisfy certain criteria like course complication within time frame/ getting "A" grade marks in a subject / completing test after finishing  course within a time frame then the student will be rated stars </t>
   </si>
   <si>
-    <t>Fields of screen</t>
-  </si>
-  <si>
     <t>User Name --&gt; Text (15),Password Text (15),Confirm Password Text (15)</t>
   </si>
   <si>
@@ -868,13 +865,118 @@
   </si>
   <si>
     <t>Devops Pipeline</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Unsigned User</t>
+  </si>
+  <si>
+    <t>User preference and predicting the most suitable courses for individual user in their home screen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>when</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I type anodiam.com on a web browser, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see the Anodiam home page: containing image links to 5 best sold courses and a valid link to Sign up to anodiam.com and another link to log in.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sign up to anodiam.com</t>
+  </si>
+  <si>
+    <t>I can register myself into anodiam.com</t>
+  </si>
+  <si>
+    <t>Given I am an unsigned user, when I visit the Sign up link</t>
+  </si>
+  <si>
+    <t>I can view and image links to 5 best sold courses and a link to Sign up and another link to log in.</t>
+  </si>
+  <si>
+    <t>visit the home page of Anodiam.com</t>
+  </si>
+  <si>
+    <t>Notes / References</t>
+  </si>
+  <si>
+    <t>Log in to Anodiam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D:/Anodiam/Docs/ProjectExecution/BA/Wireframes/001HomeScreen.jpg
+</t>
+  </si>
+  <si>
+    <t>signed up but unloggedin User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can view the full website </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given I'm an unloggedin user, when I'll give my login details I'll be able to login </t>
+  </si>
+  <si>
+    <t>D:\Anodiam\Docs\ProjectExecution\BA\Wireframes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -958,6 +1060,20 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1119,10 +1235,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1147,9 +1267,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1194,9 +1311,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1250,6 +1364,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1261,17 +1385,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1496,31 +1628,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="1" t="s">
@@ -1590,24 +1722,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="52.7109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="35.5703125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="52.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="23" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" style="23" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1615,1700 +1747,1846 @@
     <col min="14" max="14" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" s="57" customFormat="1" ht="60.75" customHeight="1">
+      <c r="A1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="140.25">
-      <c r="A2" s="21">
+    <row r="2" spans="1:14" ht="144.75" customHeight="1">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21">
         <v>34</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="20">
         <v>5</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="20">
         <f t="shared" ref="L2" si="0">IF(J2=0,0,K2/J2)</f>
         <v>0.14705882352941177</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="48" customFormat="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="55" t="s">
+    <row r="3" spans="1:14" s="46" customFormat="1">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56" t="s">
+      <c r="C3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+    </row>
+    <row r="4" spans="1:14" s="46" customFormat="1">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-    </row>
-    <row r="4" spans="1:14" s="48" customFormat="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+    </row>
+    <row r="5" spans="1:14" s="47" customFormat="1" ht="63.75">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50">
+        <v>13</v>
+      </c>
+      <c r="K5" s="58">
+        <v>5</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" ref="L5:L17" si="1">IF(J5=0,0,K5/J5)</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+    </row>
+    <row r="6" spans="1:14" s="47" customFormat="1" ht="51">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+    </row>
+    <row r="7" spans="1:14" s="47" customFormat="1" ht="25.5">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+    </row>
+    <row r="8" spans="1:14" ht="102">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-    </row>
-    <row r="5" spans="1:14" ht="76.5">
-      <c r="A5" s="21">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F8" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G8" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19">
+      <c r="H8" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18">
         <v>5</v>
       </c>
-      <c r="L5" s="12">
-        <f t="shared" ref="L5:L14" si="1">IF(J5=0,0,K5/J5)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" ht="63.75">
-      <c r="A6" s="21">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19">
-        <v>5</v>
-      </c>
-      <c r="L6" s="12">
+      <c r="L8" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" s="15" customFormat="1" ht="51">
-      <c r="A7" s="21">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="M8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="76.5">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" s="15" customFormat="1" ht="25.5">
-      <c r="A8" s="21">
+      <c r="E9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" ht="51">
-      <c r="A9" s="21">
-        <v>6</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19">
-        <v>3</v>
-      </c>
-      <c r="L9" s="12">
-        <f>IF(J9=0,0,K9/J9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" s="13" customFormat="1" ht="51">
-      <c r="A10" s="21">
-        <v>7</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" ht="76.5">
-      <c r="A11" s="21">
-        <v>8</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19">
-        <v>4</v>
-      </c>
-      <c r="L11" s="12">
+      <c r="L9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" s="13" customFormat="1" ht="38.25">
-      <c r="A12" s="21">
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" s="14" customFormat="1" ht="51">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="B10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>70</v>
+      <c r="E10" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" s="14" customFormat="1" ht="25.5">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" ht="63.75">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>31</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" ht="63.75">
-      <c r="A13" s="21">
-        <v>10</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18">
+        <v>3</v>
+      </c>
+      <c r="L12" s="11">
+        <f>IF(J12=0,0,K12/J12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" s="12" customFormat="1" ht="76.5">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19">
-        <v>5</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="E13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" ht="76.5">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18">
+        <v>4</v>
+      </c>
+      <c r="L14" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" ht="51">
-      <c r="A14" s="21">
-        <v>11</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="17" t="s">
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" s="12" customFormat="1" ht="51">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" ht="102">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="12">
-        <v>1</v>
-      </c>
-      <c r="L14" s="12">
+      <c r="F16" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18">
+        <v>5</v>
+      </c>
+      <c r="L16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" s="13" customFormat="1" ht="38.25">
-      <c r="A15" s="21">
-        <v>12</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="17" t="s">
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" ht="51">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="11">
+        <v>1</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" s="12" customFormat="1" ht="38.25">
+      <c r="A18" s="20">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F18" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G18" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H18" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" s="12" customFormat="1" ht="51">
+      <c r="A19" s="20">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" s="23" customFormat="1">
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" s="13" customFormat="1" ht="51">
-      <c r="A16" s="21">
-        <v>13</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" s="23" customFormat="1">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" s="23" customFormat="1">
+      <c r="A22" s="20">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" ht="25.5">
+      <c r="A23" s="20">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:14" s="24" customFormat="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="14" t="s">
+      <c r="E23" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:14" s="24" customFormat="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" s="24" customFormat="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="14" t="s">
+      <c r="G23" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:14" ht="25.5">
-      <c r="A20" s="21">
-        <v>14</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="17" t="s">
+      <c r="I23" s="39"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11">
+        <v>3</v>
+      </c>
+      <c r="L23" s="11">
+        <f t="shared" ref="L23:L33" si="2">IF(J23=0,0,K23/J23)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" ht="25.5">
+      <c r="A24" s="20">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E24" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12">
-        <v>3</v>
-      </c>
-      <c r="L20" s="12">
-        <f t="shared" ref="L20:L30" si="2">IF(J20=0,0,K20/J20)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="1:14" ht="25.5">
-      <c r="A21" s="21">
-        <v>15</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="41" t="s">
+      <c r="F24" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G24" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12">
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11">
         <v>4</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L24" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="12"/>
-    </row>
-    <row r="22" spans="1:14" ht="51">
-      <c r="A22" s="21">
-        <v>16</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" ht="63.75">
+      <c r="A25" s="20">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F25" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="G25" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12">
+      <c r="H25" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11">
         <v>5</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L25" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="12"/>
-    </row>
-    <row r="23" spans="1:14" ht="38.25">
-      <c r="A23" s="21">
-        <v>17</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="17" t="s">
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" ht="38.25">
+      <c r="A26" s="20">
+        <v>25</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F26" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G26" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12">
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11">
         <v>1</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L26" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:14" ht="51">
-      <c r="A24" s="21">
-        <v>18</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="17" t="s">
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" ht="51">
+      <c r="A27" s="20">
         <v>26</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="B27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F27" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="G24" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12">
+      <c r="I27" s="29"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11">
         <v>2</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L27" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="1:14" ht="38.25">
-      <c r="A25" s="21">
-        <v>19</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="17" t="s">
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="1:14" ht="38.25">
+      <c r="A28" s="20">
+        <v>27</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F28" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G28" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12">
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11">
         <v>3</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L28" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="1:14" ht="38.25">
-      <c r="A26" s="21">
-        <v>20</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="17" t="s">
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:14" ht="38.25">
+      <c r="A29" s="20">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F29" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G29" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12">
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11">
         <v>4</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L29" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" ht="38.25">
-      <c r="A27" s="21">
-        <v>21</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="17" t="s">
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" ht="38.25">
+      <c r="A30" s="20">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F30" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G30" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12">
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11">
         <v>5</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L30" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="M30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" s="15" customFormat="1" ht="38.25">
-      <c r="A28" s="21">
-        <v>22</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="17" t="s">
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" s="14" customFormat="1" ht="38.25">
+      <c r="A31" s="20">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F31" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G31" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" ht="25.5">
-      <c r="A29" s="21">
-        <v>23</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" ht="25.5">
+      <c r="A32" s="20">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E32" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F32" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G32" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12">
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11">
         <v>1</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L32" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" ht="25.5">
-      <c r="A30" s="21">
-        <v>24</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="17" t="s">
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="1:14" ht="25.5">
+      <c r="A33" s="20">
+        <v>32</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E33" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F33" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G33" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12">
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11">
         <v>2</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L33" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="M33" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="1:14" s="13" customFormat="1" ht="38.25">
-      <c r="A31" s="21">
-        <v>25</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="17" t="s">
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="1:14" s="12" customFormat="1" ht="38.25">
+      <c r="A34" s="20">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E34" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F34" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G34" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" s="13" customFormat="1" ht="25.5">
-      <c r="A32" s="21">
+      <c r="H34" s="33"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="1:14" s="12" customFormat="1" ht="25.5">
+      <c r="A35" s="20">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="17" t="s">
+      <c r="E35" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="33"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="1:14" s="12" customFormat="1" ht="25.5">
+      <c r="A36" s="20">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="35" t="s">
+      <c r="E36" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="35"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="1:14" s="13" customFormat="1" ht="25.5">
-      <c r="A33" s="21">
-        <v>27</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="17" t="s">
+      <c r="G36" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="33"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="1:14" s="23" customFormat="1">
+      <c r="A37" s="20">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" s="24" customFormat="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17" t="s">
+      <c r="E37" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="1:14" s="14" customFormat="1" ht="51">
+      <c r="A38" s="20">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="42"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="1:14" s="12" customFormat="1" ht="38.25">
+      <c r="A39" s="20">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="1:14" s="12" customFormat="1" ht="51">
+      <c r="A40" s="20">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="1:14" s="12" customFormat="1" ht="25.5">
+      <c r="A41" s="20">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="1:14" s="12" customFormat="1" ht="38.25">
+      <c r="A42" s="20">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+    </row>
+    <row r="43" spans="1:14" s="12" customFormat="1" ht="76.5">
+      <c r="A43" s="20">
+        <v>42</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+    </row>
+    <row r="44" spans="1:14" s="12" customFormat="1" ht="38.25">
+      <c r="A44" s="20">
+        <v>43</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+    </row>
+    <row r="45" spans="1:14" s="12" customFormat="1" ht="51">
+      <c r="A45" s="20">
+        <v>44</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+    </row>
+    <row r="46" spans="1:14" s="12" customFormat="1" ht="38.25">
+      <c r="A46" s="20">
+        <v>45</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+    </row>
+    <row r="47" spans="1:14" s="12" customFormat="1" ht="38.25">
+      <c r="A47" s="20">
+        <v>46</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+    </row>
+    <row r="48" spans="1:14" s="12" customFormat="1" ht="51">
+      <c r="A48" s="20">
+        <v>47</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+    </row>
+    <row r="49" spans="1:14" s="12" customFormat="1" ht="25.5">
+      <c r="A49" s="20">
+        <v>48</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+    </row>
+    <row r="50" spans="1:14" s="12" customFormat="1" ht="25.5">
+      <c r="A50" s="20">
+        <v>49</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+    </row>
+    <row r="51" spans="1:14" s="22" customFormat="1" ht="25.5">
+      <c r="A51" s="20">
+        <v>50</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-    </row>
-    <row r="35" spans="1:14" s="15" customFormat="1" ht="51">
-      <c r="A35" s="21">
-        <v>28</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="17" t="s">
+      <c r="E51" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" spans="1:14" s="22" customFormat="1" ht="63.75">
+      <c r="A52" s="20">
+        <v>51</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+    </row>
+    <row r="53" spans="1:14" ht="38.25">
+      <c r="A53" s="20">
+        <v>52</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="H35" s="44"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-    </row>
-    <row r="36" spans="1:14" s="13" customFormat="1" ht="38.25">
-      <c r="A36" s="21">
-        <v>29</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="17" t="s">
+      <c r="E53" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" spans="1:14" ht="38.25">
+      <c r="A54" s="20">
+        <v>53</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="1:14" s="13" customFormat="1" ht="51">
-      <c r="A37" s="21">
-        <v>30</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="17" t="s">
+      <c r="E54" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+    </row>
+    <row r="55" spans="1:14" ht="63.75">
+      <c r="A55" s="20">
+        <v>54</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" s="13" customFormat="1" ht="25.5">
-      <c r="A38" s="21">
-        <v>31</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="17" t="s">
+      <c r="E55" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+    </row>
+    <row r="56" spans="1:14" ht="25.5">
+      <c r="A56" s="20">
+        <v>55</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="1:14" s="13" customFormat="1" ht="38.25">
-      <c r="A39" s="21">
-        <v>32</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-    </row>
-    <row r="40" spans="1:14" s="13" customFormat="1" ht="76.5">
-      <c r="A40" s="21">
-        <v>33</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-    </row>
-    <row r="41" spans="1:14" s="13" customFormat="1" ht="38.25">
-      <c r="A41" s="21">
-        <v>34</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-    </row>
-    <row r="42" spans="1:14" s="13" customFormat="1" ht="51">
-      <c r="A42" s="21">
-        <v>35</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-    </row>
-    <row r="43" spans="1:14" s="13" customFormat="1" ht="38.25">
-      <c r="A43" s="21">
-        <v>36</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-    </row>
-    <row r="44" spans="1:14" s="13" customFormat="1" ht="38.25">
-      <c r="A44" s="21">
-        <v>37</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-    </row>
-    <row r="45" spans="1:14" s="13" customFormat="1" ht="51">
-      <c r="A45" s="21">
-        <v>38</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-    </row>
-    <row r="46" spans="1:14" s="13" customFormat="1" ht="25.5">
-      <c r="A46" s="21">
-        <v>39</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-    </row>
-    <row r="47" spans="1:14" s="13" customFormat="1" ht="25.5">
-      <c r="A47" s="21">
-        <v>40</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-    </row>
-    <row r="48" spans="1:14" s="23" customFormat="1" ht="25.5">
-      <c r="A48" s="21">
-        <v>41</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-    </row>
-    <row r="49" spans="1:14" s="23" customFormat="1" ht="63.75">
-      <c r="A49" s="21">
-        <v>42</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-    </row>
-    <row r="50" spans="1:14" ht="38.25">
-      <c r="A50" s="21">
-        <v>43</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-    </row>
-    <row r="51" spans="1:14" ht="38.25">
-      <c r="A51" s="21">
-        <v>44</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-    </row>
-    <row r="52" spans="1:14" ht="63.75">
-      <c r="A52" s="21">
-        <v>45</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-    </row>
-    <row r="53" spans="1:14" ht="25.5">
-      <c r="A53" s="21">
-        <v>46</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E53" s="26" t="s">
+      <c r="E56" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F56" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="G53" s="27" t="s">
+      <c r="G56" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+    </row>
+    <row r="57" spans="1:14" s="47" customFormat="1" ht="38.25">
+      <c r="A57" s="20">
+        <v>56</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="F57" s="25"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N1">
@@ -3319,29 +3597,33 @@
     </sortState>
   </autoFilter>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="K37:K38 K2:K19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="K40:K41 K2:K22">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="K39:K52 K20:K36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="K42:K55 K23:K39">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="N5:N52">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="N8:N55">
       <formula1>1</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="M2:M52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="M2:M55">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B55">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C55">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1" display="..\ProjectExecution\BA\Wireframes\001HomeScreen.jpg"/>
+    <hyperlink ref="H6" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3359,105 +3641,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="B3" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="45" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="47" t="s">
+      <c r="F3" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="47" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>168</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>169</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="E4" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>169</v>
+      <c r="E4" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>168</v>
       </c>
       <c r="G4">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="47" t="s">
+      <c r="A5" s="45" t="s">
         <v>169</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>168</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
-      <c r="E5" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>169</v>
+      <c r="E5" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>168</v>
       </c>
       <c r="G5">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="E7" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="28">
+      <c r="F7" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="27">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="E7" s="47" t="s">
+    <row r="8" spans="1:7">
+      <c r="E8" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="28">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="E8" s="47" t="s">
+      <c r="F8" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="E9" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="E9" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="45" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="144">
   <si>
     <t>Anodiam</t>
   </si>
@@ -744,6 +744,18 @@
   </si>
   <si>
     <t xml:space="preserve">given I'm rating a student when I student can satisfy certain criteria like course complication within time frame/ getting "A" grade marks in a subject / completing test after finishing  course within a time frame then the student will be rated stars </t>
+  </si>
+  <si>
+    <t>given I'm logged in to the website , when I fill in the user name and password field with my valid cridentials and click in the sign in button then I get signed into the website.</t>
+  </si>
+  <si>
+    <t>given I'm creating my password when I'm putting password followed by the instructions like one capital letter, one character, one number and minimum eight character then the password is created</t>
+  </si>
+  <si>
+    <t>given I've created password when I'll confirm the password in confirm password field and validate then I'll be able to access my profile</t>
+  </si>
+  <si>
+    <t>logout</t>
   </si>
 </sst>
 </file>
@@ -926,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -993,6 +1005,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1004,15 +1026,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1244,31 +1257,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1338,11 +1351,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1491,7 +1504,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="19">
@@ -1526,7 +1539,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -1534,7 +1547,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -1554,7 +1567,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -2276,37 +2289,25 @@
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
     </row>
-    <row r="29" spans="1:12" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="23">
-        <v>28</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>26</v>
-      </c>
+    <row r="29" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>97</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
     </row>
-    <row r="30" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>17</v>
@@ -2318,13 +2319,13 @@
         <v>86</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>95</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -2332,37 +2333,37 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="1:12" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
-        <v>30</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>99</v>
+      <c r="E31" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="1:12" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>17</v>
@@ -2374,13 +2375,13 @@
         <v>86</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>100</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="19"/>
@@ -2388,37 +2389,37 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="23">
-        <v>32</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>87</v>
+      <c r="E33" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+        <v>103</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
     </row>
-    <row r="34" spans="1:12" s="13" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="23">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>17</v>
@@ -2430,13 +2431,13 @@
         <v>86</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>34</v>
+        <v>87</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -2444,9 +2445,9 @@
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
     </row>
-    <row r="35" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" s="13" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A35" s="23">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>17</v>
@@ -2458,13 +2459,13 @@
         <v>86</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
@@ -2472,9 +2473,9 @@
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
     </row>
-    <row r="36" spans="1:12" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="23">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>17</v>
@@ -2486,13 +2487,13 @@
         <v>86</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
@@ -2500,9 +2501,9 @@
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
     </row>
-    <row r="37" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="23">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>17</v>
@@ -2513,14 +2514,14 @@
       <c r="D37" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>112</v>
+      <c r="E37" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -2530,7 +2531,7 @@
     </row>
     <row r="38" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" s="23">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>17</v>
@@ -2542,13 +2543,13 @@
         <v>86</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
@@ -2556,9 +2557,9 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
     </row>
-    <row r="39" spans="1:12" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="23">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>17</v>
@@ -2569,14 +2570,14 @@
       <c r="D39" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>91</v>
+      <c r="E39" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
@@ -2584,9 +2585,9 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
     </row>
-    <row r="40" spans="1:12" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="23">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>17</v>
@@ -2598,13 +2599,13 @@
         <v>86</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -2614,7 +2615,7 @@
     </row>
     <row r="41" spans="1:12" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="23">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>17</v>
@@ -2626,13 +2627,13 @@
         <v>86</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
@@ -2640,9 +2641,9 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
     </row>
-    <row r="42" spans="1:12" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="23">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>17</v>
@@ -2651,16 +2652,16 @@
         <v>19</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
@@ -2668,9 +2669,9 @@
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
     </row>
-    <row r="43" spans="1:12" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="23">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>17</v>
@@ -2682,13 +2683,13 @@
         <v>26</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
@@ -2696,9 +2697,9 @@
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
     </row>
-    <row r="44" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A44" s="23">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>17</v>
@@ -2707,16 +2708,16 @@
         <v>19</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -2726,7 +2727,7 @@
     </row>
     <row r="45" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A45" s="23">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>17</v>
@@ -2738,13 +2739,13 @@
         <v>86</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>136</v>
+        <v>117</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
@@ -2752,9 +2753,9 @@
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
     </row>
-    <row r="46" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A46" s="23">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>17</v>
@@ -2765,14 +2766,14 @@
       <c r="D46" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>139</v>
+      <c r="E46" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -2780,31 +2781,59 @@
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
     </row>
-    <row r="47" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A47" s="23">
+        <v>45</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="23">
         <v>46</v>
       </c>
-      <c r="B47" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="31" t="s">
+      <c r="B48" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E48" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="F48" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="G47" s="33" t="s">
+      <c r="G48" s="29" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G53" s="16"/>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G54" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1">
@@ -2813,23 +2842,23 @@
     </sortState>
   </autoFilter>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="I31:I32 I2:I14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="I32:I33 I2:I14">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="I33:I46 I15:I30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="I34:I47 I15:I31">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="L3:L46">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="L3:L47">
       <formula1>1</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="K2:K46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="K2:K47">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B47">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C47">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -710,9 +710,6 @@
     <t>So that I can view my list of enrolled courses, Search for new courses and see a logout link in my Anodiam user account</t>
   </si>
   <si>
-    <t>I can view image links to few best sold courses and a link to Sign up and another link to log in.</t>
-  </si>
-  <si>
     <t xml:space="preserve">I can view the user account page </t>
   </si>
   <si>
@@ -1221,6 +1218,201 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> I click on each of the videos from the list of videos displayed in each enrolled course under my Anodiam user account
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the particular video must play completely and I should be able to watch the video lesson.</t>
+    </r>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Backlog Refining done For Sprint 2.0</t>
+  </si>
+  <si>
+    <t>I can view image links to few best rated courses and a link to Sign up and another link to log in.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I type anodiam.com on a web browser
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see the Anodiam home page: containing image links to few best rated courses and a valid link to Sign up to anodiam.com and another link to log in.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I visit sign up link on Anodiam home page and enter my valid personal details
+T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">hen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I must be registered into Anodiam with my userid &amp; passwrd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a logged in Student user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> I view any course inside my Anodiam user account
 </t>
     </r>
@@ -1241,200 +1433,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be able to see a list of all video loessons inside that particular course.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am a logged in Student user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click on each of the videos from the list of videos displayed in each enrolled course under my Anodiam user account
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> the particular video must play completely and I should be able to watch the video lesson.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I type anodiam.com on a web browser
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to see the Anodiam home page: containing image links to few best sold courses and a valid link to Sign up to anodiam.com and another link to log in.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I go to sign up link on Anodiam home page and enter my valid personal details
-T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">hen </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>I must be registered into Anodiam with my userid &amp; passwrd</t>
-    </r>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>Backlog Refining done For Sprint 2.0</t>
+      <t xml:space="preserve"> I should be able to see a list of all video lessons inside that particular course.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1834,6 +1834,36 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1845,36 +1875,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2116,31 +2116,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2160,50 +2160,50 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="54" t="s">
+      <c r="A5" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56">
+      <c r="C5" s="47"/>
+      <c r="D5" s="48">
         <v>44002</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="57">
+      <c r="C6" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="49">
         <v>44015</v>
       </c>
-      <c r="E6" s="55" t="s">
-        <v>176</v>
+      <c r="E6" s="47" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2224,7 +2224,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2299,13 +2299,13 @@
         <v>150</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H2" s="43" t="s">
         <v>147</v>
@@ -2316,7 +2316,7 @@
       <c r="J2" s="40">
         <v>5</v>
       </c>
-      <c r="K2" s="52">
+      <c r="K2" s="44">
         <f t="shared" ref="K2:K74" si="0">IF(I2=0,0,J2/I2)</f>
         <v>0.38461538461538464</v>
       </c>
@@ -2341,13 +2341,13 @@
         <v>150</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>149</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="36">
@@ -2356,7 +2356,7 @@
       <c r="J3" s="40">
         <v>5</v>
       </c>
-      <c r="K3" s="52">
+      <c r="K3" s="44">
         <f t="shared" si="0"/>
         <v>0.38461538461538464</v>
       </c>
@@ -2381,13 +2381,13 @@
         <v>151</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>148</v>
@@ -2398,7 +2398,7 @@
       <c r="J4" s="40">
         <v>5</v>
       </c>
-      <c r="K4" s="52">
+      <c r="K4" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2423,13 +2423,13 @@
         <v>152</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>153</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="36">
@@ -2438,7 +2438,7 @@
       <c r="J5" s="40">
         <v>5</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2463,13 +2463,13 @@
         <v>152</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H6" s="42"/>
       <c r="I6" s="36">
@@ -2478,7 +2478,7 @@
       <c r="J6" s="40">
         <v>5</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2503,13 +2503,13 @@
         <v>152</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H7" s="42"/>
       <c r="I7" s="36">
@@ -2518,7 +2518,7 @@
       <c r="J7" s="40">
         <v>5</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2539,13 +2539,13 @@
       <c r="C8" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
+      <c r="D8" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H8" s="43"/>
       <c r="I8" s="36">
@@ -2554,7 +2554,7 @@
       <c r="J8" s="40">
         <v>5</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="44">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
@@ -2575,13 +2575,13 @@
       <c r="C9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
+      <c r="D9" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H9" s="42"/>
       <c r="I9" s="36">
@@ -2590,7 +2590,7 @@
       <c r="J9" s="40">
         <v>5</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="44">
         <f t="shared" si="0"/>
         <v>0.38461538461538464</v>
       </c>
@@ -2605,14 +2605,14 @@
       <c r="A10" s="35"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="36"/>
       <c r="H10" s="42"/>
       <c r="I10" s="36"/>
       <c r="J10" s="40"/>
-      <c r="K10" s="52"/>
+      <c r="K10" s="44"/>
       <c r="L10" s="36"/>
       <c r="M10" s="35"/>
     </row>
@@ -2620,14 +2620,14 @@
       <c r="A11" s="35"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="36"/>
       <c r="H11" s="42"/>
       <c r="I11" s="36"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="52"/>
+      <c r="K11" s="44"/>
       <c r="L11" s="36"/>
       <c r="M11" s="35"/>
     </row>
@@ -2635,14 +2635,14 @@
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="36"/>
       <c r="H12" s="42"/>
       <c r="I12" s="36"/>
       <c r="J12" s="40"/>
-      <c r="K12" s="52"/>
+      <c r="K12" s="44"/>
       <c r="L12" s="36"/>
       <c r="M12" s="35"/>
     </row>
@@ -2650,14 +2650,14 @@
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="36"/>
       <c r="H13" s="42"/>
       <c r="I13" s="36"/>
       <c r="J13" s="40"/>
-      <c r="K13" s="52"/>
+      <c r="K13" s="44"/>
       <c r="L13" s="36"/>
       <c r="M13" s="35"/>
     </row>
@@ -2665,14 +2665,14 @@
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="36"/>
       <c r="H14" s="42"/>
       <c r="I14" s="36"/>
       <c r="J14" s="40"/>
-      <c r="K14" s="52"/>
+      <c r="K14" s="44"/>
       <c r="L14" s="36"/>
       <c r="M14" s="35"/>
     </row>
@@ -2680,14 +2680,14 @@
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="36"/>
       <c r="H15" s="42"/>
       <c r="I15" s="36"/>
       <c r="J15" s="40"/>
-      <c r="K15" s="52"/>
+      <c r="K15" s="44"/>
       <c r="L15" s="36"/>
       <c r="M15" s="35"/>
     </row>
@@ -2695,14 +2695,14 @@
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="36"/>
       <c r="H16" s="42"/>
       <c r="I16" s="36"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="52"/>
+      <c r="K16" s="44"/>
       <c r="L16" s="36"/>
       <c r="M16" s="35"/>
     </row>
@@ -2710,14 +2710,14 @@
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="36"/>
       <c r="H17" s="42"/>
       <c r="I17" s="36"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="52"/>
+      <c r="K17" s="44"/>
       <c r="L17" s="36"/>
       <c r="M17" s="35"/>
     </row>
@@ -2725,14 +2725,14 @@
       <c r="A18" s="35"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="36"/>
       <c r="H18" s="42"/>
       <c r="I18" s="36"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="52"/>
+      <c r="K18" s="44"/>
       <c r="L18" s="36"/>
       <c r="M18" s="35"/>
     </row>
@@ -2740,14 +2740,14 @@
       <c r="A19" s="35"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="36"/>
       <c r="H19" s="42"/>
       <c r="I19" s="36"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="52"/>
+      <c r="K19" s="44"/>
       <c r="L19" s="36"/>
       <c r="M19" s="35"/>
     </row>
@@ -2755,14 +2755,14 @@
       <c r="A20" s="35"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="36"/>
       <c r="H20" s="42"/>
       <c r="I20" s="36"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="52"/>
+      <c r="K20" s="44"/>
       <c r="L20" s="36"/>
       <c r="M20" s="35"/>
     </row>
@@ -2770,14 +2770,14 @@
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53"/>
       <c r="G21" s="36"/>
       <c r="H21" s="42"/>
       <c r="I21" s="36"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="52"/>
+      <c r="K21" s="44"/>
       <c r="L21" s="36"/>
       <c r="M21" s="35"/>
     </row>
@@ -2785,14 +2785,14 @@
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="36"/>
       <c r="H22" s="42"/>
       <c r="I22" s="36"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="52"/>
+      <c r="K22" s="44"/>
       <c r="L22" s="36"/>
       <c r="M22" s="35"/>
     </row>
@@ -2800,14 +2800,14 @@
       <c r="A23" s="35"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="36"/>
       <c r="H23" s="42"/>
       <c r="I23" s="36"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="52"/>
+      <c r="K23" s="44"/>
       <c r="L23" s="36"/>
       <c r="M23" s="35"/>
     </row>
@@ -2815,14 +2815,14 @@
       <c r="A24" s="35"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="36"/>
       <c r="H24" s="42"/>
       <c r="I24" s="36"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="52"/>
+      <c r="K24" s="44"/>
       <c r="L24" s="36"/>
       <c r="M24" s="35"/>
     </row>
@@ -2830,14 +2830,14 @@
       <c r="A25" s="35"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
       <c r="G25" s="36"/>
       <c r="H25" s="42"/>
       <c r="I25" s="36"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="52"/>
+      <c r="K25" s="44"/>
       <c r="L25" s="36"/>
       <c r="M25" s="35"/>
     </row>
@@ -2845,14 +2845,14 @@
       <c r="A26" s="35"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="36"/>
       <c r="H26" s="42"/>
       <c r="I26" s="36"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="52"/>
+      <c r="K26" s="44"/>
       <c r="L26" s="36"/>
       <c r="M26" s="35"/>
     </row>
@@ -2860,14 +2860,14 @@
       <c r="A27" s="35"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="36"/>
       <c r="H27" s="42"/>
       <c r="I27" s="36"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="52"/>
+      <c r="K27" s="44"/>
       <c r="L27" s="36"/>
       <c r="M27" s="35"/>
     </row>
@@ -2875,14 +2875,14 @@
       <c r="A28" s="35"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="36"/>
       <c r="H28" s="42"/>
       <c r="I28" s="36"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="52"/>
+      <c r="K28" s="44"/>
       <c r="L28" s="36"/>
       <c r="M28" s="35"/>
     </row>
@@ -2897,14 +2897,14 @@
       <c r="H29" s="42"/>
       <c r="I29" s="36"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="52">
+      <c r="K29" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L29" s="35"/>
       <c r="M29" s="35"/>
     </row>
-    <row r="30" spans="1:13" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>12</v>
       </c>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="13"/>
-      <c r="K30" s="52">
+      <c r="K30" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="J31" s="13">
         <v>4</v>
       </c>
-      <c r="K31" s="52">
+      <c r="K31" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="7" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>14</v>
       </c>
@@ -3003,14 +3003,14 @@
       </c>
       <c r="I32" s="36"/>
       <c r="J32" s="13"/>
-      <c r="K32" s="52">
+      <c r="K32" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>15</v>
       </c>
@@ -3039,7 +3039,7 @@
       <c r="J33" s="13">
         <v>5</v>
       </c>
-      <c r="K33" s="52">
+      <c r="K33" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="J34" s="6">
         <v>1</v>
       </c>
-      <c r="K34" s="52">
+      <c r="K34" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>17</v>
       </c>
@@ -3111,14 +3111,14 @@
       </c>
       <c r="I35" s="36"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="52">
+      <c r="K35" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>18</v>
       </c>
@@ -3143,7 +3143,7 @@
       <c r="H36" s="26"/>
       <c r="I36" s="36"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="52">
+      <c r="K36" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3165,7 +3165,7 @@
       <c r="H37" s="27"/>
       <c r="I37" s="36"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="52">
+      <c r="K37" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3187,7 +3187,7 @@
       <c r="H38" s="27"/>
       <c r="I38" s="36"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="52">
+      <c r="K38" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3209,14 +3209,14 @@
       <c r="H39" s="27"/>
       <c r="I39" s="36"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="52">
+      <c r="K39" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>22</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="J40" s="6">
         <v>3</v>
       </c>
-      <c r="K40" s="52">
+      <c r="K40" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3281,7 +3281,7 @@
       <c r="J41" s="6">
         <v>4</v>
       </c>
-      <c r="K41" s="52">
+      <c r="K41" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="J42" s="6">
         <v>5</v>
       </c>
-      <c r="K42" s="52">
+      <c r="K42" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>25</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="J43" s="6">
         <v>1</v>
       </c>
-      <c r="K43" s="52">
+      <c r="K43" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="J44" s="6">
         <v>2</v>
       </c>
-      <c r="K44" s="52">
+      <c r="K44" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>27</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="J45" s="6">
         <v>3</v>
       </c>
-      <c r="K45" s="52">
+      <c r="K45" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3465,7 +3465,7 @@
       <c r="J46" s="6">
         <v>4</v>
       </c>
-      <c r="K46" s="52">
+      <c r="K46" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3501,7 +3501,7 @@
       <c r="J47" s="6">
         <v>5</v>
       </c>
-      <c r="K47" s="52">
+      <c r="K47" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>30</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="H48" s="20"/>
       <c r="I48" s="36"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="52">
+      <c r="K48" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="J49" s="6">
         <v>1</v>
       </c>
-      <c r="K49" s="52">
+      <c r="K49" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3605,7 +3605,7 @@
       <c r="J50" s="6">
         <v>2</v>
       </c>
-      <c r="K50" s="52">
+      <c r="K50" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3639,7 +3639,7 @@
       <c r="H51" s="22"/>
       <c r="I51" s="36"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="52">
+      <c r="K51" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="H52" s="22"/>
       <c r="I52" s="36"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="52">
+      <c r="K52" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="H53" s="22"/>
       <c r="I53" s="36"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="52">
+      <c r="K53" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3727,14 +3727,14 @@
       <c r="H54" s="31"/>
       <c r="I54" s="36"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="52">
+      <c r="K54" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>37</v>
       </c>
@@ -3759,7 +3759,7 @@
       <c r="H55" s="31"/>
       <c r="I55" s="36"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="52">
+      <c r="K55" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3791,14 +3791,14 @@
       <c r="H56" s="8"/>
       <c r="I56" s="36"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="52">
+      <c r="K56" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="1:13" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
         <v>39</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="H57" s="8"/>
       <c r="I57" s="36"/>
       <c r="J57" s="13"/>
-      <c r="K57" s="52">
+      <c r="K57" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3855,7 +3855,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="36"/>
       <c r="J58" s="13"/>
-      <c r="K58" s="52">
+      <c r="K58" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3887,7 +3887,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="36"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="52">
+      <c r="K59" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3919,7 +3919,7 @@
       <c r="H60" s="8"/>
       <c r="I60" s="36"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="52">
+      <c r="K60" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3951,14 +3951,14 @@
       <c r="H61" s="8"/>
       <c r="I61" s="36"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="52">
+      <c r="K61" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
     </row>
-    <row r="62" spans="1:13" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>44</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="H62" s="8"/>
       <c r="I62" s="36"/>
       <c r="J62" s="6"/>
-      <c r="K62" s="52">
+      <c r="K62" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4015,7 +4015,7 @@
       <c r="H63" s="8"/>
       <c r="I63" s="36"/>
       <c r="J63" s="6"/>
-      <c r="K63" s="52">
+      <c r="K63" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4047,14 +4047,14 @@
       <c r="H64" s="8"/>
       <c r="I64" s="36"/>
       <c r="J64" s="6"/>
-      <c r="K64" s="52">
+      <c r="K64" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
     </row>
-    <row r="65" spans="1:13" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>47</v>
       </c>
@@ -4079,7 +4079,7 @@
       <c r="H65" s="8"/>
       <c r="I65" s="36"/>
       <c r="J65" s="6"/>
-      <c r="K65" s="52">
+      <c r="K65" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4111,7 +4111,7 @@
       <c r="H66" s="8"/>
       <c r="I66" s="36"/>
       <c r="J66" s="6"/>
-      <c r="K66" s="52">
+      <c r="K66" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4143,7 +4143,7 @@
       <c r="H67" s="8"/>
       <c r="I67" s="36"/>
       <c r="J67" s="6"/>
-      <c r="K67" s="52">
+      <c r="K67" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4175,14 +4175,14 @@
       <c r="H68" s="8"/>
       <c r="I68" s="36"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="52">
+      <c r="K68" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
     </row>
-    <row r="69" spans="1:13" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
         <v>51</v>
       </c>
@@ -4207,7 +4207,7 @@
       <c r="H69" s="8"/>
       <c r="I69" s="36"/>
       <c r="J69" s="6"/>
-      <c r="K69" s="52">
+      <c r="K69" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4239,7 +4239,7 @@
       <c r="H70" s="8"/>
       <c r="I70" s="36"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="52">
+      <c r="K70" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4271,14 +4271,14 @@
       <c r="H71" s="8"/>
       <c r="I71" s="36"/>
       <c r="J71" s="6"/>
-      <c r="K71" s="52">
+      <c r="K71" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
     </row>
-    <row r="72" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
         <v>54</v>
       </c>
@@ -4303,7 +4303,7 @@
       <c r="H72" s="12"/>
       <c r="I72" s="36"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="52">
+      <c r="K72" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4335,7 +4335,7 @@
       <c r="H73" s="19"/>
       <c r="I73" s="36"/>
       <c r="J73" s="41"/>
-      <c r="K73" s="52">
+      <c r="K73" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4357,7 +4357,7 @@
       <c r="H74" s="19"/>
       <c r="I74" s="36"/>
       <c r="J74" s="41"/>
-      <c r="K74" s="52">
+      <c r="K74" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\AgilePM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ProductBacklog!$A$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -23,7 +28,7 @@
     <author>Sydney</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1894,6 +1899,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="176">
   <si>
     <t>Anodiam</t>
   </si>
@@ -314,10 +314,6 @@
     <t>Business Value</t>
   </si>
   <si>
-    <t>Estimates
-(Sum of Story Points of Tasks)</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -693,13 +689,6 @@
     <t>Notes / References</t>
   </si>
   <si>
-    <t xml:space="preserve">D:/Anodiam/Docs/ProjectExecution/BA/Wireframes/001HomeScreen.jpg
-</t>
-  </si>
-  <si>
-    <t>D:\Anodiam\Docs\ProjectExecution\BA\Wireframes</t>
-  </si>
-  <si>
     <t>I can register myself to create my User Id and Password in Anodiam.</t>
   </si>
   <si>
@@ -719,40 +708,6 @@
   </si>
   <si>
     <t>I can play the video lessons inside that particular course</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">visit the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>home page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Anodiam.com</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1440,6 +1395,48 @@
       </rPr>
       <t xml:space="preserve"> I should be able to see a list of all video lessons inside that particular course.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>home page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>anodiam.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Task Estimates
+(Story Points)</t>
+  </si>
+  <si>
+    <t>D:\Anodiam\Docs\ProjectExecution\BA\SpecsWireframes\001UI.pptx
+D:\Anodiam\Docs\ProjectExecution\BA\SpecsWireframes\001Specs.docx</t>
   </si>
 </sst>
 </file>
@@ -1836,9 +1833,6 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1887,6 +1881,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2124,31 +2121,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2168,50 +2165,50 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48">
+      <c r="C5" s="46"/>
+      <c r="D5" s="47">
         <v>44002</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="45" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="49">
+      <c r="C6" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="48">
         <v>44015</v>
       </c>
-      <c r="E6" s="47" t="s">
-        <v>172</v>
+      <c r="E6" s="46" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2232,7 +2229,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2244,15 +2241,15 @@
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" customWidth="1"/>
     <col min="7" max="7" width="58.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="39" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>11</v>
       </c>
@@ -2272,25 +2269,25 @@
         <v>16</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="J1" s="38" t="s">
         <v>20</v>
       </c>
       <c r="K1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="M1" s="38" t="s">
         <v>23</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="34" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
@@ -2304,19 +2301,19 @@
         <v>19</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>147</v>
+        <v>170</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>175</v>
       </c>
       <c r="I2" s="36">
         <v>13</v>
@@ -2324,12 +2321,12 @@
       <c r="J2" s="40">
         <v>5</v>
       </c>
-      <c r="K2" s="44">
+      <c r="K2" s="43">
         <f t="shared" ref="K2:K74" si="0">IF(I2=0,0,J2/I2)</f>
         <v>0.38461538461538464</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="35">
         <v>2</v>
@@ -2346,30 +2343,30 @@
         <v>19</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="H3" s="43"/>
+        <v>171</v>
+      </c>
+      <c r="H3" s="61"/>
       <c r="I3" s="36">
         <v>13</v>
       </c>
       <c r="J3" s="40">
         <v>5</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="43">
         <f t="shared" si="0"/>
         <v>0.38461538461538464</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="35">
         <v>2</v>
@@ -2386,32 +2383,30 @@
         <v>19</v>
       </c>
       <c r="D4" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>154</v>
-      </c>
       <c r="G4" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>148</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="H4" s="61"/>
       <c r="I4" s="36">
         <v>5</v>
       </c>
       <c r="J4" s="40">
         <v>5</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="35">
         <v>2</v>
@@ -2428,30 +2423,30 @@
         <v>19</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" s="42"/>
+        <v>164</v>
+      </c>
+      <c r="H5" s="61"/>
       <c r="I5" s="36">
         <v>5</v>
       </c>
       <c r="J5" s="40">
         <v>5</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" s="35">
         <v>2</v>
@@ -2468,30 +2463,30 @@
         <v>19</v>
       </c>
       <c r="D6" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>155</v>
-      </c>
       <c r="G6" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="H6" s="42"/>
+        <v>172</v>
+      </c>
+      <c r="H6" s="61"/>
       <c r="I6" s="36">
         <v>5</v>
       </c>
       <c r="J6" s="40">
         <v>5</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" s="35">
         <v>2</v>
@@ -2508,30 +2503,30 @@
         <v>19</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="42"/>
+        <v>165</v>
+      </c>
+      <c r="H7" s="61"/>
       <c r="I7" s="36">
         <v>5</v>
       </c>
       <c r="J7" s="40">
         <v>5</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7" s="35">
         <v>2</v>
@@ -2547,27 +2542,27 @@
       <c r="C8" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="D8" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="H8" s="43"/>
+        <v>161</v>
+      </c>
+      <c r="H8" s="61"/>
       <c r="I8" s="36">
         <v>8</v>
       </c>
       <c r="J8" s="40">
         <v>5</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="43">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M8" s="35">
         <v>2</v>
@@ -2583,27 +2578,27 @@
       <c r="C9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
+      <c r="D9" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="H9" s="42"/>
+        <v>162</v>
+      </c>
+      <c r="H9" s="61"/>
       <c r="I9" s="36">
         <v>13</v>
       </c>
       <c r="J9" s="40">
         <v>5</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="43">
         <f t="shared" si="0"/>
         <v>0.38461538461538464</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M9" s="35">
         <v>2</v>
@@ -2613,14 +2608,14 @@
       <c r="A10" s="35"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="36"/>
       <c r="H10" s="42"/>
       <c r="I10" s="36"/>
       <c r="J10" s="40"/>
-      <c r="K10" s="44"/>
+      <c r="K10" s="43"/>
       <c r="L10" s="36"/>
       <c r="M10" s="35"/>
     </row>
@@ -2628,14 +2623,14 @@
       <c r="A11" s="35"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="36"/>
       <c r="H11" s="42"/>
       <c r="I11" s="36"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="44"/>
+      <c r="K11" s="43"/>
       <c r="L11" s="36"/>
       <c r="M11" s="35"/>
     </row>
@@ -2643,14 +2638,14 @@
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="36"/>
       <c r="H12" s="42"/>
       <c r="I12" s="36"/>
       <c r="J12" s="40"/>
-      <c r="K12" s="44"/>
+      <c r="K12" s="43"/>
       <c r="L12" s="36"/>
       <c r="M12" s="35"/>
     </row>
@@ -2658,14 +2653,14 @@
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="36"/>
       <c r="H13" s="42"/>
       <c r="I13" s="36"/>
       <c r="J13" s="40"/>
-      <c r="K13" s="44"/>
+      <c r="K13" s="43"/>
       <c r="L13" s="36"/>
       <c r="M13" s="35"/>
     </row>
@@ -2673,14 +2668,14 @@
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="36"/>
       <c r="H14" s="42"/>
       <c r="I14" s="36"/>
       <c r="J14" s="40"/>
-      <c r="K14" s="44"/>
+      <c r="K14" s="43"/>
       <c r="L14" s="36"/>
       <c r="M14" s="35"/>
     </row>
@@ -2688,14 +2683,14 @@
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
       <c r="G15" s="36"/>
       <c r="H15" s="42"/>
       <c r="I15" s="36"/>
       <c r="J15" s="40"/>
-      <c r="K15" s="44"/>
+      <c r="K15" s="43"/>
       <c r="L15" s="36"/>
       <c r="M15" s="35"/>
     </row>
@@ -2703,14 +2698,14 @@
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="36"/>
       <c r="H16" s="42"/>
       <c r="I16" s="36"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="44"/>
+      <c r="K16" s="43"/>
       <c r="L16" s="36"/>
       <c r="M16" s="35"/>
     </row>
@@ -2718,14 +2713,14 @@
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="36"/>
       <c r="H17" s="42"/>
       <c r="I17" s="36"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="44"/>
+      <c r="K17" s="43"/>
       <c r="L17" s="36"/>
       <c r="M17" s="35"/>
     </row>
@@ -2733,14 +2728,14 @@
       <c r="A18" s="35"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="36"/>
       <c r="H18" s="42"/>
       <c r="I18" s="36"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="44"/>
+      <c r="K18" s="43"/>
       <c r="L18" s="36"/>
       <c r="M18" s="35"/>
     </row>
@@ -2748,14 +2743,14 @@
       <c r="A19" s="35"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="36"/>
       <c r="H19" s="42"/>
       <c r="I19" s="36"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="44"/>
+      <c r="K19" s="43"/>
       <c r="L19" s="36"/>
       <c r="M19" s="35"/>
     </row>
@@ -2763,14 +2758,14 @@
       <c r="A20" s="35"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="36"/>
       <c r="H20" s="42"/>
       <c r="I20" s="36"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="44"/>
+      <c r="K20" s="43"/>
       <c r="L20" s="36"/>
       <c r="M20" s="35"/>
     </row>
@@ -2778,14 +2773,14 @@
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="36"/>
       <c r="H21" s="42"/>
       <c r="I21" s="36"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="44"/>
+      <c r="K21" s="43"/>
       <c r="L21" s="36"/>
       <c r="M21" s="35"/>
     </row>
@@ -2793,14 +2788,14 @@
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="36"/>
       <c r="H22" s="42"/>
       <c r="I22" s="36"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="44"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="36"/>
       <c r="M22" s="35"/>
     </row>
@@ -2808,14 +2803,14 @@
       <c r="A23" s="35"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="36"/>
       <c r="H23" s="42"/>
       <c r="I23" s="36"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="44"/>
+      <c r="K23" s="43"/>
       <c r="L23" s="36"/>
       <c r="M23" s="35"/>
     </row>
@@ -2823,14 +2818,14 @@
       <c r="A24" s="35"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="36"/>
       <c r="H24" s="42"/>
       <c r="I24" s="36"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="44"/>
+      <c r="K24" s="43"/>
       <c r="L24" s="36"/>
       <c r="M24" s="35"/>
     </row>
@@ -2838,14 +2833,14 @@
       <c r="A25" s="35"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="36"/>
       <c r="H25" s="42"/>
       <c r="I25" s="36"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="44"/>
+      <c r="K25" s="43"/>
       <c r="L25" s="36"/>
       <c r="M25" s="35"/>
     </row>
@@ -2853,14 +2848,14 @@
       <c r="A26" s="35"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="36"/>
       <c r="H26" s="42"/>
       <c r="I26" s="36"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="44"/>
+      <c r="K26" s="43"/>
       <c r="L26" s="36"/>
       <c r="M26" s="35"/>
     </row>
@@ -2868,14 +2863,14 @@
       <c r="A27" s="35"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="36"/>
       <c r="H27" s="42"/>
       <c r="I27" s="36"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="44"/>
+      <c r="K27" s="43"/>
       <c r="L27" s="36"/>
       <c r="M27" s="35"/>
     </row>
@@ -2883,14 +2878,14 @@
       <c r="A28" s="35"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="36"/>
       <c r="H28" s="42"/>
       <c r="I28" s="36"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="44"/>
+      <c r="K28" s="43"/>
       <c r="L28" s="36"/>
       <c r="M28" s="35"/>
     </row>
@@ -2905,7 +2900,7 @@
       <c r="H29" s="42"/>
       <c r="I29" s="36"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="44">
+      <c r="K29" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2923,23 +2918,23 @@
         <v>19</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>35</v>
-      </c>
       <c r="H30" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="13"/>
-      <c r="K30" s="44">
+      <c r="K30" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2957,30 +2952,30 @@
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="23" t="s">
-        <v>31</v>
-      </c>
       <c r="G31" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I31" s="36"/>
       <c r="J31" s="13">
         <v>4</v>
       </c>
-      <c r="K31" s="44">
+      <c r="K31" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M31" s="6"/>
     </row>
@@ -2995,23 +2990,23 @@
         <v>19</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="G32" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="20" t="s">
-        <v>65</v>
-      </c>
       <c r="H32" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I32" s="36"/>
       <c r="J32" s="13"/>
-      <c r="K32" s="44">
+      <c r="K32" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3029,30 +3024,30 @@
         <v>19</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="G33" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="24" t="s">
-        <v>40</v>
-      </c>
       <c r="H33" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I33" s="36"/>
       <c r="J33" s="13">
         <v>5</v>
       </c>
-      <c r="K33" s="44">
+      <c r="K33" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M33" s="6"/>
     </row>
@@ -3067,28 +3062,28 @@
         <v>19</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F34" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="25" t="s">
         <v>41</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>42</v>
       </c>
       <c r="H34" s="25"/>
       <c r="I34" s="36"/>
       <c r="J34" s="6">
         <v>1</v>
       </c>
-      <c r="K34" s="44">
+      <c r="K34" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M34" s="6"/>
     </row>
@@ -3103,23 +3098,23 @@
         <v>19</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I35" s="36"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="44">
+      <c r="K35" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3137,21 +3132,21 @@
         <v>19</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="26" t="s">
-        <v>60</v>
-      </c>
       <c r="G36" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H36" s="26"/>
       <c r="I36" s="36"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="44">
+      <c r="K36" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3166,14 +3161,14 @@
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="36"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="44">
+      <c r="K37" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3188,14 +3183,14 @@
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="36"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="44">
+      <c r="K38" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3210,14 +3205,14 @@
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="36"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="44">
+      <c r="K39" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3235,30 +3230,30 @@
         <v>19</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I40" s="36"/>
       <c r="J40" s="6">
         <v>3</v>
       </c>
-      <c r="K40" s="44">
+      <c r="K40" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M40" s="6"/>
     </row>
@@ -3273,28 +3268,28 @@
         <v>19</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F41" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="28" t="s">
         <v>44</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>45</v>
       </c>
       <c r="H41" s="28"/>
       <c r="I41" s="36"/>
       <c r="J41" s="6">
         <v>4</v>
       </c>
-      <c r="K41" s="44">
+      <c r="K41" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M41" s="6"/>
     </row>
@@ -3309,30 +3304,30 @@
         <v>19</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I42" s="36"/>
       <c r="J42" s="6">
         <v>5</v>
       </c>
-      <c r="K42" s="44">
+      <c r="K42" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M42" s="6"/>
     </row>
@@ -3347,28 +3342,28 @@
         <v>19</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F43" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="30" t="s">
         <v>48</v>
-      </c>
-      <c r="G43" s="30" t="s">
-        <v>49</v>
       </c>
       <c r="H43" s="30"/>
       <c r="I43" s="36"/>
       <c r="J43" s="6">
         <v>1</v>
       </c>
-      <c r="K43" s="44">
+      <c r="K43" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M43" s="6"/>
     </row>
@@ -3383,30 +3378,30 @@
         <v>19</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F44" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" s="20" t="s">
         <v>142</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>143</v>
       </c>
       <c r="I44" s="36"/>
       <c r="J44" s="6">
         <v>2</v>
       </c>
-      <c r="K44" s="44">
+      <c r="K44" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M44" s="6"/>
     </row>
@@ -3421,28 +3416,28 @@
         <v>19</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F45" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>52</v>
       </c>
       <c r="H45" s="20"/>
       <c r="I45" s="36"/>
       <c r="J45" s="6">
         <v>3</v>
       </c>
-      <c r="K45" s="44">
+      <c r="K45" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M45" s="6"/>
     </row>
@@ -3457,28 +3452,28 @@
         <v>19</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F46" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="20" t="s">
         <v>53</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>54</v>
       </c>
       <c r="H46" s="20"/>
       <c r="I46" s="36"/>
       <c r="J46" s="6">
         <v>4</v>
       </c>
-      <c r="K46" s="44">
+      <c r="K46" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M46" s="6"/>
     </row>
@@ -3493,28 +3488,28 @@
         <v>19</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="36"/>
       <c r="J47" s="6">
         <v>5</v>
       </c>
-      <c r="K47" s="44">
+      <c r="K47" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M47" s="6"/>
     </row>
@@ -3529,21 +3524,21 @@
         <v>19</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E48" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="G48" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>99</v>
       </c>
       <c r="H48" s="20"/>
       <c r="I48" s="36"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="44">
+      <c r="K48" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3561,28 +3556,28 @@
         <v>19</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E49" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F49" s="32" t="s">
-        <v>67</v>
-      </c>
       <c r="G49" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H49" s="32"/>
       <c r="I49" s="36"/>
       <c r="J49" s="6">
         <v>1</v>
       </c>
-      <c r="K49" s="44">
+      <c r="K49" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M49" s="6"/>
     </row>
@@ -3597,28 +3592,28 @@
         <v>19</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E50" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="32" t="s">
         <v>68</v>
-      </c>
-      <c r="F50" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>69</v>
       </c>
       <c r="H50" s="32"/>
       <c r="I50" s="36"/>
       <c r="J50" s="6">
         <v>2</v>
       </c>
-      <c r="K50" s="44">
+      <c r="K50" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M50" s="6"/>
     </row>
@@ -3633,21 +3628,21 @@
         <v>19</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E51" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="G51" s="22" t="s">
         <v>71</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>72</v>
       </c>
       <c r="H51" s="22"/>
       <c r="I51" s="36"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="44">
+      <c r="K51" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3665,21 +3660,21 @@
         <v>19</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E52" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="G52" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="36"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="44">
+      <c r="K52" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3697,21 +3692,21 @@
         <v>19</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E53" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="36"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="44">
+      <c r="K53" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3725,17 +3720,17 @@
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F54" s="31"/>
       <c r="G54" s="31"/>
       <c r="H54" s="31"/>
       <c r="I54" s="36"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="44">
+      <c r="K54" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3753,21 +3748,21 @@
         <v>19</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E55" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="G55" s="31" t="s">
         <v>88</v>
-      </c>
-      <c r="G55" s="31" t="s">
-        <v>89</v>
       </c>
       <c r="H55" s="31"/>
       <c r="I55" s="36"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="44">
+      <c r="K55" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3785,21 +3780,21 @@
         <v>19</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="36"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="44">
+      <c r="K56" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3817,21 +3812,21 @@
         <v>19</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E57" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="G57" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="36"/>
       <c r="J57" s="13"/>
-      <c r="K57" s="44">
+      <c r="K57" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3849,21 +3844,21 @@
         <v>19</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E58" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="36"/>
       <c r="J58" s="13"/>
-      <c r="K58" s="44">
+      <c r="K58" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3881,21 +3876,21 @@
         <v>19</v>
       </c>
       <c r="D59" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>79</v>
-      </c>
       <c r="F59" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="36"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="44">
+      <c r="K59" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3913,21 +3908,21 @@
         <v>19</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="36"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="44">
+      <c r="K60" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3945,21 +3940,21 @@
         <v>19</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="36"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="44">
+      <c r="K61" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3977,21 +3972,21 @@
         <v>19</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F62" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="36"/>
       <c r="J62" s="6"/>
-      <c r="K62" s="44">
+      <c r="K62" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4009,21 +4004,21 @@
         <v>19</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E63" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="36"/>
       <c r="J63" s="6"/>
-      <c r="K63" s="44">
+      <c r="K63" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4041,21 +4036,21 @@
         <v>19</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E64" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="G64" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="36"/>
       <c r="J64" s="6"/>
-      <c r="K64" s="44">
+      <c r="K64" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4073,21 +4068,21 @@
         <v>19</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F65" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G65" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="36"/>
       <c r="J65" s="6"/>
-      <c r="K65" s="44">
+      <c r="K65" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4105,21 +4100,21 @@
         <v>19</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E66" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="G66" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="36"/>
       <c r="J66" s="6"/>
-      <c r="K66" s="44">
+      <c r="K66" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4137,21 +4132,21 @@
         <v>19</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F67" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G67" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="36"/>
       <c r="J67" s="6"/>
-      <c r="K67" s="44">
+      <c r="K67" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4169,21 +4164,21 @@
         <v>19</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E68" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="G68" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="36"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="44">
+      <c r="K68" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4201,21 +4196,21 @@
         <v>19</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E69" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="G69" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="36"/>
       <c r="J69" s="6"/>
-      <c r="K69" s="44">
+      <c r="K69" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4233,21 +4228,21 @@
         <v>19</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="36"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="44">
+      <c r="K70" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4265,21 +4260,21 @@
         <v>19</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F71" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G71" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="36"/>
       <c r="J71" s="6"/>
-      <c r="K71" s="44">
+      <c r="K71" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4297,21 +4292,21 @@
         <v>19</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F72" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G72" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="36"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="44">
+      <c r="K72" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4329,21 +4324,21 @@
         <v>19</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E73" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F73" s="18" t="s">
+      <c r="G73" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>112</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="36"/>
       <c r="J73" s="41"/>
-      <c r="K73" s="44">
+      <c r="K73" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4358,14 +4353,14 @@
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
       <c r="E74" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
       <c r="I74" s="36"/>
       <c r="J74" s="41"/>
-      <c r="K74" s="44">
+      <c r="K74" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4382,9 +4377,10 @@
       <sortCondition ref="K1"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H2:H9"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J57:J58 J2:J39">
@@ -4411,11 +4407,10 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="..\ProjectExecution\BA\Wireframes\001HomeScreen.jpg"/>
-    <hyperlink ref="H4" r:id="rId2"/>
+    <hyperlink ref="H2:H9" r:id="rId1" display="..\ProjectExecution\BA\SpecsWireframes"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="178">
   <si>
     <t>Anodiam</t>
   </si>
@@ -1437,6 +1437,12 @@
   <si>
     <t>D:\Anodiam\Docs\ProjectExecution\BA\SpecsWireframes\001UI.pptx
 D:\Anodiam\Docs\ProjectExecution\BA\SpecsWireframes\001Specs.docx</t>
+  </si>
+  <si>
+    <t>Home Page Responsive HTML, Image and fonts selection</t>
+  </si>
+  <si>
+    <t>Security of Sign Up page</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1547,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1626,6 +1632,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -1723,7 +1735,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1863,6 +1875,7 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1884,6 +1897,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2121,31 +2149,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2225,11 +2253,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2291,28 +2319,28 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="34" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="35">
+      <c r="A2" s="63">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="B2" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="62" t="s">
         <v>175</v>
       </c>
       <c r="I2" s="36">
@@ -2322,7 +2350,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="43">
-        <f t="shared" ref="K2:K74" si="0">IF(I2=0,0,J2/I2)</f>
+        <f t="shared" ref="K2:K76" si="0">IF(I2=0,0,J2/I2)</f>
         <v>0.38461538461538464</v>
       </c>
       <c r="L2" s="35" t="s">
@@ -2332,38 +2360,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="35">
-        <v>2</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:13" s="53" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="63">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="36">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J3" s="40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3" s="43">
         <f t="shared" si="0"/>
-        <v>0.38461538461538464</v>
+        <v>0.5</v>
       </c>
       <c r="L3" s="35" t="s">
         <v>26</v>
@@ -2372,38 +2394,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="34" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="35">
-        <v>3</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" s="61"/>
+    <row r="4" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="63">
+        <v>2</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="62"/>
       <c r="I4" s="36">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J4" s="40">
         <v>5</v>
       </c>
       <c r="K4" s="43">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="L4" s="35" t="s">
         <v>26</v>
@@ -2412,38 +2434,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
-        <v>4</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="H5" s="61"/>
+    <row r="5" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="63">
+        <v>2.1</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="62"/>
       <c r="I5" s="36">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J5" s="40">
         <v>5</v>
       </c>
       <c r="K5" s="43">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="L5" s="35" t="s">
         <v>26</v>
@@ -2452,29 +2468,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="37" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="34" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="35">
-        <v>5</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" s="61"/>
+        <v>163</v>
+      </c>
+      <c r="H6" s="62"/>
       <c r="I6" s="36">
         <v>5</v>
       </c>
@@ -2486,35 +2502,33 @@
         <v>1</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="35">
-        <v>2</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M6" s="35"/>
     </row>
     <row r="7" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="35">
-        <v>6</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>149</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="H7" s="61"/>
+        <v>164</v>
+      </c>
+      <c r="H7" s="62"/>
       <c r="I7" s="36">
         <v>5</v>
       </c>
@@ -2526,112 +2540,152 @@
         <v>1</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="37" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="M7" s="35"/>
+    </row>
+    <row r="8" spans="1:13" s="37" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
-        <v>7</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>152</v>
+      </c>
       <c r="G8" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" s="61"/>
+        <v>172</v>
+      </c>
+      <c r="H8" s="62"/>
       <c r="I8" s="36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J8" s="40">
         <v>5</v>
       </c>
       <c r="K8" s="43">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="37" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="M8" s="35"/>
+    </row>
+    <row r="9" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A9" s="35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
+      <c r="D9" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>156</v>
+      </c>
       <c r="G9" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="61"/>
+        <v>165</v>
+      </c>
+      <c r="H9" s="62"/>
       <c r="I9" s="36">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J9" s="40">
         <v>5</v>
       </c>
       <c r="K9" s="43">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="1:13" s="37" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35">
+        <v>7</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="62"/>
+      <c r="I10" s="36">
+        <v>8</v>
+      </c>
+      <c r="J10" s="40">
+        <v>5</v>
+      </c>
+      <c r="K10" s="43">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="11" spans="1:13" s="37" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35">
+        <v>8</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="62"/>
+      <c r="I11" s="36">
+        <v>13</v>
+      </c>
+      <c r="J11" s="40">
+        <v>5</v>
+      </c>
+      <c r="K11" s="43">
+        <f t="shared" si="0"/>
         <v>0.38461538461538464</v>
       </c>
-      <c r="L9" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="35"/>
-    </row>
-    <row r="11" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="36"/>
+      <c r="L11" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="M11" s="35"/>
     </row>
     <row r="12" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
@@ -2893,95 +2947,53 @@
       <c r="A29" s="35"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="36"/>
       <c r="H29" s="42"/>
       <c r="I29" s="36"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="35"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="36"/>
       <c r="M29" s="35"/>
     </row>
-    <row r="30" spans="1:13" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="14">
+    <row r="30" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="35"/>
+    </row>
+    <row r="31" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+    </row>
+    <row r="32" spans="1:13" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
         <v>12</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="14">
-        <v>13</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="I31" s="36"/>
-      <c r="J31" s="13">
-        <v>4</v>
-      </c>
-      <c r="K31" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" s="7" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A32" s="14">
-        <v>14</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>17</v>
@@ -2993,16 +3005,16 @@
         <v>25</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>132</v>
+        <v>33</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>130</v>
       </c>
       <c r="I32" s="36"/>
       <c r="J32" s="13"/>
@@ -3013,34 +3025,34 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
-        <v>15</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>133</v>
+      <c r="E33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="I33" s="36"/>
       <c r="J33" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K33" s="43">
         <f t="shared" si="0"/>
@@ -3051,121 +3063,139 @@
       </c>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
+        <v>14</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" s="36"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>15</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I35" s="36"/>
+      <c r="J35" s="13">
+        <v>5</v>
+      </c>
+      <c r="K35" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
         <v>16</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="6">
-        <v>1</v>
-      </c>
-      <c r="K34" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M34" s="6"/>
-    </row>
-    <row r="35" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="14">
-        <v>17</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-    </row>
-    <row r="36" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="14">
-        <v>18</v>
-      </c>
       <c r="B36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="6">
+        <v>1</v>
+      </c>
+      <c r="K36" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>17</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-    </row>
-    <row r="37" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14">
-        <v>19</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
+      <c r="F37" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>134</v>
+      </c>
       <c r="I37" s="36"/>
       <c r="J37" s="6"/>
       <c r="K37" s="43">
@@ -3175,19 +3205,29 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
-        <v>20</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="E38" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="26"/>
       <c r="I38" s="36"/>
       <c r="J38" s="6"/>
       <c r="K38" s="43">
@@ -3199,13 +3239,13 @@
     </row>
     <row r="39" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
@@ -3219,108 +3259,78 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
+        <v>20</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14">
+        <v>21</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="14">
         <v>22</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H40" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="I40" s="36"/>
-      <c r="J40" s="6">
-        <v>3</v>
-      </c>
-      <c r="K40" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M40" s="6"/>
-    </row>
-    <row r="41" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="14">
-        <v>23</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="6">
-        <v>4</v>
-      </c>
-      <c r="K41" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="6"/>
-    </row>
-    <row r="42" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="14">
-        <v>24</v>
-      </c>
       <c r="B42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>140</v>
+      <c r="F42" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>139</v>
       </c>
       <c r="I42" s="36"/>
       <c r="J42" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K42" s="43">
         <f t="shared" si="0"/>
@@ -3333,30 +3343,30 @@
     </row>
     <row r="43" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" s="30"/>
+      <c r="F43" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="28"/>
       <c r="I43" s="36"/>
       <c r="J43" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K43" s="43">
         <f t="shared" si="0"/>
@@ -3369,12 +3379,12 @@
     </row>
     <row r="44" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="11" t="s">
@@ -3383,18 +3393,18 @@
       <c r="E44" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>142</v>
+      <c r="F44" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>140</v>
       </c>
       <c r="I44" s="36"/>
       <c r="J44" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K44" s="43">
         <f t="shared" si="0"/>
@@ -3407,12 +3417,12 @@
     </row>
     <row r="45" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -3421,16 +3431,16 @@
       <c r="E45" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H45" s="20"/>
+      <c r="F45" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="30"/>
       <c r="I45" s="36"/>
       <c r="J45" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K45" s="43">
         <f t="shared" si="0"/>
@@ -3441,14 +3451,14 @@
       </c>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -3458,15 +3468,17 @@
         <v>37</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H46" s="20"/>
+        <v>49</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="I46" s="36"/>
       <c r="J46" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K46" s="43">
         <f t="shared" si="0"/>
@@ -3477,14 +3489,14 @@
       </c>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
-        <v>29</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="11" t="s">
@@ -3494,15 +3506,15 @@
         <v>37</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="36"/>
       <c r="J47" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K47" s="43">
         <f t="shared" si="0"/>
@@ -3513,9 +3525,9 @@
       </c>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>17</v>
@@ -3527,50 +3539,54 @@
         <v>25</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="H48" s="20"/>
       <c r="I48" s="36"/>
-      <c r="J48" s="6"/>
+      <c r="J48" s="6">
+        <v>4</v>
+      </c>
       <c r="K48" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L48" s="6"/>
+      <c r="L48" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H49" s="32"/>
+      <c r="E49" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" s="20"/>
       <c r="I49" s="36"/>
       <c r="J49" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K49" s="43">
         <f t="shared" si="0"/>
@@ -3581,47 +3597,43 @@
       </c>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
-        <v>32</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" s="32"/>
+      <c r="E50" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" s="20"/>
       <c r="I50" s="36"/>
-      <c r="J50" s="6">
-        <v>2</v>
-      </c>
+      <c r="J50" s="6"/>
       <c r="K50" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L50" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
-        <v>33</v>
-      </c>
-      <c r="B51" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="11" t="s">
@@ -3631,27 +3643,31 @@
         <v>25</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H51" s="22"/>
+        <v>65</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="32"/>
       <c r="I51" s="36"/>
-      <c r="J51" s="6"/>
+      <c r="J51" s="6">
+        <v>1</v>
+      </c>
       <c r="K51" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L51" s="6"/>
+      <c r="L51" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>17</v>
@@ -3663,27 +3679,31 @@
         <v>25</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H52" s="22"/>
+        <v>67</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="32"/>
       <c r="I52" s="36"/>
-      <c r="J52" s="6"/>
+      <c r="J52" s="6">
+        <v>2</v>
+      </c>
       <c r="K52" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L52" s="6"/>
+      <c r="L52" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>17</v>
@@ -3694,14 +3714,14 @@
       <c r="D53" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>75</v>
+      <c r="E53" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="36"/>
@@ -3713,21 +3733,29 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
-        <v>36</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="D54" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
+      <c r="E54" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" s="22"/>
       <c r="I54" s="36"/>
       <c r="J54" s="6"/>
       <c r="K54" s="43">
@@ -3737,9 +3765,9 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>17</v>
@@ -3748,18 +3776,18 @@
         <v>19</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F55" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G55" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="H55" s="31"/>
+        <v>75</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="22"/>
       <c r="I55" s="36"/>
       <c r="J55" s="6"/>
       <c r="K55" s="43">
@@ -3769,29 +3797,21 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
-        <v>38</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>19</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="11" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="8"/>
+        <v>143</v>
+      </c>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
       <c r="I56" s="36"/>
       <c r="J56" s="6"/>
       <c r="K56" s="43">
@@ -3801,31 +3821,31 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
-        <v>39</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H57" s="8"/>
+      <c r="E57" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="H57" s="31"/>
       <c r="I57" s="36"/>
-      <c r="J57" s="13"/>
+      <c r="J57" s="6"/>
       <c r="K57" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3833,31 +3853,31 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
-        <v>40</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>92</v>
+      <c r="E58" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="36"/>
-      <c r="J58" s="13"/>
+      <c r="J58" s="6"/>
       <c r="K58" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3867,29 +3887,29 @@
     </row>
     <row r="59" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
-        <v>41</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>78</v>
+      <c r="E59" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="36"/>
-      <c r="J59" s="6"/>
+      <c r="J59" s="13"/>
       <c r="K59" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3897,31 +3917,31 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="1:13" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
-        <v>42</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E60" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>30</v>
+      <c r="E60" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="36"/>
-      <c r="J60" s="6"/>
+      <c r="J60" s="13"/>
       <c r="K60" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3931,7 +3951,7 @@
     </row>
     <row r="61" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>17</v>
@@ -3943,13 +3963,13 @@
         <v>77</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>38</v>
+        <v>78</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="36"/>
@@ -3961,9 +3981,9 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
     </row>
-    <row r="62" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>17</v>
@@ -3975,13 +3995,13 @@
         <v>77</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="36"/>
@@ -3995,7 +4015,7 @@
     </row>
     <row r="63" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>17</v>
@@ -4006,14 +4026,14 @@
       <c r="D63" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E63" s="8" t="s">
-        <v>102</v>
+      <c r="E63" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="36"/>
@@ -4027,7 +4047,7 @@
     </row>
     <row r="64" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>17</v>
@@ -4038,14 +4058,14 @@
       <c r="D64" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E64" s="8" t="s">
-        <v>104</v>
+      <c r="E64" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="36"/>
@@ -4059,7 +4079,7 @@
     </row>
     <row r="65" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>17</v>
@@ -4070,14 +4090,14 @@
       <c r="D65" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E65" s="11" t="s">
-        <v>82</v>
+      <c r="E65" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="36"/>
@@ -4089,9 +4109,9 @@
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
     </row>
-    <row r="66" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A66" s="14">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>17</v>
@@ -4102,14 +4122,14 @@
       <c r="D66" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="11" t="s">
-        <v>114</v>
+      <c r="E66" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="36"/>
@@ -4121,9 +4141,9 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
     </row>
-    <row r="67" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>17</v>
@@ -4135,13 +4155,13 @@
         <v>77</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>117</v>
+        <v>82</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="36"/>
@@ -4153,9 +4173,9 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
     </row>
-    <row r="68" spans="1:13" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A68" s="14">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>17</v>
@@ -4164,16 +4184,16 @@
         <v>19</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="36"/>
@@ -4185,9 +4205,9 @@
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
     </row>
-    <row r="69" spans="1:13" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>17</v>
@@ -4196,16 +4216,16 @@
         <v>19</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>123</v>
+        <v>83</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="36"/>
@@ -4217,9 +4237,9 @@
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
     </row>
-    <row r="70" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" s="14">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>17</v>
@@ -4228,16 +4248,16 @@
         <v>19</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F70" s="11" t="s">
         <v>120</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="36"/>
@@ -4249,9 +4269,9 @@
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
     </row>
-    <row r="71" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="14">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>17</v>
@@ -4260,16 +4280,16 @@
         <v>19</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="36"/>
@@ -4281,9 +4301,9 @@
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
     </row>
-    <row r="72" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>17</v>
@@ -4294,16 +4314,16 @@
       <c r="D72" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H72" s="12"/>
+      <c r="E72" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H72" s="8"/>
       <c r="I72" s="36"/>
       <c r="J72" s="6"/>
       <c r="K72" s="43">
@@ -4313,63 +4333,127 @@
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A73" s="14">
+        <v>53</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H73" s="8"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+    </row>
+    <row r="74" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A74" s="14">
+        <v>54</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H74" s="12"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+    </row>
+    <row r="75" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="14">
         <v>55</v>
       </c>
-      <c r="B73" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="17" t="s">
+      <c r="B75" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E75" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F73" s="18" t="s">
+      <c r="F75" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G73" s="19" t="s">
+      <c r="G75" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L73" s="41"/>
-      <c r="M73" s="41"/>
-    </row>
-    <row r="74" spans="1:13" s="34" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="14">
+      <c r="H75" s="19"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="41"/>
+      <c r="M75" s="41"/>
+    </row>
+    <row r="76" spans="1:13" s="34" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="14">
         <v>56</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="31" t="s">
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="F74" s="18"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="41"/>
-      <c r="K74" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="41"/>
-      <c r="M74" s="41"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+    </row>
+    <row r="82" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1">
@@ -4377,37 +4461,39 @@
       <sortCondition ref="K1"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="3">
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="H2:H9"/>
+  <mergeCells count="5">
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J57:J58 J2:J39">
+  <dataValidations xWindow="1023" yWindow="304" count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J59:J60 J2:J41">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="J59:J72 J40:J56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="J61:J74 J42:J58">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="M30:M72">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="M32:M74">
       <formula1>1</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L74">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B74">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C74">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I76">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2:H9" r:id="rId1" display="..\ProjectExecution\BA\SpecsWireframes"/>
+    <hyperlink ref="H2:H11" r:id="rId1" display="..\ProjectExecution\BA\SpecsWireframes"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="180">
   <si>
     <t>Anodiam</t>
   </si>
@@ -1036,67 +1036,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I'm an unloggedin but signed up user
-W</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>hen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I enter my valid login details in the login page
-T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>hen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I must be able to login to anodiam and view my Anodiam user account page </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> I am a logged in Student user
 </t>
     </r>
@@ -1443,6 +1382,153 @@
   </si>
   <si>
     <t>Security of Sign Up page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After user enters login and password, the credential gets validated from backend, then </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JWT token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> gets generated in the backend. The token is sent back to client.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I'm an unloggedin but signed up user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I enter my valid login details in the login page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I must be able to login to anodiam and view my Anodiam user account page </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a successful login happens into Anodiam through Postman Tool
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I enter my valid login details in the Postman Tool
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view the valid token in Postman Tool
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1547,7 +1633,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1638,6 +1724,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -1735,7 +1827,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1876,6 +1968,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1899,12 +1998,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1912,6 +2005,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2149,31 +2257,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2194,7 +2302,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>7</v>
@@ -2215,13 +2323,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" s="48">
         <v>44015</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2253,11 +2361,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2303,7 +2411,7 @@
         <v>145</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J1" s="38" t="s">
         <v>20</v>
@@ -2319,29 +2427,29 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="34" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="63">
+      <c r="A2" s="55">
         <v>1</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="64" t="s">
+      <c r="E2" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" s="62" t="s">
-        <v>175</v>
+      <c r="H2" s="65" t="s">
+        <v>174</v>
       </c>
       <c r="I2" s="36">
         <v>13</v>
@@ -2350,7 +2458,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="43">
-        <f t="shared" ref="K2:K76" si="0">IF(I2=0,0,J2/I2)</f>
+        <f t="shared" ref="K2:K77" si="0">IF(I2=0,0,J2/I2)</f>
         <v>0.38461538461538464</v>
       </c>
       <c r="L2" s="35" t="s">
@@ -2361,22 +2469,22 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="53" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63">
+      <c r="A3" s="55">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="62"/>
+      <c r="C3" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="65"/>
       <c r="I3" s="36">
         <v>8</v>
       </c>
@@ -2395,28 +2503,28 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="63">
+      <c r="A4" s="55">
         <v>2</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" s="62"/>
+      <c r="G4" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="65"/>
       <c r="I4" s="36">
         <v>13</v>
       </c>
@@ -2435,22 +2543,22 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63">
+      <c r="A5" s="55">
         <v>2.1</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="62"/>
+      <c r="C5" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="65"/>
       <c r="I5" s="36">
         <v>13</v>
       </c>
@@ -2469,104 +2577,98 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
+      <c r="A6" s="69">
         <v>3</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="62"/>
+      <c r="G6" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="65"/>
       <c r="I6" s="36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J6" s="40">
         <v>5</v>
       </c>
       <c r="K6" s="43">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="L6" s="35" t="s">
         <v>24</v>
       </c>
       <c r="M6" s="35"/>
     </row>
-    <row r="7" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="35">
-        <v>4</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="H7" s="62"/>
+    <row r="7" spans="1:13" s="54" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="69">
+        <v>3.1</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="65"/>
       <c r="I7" s="36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J7" s="40">
         <v>5</v>
       </c>
       <c r="K7" s="43">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>24</v>
-      </c>
+        <v>0.625</v>
+      </c>
+      <c r="L7" s="35"/>
       <c r="M7" s="35"/>
     </row>
-    <row r="8" spans="1:13" s="37" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
-        <v>5</v>
-      </c>
-      <c r="B8" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>149</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="H8" s="62"/>
+        <v>163</v>
+      </c>
+      <c r="H8" s="65"/>
       <c r="I8" s="36">
         <v>5</v>
       </c>
@@ -2582,9 +2684,9 @@
       </c>
       <c r="M8" s="35"/>
     </row>
-    <row r="9" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="37" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>17</v>
@@ -2596,15 +2698,15 @@
         <v>149</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="H9" s="62"/>
+        <v>171</v>
+      </c>
+      <c r="H9" s="65"/>
       <c r="I9" s="36">
         <v>5</v>
       </c>
@@ -2620,87 +2722,110 @@
       </c>
       <c r="M9" s="35"/>
     </row>
-    <row r="10" spans="1:13" s="37" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
-        <v>7</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>156</v>
+      </c>
       <c r="G10" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="62"/>
+        <v>164</v>
+      </c>
+      <c r="H10" s="65"/>
       <c r="I10" s="36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J10" s="40">
         <v>5</v>
       </c>
       <c r="K10" s="43">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="L10" s="35" t="s">
         <v>24</v>
       </c>
       <c r="M10" s="35"/>
     </row>
-    <row r="11" spans="1:13" s="37" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="37" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35">
+        <v>7</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="63"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="65"/>
+      <c r="I11" s="36">
         <v>8</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="36">
-        <v>13</v>
       </c>
       <c r="J11" s="40">
         <v>5</v>
       </c>
       <c r="K11" s="43">
         <f t="shared" si="0"/>
-        <v>0.38461538461538464</v>
+        <v>0.625</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>24</v>
       </c>
       <c r="M11" s="35"/>
     </row>
-    <row r="12" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="36"/>
+    <row r="12" spans="1:13" s="37" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35">
+        <v>8</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="65"/>
+      <c r="I12" s="36">
+        <v>13</v>
+      </c>
+      <c r="J12" s="40">
+        <v>5</v>
+      </c>
+      <c r="K12" s="43">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="M12" s="35"/>
     </row>
     <row r="13" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
@@ -2977,57 +3102,38 @@
       <c r="A31" s="35"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="36"/>
       <c r="H31" s="42"/>
       <c r="I31" s="36"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="43">
+      <c r="K31" s="43"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="35"/>
+    </row>
+    <row r="32" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-    </row>
-    <row r="32" spans="1:13" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="14">
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+    </row>
+    <row r="33" spans="1:13" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
         <v>12</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="I32" s="36"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="14">
-        <v>13</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>17</v>
@@ -3035,37 +3141,33 @@
       <c r="C33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>131</v>
+      <c r="E33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>130</v>
       </c>
       <c r="I33" s="36"/>
-      <c r="J33" s="13">
-        <v>4</v>
-      </c>
+      <c r="J33" s="13"/>
       <c r="K33" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L33" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>17</v>
@@ -3073,94 +3175,96 @@
       <c r="C34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>132</v>
+      <c r="E34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="I34" s="36"/>
-      <c r="J34" s="13"/>
+      <c r="J34" s="13">
+        <v>4</v>
+      </c>
       <c r="K34" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L34" s="6"/>
+      <c r="L34" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
-        <v>15</v>
-      </c>
-      <c r="B35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>133</v>
+        <v>62</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="I35" s="36"/>
-      <c r="J35" s="13">
-        <v>5</v>
-      </c>
+      <c r="J35" s="13"/>
       <c r="K35" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L35" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
-        <v>16</v>
-      </c>
-      <c r="B36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="25"/>
+      <c r="F36" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>133</v>
+      </c>
       <c r="I36" s="36"/>
-      <c r="J36" s="6">
-        <v>1</v>
+      <c r="J36" s="13">
+        <v>5</v>
       </c>
       <c r="K36" s="43">
         <f t="shared" si="0"/>
@@ -3171,43 +3275,45 @@
       </c>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>134</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="25"/>
       <c r="I37" s="36"/>
-      <c r="J37" s="6"/>
+      <c r="J37" s="6">
+        <v>1</v>
+      </c>
       <c r="K37" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L37" s="6"/>
+      <c r="L37" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>17</v>
@@ -3222,12 +3328,14 @@
         <v>58</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="H38" s="26"/>
+        <v>60</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>134</v>
+      </c>
       <c r="I38" s="36"/>
       <c r="J38" s="6"/>
       <c r="K38" s="43">
@@ -3237,19 +3345,29 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
-        <v>19</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="E39" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="26"/>
       <c r="I39" s="36"/>
       <c r="J39" s="6"/>
       <c r="K39" s="43">
@@ -3261,13 +3379,13 @@
     </row>
     <row r="40" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
@@ -3283,13 +3401,13 @@
     </row>
     <row r="41" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -3303,49 +3421,33 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
-        <v>22</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" s="28" t="s">
-        <v>139</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
       <c r="I42" s="36"/>
-      <c r="J42" s="6">
-        <v>3</v>
-      </c>
+      <c r="J42" s="6"/>
       <c r="K42" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L42" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
     <row r="43" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
-        <v>23</v>
-      </c>
-      <c r="B43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -3358,15 +3460,17 @@
         <v>37</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="28"/>
+        <v>42</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>139</v>
+      </c>
       <c r="I43" s="36"/>
       <c r="J43" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K43" s="43">
         <f t="shared" si="0"/>
@@ -3377,34 +3481,32 @@
       </c>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
-        <v>24</v>
-      </c>
-      <c r="B44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>140</v>
-      </c>
+      <c r="F44" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="28"/>
       <c r="I44" s="36"/>
       <c r="J44" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K44" s="43">
         <f t="shared" si="0"/>
@@ -3415,11 +3517,11 @@
       </c>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
-        <v>25</v>
-      </c>
-      <c r="B45" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -3432,15 +3534,17 @@
         <v>37</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G45" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="30"/>
+        <v>45</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>140</v>
+      </c>
       <c r="I45" s="36"/>
       <c r="J45" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K45" s="43">
         <f t="shared" si="0"/>
@@ -3451,14 +3555,14 @@
       </c>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
-        <v>26</v>
-      </c>
-      <c r="B46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -3467,18 +3571,16 @@
       <c r="E46" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>142</v>
-      </c>
+      <c r="F46" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="30"/>
       <c r="I46" s="36"/>
       <c r="J46" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" s="43">
         <f t="shared" si="0"/>
@@ -3489,11 +3591,11 @@
       </c>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
-        <v>27</v>
-      </c>
-      <c r="B47" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -3506,15 +3608,17 @@
         <v>37</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47" s="20"/>
+        <v>49</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="I47" s="36"/>
       <c r="J47" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K47" s="43">
         <f t="shared" si="0"/>
@@ -3525,14 +3629,14 @@
       </c>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
-        <v>28</v>
-      </c>
-      <c r="B48" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="11" t="s">
@@ -3542,15 +3646,15 @@
         <v>37</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H48" s="20"/>
       <c r="I48" s="36"/>
       <c r="J48" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K48" s="43">
         <f t="shared" si="0"/>
@@ -3563,7 +3667,7 @@
     </row>
     <row r="49" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>17</v>
@@ -3578,15 +3682,15 @@
         <v>37</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H49" s="20"/>
       <c r="I49" s="36"/>
       <c r="J49" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K49" s="43">
         <f t="shared" si="0"/>
@@ -3597,9 +3701,9 @@
       </c>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="1:13" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>17</v>
@@ -3611,65 +3715,65 @@
         <v>25</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="36"/>
-      <c r="J50" s="6"/>
+      <c r="J50" s="6">
+        <v>5</v>
+      </c>
       <c r="K50" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L50" s="6"/>
+      <c r="L50" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F51" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="G51" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H51" s="32"/>
+      <c r="E51" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="20"/>
       <c r="I51" s="36"/>
-      <c r="J51" s="6">
-        <v>1</v>
-      </c>
+      <c r="J51" s="6"/>
       <c r="K51" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L51" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L51" s="6"/>
       <c r="M51" s="6"/>
     </row>
     <row r="52" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
-        <v>32</v>
-      </c>
-      <c r="B52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="11" t="s">
@@ -3679,18 +3783,18 @@
         <v>25</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="32" t="s">
         <v>66</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H52" s="32"/>
       <c r="I52" s="36"/>
       <c r="J52" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K52" s="43">
         <f t="shared" si="0"/>
@@ -3701,9 +3805,9 @@
       </c>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>17</v>
@@ -3715,27 +3819,31 @@
         <v>25</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H53" s="22"/>
+        <v>67</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="32"/>
       <c r="I53" s="36"/>
-      <c r="J53" s="6"/>
+      <c r="J53" s="6">
+        <v>2</v>
+      </c>
       <c r="K53" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L53" s="6"/>
+      <c r="L53" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>17</v>
@@ -3747,13 +3855,13 @@
         <v>25</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="36"/>
@@ -3767,7 +3875,7 @@
     </row>
     <row r="55" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>17</v>
@@ -3778,14 +3886,14 @@
       <c r="D55" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>75</v>
+      <c r="E55" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>73</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="36"/>
@@ -3797,21 +3905,29 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
-        <v>36</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="D56" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
+        <v>75</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" s="22"/>
       <c r="I56" s="36"/>
       <c r="J56" s="6"/>
       <c r="K56" s="43">
@@ -3821,28 +3937,20 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="1:13" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
-        <v>37</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>19</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="11" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G57" s="31" t="s">
-        <v>88</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
       <c r="H57" s="31"/>
       <c r="I57" s="36"/>
       <c r="J57" s="6"/>
@@ -3853,9 +3961,9 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>17</v>
@@ -3867,15 +3975,15 @@
         <v>77</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="H58" s="31"/>
       <c r="I58" s="36"/>
       <c r="J58" s="6"/>
       <c r="K58" s="43">
@@ -3887,29 +3995,29 @@
     </row>
     <row r="59" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
-        <v>39</v>
-      </c>
-      <c r="B59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>89</v>
+      <c r="E59" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="36"/>
-      <c r="J59" s="13"/>
+      <c r="J59" s="6"/>
       <c r="K59" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3917,9 +4025,9 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>17</v>
@@ -3931,13 +4039,13 @@
         <v>77</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>90</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="36"/>
@@ -3949,31 +4057,31 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
-        <v>41</v>
-      </c>
-      <c r="B61" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>78</v>
+      <c r="E61" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="36"/>
-      <c r="J61" s="6"/>
+      <c r="J61" s="13"/>
       <c r="K61" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3981,9 +4089,9 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
     </row>
-    <row r="62" spans="1:13" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>17</v>
@@ -3995,13 +4103,13 @@
         <v>77</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>30</v>
+        <v>78</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="36"/>
@@ -4013,9 +4121,9 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
     </row>
-    <row r="63" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>17</v>
@@ -4027,13 +4135,13 @@
         <v>77</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="36"/>
@@ -4047,7 +4155,7 @@
     </row>
     <row r="64" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>17</v>
@@ -4059,13 +4167,13 @@
         <v>77</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="36"/>
@@ -4079,7 +4187,7 @@
     </row>
     <row r="65" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>17</v>
@@ -4090,14 +4198,14 @@
       <c r="D65" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E65" s="8" t="s">
-        <v>102</v>
+      <c r="E65" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="36"/>
@@ -4111,7 +4219,7 @@
     </row>
     <row r="66" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A66" s="14">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>17</v>
@@ -4123,13 +4231,13 @@
         <v>77</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="36"/>
@@ -4143,7 +4251,7 @@
     </row>
     <row r="67" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>17</v>
@@ -4154,14 +4262,14 @@
       <c r="D67" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E67" s="11" t="s">
-        <v>82</v>
+      <c r="E67" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="36"/>
@@ -4173,9 +4281,9 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
     </row>
-    <row r="68" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A68" s="14">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>17</v>
@@ -4187,13 +4295,13 @@
         <v>77</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="36"/>
@@ -4207,7 +4315,7 @@
     </row>
     <row r="69" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>17</v>
@@ -4219,13 +4327,13 @@
         <v>77</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="36"/>
@@ -4237,9 +4345,9 @@
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
     </row>
-    <row r="70" spans="1:13" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" s="14">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>17</v>
@@ -4248,16 +4356,16 @@
         <v>19</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="36"/>
@@ -4269,9 +4377,9 @@
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
     </row>
-    <row r="71" spans="1:13" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" s="14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>17</v>
@@ -4283,13 +4391,13 @@
         <v>25</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="36"/>
@@ -4301,9 +4409,9 @@
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
     </row>
-    <row r="72" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>17</v>
@@ -4312,16 +4420,16 @@
         <v>19</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="36"/>
@@ -4335,7 +4443,7 @@
     </row>
     <row r="73" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A73" s="14">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>17</v>
@@ -4347,13 +4455,13 @@
         <v>77</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="36"/>
@@ -4365,9 +4473,9 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
     </row>
-    <row r="74" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A74" s="14">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>17</v>
@@ -4378,16 +4486,16 @@
       <c r="D74" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H74" s="12"/>
+      <c r="E74" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H74" s="8"/>
       <c r="I74" s="36"/>
       <c r="J74" s="6"/>
       <c r="K74" s="43">
@@ -4397,50 +4505,60 @@
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="14">
+        <v>54</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H75" s="12"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+    </row>
+    <row r="76" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="14">
         <v>55</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B76" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="17" t="s">
+      <c r="C76" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E76" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F75" s="18" t="s">
+      <c r="F76" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G75" s="19" t="s">
+      <c r="G76" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L75" s="41"/>
-      <c r="M75" s="41"/>
-    </row>
-    <row r="76" spans="1:13" s="34" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="14">
-        <v>56</v>
-      </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="F76" s="18"/>
-      <c r="G76" s="19"/>
       <c r="H76" s="19"/>
       <c r="I76" s="36"/>
       <c r="J76" s="41"/>
@@ -4451,9 +4569,31 @@
       <c r="L76" s="41"/>
       <c r="M76" s="41"/>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
+    <row r="77" spans="1:13" s="34" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="14">
+        <v>56</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" s="18"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="41"/>
+      <c r="M77" s="41"/>
+    </row>
+    <row r="83" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1">
@@ -4461,39 +4601,40 @@
       <sortCondition ref="K1"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="5">
-    <mergeCell ref="D10:F10"/>
+  <mergeCells count="6">
     <mergeCell ref="D11:F11"/>
-    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="H2:H12"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <dataValidations xWindow="1023" yWindow="304" count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J59:J60 J2:J41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J60:J61 J2:J42">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="J61:J74 J42:J58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="J62:J75 J43:J59">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="M32:M74">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="M33:M75">
       <formula1>1</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L75">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B75">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C75">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I77">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2:H11" r:id="rId1" display="..\ProjectExecution\BA\SpecsWireframes"/>
+    <hyperlink ref="H2:H12" r:id="rId1" display="..\ProjectExecution\BA\SpecsWireframes"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\AgilePM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ProductBacklog!$A$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -28,7 +23,7 @@
     <author>Sydney</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="186">
   <si>
     <t>Anodiam</t>
   </si>
@@ -1528,6 +1523,140 @@
       </rPr>
       <t xml:space="preserve"> I should be able to view the valid token in Postman Tool
 </t>
+    </r>
+  </si>
+  <si>
+    <t>Unsigned User (intending to be teacher)</t>
+  </si>
+  <si>
+    <t>As a logged in teacher user</t>
+  </si>
+  <si>
+    <t>So that I can view and upload my list of course videos and question papers, see a logout link in my Anodiam user account</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a logged in teacher user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I log into Anodiam
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to see my Anodiam user account page containing my list of uploaded courses,question papers and see a logout link</t>
+    </r>
+  </si>
+  <si>
+    <t>So that I can view answer sheets submitted by each student</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a logged in teacher user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I log into Anodiam
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to see answer sheet submitted by each student.</t>
     </r>
   </si>
 </sst>
@@ -1827,7 +1956,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1975,6 +2104,19 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2006,12 +2148,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2257,31 +2393,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2361,11 +2497,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2448,7 +2584,7 @@
       <c r="G2" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="70" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="36">
@@ -2478,13 +2614,13 @@
       <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="68"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="56"/>
-      <c r="H3" s="65"/>
+      <c r="H3" s="70"/>
       <c r="I3" s="36">
         <v>8</v>
       </c>
@@ -2524,7 +2660,7 @@
       <c r="G4" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="H4" s="65"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="36">
         <v>13</v>
       </c>
@@ -2552,13 +2688,13 @@
       <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="68"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="56"/>
-      <c r="H5" s="65"/>
+      <c r="H5" s="70"/>
       <c r="I5" s="36">
         <v>13</v>
       </c>
@@ -2577,28 +2713,28 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="69">
+      <c r="A6" s="59">
         <v>3</v>
       </c>
-      <c r="B6" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="70" t="s">
+      <c r="B6" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="65"/>
+      <c r="H6" s="70"/>
       <c r="I6" s="36">
         <v>8</v>
       </c>
@@ -2615,24 +2751,24 @@
       <c r="M6" s="35"/>
     </row>
     <row r="7" spans="1:13" s="54" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69">
+      <c r="A7" s="59">
         <v>3.1</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="71" t="s">
+      <c r="C7" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="70" t="s">
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="65"/>
+      <c r="H7" s="70"/>
       <c r="I7" s="36">
         <v>8</v>
       </c>
@@ -2668,7 +2804,7 @@
       <c r="G8" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="H8" s="65"/>
+      <c r="H8" s="70"/>
       <c r="I8" s="36">
         <v>5</v>
       </c>
@@ -2706,7 +2842,7 @@
       <c r="G9" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="70"/>
       <c r="I9" s="36">
         <v>5</v>
       </c>
@@ -2744,7 +2880,7 @@
       <c r="G10" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="65"/>
+      <c r="H10" s="70"/>
       <c r="I10" s="36">
         <v>5</v>
       </c>
@@ -2770,15 +2906,15 @@
       <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="H11" s="65"/>
+      <c r="H11" s="70"/>
       <c r="I11" s="36">
         <v>8</v>
       </c>
@@ -2804,15 +2940,15 @@
       <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="65"/>
+      <c r="H12" s="70"/>
       <c r="I12" s="36">
         <v>13</v>
       </c>
@@ -2828,49 +2964,118 @@
       </c>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="36"/>
+    <row r="13" spans="1:13" s="57" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35">
+        <v>9</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="58"/>
+      <c r="I13" s="36">
+        <v>13</v>
+      </c>
+      <c r="J13" s="40">
+        <v>5</v>
+      </c>
+      <c r="K13" s="43">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="M13" s="35"/>
     </row>
-    <row r="14" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="36"/>
+    <row r="14" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="35">
+        <v>10</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>183</v>
+      </c>
       <c r="H14" s="42"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="36"/>
+      <c r="I14" s="36">
+        <v>13</v>
+      </c>
+      <c r="J14" s="40">
+        <v>5</v>
+      </c>
+      <c r="K14" s="43">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="36"/>
+    <row r="15" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="35">
+        <v>11</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>185</v>
+      </c>
       <c r="H15" s="42"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="36"/>
+      <c r="I15" s="36">
+        <v>13</v>
+      </c>
+      <c r="J15" s="40">
+        <v>5</v>
+      </c>
+      <c r="K15" s="43">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="M15" s="35"/>
     </row>
     <row r="16" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
@@ -3117,9 +3322,9 @@
       <c r="A32" s="35"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="36"/>
       <c r="H32" s="42"/>
       <c r="I32" s="36"/>
@@ -3135,24 +3340,12 @@
       <c r="A33" s="14">
         <v>12</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>34</v>
-      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
       <c r="H33" s="21" t="s">
         <v>130</v>
       </c>
@@ -3165,7 +3358,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>13</v>
       </c>
@@ -3175,17 +3368,17 @@
       <c r="C34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>36</v>
+      <c r="E34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="H34" s="23" t="s">
         <v>131</v>
@@ -3213,17 +3406,17 @@
       <c r="C35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>64</v>
+      <c r="E35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="H35" s="20" t="s">
         <v>132</v>
@@ -3241,23 +3434,23 @@
       <c r="A36" s="14">
         <v>15</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>39</v>
+        <v>62</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="H36" s="24" t="s">
         <v>133</v>
@@ -3275,27 +3468,27 @@
       </c>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>16</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>41</v>
+      <c r="F37" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="H37" s="25"/>
       <c r="I37" s="36"/>
@@ -3311,27 +3504,27 @@
       </c>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>17</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="H38" s="26" t="s">
         <v>134</v>
@@ -3345,7 +3538,7 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>18</v>
       </c>
@@ -3362,10 +3555,10 @@
         <v>58</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H39" s="26"/>
       <c r="I39" s="36"/>
@@ -3377,18 +3570,28 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>19</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="E40" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="H40" s="27"/>
       <c r="I40" s="36"/>
       <c r="J40" s="6"/>
@@ -3407,7 +3610,7 @@
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -3429,7 +3632,7 @@
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
@@ -3447,24 +3650,14 @@
       <c r="A43" s="14">
         <v>22</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
       <c r="H43" s="28" t="s">
         <v>139</v>
       </c>
@@ -3485,7 +3678,7 @@
       <c r="A44" s="14">
         <v>23</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -3498,10 +3691,10 @@
         <v>37</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H44" s="28"/>
       <c r="I44" s="36"/>
@@ -3521,23 +3714,23 @@
       <c r="A45" s="14">
         <v>24</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="6" t="s">
+      <c r="B45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" s="30" t="s">
-        <v>45</v>
+      <c r="F45" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="H45" s="30" t="s">
         <v>140</v>
@@ -3555,11 +3748,11 @@
       </c>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>25</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -3572,10 +3765,10 @@
         <v>37</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H46" s="30"/>
       <c r="I46" s="36"/>
@@ -3591,14 +3784,14 @@
       </c>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>26</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="11" t="s">
+      <c r="B47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="11" t="s">
@@ -3607,11 +3800,11 @@
       <c r="E47" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>49</v>
+      <c r="F47" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="H47" s="20" t="s">
         <v>142</v>
@@ -3629,11 +3822,11 @@
       </c>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>27</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -3646,10 +3839,10 @@
         <v>37</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H48" s="20"/>
       <c r="I48" s="36"/>
@@ -3665,14 +3858,14 @@
       </c>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>28</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="11" t="s">
@@ -3682,10 +3875,10 @@
         <v>37</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H49" s="20"/>
       <c r="I49" s="36"/>
@@ -3718,10 +3911,10 @@
         <v>37</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="36"/>
@@ -3737,7 +3930,7 @@
       </c>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>30</v>
       </c>
@@ -3751,13 +3944,13 @@
         <v>25</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="H51" s="20"/>
       <c r="I51" s="36"/>
@@ -3776,20 +3969,20 @@
       <c r="B52" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>56</v>
+      <c r="E52" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="H52" s="32"/>
       <c r="I52" s="36"/>
@@ -3809,7 +4002,7 @@
       <c r="A53" s="14">
         <v>32</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="11" t="s">
@@ -3819,13 +4012,13 @@
         <v>25</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F53" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="32" t="s">
         <v>66</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H53" s="32"/>
       <c r="I53" s="36"/>
@@ -3841,7 +4034,7 @@
       </c>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
         <v>33</v>
       </c>
@@ -3855,13 +4048,13 @@
         <v>25</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="36"/>
@@ -3873,7 +4066,7 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>34</v>
       </c>
@@ -3887,13 +4080,13 @@
         <v>25</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="36"/>
@@ -3918,14 +4111,14 @@
       <c r="D56" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>75</v>
+      <c r="E56" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>73</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H56" s="22"/>
       <c r="I56" s="36"/>
@@ -3937,20 +4130,28 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
         <v>36</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
+      <c r="B57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="D57" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
+        <v>75</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="H57" s="31"/>
       <c r="I57" s="36"/>
       <c r="J57" s="6"/>
@@ -3961,28 +4162,20 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="1:13" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>37</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="11" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F58" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G58" s="31" t="s">
-        <v>88</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
       <c r="H58" s="31"/>
       <c r="I58" s="36"/>
       <c r="J58" s="6"/>
@@ -4007,13 +4200,13 @@
         <v>77</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>32</v>
+        <v>86</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="36"/>
@@ -4029,23 +4222,23 @@
       <c r="A60" s="14">
         <v>39</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="6" t="s">
+      <c r="B60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>89</v>
+      <c r="E60" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="36"/>
@@ -4057,7 +4250,7 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>40</v>
       </c>
@@ -4071,13 +4264,13 @@
         <v>77</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>90</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="36"/>
@@ -4089,27 +4282,27 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
     </row>
-    <row r="62" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>41</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="11" t="s">
+      <c r="B62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E62" s="11" t="s">
-        <v>78</v>
+      <c r="E62" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="36"/>
@@ -4121,7 +4314,7 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
     </row>
-    <row r="63" spans="1:13" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <v>42</v>
       </c>
@@ -4135,13 +4328,13 @@
         <v>77</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>30</v>
+        <v>78</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="36"/>
@@ -4153,7 +4346,7 @@
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
     </row>
-    <row r="64" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
         <v>43</v>
       </c>
@@ -4167,13 +4360,13 @@
         <v>77</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="36"/>
@@ -4199,13 +4392,13 @@
         <v>77</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="36"/>
@@ -4230,14 +4423,14 @@
       <c r="D66" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="8" t="s">
-        <v>102</v>
+      <c r="E66" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="36"/>
@@ -4263,13 +4456,13 @@
         <v>77</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="36"/>
@@ -4294,14 +4487,14 @@
       <c r="D68" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="11" t="s">
-        <v>82</v>
+      <c r="E68" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="36"/>
@@ -4313,7 +4506,7 @@
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
     </row>
-    <row r="69" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
         <v>48</v>
       </c>
@@ -4327,13 +4520,13 @@
         <v>77</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="36"/>
@@ -4359,13 +4552,13 @@
         <v>77</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="36"/>
@@ -4388,16 +4581,16 @@
         <v>19</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="36"/>
@@ -4409,7 +4602,7 @@
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
     </row>
-    <row r="72" spans="1:13" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
         <v>51</v>
       </c>
@@ -4423,13 +4616,13 @@
         <v>25</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="36"/>
@@ -4441,7 +4634,7 @@
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="14">
         <v>52</v>
       </c>
@@ -4452,16 +4645,16 @@
         <v>19</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="36"/>
@@ -4487,13 +4680,13 @@
         <v>77</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="36"/>
@@ -4505,7 +4698,7 @@
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A75" s="14">
         <v>54</v>
       </c>
@@ -4518,14 +4711,14 @@
       <c r="D75" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>129</v>
+      <c r="E75" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="36"/>
@@ -4537,27 +4730,27 @@
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="14">
         <v>55</v>
       </c>
-      <c r="B76" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="17" t="s">
+      <c r="B76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E76" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>111</v>
+      <c r="E76" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="36"/>
@@ -4569,18 +4762,28 @@
       <c r="L76" s="41"/>
       <c r="M76" s="41"/>
     </row>
-    <row r="77" spans="1:13" s="34" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" s="34" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="14">
         <v>56</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="F77" s="18"/>
-      <c r="G77" s="19"/>
+      <c r="B77" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>111</v>
+      </c>
       <c r="H77" s="19"/>
       <c r="I77" s="36"/>
       <c r="J77" s="41"/>
@@ -4591,9 +4794,21 @@
       <c r="L77" s="41"/>
       <c r="M77" s="41"/>
     </row>
+    <row r="78" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F78" s="18"/>
+      <c r="G78" s="19"/>
+    </row>
     <row r="83" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G83" s="10"/>
       <c r="H83" s="10"/>
+    </row>
+    <row r="84" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G84" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1">
@@ -4623,14 +4838,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L75">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I77">
+      <formula1>"1,2,3,5,8,13"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B76">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C76">
       <formula1>"Epic,Story"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I77">
-      <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\AgilePM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ProductBacklog!$A$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -23,7 +28,7 @@
     <author>Sydney</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2380,7 +2385,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2500,8 +2505,8 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\AgilePM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
@@ -28,7 +23,7 @@
     <author>Sydney</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ProductBacklog!$A$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="187">
   <si>
     <t>Anodiam</t>
   </si>
@@ -1369,10 +1369,6 @@
 (Story Points)</t>
   </si>
   <si>
-    <t>D:\Anodiam\Docs\ProjectExecution\BA\SpecsWireframes\001UI.pptx
-D:\Anodiam\Docs\ProjectExecution\BA\SpecsWireframes\001Specs.docx</t>
-  </si>
-  <si>
     <t>Home Page Responsive HTML, Image and fonts selection</t>
   </si>
   <si>
@@ -1658,13 +1654,19 @@
       </rPr>
       <t xml:space="preserve"> I shall be able to see answer sheet submitted by each student.</t>
     </r>
+  </si>
+  <si>
+    <t>..\ProjectExecution\BA\SpecsWireframes\new001Wireframes.pptx</t>
+  </si>
+  <si>
+    <t>..\ProjectExecution\BA\Functional requirements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1744,13 +1746,6 @@
     <font>
       <u/>
       <sz val="8"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1956,7 +1951,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2075,16 +2070,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2105,9 +2100,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2135,9 +2127,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2393,31 +2382,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2499,9 +2488,9 @@
   </sheetPr>
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2584,8 +2573,8 @@
       <c r="G2" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="70" t="s">
-        <v>174</v>
+      <c r="H2" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="I2" s="36">
         <v>13</v>
@@ -2614,13 +2603,15 @@
       <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
+      <c r="D3" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="56"/>
-      <c r="H3" s="70"/>
+      <c r="H3" s="42" t="s">
+        <v>186</v>
+      </c>
       <c r="I3" s="36">
         <v>8</v>
       </c>
@@ -2660,7 +2651,7 @@
       <c r="G4" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="H4" s="70"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="36">
         <v>13</v>
       </c>
@@ -2688,13 +2679,13 @@
       <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
+      <c r="D5" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="56"/>
-      <c r="H5" s="70"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="36">
         <v>13</v>
       </c>
@@ -2713,28 +2704,28 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="59">
+      <c r="A6" s="58">
         <v>3</v>
       </c>
-      <c r="B6" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="60" t="s">
+      <c r="B6" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="70"/>
+      <c r="G6" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="36"/>
       <c r="I6" s="36">
         <v>8</v>
       </c>
@@ -2751,24 +2742,24 @@
       <c r="M6" s="35"/>
     </row>
     <row r="7" spans="1:13" s="54" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59">
+      <c r="A7" s="58">
         <v>3.1</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="70"/>
+      <c r="C7" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="36"/>
       <c r="I7" s="36">
         <v>8</v>
       </c>
@@ -2804,7 +2795,7 @@
       <c r="G8" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="H8" s="70"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="36">
         <v>5</v>
       </c>
@@ -2842,7 +2833,7 @@
       <c r="G9" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="H9" s="70"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="36">
         <v>5</v>
       </c>
@@ -2880,7 +2871,7 @@
       <c r="G10" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="70"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="36">
         <v>5</v>
       </c>
@@ -2906,15 +2897,15 @@
       <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="H11" s="70"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="36">
         <v>8</v>
       </c>
@@ -2940,15 +2931,15 @@
       <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="69"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="70"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="36">
         <v>13</v>
       </c>
@@ -2968,14 +2959,14 @@
       <c r="A13" s="35">
         <v>9</v>
       </c>
-      <c r="B13" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="61" t="s">
+      <c r="B13" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="60" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>172</v>
@@ -2986,7 +2977,7 @@
       <c r="G13" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="H13" s="58"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="36">
         <v>13</v>
       </c>
@@ -3013,16 +3004,16 @@
         <v>19</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>155</v>
       </c>
       <c r="F14" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="36" t="s">
         <v>182</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>183</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="36">
@@ -3051,16 +3042,16 @@
         <v>19</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>155</v>
       </c>
       <c r="F15" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="36" t="s">
         <v>184</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>185</v>
       </c>
       <c r="H15" s="42"/>
       <c r="I15" s="36">
@@ -4816,10 +4807,9 @@
       <sortCondition ref="K1"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
-    <mergeCell ref="H2:H12"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D7:F7"/>
@@ -4849,7 +4839,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2:H12" r:id="rId1" display="..\ProjectExecution\BA\SpecsWireframes"/>
+    <hyperlink ref="H3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -1656,10 +1656,10 @@
     </r>
   </si>
   <si>
-    <t>..\ProjectExecution\BA\SpecsWireframes\new001Wireframes.pptx</t>
-  </si>
-  <si>
     <t>..\ProjectExecution\BA\Functional requirements</t>
+  </si>
+  <si>
+    <t>..\ProjectExecution\BA\SpecsWireframes\001Wireframes.pptx</t>
   </si>
 </sst>
 </file>
@@ -2490,7 +2490,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2573,8 +2573,8 @@
       <c r="G2" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="36" t="s">
-        <v>185</v>
+      <c r="H2" s="42" t="s">
+        <v>186</v>
       </c>
       <c r="I2" s="36">
         <v>13</v>
@@ -2610,7 +2610,7 @@
       <c r="F3" s="71"/>
       <c r="G3" s="56"/>
       <c r="H3" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I3" s="36">
         <v>8</v>
@@ -4840,9 +4840,10 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="193">
   <si>
     <t>Anodiam</t>
   </si>
@@ -1660,6 +1660,183 @@
   </si>
   <si>
     <t>..\ProjectExecution\BA\SpecsWireframes\001Wireframes.pptx</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>home page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>anodiam.com/teacher</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I type anodiam.com/teacher on a web browser
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see the Anodiam home page: containing a valid link to Sign up to anodiam.com and another link to log in.</t>
+    </r>
+  </si>
+  <si>
+    <t>I can view link to sign up and login</t>
+  </si>
+  <si>
+    <t>I can Sign up</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I type user name and password
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to sign up with valid user name nd password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">login into </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>anodiam.com</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1951,7 +2128,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2109,6 +2286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2382,31 +2560,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2486,11 +2664,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2583,7 +2761,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="43">
-        <f t="shared" ref="K2:K77" si="0">IF(I2=0,0,J2/I2)</f>
+        <f t="shared" ref="K2:K78" si="0">IF(I2=0,0,J2/I2)</f>
         <v>0.38461538461538464</v>
       </c>
       <c r="L2" s="35" t="s">
@@ -2603,11 +2781,11 @@
       <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="56"/>
       <c r="H3" s="42" t="s">
         <v>185</v>
@@ -2679,11 +2857,11 @@
       <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="56"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36">
@@ -2751,11 +2929,11 @@
       <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
       <c r="G7" s="59" t="s">
         <v>178</v>
       </c>
@@ -2897,11 +3075,11 @@
       <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="36" t="s">
         <v>161</v>
       </c>
@@ -2931,11 +3109,11 @@
       <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
@@ -2955,67 +3133,52 @@
       </c>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:13" s="57" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35">
-        <v>9</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>19</v>
-      </c>
+    <row r="13" spans="1:13" s="61" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="31" t="s">
         <v>179</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="H13" s="36"/>
-      <c r="I13" s="36">
-        <v>13</v>
-      </c>
-      <c r="J13" s="40">
-        <v>5</v>
-      </c>
-      <c r="K13" s="43">
-        <f t="shared" si="0"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>24</v>
-      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="35"/>
     </row>
-    <row r="14" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="57" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
-        <v>10</v>
-      </c>
-      <c r="B14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="H14" s="42"/>
+      <c r="C14" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="36"/>
       <c r="I14" s="36">
         <v>13</v>
       </c>
@@ -3026,14 +3189,14 @@
         <f t="shared" si="0"/>
         <v>0.38461538461538464</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="35" t="s">
         <v>24</v>
       </c>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>17</v>
@@ -3044,14 +3207,14 @@
       <c r="D15" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="36" t="s">
-        <v>155</v>
+      <c r="E15" s="31" t="s">
+        <v>192</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H15" s="42"/>
       <c r="I15" s="36">
@@ -3069,19 +3232,42 @@
       </c>
       <c r="M15" s="35"/>
     </row>
-    <row r="16" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="36"/>
+    <row r="16" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="35">
+        <v>11</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>184</v>
+      </c>
       <c r="H16" s="42"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="36"/>
+      <c r="I16" s="36">
+        <v>13</v>
+      </c>
+      <c r="J16" s="40">
+        <v>5</v>
+      </c>
+      <c r="K16" s="43">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="M16" s="35"/>
     </row>
     <row r="17" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
@@ -3320,76 +3506,53 @@
       <c r="H32" s="42"/>
       <c r="I32" s="36"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="35"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="36"/>
       <c r="M32" s="35"/>
     </row>
-    <row r="33" spans="1:13" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="14">
-        <v>12</v>
-      </c>
+    <row r="33" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="35"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="36"/>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="42"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+    </row>
+    <row r="34" spans="1:13" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>12</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="I33" s="36"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="43">
+      <c r="I34" s="36"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
         <v>13</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="13">
-        <v>4</v>
-      </c>
-      <c r="K34" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M34" s="6"/>
-    </row>
-    <row r="35" spans="1:13" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="14">
-        <v>14</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>17</v>
@@ -3397,33 +3560,37 @@
       <c r="C35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>132</v>
+      <c r="E35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="I35" s="36"/>
-      <c r="J35" s="13"/>
+      <c r="J35" s="13">
+        <v>4</v>
+      </c>
       <c r="K35" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L35" s="6"/>
+      <c r="L35" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>17</v>
@@ -3431,60 +3598,58 @@
       <c r="C36" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>133</v>
+      <c r="E36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="I36" s="36"/>
-      <c r="J36" s="13">
-        <v>5</v>
-      </c>
+      <c r="J36" s="13"/>
       <c r="K36" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L36" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
-        <v>16</v>
-      </c>
-      <c r="B37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="25"/>
+        <v>62</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>133</v>
+      </c>
       <c r="I37" s="36"/>
-      <c r="J37" s="6">
-        <v>1</v>
+      <c r="J37" s="13">
+        <v>5</v>
       </c>
       <c r="K37" s="43">
         <f t="shared" si="0"/>
@@ -3495,63 +3660,67 @@
       </c>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
+        <v>16</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="C38" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>134</v>
-      </c>
+      <c r="F38" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="25"/>
       <c r="I38" s="36"/>
-      <c r="J38" s="6"/>
+      <c r="J38" s="6">
+        <v>1</v>
+      </c>
       <c r="K38" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L38" s="6"/>
+      <c r="L38" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" s="26"/>
+        <v>37</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>134</v>
+      </c>
       <c r="I39" s="36"/>
       <c r="J39" s="6"/>
       <c r="K39" s="43">
@@ -3561,9 +3730,9 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>17</v>
@@ -3578,12 +3747,12 @@
         <v>58</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="H40" s="27"/>
+        <v>60</v>
+      </c>
+      <c r="H40" s="26"/>
       <c r="I40" s="36"/>
       <c r="J40" s="6"/>
       <c r="K40" s="43">
@@ -3593,18 +3762,28 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
-        <v>20</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="E41" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="H41" s="27"/>
       <c r="I41" s="36"/>
       <c r="J41" s="6"/>
@@ -3617,13 +3796,13 @@
     </row>
     <row r="42" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
@@ -3637,60 +3816,46 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
-      <c r="H43" s="28" t="s">
-        <v>139</v>
-      </c>
+      <c r="H43" s="27"/>
       <c r="I43" s="36"/>
-      <c r="J43" s="6">
-        <v>3</v>
-      </c>
+      <c r="J43" s="6"/>
       <c r="K43" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
     <row r="44" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
-        <v>23</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" s="28"/>
+        <v>22</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28" t="s">
+        <v>139</v>
+      </c>
       <c r="I44" s="36"/>
       <c r="J44" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K44" s="43">
         <f t="shared" si="0"/>
@@ -3701,11 +3866,11 @@
       </c>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
-        <v>24</v>
-      </c>
-      <c r="B45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="11" t="s">
@@ -3718,17 +3883,15 @@
         <v>37</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="30" t="s">
-        <v>140</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H45" s="28"/>
       <c r="I45" s="36"/>
       <c r="J45" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K45" s="43">
         <f t="shared" si="0"/>
@@ -3741,30 +3904,32 @@
     </row>
     <row r="46" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
-        <v>25</v>
-      </c>
-      <c r="B46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G46" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H46" s="30"/>
+      <c r="F46" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>140</v>
+      </c>
       <c r="I46" s="36"/>
       <c r="J46" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K46" s="43">
         <f t="shared" si="0"/>
@@ -3775,11 +3940,11 @@
       </c>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
-        <v>26</v>
-      </c>
-      <c r="B47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -3792,17 +3957,15 @@
         <v>37</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>142</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H47" s="30"/>
       <c r="I47" s="36"/>
       <c r="J47" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" s="43">
         <f t="shared" si="0"/>
@@ -3813,14 +3976,14 @@
       </c>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
-        <v>27</v>
-      </c>
-      <c r="B48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="11" t="s">
@@ -3829,16 +3992,18 @@
       <c r="E48" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" s="20"/>
+      <c r="F48" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="I48" s="36"/>
       <c r="J48" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K48" s="43">
         <f t="shared" si="0"/>
@@ -3849,11 +4014,11 @@
       </c>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
-        <v>28</v>
-      </c>
-      <c r="B49" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -3866,15 +4031,15 @@
         <v>37</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H49" s="20"/>
       <c r="I49" s="36"/>
       <c r="J49" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K49" s="43">
         <f t="shared" si="0"/>
@@ -3885,14 +4050,14 @@
       </c>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
-        <v>29</v>
-      </c>
-      <c r="B50" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="11" t="s">
@@ -3902,15 +4067,15 @@
         <v>37</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="36"/>
       <c r="J50" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K50" s="43">
         <f t="shared" si="0"/>
@@ -3921,9 +4086,9 @@
       </c>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>17</v>
@@ -3938,24 +4103,28 @@
         <v>37</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H51" s="20"/>
       <c r="I51" s="36"/>
-      <c r="J51" s="6"/>
+      <c r="J51" s="6">
+        <v>5</v>
+      </c>
       <c r="K51" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L51" s="6"/>
+      <c r="L51" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>17</v>
@@ -3967,54 +4136,50 @@
         <v>25</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H52" s="32"/>
+        <v>54</v>
+      </c>
+      <c r="H52" s="20"/>
       <c r="I52" s="36"/>
-      <c r="J52" s="6">
-        <v>1</v>
-      </c>
+      <c r="J52" s="6"/>
       <c r="K52" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L52" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L52" s="6"/>
       <c r="M52" s="6"/>
     </row>
     <row r="53" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="G53" s="32" t="s">
-        <v>56</v>
+      <c r="E53" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="H53" s="32"/>
       <c r="I53" s="36"/>
       <c r="J53" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K53" s="43">
         <f t="shared" si="0"/>
@@ -4025,11 +4190,11 @@
       </c>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
-        <v>33</v>
-      </c>
-      <c r="B54" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C54" s="11" t="s">
@@ -4039,27 +4204,31 @@
         <v>25</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F54" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="32" t="s">
         <v>66</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H54" s="22"/>
+        <v>56</v>
+      </c>
+      <c r="H54" s="32"/>
       <c r="I54" s="36"/>
-      <c r="J54" s="6"/>
+      <c r="J54" s="6">
+        <v>2</v>
+      </c>
       <c r="K54" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L54" s="6"/>
+      <c r="L54" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>17</v>
@@ -4071,13 +4240,13 @@
         <v>25</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="36"/>
@@ -4089,9 +4258,9 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>17</v>
@@ -4103,13 +4272,13 @@
         <v>25</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H56" s="22"/>
       <c r="I56" s="36"/>
@@ -4121,9 +4290,9 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="1:13" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>17</v>
@@ -4134,16 +4303,16 @@
       <c r="D57" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>75</v>
+      <c r="E57" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>73</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H57" s="31"/>
+        <v>74</v>
+      </c>
+      <c r="H57" s="22"/>
       <c r="I57" s="36"/>
       <c r="J57" s="6"/>
       <c r="K57" s="43">
@@ -4153,20 +4322,28 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
-        <v>37</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="D58" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
+        <v>75</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="H58" s="31"/>
       <c r="I58" s="36"/>
       <c r="J58" s="6"/>
@@ -4177,29 +4354,21 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
     </row>
-    <row r="59" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
-        <v>38</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>19</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="11" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G59" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="H59" s="8"/>
+        <v>143</v>
+      </c>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
       <c r="I59" s="36"/>
       <c r="J59" s="6"/>
       <c r="K59" s="43">
@@ -4211,7 +4380,7 @@
     </row>
     <row r="60" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>17</v>
@@ -4223,17 +4392,17 @@
         <v>77</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>32</v>
+        <v>86</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="36"/>
-      <c r="J60" s="13"/>
+      <c r="J60" s="6"/>
       <c r="K60" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4243,25 +4412,25 @@
     </row>
     <row r="61" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
-        <v>40</v>
-      </c>
-      <c r="B61" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>89</v>
+      <c r="E61" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="36"/>
@@ -4273,9 +4442,9 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
     </row>
-    <row r="62" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>17</v>
@@ -4287,17 +4456,17 @@
         <v>77</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>90</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="36"/>
-      <c r="J62" s="6"/>
+      <c r="J62" s="13"/>
       <c r="K62" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4305,27 +4474,27 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
     </row>
-    <row r="63" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
-        <v>42</v>
-      </c>
-      <c r="B63" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E63" s="11" t="s">
-        <v>78</v>
+      <c r="E63" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="36"/>
@@ -4337,9 +4506,9 @@
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
     </row>
-    <row r="64" spans="1:13" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>17</v>
@@ -4351,13 +4520,13 @@
         <v>77</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>30</v>
+        <v>78</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="36"/>
@@ -4369,9 +4538,9 @@
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
     </row>
-    <row r="65" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>17</v>
@@ -4383,13 +4552,13 @@
         <v>77</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="36"/>
@@ -4403,7 +4572,7 @@
     </row>
     <row r="66" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A66" s="14">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>17</v>
@@ -4415,13 +4584,13 @@
         <v>77</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="36"/>
@@ -4435,7 +4604,7 @@
     </row>
     <row r="67" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>17</v>
@@ -4446,14 +4615,14 @@
       <c r="D67" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>102</v>
+      <c r="E67" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="36"/>
@@ -4467,7 +4636,7 @@
     </row>
     <row r="68" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A68" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>17</v>
@@ -4479,13 +4648,13 @@
         <v>77</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="36"/>
@@ -4499,7 +4668,7 @@
     </row>
     <row r="69" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>17</v>
@@ -4510,14 +4679,14 @@
       <c r="D69" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E69" s="11" t="s">
-        <v>82</v>
+      <c r="E69" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="36"/>
@@ -4529,9 +4698,9 @@
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
     </row>
-    <row r="70" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A70" s="14">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>17</v>
@@ -4543,13 +4712,13 @@
         <v>77</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="36"/>
@@ -4561,9 +4730,9 @@
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
     </row>
-    <row r="71" spans="1:13" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" s="14">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>17</v>
@@ -4575,13 +4744,13 @@
         <v>77</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="36"/>
@@ -4595,7 +4764,7 @@
     </row>
     <row r="72" spans="1:13" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>17</v>
@@ -4604,16 +4773,16 @@
         <v>19</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="36"/>
@@ -4625,9 +4794,9 @@
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" s="14">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>17</v>
@@ -4639,13 +4808,13 @@
         <v>25</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="36"/>
@@ -4657,9 +4826,9 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
     </row>
-    <row r="74" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="14">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>17</v>
@@ -4668,16 +4837,16 @@
         <v>19</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="36"/>
@@ -4691,7 +4860,7 @@
     </row>
     <row r="75" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A75" s="14">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>17</v>
@@ -4703,15 +4872,15 @@
         <v>77</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H75" s="12"/>
+        <v>125</v>
+      </c>
+      <c r="H75" s="8"/>
       <c r="I75" s="36"/>
       <c r="J75" s="6"/>
       <c r="K75" s="43">
@@ -4721,9 +4890,9 @@
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A76" s="14">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>17</v>
@@ -4734,46 +4903,46 @@
       <c r="D76" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H76" s="12"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+    </row>
+    <row r="77" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A77" s="14">
+        <v>55</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F77" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G76" s="12" t="s">
+      <c r="G77" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-    </row>
-    <row r="77" spans="1:13" s="34" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="14">
-        <v>56</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E77" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G77" s="19" t="s">
-        <v>111</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="36"/>
@@ -4785,21 +4954,53 @@
       <c r="L77" s="41"/>
       <c r="M77" s="41"/>
     </row>
-    <row r="78" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="31" t="s">
+    <row r="78" spans="1:13" s="34" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="14">
+        <v>56</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
+    </row>
+    <row r="79" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="F78" s="18"/>
-      <c r="G78" s="19"/>
-    </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="H83" s="10"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="19"/>
     </row>
     <row r="84" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="85" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G85" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1">
@@ -4815,26 +5016,26 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <dataValidations xWindow="1023" yWindow="304" count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J60:J61 J2:J42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J61:J62 J2:J43">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="J62:J75 J43:J59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="J63:J76 J44:J60">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="M33:M75">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="M34:M76">
       <formula1>1</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L76">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I78">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B77">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C77">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -14,6 +14,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ProductBacklog!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -244,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="194">
   <si>
     <t>Anodiam</t>
   </si>
@@ -1662,6 +1663,24 @@
     <t>..\ProjectExecution\BA\SpecsWireframes\001Wireframes.pptx</t>
   </si>
   <si>
+    <t>I can view link to sign up and login</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">login into </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>anodiam.com</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">visit the </t>
     </r>
@@ -1673,7 +1692,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>home page</t>
+      <t>page</t>
     </r>
     <r>
       <rPr>
@@ -1693,6 +1712,30 @@
         <family val="2"/>
       </rPr>
       <t>anodiam.com/teacher</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Click on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sign up as teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>link</t>
     </r>
   </si>
   <si>
@@ -1753,14 +1796,30 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be able to see the Anodiam home page: containing a valid link to Sign up to anodiam.com and another link to log in.</t>
-    </r>
-  </si>
-  <si>
-    <t>I can view link to sign up and login</t>
-  </si>
-  <si>
-    <t>I can Sign up</t>
+      <t xml:space="preserve"> I should be able to see the page: containing a form to log in and also a link to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sign up as a teacher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to teacher application.</t>
+    </r>
+  </si>
+  <si>
+    <t>I can access the teacher sign up form</t>
   </si>
   <si>
     <r>
@@ -1800,7 +1859,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I type user name and password
+      <t xml:space="preserve"> I key in all the details in the form, attach my CV and accept the terms and conditions 
 </t>
     </r>
     <r>
@@ -1820,22 +1879,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be able to sign up with valid user name nd password</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">login into </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>anodiam.com</t>
+      <t xml:space="preserve"> I should be able to see a page saying that Anodiam admin will contact me. Also I should receive an email stating the same. </t>
     </r>
   </si>
 </sst>
@@ -1934,7 +1978,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2031,6 +2075,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -2128,7 +2178,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2283,10 +2333,13 @@
     <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2335,9 +2388,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2560,31 +2610,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2666,9 +2716,9 @@
   </sheetPr>
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2781,11 +2831,11 @@
       <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="56"/>
       <c r="H3" s="42" t="s">
         <v>185</v>
@@ -2857,11 +2907,11 @@
       <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="56"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36">
@@ -2929,11 +2979,11 @@
       <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="59" t="s">
         <v>178</v>
       </c>
@@ -3075,11 +3125,11 @@
       <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="36" t="s">
         <v>161</v>
       </c>
@@ -3109,11 +3159,11 @@
       <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
@@ -3133,21 +3183,25 @@
       </c>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:13" s="61" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="60" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="31" t="s">
+      <c r="B13" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="F13" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>188</v>
+      <c r="G13" s="61" t="s">
+        <v>191</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
@@ -3156,27 +3210,27 @@
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
     </row>
-    <row r="14" spans="1:13" s="57" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="57" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
         <v>9</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>191</v>
+      <c r="F14" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>193</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="36">
@@ -3208,7 +3262,7 @@
         <v>180</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>181</v>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="214">
   <si>
     <t>Anodiam</t>
   </si>
@@ -1663,9 +1663,6 @@
     <t>..\ProjectExecution\BA\SpecsWireframes\001Wireframes.pptx</t>
   </si>
   <si>
-    <t>I can view link to sign up and login</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">login into </t>
     </r>
@@ -1737,6 +1734,224 @@
       </rPr>
       <t>link</t>
     </r>
+  </si>
+  <si>
+    <t>I can access the teacher sign up form</t>
+  </si>
+  <si>
+    <t>Offline to the Anodiam Teacher app, Anodiam Admin app users will be able to accept or reject the above (intending to be) teacher's expression of interest to join Anodiam</t>
+  </si>
+  <si>
+    <t>Anodiam admin app will be notified to contact me to accept or reject my teacher's expression of interest to join Anodiam.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Unsigned User </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(intending to be teacher)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unsigned User (intending to be teacher) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rejected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin</t>
+    </r>
+  </si>
+  <si>
+    <t>I can know the reason for rejection and the date before which I should not try to reapply.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user rejected by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I receive a regret email from Anodiam Admin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to know the reason for my rejection and the date before which I should not try to reapply.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unsigned User (intending to be teacher) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin</t>
+    </r>
+  </si>
+  <si>
+    <t>Receive a regret email from Anodiam Admin about the status (rejection) of my above teacher's expression of interest to join Anodiam.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button in the Teacher Signup form after filling up the relevent fields including choosing my </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>user id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, uploading my CV, and accepting the terms and conditions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can get link to create passord for my chosen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>user id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Receive a congratulations email from Anodiam Admin about the status (acceptance) of my above teacher's expression of interest.</t>
+  </si>
+  <si>
+    <t>I can view link to sign up (for teacher registration) and a form to login (for registered teachers)</t>
   </si>
   <si>
     <r>
@@ -1796,7 +2011,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be able to see the page: containing a form to log in and also a link to </t>
+      <t xml:space="preserve"> I should be able to see the page: containing a form to log in (for registered teachers) and also a link to </t>
     </r>
     <r>
       <rPr>
@@ -1819,9 +2034,6 @@
     </r>
   </si>
   <si>
-    <t>I can access the teacher sign up form</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1839,7 +2051,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I am an unsigned user
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
 </t>
     </r>
     <r>
@@ -1859,7 +2071,26 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I key in all the details in the form, attach my CV and accept the terms and conditions 
+      <t xml:space="preserve"> I click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sign up as teacher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link
 </t>
     </r>
     <r>
@@ -1879,7 +2110,430 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be able to see a page saying that Anodiam admin will contact me. Also I should receive an email stating the same. </t>
+      <t xml:space="preserve"> I should be able to see the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Signup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> form with all its relevent fields, a control to upload my CV, the terms and conditions and a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I key in all the details in the form including choosing my user id, attach my CV, accept the terms and conditions and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see a page saying that Anodiam admin will contact me. Also I should receive an email from Anodiam Admin stating the same. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This is an external dependency on the Anodiam</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Admin app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. No action is required from any users of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher's App.</t>
+    </r>
+  </si>
+  <si>
+    <t>Click on the link to visit the page to create password for my user id.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I receive a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Acceptance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> email from Anodiam Admin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see a link to create password for my user id.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the link to visit the page to create password for my user id
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to visit the page to create my password.</t>
+    </r>
+  </si>
+  <si>
+    <t>I can visit the page to create my password where "enter password", "confirm password" (both in hide password format) and "submit button" will be displayed.</t>
+  </si>
+  <si>
+    <t>Create the password putting my details in the given fields</t>
+  </si>
+  <si>
+    <t>I can create my password and save it for the future use by clicking on the save button.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I create the password putting my details in the given fields
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to create my password and save it for the future use by clicking on the save button.</t>
     </r>
   </si>
 </sst>
@@ -2178,7 +2832,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2334,6 +2988,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2376,6 +3031,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2610,31 +3274,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2714,11 +3378,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2811,7 +3475,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="43">
-        <f t="shared" ref="K2:K78" si="0">IF(I2=0,0,J2/I2)</f>
+        <f t="shared" ref="K2:K84" si="0">IF(I2=0,0,J2/I2)</f>
         <v>0.38461538461538464</v>
       </c>
       <c r="L2" s="35" t="s">
@@ -2831,11 +3495,11 @@
       <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="56"/>
       <c r="H3" s="42" t="s">
         <v>185</v>
@@ -2907,11 +3571,11 @@
       <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="56"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36">
@@ -2979,11 +3643,11 @@
       <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
       <c r="G7" s="59" t="s">
         <v>178</v>
       </c>
@@ -3125,11 +3789,11 @@
       <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="36" t="s">
         <v>161</v>
       </c>
@@ -3159,11 +3823,11 @@
       <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
@@ -3183,29 +3847,31 @@
       </c>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:13" s="60" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="60" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="61" t="s">
+      <c r="C13" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="E13" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>191</v>
+      <c r="E13" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>203</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="40"/>
+      <c r="J13" s="40">
+        <v>5</v>
+      </c>
       <c r="K13" s="43"/>
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
@@ -3214,23 +3880,23 @@
       <c r="A14" s="35">
         <v>9</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="61" t="s">
+      <c r="C14" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="61" t="s">
-        <v>193</v>
+      <c r="G14" s="62" t="s">
+        <v>204</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="36">
@@ -3248,170 +3914,238 @@
       </c>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="35">
-        <v>10</v>
-      </c>
-      <c r="B15" s="35" t="s">
+    <row r="15" spans="1:13" s="61" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="36">
-        <v>13</v>
-      </c>
-      <c r="J15" s="40">
-        <v>5</v>
-      </c>
-      <c r="K15" s="43">
-        <f t="shared" si="0"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="L15" s="36" t="s">
-        <v>24</v>
-      </c>
+      <c r="C15" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="35"/>
     </row>
-    <row r="16" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="35">
-        <v>11</v>
-      </c>
-      <c r="B16" s="35" t="s">
+    <row r="16" spans="1:13" s="61" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="36">
-        <v>13</v>
-      </c>
-      <c r="J16" s="40">
-        <v>5</v>
-      </c>
-      <c r="K16" s="43">
-        <f t="shared" si="0"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="L16" s="36" t="s">
-        <v>24</v>
-      </c>
+      <c r="C16" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="79"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="35"/>
       <c r="M16" s="35"/>
     </row>
-    <row r="17" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="61" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="42"/>
+      <c r="B17" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="40"/>
       <c r="K17" s="43"/>
-      <c r="L17" s="36"/>
+      <c r="L17" s="35"/>
       <c r="M17" s="35"/>
     </row>
-    <row r="18" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="61" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="42"/>
+      <c r="B18" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="40"/>
       <c r="K18" s="43"/>
-      <c r="L18" s="36"/>
+      <c r="L18" s="35"/>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="61" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="42"/>
+      <c r="B19" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="40"/>
       <c r="K19" s="43"/>
-      <c r="L19" s="36"/>
+      <c r="L19" s="35"/>
       <c r="M19" s="35"/>
     </row>
-    <row r="20" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="61" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="42"/>
+      <c r="B20" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="H20" s="36"/>
       <c r="I20" s="36"/>
       <c r="J20" s="40"/>
       <c r="K20" s="43"/>
-      <c r="L20" s="36"/>
+      <c r="L20" s="35"/>
       <c r="M20" s="35"/>
     </row>
-    <row r="21" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="36"/>
+    <row r="21" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="35">
+        <v>10</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>182</v>
+      </c>
       <c r="H21" s="42"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="36"/>
+      <c r="I21" s="36">
+        <v>13</v>
+      </c>
+      <c r="J21" s="40">
+        <v>5</v>
+      </c>
+      <c r="K21" s="43">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="M21" s="35"/>
     </row>
-    <row r="22" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="36"/>
+    <row r="22" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="35">
+        <v>11</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>184</v>
+      </c>
       <c r="H22" s="42"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="36"/>
+      <c r="I22" s="36">
+        <v>13</v>
+      </c>
+      <c r="J22" s="40">
+        <v>5</v>
+      </c>
+      <c r="K22" s="43">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="M22" s="35"/>
     </row>
     <row r="23" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
@@ -3575,240 +4309,118 @@
       <c r="H33" s="42"/>
       <c r="I33" s="36"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="35"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="36"/>
       <c r="M33" s="35"/>
     </row>
-    <row r="34" spans="1:13" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
-        <v>12</v>
-      </c>
+    <row r="34" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="35"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="21" t="s">
-        <v>130</v>
-      </c>
+      <c r="H34" s="42"/>
       <c r="I34" s="36"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-    </row>
-    <row r="35" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="14">
-        <v>13</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>131</v>
-      </c>
+      <c r="J34" s="40"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="35"/>
+    </row>
+    <row r="35" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="42"/>
       <c r="I35" s="36"/>
-      <c r="J35" s="13">
-        <v>4</v>
-      </c>
-      <c r="K35" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M35" s="6"/>
-    </row>
-    <row r="36" spans="1:13" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="14">
-        <v>14</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="J35" s="40"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="35"/>
+    </row>
+    <row r="36" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="42"/>
       <c r="I36" s="36"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-    </row>
-    <row r="37" spans="1:13" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="14">
-        <v>15</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>133</v>
-      </c>
+      <c r="J36" s="40"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="35"/>
+    </row>
+    <row r="37" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="42"/>
       <c r="I37" s="36"/>
-      <c r="J37" s="13">
-        <v>5</v>
-      </c>
-      <c r="K37" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M37" s="6"/>
-    </row>
-    <row r="38" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="14">
-        <v>16</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="25"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="35"/>
+    </row>
+    <row r="38" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="42"/>
       <c r="I38" s="36"/>
-      <c r="J38" s="6">
-        <v>1</v>
-      </c>
-      <c r="K38" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="6"/>
-    </row>
-    <row r="39" spans="1:13" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="14">
-        <v>17</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>134</v>
-      </c>
+      <c r="J38" s="40"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="35"/>
+    </row>
+    <row r="39" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="35"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="42"/>
       <c r="I39" s="36"/>
-      <c r="J39" s="6"/>
+      <c r="J39" s="40"/>
       <c r="K39" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-    </row>
-    <row r="40" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+    </row>
+    <row r="40" spans="1:13" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
-        <v>18</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H40" s="26"/>
+        <v>12</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="21" t="s">
+        <v>130</v>
+      </c>
       <c r="I40" s="36"/>
-      <c r="J40" s="6"/>
+      <c r="J40" s="13"/>
       <c r="K40" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3816,9 +4428,9 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>17</v>
@@ -3826,43 +4438,61 @@
       <c r="C41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="H41" s="27"/>
+        <v>33</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="I41" s="36"/>
-      <c r="J41" s="6"/>
+      <c r="J41" s="13">
+        <v>4</v>
+      </c>
       <c r="K41" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L41" s="6"/>
+      <c r="L41" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
-        <v>20</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
+        <v>14</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="I42" s="36"/>
-      <c r="J42" s="6"/>
+      <c r="J42" s="13"/>
       <c r="K42" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3870,46 +4500,70 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
-        <v>21</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="E43" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>133</v>
+      </c>
       <c r="I43" s="36"/>
-      <c r="J43" s="6"/>
+      <c r="J43" s="13">
+        <v>5</v>
+      </c>
       <c r="K43" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L43" s="6"/>
+      <c r="L43" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
-        <v>22</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="E44" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28" t="s">
-        <v>139</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="25"/>
       <c r="I44" s="36"/>
       <c r="J44" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K44" s="43">
         <f t="shared" si="0"/>
@@ -3920,45 +4574,43 @@
       </c>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
-        <v>23</v>
-      </c>
-      <c r="B45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="B45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" s="28"/>
+      <c r="F45" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>134</v>
+      </c>
       <c r="I45" s="36"/>
-      <c r="J45" s="6">
-        <v>4</v>
-      </c>
+      <c r="J45" s="6"/>
       <c r="K45" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L45" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>17</v>
@@ -3969,167 +4621,119 @@
       <c r="D46" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>140</v>
-      </c>
+      <c r="E46" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="26"/>
       <c r="I46" s="36"/>
-      <c r="J46" s="6">
-        <v>5</v>
-      </c>
+      <c r="J46" s="6"/>
       <c r="K46" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L46" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
-        <v>25</v>
-      </c>
-      <c r="B47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G47" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H47" s="30"/>
+        <v>58</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="27"/>
       <c r="I47" s="36"/>
-      <c r="J47" s="6">
-        <v>1</v>
-      </c>
+      <c r="J47" s="6"/>
       <c r="K47" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L47" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
-        <v>26</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>142</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
       <c r="I48" s="36"/>
-      <c r="J48" s="6">
-        <v>2</v>
-      </c>
+      <c r="J48" s="6"/>
       <c r="K48" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L48" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
-        <v>27</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
       <c r="E49" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H49" s="20"/>
+        <v>137</v>
+      </c>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
       <c r="I49" s="36"/>
-      <c r="J49" s="6">
-        <v>3</v>
-      </c>
+      <c r="J49" s="6"/>
       <c r="K49" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L49" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
     <row r="50" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
-        <v>28</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
       <c r="E50" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H50" s="20"/>
+        <v>138</v>
+      </c>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28" t="s">
+        <v>139</v>
+      </c>
       <c r="I50" s="36"/>
       <c r="J50" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K50" s="43">
         <f t="shared" si="0"/>
@@ -4140,32 +4744,32 @@
       </c>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H51" s="20"/>
+      <c r="F51" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="28"/>
       <c r="I51" s="36"/>
       <c r="J51" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K51" s="43">
         <f t="shared" si="0"/>
@@ -4176,41 +4780,47 @@
       </c>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="1:13" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
-        <v>30</v>
-      </c>
-      <c r="B52" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H52" s="20"/>
+      <c r="F52" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>140</v>
+      </c>
       <c r="I52" s="36"/>
-      <c r="J52" s="6"/>
+      <c r="J52" s="6">
+        <v>5</v>
+      </c>
       <c r="K52" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L52" s="6"/>
+      <c r="L52" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>17</v>
@@ -4222,15 +4832,15 @@
         <v>25</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H53" s="32"/>
+        <v>37</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" s="30"/>
       <c r="I53" s="36"/>
       <c r="J53" s="6">
         <v>1</v>
@@ -4244,29 +4854,31 @@
       </c>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
-        <v>32</v>
-      </c>
-      <c r="B54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F54" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H54" s="32"/>
+      <c r="E54" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="I54" s="36"/>
       <c r="J54" s="6">
         <v>2</v>
@@ -4280,11 +4892,11 @@
       </c>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
-        <v>33</v>
-      </c>
-      <c r="B55" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="11" t="s">
@@ -4293,28 +4905,32 @@
       <c r="D55" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F55" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G55" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H55" s="22"/>
+      <c r="E55" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H55" s="20"/>
       <c r="I55" s="36"/>
-      <c r="J55" s="6"/>
+      <c r="J55" s="6">
+        <v>3</v>
+      </c>
       <c r="K55" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L55" s="6"/>
+      <c r="L55" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>17</v>
@@ -4325,80 +4941,88 @@
       <c r="D56" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H56" s="22"/>
+      <c r="E56" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H56" s="20"/>
       <c r="I56" s="36"/>
-      <c r="J56" s="6"/>
+      <c r="J56" s="6">
+        <v>4</v>
+      </c>
       <c r="K56" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L56" s="6"/>
+      <c r="L56" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
-        <v>35</v>
-      </c>
-      <c r="B57" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H57" s="22"/>
+      <c r="E57" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" s="20"/>
       <c r="I57" s="36"/>
-      <c r="J57" s="6"/>
+      <c r="J57" s="6">
+        <v>5</v>
+      </c>
       <c r="K57" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L57" s="6"/>
+      <c r="L57" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="1:13" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
-        <v>36</v>
-      </c>
-      <c r="B58" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H58" s="31"/>
+        <v>37</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" s="20"/>
       <c r="I58" s="36"/>
       <c r="J58" s="6"/>
       <c r="K58" s="43">
@@ -4408,65 +5032,81 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
     </row>
-    <row r="59" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
-        <v>37</v>
-      </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D59" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
+        <v>96</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H59" s="32"/>
       <c r="I59" s="36"/>
-      <c r="J59" s="6"/>
+      <c r="J59" s="6">
+        <v>1</v>
+      </c>
       <c r="K59" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L59" s="6"/>
+      <c r="L59" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
-        <v>38</v>
-      </c>
-      <c r="B60" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G60" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="H60" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60" s="32"/>
       <c r="I60" s="36"/>
-      <c r="J60" s="6"/>
+      <c r="J60" s="6">
+        <v>2</v>
+      </c>
       <c r="K60" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L60" s="6"/>
+      <c r="L60" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>17</v>
@@ -4475,20 +5115,20 @@
         <v>19</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" s="22"/>
       <c r="I61" s="36"/>
-      <c r="J61" s="13"/>
+      <c r="J61" s="6"/>
       <c r="K61" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4498,29 +5138,29 @@
     </row>
     <row r="62" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
-        <v>40</v>
-      </c>
-      <c r="B62" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H62" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" s="22"/>
       <c r="I62" s="36"/>
-      <c r="J62" s="13"/>
+      <c r="J62" s="6"/>
       <c r="K62" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4530,27 +5170,27 @@
     </row>
     <row r="63" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
-        <v>41</v>
-      </c>
-      <c r="B63" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H63" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" s="22"/>
       <c r="I63" s="36"/>
       <c r="J63" s="6"/>
       <c r="K63" s="43">
@@ -4560,9 +5200,9 @@
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
     </row>
-    <row r="64" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>17</v>
@@ -4571,18 +5211,18 @@
         <v>19</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H64" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" s="31"/>
       <c r="I64" s="36"/>
       <c r="J64" s="6"/>
       <c r="K64" s="43">
@@ -4592,29 +5232,21 @@
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
     </row>
-    <row r="65" spans="1:13" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
-        <v>43</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>19</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H65" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
       <c r="I65" s="36"/>
       <c r="J65" s="6"/>
       <c r="K65" s="43">
@@ -4626,7 +5258,7 @@
     </row>
     <row r="66" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A66" s="14">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>17</v>
@@ -4637,14 +5269,14 @@
       <c r="D66" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>95</v>
+      <c r="E66" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="36"/>
@@ -4658,7 +5290,7 @@
     </row>
     <row r="67" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>17</v>
@@ -4669,18 +5301,18 @@
       <c r="D67" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E67" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>99</v>
+      <c r="E67" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="36"/>
-      <c r="J67" s="6"/>
+      <c r="J67" s="13"/>
       <c r="K67" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4690,29 +5322,29 @@
     </row>
     <row r="68" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A68" s="14">
-        <v>46</v>
-      </c>
-      <c r="B68" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>101</v>
+      <c r="E68" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="36"/>
-      <c r="J68" s="6"/>
+      <c r="J68" s="13"/>
       <c r="K68" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4720,27 +5352,27 @@
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
     </row>
-    <row r="69" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
-        <v>47</v>
-      </c>
-      <c r="B69" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>105</v>
+      <c r="E69" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="36"/>
@@ -4754,7 +5386,7 @@
     </row>
     <row r="70" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A70" s="14">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>17</v>
@@ -4766,13 +5398,13 @@
         <v>77</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>112</v>
+        <v>78</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="36"/>
@@ -4784,9 +5416,9 @@
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
     </row>
-    <row r="71" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A71" s="14">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>17</v>
@@ -4798,13 +5430,13 @@
         <v>77</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="36"/>
@@ -4816,9 +5448,9 @@
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
     </row>
-    <row r="72" spans="1:13" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>17</v>
@@ -4830,13 +5462,13 @@
         <v>77</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>117</v>
+        <v>80</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="36"/>
@@ -4848,9 +5480,9 @@
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="1:13" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A73" s="14">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>17</v>
@@ -4859,16 +5491,16 @@
         <v>19</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>120</v>
+        <v>81</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="36"/>
@@ -4880,9 +5512,9 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
     </row>
-    <row r="74" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A74" s="14">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>17</v>
@@ -4891,16 +5523,16 @@
         <v>19</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>122</v>
+        <v>77</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="36"/>
@@ -4912,9 +5544,9 @@
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A75" s="14">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>17</v>
@@ -4925,14 +5557,14 @@
       <c r="D75" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E75" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>120</v>
+      <c r="E75" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="36"/>
@@ -4944,9 +5576,9 @@
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A76" s="14">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>17</v>
@@ -4958,15 +5590,15 @@
         <v>77</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H76" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="H76" s="8"/>
       <c r="I76" s="36"/>
       <c r="J76" s="6"/>
       <c r="K76" s="43">
@@ -4976,9 +5608,9 @@
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
     </row>
-    <row r="77" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="14">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>17</v>
@@ -4989,72 +5621,264 @@
       <c r="D77" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H77" s="19"/>
+      <c r="E77" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H77" s="8"/>
       <c r="I77" s="36"/>
-      <c r="J77" s="41"/>
+      <c r="J77" s="6"/>
       <c r="K77" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L77" s="41"/>
-      <c r="M77" s="41"/>
-    </row>
-    <row r="78" spans="1:13" s="34" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+    </row>
+    <row r="78" spans="1:13" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A78" s="14">
-        <v>56</v>
-      </c>
-      <c r="B78" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="17" t="s">
+      <c r="C78" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E78" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G78" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="H78" s="19"/>
+      <c r="E78" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H78" s="8"/>
       <c r="I78" s="36"/>
-      <c r="J78" s="41"/>
+      <c r="J78" s="6"/>
       <c r="K78" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L78" s="41"/>
-      <c r="M78" s="41"/>
-    </row>
-    <row r="79" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="31" t="s">
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+    </row>
+    <row r="79" spans="1:13" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="14">
+        <v>51</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H79" s="8"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+    </row>
+    <row r="80" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A80" s="14">
+        <v>52</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H80" s="8"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+    </row>
+    <row r="81" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A81" s="14">
+        <v>53</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H81" s="8"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+    </row>
+    <row r="82" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="14">
+        <v>54</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H82" s="12"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+    </row>
+    <row r="83" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A83" s="14">
+        <v>55</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L83" s="41"/>
+      <c r="M83" s="41"/>
+    </row>
+    <row r="84" spans="1:13" s="34" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="14">
+        <v>56</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H84" s="19"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="41"/>
+      <c r="M84" s="41"/>
+    </row>
+    <row r="85" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="F79" s="18"/>
-      <c r="G79" s="19"/>
-    </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="H84" s="10"/>
-    </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G85" s="10"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="19"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H90" s="10"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G91" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1">
@@ -5062,7 +5886,8 @@
       <sortCondition ref="K1"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D3:F3"/>
@@ -5070,26 +5895,26 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <dataValidations xWindow="1023" yWindow="304" count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J61:J62 J2:J43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J67:J68 J2:J49">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="J63:J76 J44:J60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be a number between 1 to 5!" sqref="J69:J82 J50:J66">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="M34:M76">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number Error!" error="Enter a valid integer between 1 and 999!!!" sqref="M40:M82">
       <formula1>1</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L82">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I84">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B83">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C83">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\AgilePM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="ProductBacklog" sheetId="2" r:id="rId2"/>
+    <sheet name="TeacherAppProdBaklog" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ProductBacklog!$A$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -24,7 +29,7 @@
     <author>Sydney</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +215,233 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Help:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>XS         :    1 Story Point       :     0 to 2 person hours
+S            :   2 Story Points     :     2 to 4 person hours
+M           :   3 Story Points     :     4 to 8 person hours
+L             :   5 Story Points      :     1 to 1.5 person days
+XL          :   8 Story Points     :     1.5 to 2.5 person days
+XXL       :   13 Story Points    :     0.5 to 1 person weeks
+XXXL    :   21 Story Points    :     Larger and never used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sydney</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Help:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Acceptance Criteria in Product Backlog comprises of 4 fields, namely:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Scenerio, Given, When Then.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Here all 4 fields should be colated into one.
+E.g. Acceptance criteria for following should be as below:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User Story</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: As a logged out User I want to be able to sign into the website, so that I can see my profile.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Acceptance Criteria</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Scenario:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Registered User Signs with valid username and password.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Given: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">I am logged out of website.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>When:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> I fill in the username and password fields with my valid credentials and click in sign in button
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Then:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> I get signed into the website.
+Here,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Acceptance Criteria</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> could be written in 1 sentence as below:
+Given I am logged out of website, if I fill in the username and password fields with my valid credentials and click in sign in button, I should get signed into the website.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +476,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="216">
   <si>
     <t>Anodiam</t>
   </si>
@@ -2535,6 +2766,12 @@
       </rPr>
       <t xml:space="preserve"> I should be able to create my password and save it for the future use by clicking on the save button.</t>
     </r>
+  </si>
+  <si>
+    <t>..\ProjectExecution\BA\SpecsWireframes\003TeacherAppWireframes.pptx</t>
+  </si>
+  <si>
+    <t>..\ProjectExecution\BA\SpecsWireframes\004TeacherAppFunctionalSpecs.xlsx</t>
   </si>
 </sst>
 </file>
@@ -2832,7 +3069,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2995,6 +3232,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3006,6 +3244,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3033,15 +3280,6 @@
     <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3052,6 +3290,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3274,31 +3515,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3380,9 +3621,9 @@
   </sheetPr>
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3495,11 +3736,11 @@
       <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="56"/>
       <c r="H3" s="42" t="s">
         <v>185</v>
@@ -3571,11 +3812,11 @@
       <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="74"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="56"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36">
@@ -3643,11 +3884,11 @@
       <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="77"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="59" t="s">
         <v>178</v>
       </c>
@@ -3789,11 +4030,11 @@
       <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="36" t="s">
         <v>161</v>
       </c>
@@ -3823,11 +4064,11 @@
       <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="71"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="75"/>
       <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
@@ -3949,11 +4190,11 @@
       <c r="C16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="62" t="s">
         <v>191</v>
       </c>
@@ -5926,4 +6167,7734 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" style="64" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="64" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="58.42578125" style="64" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="64" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="64" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="64" customWidth="1"/>
+    <col min="11" max="11" width="9" style="64" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="64" customWidth="1"/>
+    <col min="13" max="13" width="10" style="64" customWidth="1"/>
+    <col min="14" max="16384" width="19.5703125" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="35"/>
+      <c r="B2" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="40">
+        <v>5</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="36">
+        <v>13</v>
+      </c>
+      <c r="J3" s="40">
+        <v>5</v>
+      </c>
+      <c r="K3" s="43">
+        <f t="shared" ref="K3:K11" si="0">IF(I3=0,0,J3/I3)</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="1:13" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="71"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+    </row>
+    <row r="7" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+    </row>
+    <row r="8" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+    </row>
+    <row r="9" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="I10" s="36">
+        <v>13</v>
+      </c>
+      <c r="J10" s="40">
+        <v>5</v>
+      </c>
+      <c r="K10" s="43">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="11" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" s="42"/>
+      <c r="I11" s="36">
+        <v>13</v>
+      </c>
+      <c r="J11" s="40">
+        <v>5</v>
+      </c>
+      <c r="K11" s="43">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="35"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="35"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="35"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="35"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="35"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="35"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="35"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="35"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="35"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="35"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="35"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="35"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="35"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="35"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="35"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="35"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="35"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="35"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="35"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="35"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="35"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="35"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="35"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="35"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="35"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="35"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="35"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="35"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="35"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="35"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="35"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="35"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="35"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="35"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="35"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="35"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="35"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="35"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="35"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="35"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="35"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="35"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="35"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="35"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="35"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="35"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="35"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="35"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="35"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="35"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="35"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="35"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="35"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="35"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="35"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="35"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="35"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="35"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="35"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="35"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="35"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="35"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="35"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="35"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="35"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="35"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="35"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="35"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="35"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="35"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="35"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="35"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="35"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="35"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="35"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="35"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="35"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="35"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="35"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="35"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="35"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="35"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="35"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="35"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="35"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="35"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="35"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="35"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="35"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="35"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="35"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="35"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="35"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="35"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="35"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="35"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="35"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="35"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="35"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="35"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="35"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="35"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="35"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="35"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="35"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="35"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="35"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="35"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="43"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="35"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="35"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="35"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="35"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="35"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="35"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="35"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" s="35"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="35"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="35"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="35"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="35"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="35"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="35"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="35"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" s="35"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="35"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" s="35"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="35"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" s="35"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="35"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" s="35"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="35"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" s="35"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="35"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" s="35"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="35"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" s="35"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="35"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" s="35"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="40"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="35"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="35"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="40"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="35"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="35"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="35"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" s="35"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="40"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="35"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" s="35"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="40"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="35"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" s="35"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="40"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="36"/>
+      <c r="M102" s="35"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" s="35"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="40"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="35"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" s="35"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="40"/>
+      <c r="K104" s="43"/>
+      <c r="L104" s="36"/>
+      <c r="M104" s="35"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" s="35"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="40"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="35"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" s="35"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="40"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="36"/>
+      <c r="M106" s="35"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" s="35"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="40"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="36"/>
+      <c r="M107" s="35"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" s="35"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="40"/>
+      <c r="K108" s="43"/>
+      <c r="L108" s="36"/>
+      <c r="M108" s="35"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" s="35"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="40"/>
+      <c r="K109" s="43"/>
+      <c r="L109" s="36"/>
+      <c r="M109" s="35"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" s="35"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="36"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="40"/>
+      <c r="K110" s="43"/>
+      <c r="L110" s="36"/>
+      <c r="M110" s="35"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" s="35"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="36"/>
+      <c r="J111" s="40"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="36"/>
+      <c r="M111" s="35"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" s="35"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="40"/>
+      <c r="K112" s="43"/>
+      <c r="L112" s="36"/>
+      <c r="M112" s="35"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" s="35"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="40"/>
+      <c r="K113" s="43"/>
+      <c r="L113" s="36"/>
+      <c r="M113" s="35"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114" s="35"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="36"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="36"/>
+      <c r="H114" s="42"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="40"/>
+      <c r="K114" s="43"/>
+      <c r="L114" s="36"/>
+      <c r="M114" s="35"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" s="35"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="36"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="40"/>
+      <c r="K115" s="43"/>
+      <c r="L115" s="36"/>
+      <c r="M115" s="35"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="35"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="40"/>
+      <c r="K116" s="43"/>
+      <c r="L116" s="36"/>
+      <c r="M116" s="35"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" s="35"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="36"/>
+      <c r="G117" s="36"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="36"/>
+      <c r="J117" s="40"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="36"/>
+      <c r="M117" s="35"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" s="35"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="40"/>
+      <c r="K118" s="43"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="35"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" s="35"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="36"/>
+      <c r="G119" s="36"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="36"/>
+      <c r="J119" s="40"/>
+      <c r="K119" s="43"/>
+      <c r="L119" s="36"/>
+      <c r="M119" s="35"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" s="35"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="36"/>
+      <c r="H120" s="42"/>
+      <c r="I120" s="36"/>
+      <c r="J120" s="40"/>
+      <c r="K120" s="43"/>
+      <c r="L120" s="36"/>
+      <c r="M120" s="35"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121" s="35"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="42"/>
+      <c r="I121" s="36"/>
+      <c r="J121" s="40"/>
+      <c r="K121" s="43"/>
+      <c r="L121" s="36"/>
+      <c r="M121" s="35"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A122" s="35"/>
+      <c r="B122" s="36"/>
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="40"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="36"/>
+      <c r="M122" s="35"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123" s="35"/>
+      <c r="B123" s="36"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="36"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="36"/>
+      <c r="J123" s="40"/>
+      <c r="K123" s="43"/>
+      <c r="L123" s="36"/>
+      <c r="M123" s="35"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124" s="35"/>
+      <c r="B124" s="36"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="36"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="36"/>
+      <c r="J124" s="40"/>
+      <c r="K124" s="43"/>
+      <c r="L124" s="36"/>
+      <c r="M124" s="35"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A125" s="35"/>
+      <c r="B125" s="36"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="36"/>
+      <c r="J125" s="40"/>
+      <c r="K125" s="43"/>
+      <c r="L125" s="36"/>
+      <c r="M125" s="35"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" s="35"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="36"/>
+      <c r="H126" s="42"/>
+      <c r="I126" s="36"/>
+      <c r="J126" s="40"/>
+      <c r="K126" s="43"/>
+      <c r="L126" s="36"/>
+      <c r="M126" s="35"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127" s="35"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="36"/>
+      <c r="D127" s="36"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="36"/>
+      <c r="H127" s="42"/>
+      <c r="I127" s="36"/>
+      <c r="J127" s="40"/>
+      <c r="K127" s="43"/>
+      <c r="L127" s="36"/>
+      <c r="M127" s="35"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128" s="35"/>
+      <c r="B128" s="36"/>
+      <c r="C128" s="36"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="36"/>
+      <c r="H128" s="42"/>
+      <c r="I128" s="36"/>
+      <c r="J128" s="40"/>
+      <c r="K128" s="43"/>
+      <c r="L128" s="36"/>
+      <c r="M128" s="35"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A129" s="35"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="36"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="36"/>
+      <c r="G129" s="36"/>
+      <c r="H129" s="42"/>
+      <c r="I129" s="36"/>
+      <c r="J129" s="40"/>
+      <c r="K129" s="43"/>
+      <c r="L129" s="36"/>
+      <c r="M129" s="35"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A130" s="35"/>
+      <c r="B130" s="36"/>
+      <c r="C130" s="36"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="36"/>
+      <c r="H130" s="42"/>
+      <c r="I130" s="36"/>
+      <c r="J130" s="40"/>
+      <c r="K130" s="43"/>
+      <c r="L130" s="36"/>
+      <c r="M130" s="35"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" s="35"/>
+      <c r="B131" s="36"/>
+      <c r="C131" s="36"/>
+      <c r="D131" s="36"/>
+      <c r="E131" s="36"/>
+      <c r="F131" s="36"/>
+      <c r="G131" s="36"/>
+      <c r="H131" s="42"/>
+      <c r="I131" s="36"/>
+      <c r="J131" s="40"/>
+      <c r="K131" s="43"/>
+      <c r="L131" s="36"/>
+      <c r="M131" s="35"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A132" s="35"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="36"/>
+      <c r="H132" s="42"/>
+      <c r="I132" s="36"/>
+      <c r="J132" s="40"/>
+      <c r="K132" s="43"/>
+      <c r="L132" s="36"/>
+      <c r="M132" s="35"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A133" s="35"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36"/>
+      <c r="G133" s="36"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="36"/>
+      <c r="J133" s="40"/>
+      <c r="K133" s="43"/>
+      <c r="L133" s="36"/>
+      <c r="M133" s="35"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A134" s="35"/>
+      <c r="B134" s="36"/>
+      <c r="C134" s="36"/>
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
+      <c r="F134" s="36"/>
+      <c r="G134" s="36"/>
+      <c r="H134" s="42"/>
+      <c r="I134" s="36"/>
+      <c r="J134" s="40"/>
+      <c r="K134" s="43"/>
+      <c r="L134" s="36"/>
+      <c r="M134" s="35"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A135" s="35"/>
+      <c r="B135" s="36"/>
+      <c r="C135" s="36"/>
+      <c r="D135" s="36"/>
+      <c r="E135" s="36"/>
+      <c r="F135" s="36"/>
+      <c r="G135" s="36"/>
+      <c r="H135" s="42"/>
+      <c r="I135" s="36"/>
+      <c r="J135" s="40"/>
+      <c r="K135" s="43"/>
+      <c r="L135" s="36"/>
+      <c r="M135" s="35"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136" s="35"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="36"/>
+      <c r="E136" s="36"/>
+      <c r="F136" s="36"/>
+      <c r="G136" s="36"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="36"/>
+      <c r="J136" s="40"/>
+      <c r="K136" s="43"/>
+      <c r="L136" s="36"/>
+      <c r="M136" s="35"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A137" s="35"/>
+      <c r="B137" s="36"/>
+      <c r="C137" s="36"/>
+      <c r="D137" s="36"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="36"/>
+      <c r="H137" s="42"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="40"/>
+      <c r="K137" s="43"/>
+      <c r="L137" s="36"/>
+      <c r="M137" s="35"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A138" s="35"/>
+      <c r="B138" s="36"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="36"/>
+      <c r="F138" s="36"/>
+      <c r="G138" s="36"/>
+      <c r="H138" s="42"/>
+      <c r="I138" s="36"/>
+      <c r="J138" s="40"/>
+      <c r="K138" s="43"/>
+      <c r="L138" s="36"/>
+      <c r="M138" s="35"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A139" s="35"/>
+      <c r="B139" s="36"/>
+      <c r="C139" s="36"/>
+      <c r="D139" s="36"/>
+      <c r="E139" s="36"/>
+      <c r="F139" s="36"/>
+      <c r="G139" s="36"/>
+      <c r="H139" s="42"/>
+      <c r="I139" s="36"/>
+      <c r="J139" s="40"/>
+      <c r="K139" s="43"/>
+      <c r="L139" s="36"/>
+      <c r="M139" s="35"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140" s="35"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="36"/>
+      <c r="H140" s="42"/>
+      <c r="I140" s="36"/>
+      <c r="J140" s="40"/>
+      <c r="K140" s="43"/>
+      <c r="L140" s="36"/>
+      <c r="M140" s="35"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A141" s="35"/>
+      <c r="B141" s="36"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="36"/>
+      <c r="E141" s="36"/>
+      <c r="F141" s="36"/>
+      <c r="G141" s="36"/>
+      <c r="H141" s="42"/>
+      <c r="I141" s="36"/>
+      <c r="J141" s="40"/>
+      <c r="K141" s="43"/>
+      <c r="L141" s="36"/>
+      <c r="M141" s="35"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A142" s="35"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="36"/>
+      <c r="E142" s="36"/>
+      <c r="F142" s="36"/>
+      <c r="G142" s="36"/>
+      <c r="H142" s="42"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="40"/>
+      <c r="K142" s="43"/>
+      <c r="L142" s="36"/>
+      <c r="M142" s="35"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A143" s="35"/>
+      <c r="B143" s="36"/>
+      <c r="C143" s="36"/>
+      <c r="D143" s="36"/>
+      <c r="E143" s="36"/>
+      <c r="F143" s="36"/>
+      <c r="G143" s="36"/>
+      <c r="H143" s="42"/>
+      <c r="I143" s="36"/>
+      <c r="J143" s="40"/>
+      <c r="K143" s="43"/>
+      <c r="L143" s="36"/>
+      <c r="M143" s="35"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A144" s="35"/>
+      <c r="B144" s="36"/>
+      <c r="C144" s="36"/>
+      <c r="D144" s="36"/>
+      <c r="E144" s="36"/>
+      <c r="F144" s="36"/>
+      <c r="G144" s="36"/>
+      <c r="H144" s="42"/>
+      <c r="I144" s="36"/>
+      <c r="J144" s="40"/>
+      <c r="K144" s="43"/>
+      <c r="L144" s="36"/>
+      <c r="M144" s="35"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A145" s="35"/>
+      <c r="B145" s="36"/>
+      <c r="C145" s="36"/>
+      <c r="D145" s="36"/>
+      <c r="E145" s="36"/>
+      <c r="F145" s="36"/>
+      <c r="G145" s="36"/>
+      <c r="H145" s="42"/>
+      <c r="I145" s="36"/>
+      <c r="J145" s="40"/>
+      <c r="K145" s="43"/>
+      <c r="L145" s="36"/>
+      <c r="M145" s="35"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A146" s="35"/>
+      <c r="B146" s="36"/>
+      <c r="C146" s="36"/>
+      <c r="D146" s="36"/>
+      <c r="E146" s="36"/>
+      <c r="F146" s="36"/>
+      <c r="G146" s="36"/>
+      <c r="H146" s="42"/>
+      <c r="I146" s="36"/>
+      <c r="J146" s="40"/>
+      <c r="K146" s="43"/>
+      <c r="L146" s="36"/>
+      <c r="M146" s="35"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A147" s="35"/>
+      <c r="B147" s="36"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="36"/>
+      <c r="E147" s="36"/>
+      <c r="F147" s="36"/>
+      <c r="G147" s="36"/>
+      <c r="H147" s="42"/>
+      <c r="I147" s="36"/>
+      <c r="J147" s="40"/>
+      <c r="K147" s="43"/>
+      <c r="L147" s="36"/>
+      <c r="M147" s="35"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A148" s="35"/>
+      <c r="B148" s="36"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="36"/>
+      <c r="E148" s="36"/>
+      <c r="F148" s="36"/>
+      <c r="G148" s="36"/>
+      <c r="H148" s="42"/>
+      <c r="I148" s="36"/>
+      <c r="J148" s="40"/>
+      <c r="K148" s="43"/>
+      <c r="L148" s="36"/>
+      <c r="M148" s="35"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A149" s="35"/>
+      <c r="B149" s="36"/>
+      <c r="C149" s="36"/>
+      <c r="D149" s="36"/>
+      <c r="E149" s="36"/>
+      <c r="F149" s="36"/>
+      <c r="G149" s="36"/>
+      <c r="H149" s="42"/>
+      <c r="I149" s="36"/>
+      <c r="J149" s="40"/>
+      <c r="K149" s="43"/>
+      <c r="L149" s="36"/>
+      <c r="M149" s="35"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150" s="35"/>
+      <c r="B150" s="36"/>
+      <c r="C150" s="36"/>
+      <c r="D150" s="36"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
+      <c r="H150" s="42"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="40"/>
+      <c r="K150" s="43"/>
+      <c r="L150" s="36"/>
+      <c r="M150" s="35"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A151" s="35"/>
+      <c r="B151" s="36"/>
+      <c r="C151" s="36"/>
+      <c r="D151" s="36"/>
+      <c r="E151" s="36"/>
+      <c r="F151" s="36"/>
+      <c r="G151" s="36"/>
+      <c r="H151" s="42"/>
+      <c r="I151" s="36"/>
+      <c r="J151" s="40"/>
+      <c r="K151" s="43"/>
+      <c r="L151" s="36"/>
+      <c r="M151" s="35"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A152" s="35"/>
+      <c r="B152" s="36"/>
+      <c r="C152" s="36"/>
+      <c r="D152" s="36"/>
+      <c r="E152" s="36"/>
+      <c r="F152" s="36"/>
+      <c r="G152" s="36"/>
+      <c r="H152" s="42"/>
+      <c r="I152" s="36"/>
+      <c r="J152" s="40"/>
+      <c r="K152" s="43"/>
+      <c r="L152" s="36"/>
+      <c r="M152" s="35"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A153" s="35"/>
+      <c r="B153" s="36"/>
+      <c r="C153" s="36"/>
+      <c r="D153" s="36"/>
+      <c r="E153" s="36"/>
+      <c r="F153" s="36"/>
+      <c r="G153" s="36"/>
+      <c r="H153" s="42"/>
+      <c r="I153" s="36"/>
+      <c r="J153" s="40"/>
+      <c r="K153" s="43"/>
+      <c r="L153" s="36"/>
+      <c r="M153" s="35"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A154" s="35"/>
+      <c r="B154" s="36"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="36"/>
+      <c r="E154" s="36"/>
+      <c r="F154" s="36"/>
+      <c r="G154" s="36"/>
+      <c r="H154" s="42"/>
+      <c r="I154" s="36"/>
+      <c r="J154" s="40"/>
+      <c r="K154" s="43"/>
+      <c r="L154" s="36"/>
+      <c r="M154" s="35"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A155" s="35"/>
+      <c r="B155" s="36"/>
+      <c r="C155" s="36"/>
+      <c r="D155" s="36"/>
+      <c r="E155" s="36"/>
+      <c r="F155" s="36"/>
+      <c r="G155" s="36"/>
+      <c r="H155" s="42"/>
+      <c r="I155" s="36"/>
+      <c r="J155" s="40"/>
+      <c r="K155" s="43"/>
+      <c r="L155" s="36"/>
+      <c r="M155" s="35"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A156" s="35"/>
+      <c r="B156" s="36"/>
+      <c r="C156" s="36"/>
+      <c r="D156" s="36"/>
+      <c r="E156" s="36"/>
+      <c r="F156" s="36"/>
+      <c r="G156" s="36"/>
+      <c r="H156" s="42"/>
+      <c r="I156" s="36"/>
+      <c r="J156" s="40"/>
+      <c r="K156" s="43"/>
+      <c r="L156" s="36"/>
+      <c r="M156" s="35"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A157" s="35"/>
+      <c r="B157" s="36"/>
+      <c r="C157" s="36"/>
+      <c r="D157" s="36"/>
+      <c r="E157" s="36"/>
+      <c r="F157" s="36"/>
+      <c r="G157" s="36"/>
+      <c r="H157" s="42"/>
+      <c r="I157" s="36"/>
+      <c r="J157" s="40"/>
+      <c r="K157" s="43"/>
+      <c r="L157" s="36"/>
+      <c r="M157" s="35"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A158" s="35"/>
+      <c r="B158" s="36"/>
+      <c r="C158" s="36"/>
+      <c r="D158" s="36"/>
+      <c r="E158" s="36"/>
+      <c r="F158" s="36"/>
+      <c r="G158" s="36"/>
+      <c r="H158" s="42"/>
+      <c r="I158" s="36"/>
+      <c r="J158" s="40"/>
+      <c r="K158" s="43"/>
+      <c r="L158" s="36"/>
+      <c r="M158" s="35"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A159" s="35"/>
+      <c r="B159" s="36"/>
+      <c r="C159" s="36"/>
+      <c r="D159" s="36"/>
+      <c r="E159" s="36"/>
+      <c r="F159" s="36"/>
+      <c r="G159" s="36"/>
+      <c r="H159" s="42"/>
+      <c r="I159" s="36"/>
+      <c r="J159" s="40"/>
+      <c r="K159" s="43"/>
+      <c r="L159" s="36"/>
+      <c r="M159" s="35"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A160" s="35"/>
+      <c r="B160" s="36"/>
+      <c r="C160" s="36"/>
+      <c r="D160" s="36"/>
+      <c r="E160" s="36"/>
+      <c r="F160" s="36"/>
+      <c r="G160" s="36"/>
+      <c r="H160" s="42"/>
+      <c r="I160" s="36"/>
+      <c r="J160" s="40"/>
+      <c r="K160" s="43"/>
+      <c r="L160" s="36"/>
+      <c r="M160" s="35"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A161" s="35"/>
+      <c r="B161" s="36"/>
+      <c r="C161" s="36"/>
+      <c r="D161" s="36"/>
+      <c r="E161" s="36"/>
+      <c r="F161" s="36"/>
+      <c r="G161" s="36"/>
+      <c r="H161" s="42"/>
+      <c r="I161" s="36"/>
+      <c r="J161" s="40"/>
+      <c r="K161" s="43"/>
+      <c r="L161" s="36"/>
+      <c r="M161" s="35"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A162" s="35"/>
+      <c r="B162" s="36"/>
+      <c r="C162" s="36"/>
+      <c r="D162" s="36"/>
+      <c r="E162" s="36"/>
+      <c r="F162" s="36"/>
+      <c r="G162" s="36"/>
+      <c r="H162" s="42"/>
+      <c r="I162" s="36"/>
+      <c r="J162" s="40"/>
+      <c r="K162" s="43"/>
+      <c r="L162" s="36"/>
+      <c r="M162" s="35"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A163" s="35"/>
+      <c r="B163" s="36"/>
+      <c r="C163" s="36"/>
+      <c r="D163" s="36"/>
+      <c r="E163" s="36"/>
+      <c r="F163" s="36"/>
+      <c r="G163" s="36"/>
+      <c r="H163" s="42"/>
+      <c r="I163" s="36"/>
+      <c r="J163" s="40"/>
+      <c r="K163" s="43"/>
+      <c r="L163" s="36"/>
+      <c r="M163" s="35"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A164" s="35"/>
+      <c r="B164" s="36"/>
+      <c r="C164" s="36"/>
+      <c r="D164" s="36"/>
+      <c r="E164" s="36"/>
+      <c r="F164" s="36"/>
+      <c r="G164" s="36"/>
+      <c r="H164" s="42"/>
+      <c r="I164" s="36"/>
+      <c r="J164" s="40"/>
+      <c r="K164" s="43"/>
+      <c r="L164" s="36"/>
+      <c r="M164" s="35"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A165" s="35"/>
+      <c r="B165" s="36"/>
+      <c r="C165" s="36"/>
+      <c r="D165" s="36"/>
+      <c r="E165" s="36"/>
+      <c r="F165" s="36"/>
+      <c r="G165" s="36"/>
+      <c r="H165" s="42"/>
+      <c r="I165" s="36"/>
+      <c r="J165" s="40"/>
+      <c r="K165" s="43"/>
+      <c r="L165" s="36"/>
+      <c r="M165" s="35"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" s="35"/>
+      <c r="B166" s="36"/>
+      <c r="C166" s="36"/>
+      <c r="D166" s="36"/>
+      <c r="E166" s="36"/>
+      <c r="F166" s="36"/>
+      <c r="G166" s="36"/>
+      <c r="H166" s="42"/>
+      <c r="I166" s="36"/>
+      <c r="J166" s="40"/>
+      <c r="K166" s="43"/>
+      <c r="L166" s="36"/>
+      <c r="M166" s="35"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167" s="35"/>
+      <c r="B167" s="36"/>
+      <c r="C167" s="36"/>
+      <c r="D167" s="36"/>
+      <c r="E167" s="36"/>
+      <c r="F167" s="36"/>
+      <c r="G167" s="36"/>
+      <c r="H167" s="42"/>
+      <c r="I167" s="36"/>
+      <c r="J167" s="40"/>
+      <c r="K167" s="43"/>
+      <c r="L167" s="36"/>
+      <c r="M167" s="35"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A168" s="35"/>
+      <c r="B168" s="36"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="36"/>
+      <c r="E168" s="36"/>
+      <c r="F168" s="36"/>
+      <c r="G168" s="36"/>
+      <c r="H168" s="42"/>
+      <c r="I168" s="36"/>
+      <c r="J168" s="40"/>
+      <c r="K168" s="43"/>
+      <c r="L168" s="36"/>
+      <c r="M168" s="35"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A169" s="35"/>
+      <c r="B169" s="36"/>
+      <c r="C169" s="36"/>
+      <c r="D169" s="36"/>
+      <c r="E169" s="36"/>
+      <c r="F169" s="36"/>
+      <c r="G169" s="36"/>
+      <c r="H169" s="42"/>
+      <c r="I169" s="36"/>
+      <c r="J169" s="40"/>
+      <c r="K169" s="43"/>
+      <c r="L169" s="36"/>
+      <c r="M169" s="35"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A170" s="35"/>
+      <c r="B170" s="36"/>
+      <c r="C170" s="36"/>
+      <c r="D170" s="36"/>
+      <c r="E170" s="36"/>
+      <c r="F170" s="36"/>
+      <c r="G170" s="36"/>
+      <c r="H170" s="42"/>
+      <c r="I170" s="36"/>
+      <c r="J170" s="40"/>
+      <c r="K170" s="43"/>
+      <c r="L170" s="36"/>
+      <c r="M170" s="35"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A171" s="35"/>
+      <c r="B171" s="36"/>
+      <c r="C171" s="36"/>
+      <c r="D171" s="36"/>
+      <c r="E171" s="36"/>
+      <c r="F171" s="36"/>
+      <c r="G171" s="36"/>
+      <c r="H171" s="42"/>
+      <c r="I171" s="36"/>
+      <c r="J171" s="40"/>
+      <c r="K171" s="43"/>
+      <c r="L171" s="36"/>
+      <c r="M171" s="35"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A172" s="35"/>
+      <c r="B172" s="36"/>
+      <c r="C172" s="36"/>
+      <c r="D172" s="36"/>
+      <c r="E172" s="36"/>
+      <c r="F172" s="36"/>
+      <c r="G172" s="36"/>
+      <c r="H172" s="42"/>
+      <c r="I172" s="36"/>
+      <c r="J172" s="40"/>
+      <c r="K172" s="43"/>
+      <c r="L172" s="36"/>
+      <c r="M172" s="35"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A173" s="35"/>
+      <c r="B173" s="36"/>
+      <c r="C173" s="36"/>
+      <c r="D173" s="36"/>
+      <c r="E173" s="36"/>
+      <c r="F173" s="36"/>
+      <c r="G173" s="36"/>
+      <c r="H173" s="42"/>
+      <c r="I173" s="36"/>
+      <c r="J173" s="40"/>
+      <c r="K173" s="43"/>
+      <c r="L173" s="36"/>
+      <c r="M173" s="35"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A174" s="35"/>
+      <c r="B174" s="36"/>
+      <c r="C174" s="36"/>
+      <c r="D174" s="36"/>
+      <c r="E174" s="36"/>
+      <c r="F174" s="36"/>
+      <c r="G174" s="36"/>
+      <c r="H174" s="42"/>
+      <c r="I174" s="36"/>
+      <c r="J174" s="40"/>
+      <c r="K174" s="43"/>
+      <c r="L174" s="36"/>
+      <c r="M174" s="35"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A175" s="35"/>
+      <c r="B175" s="36"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="36"/>
+      <c r="E175" s="36"/>
+      <c r="F175" s="36"/>
+      <c r="G175" s="36"/>
+      <c r="H175" s="42"/>
+      <c r="I175" s="36"/>
+      <c r="J175" s="40"/>
+      <c r="K175" s="43"/>
+      <c r="L175" s="36"/>
+      <c r="M175" s="35"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A176" s="35"/>
+      <c r="B176" s="36"/>
+      <c r="C176" s="36"/>
+      <c r="D176" s="36"/>
+      <c r="E176" s="36"/>
+      <c r="F176" s="36"/>
+      <c r="G176" s="36"/>
+      <c r="H176" s="42"/>
+      <c r="I176" s="36"/>
+      <c r="J176" s="40"/>
+      <c r="K176" s="43"/>
+      <c r="L176" s="36"/>
+      <c r="M176" s="35"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A177" s="35"/>
+      <c r="B177" s="36"/>
+      <c r="C177" s="36"/>
+      <c r="D177" s="36"/>
+      <c r="E177" s="36"/>
+      <c r="F177" s="36"/>
+      <c r="G177" s="36"/>
+      <c r="H177" s="42"/>
+      <c r="I177" s="36"/>
+      <c r="J177" s="40"/>
+      <c r="K177" s="43"/>
+      <c r="L177" s="36"/>
+      <c r="M177" s="35"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A178" s="35"/>
+      <c r="B178" s="36"/>
+      <c r="C178" s="36"/>
+      <c r="D178" s="36"/>
+      <c r="E178" s="36"/>
+      <c r="F178" s="36"/>
+      <c r="G178" s="36"/>
+      <c r="H178" s="42"/>
+      <c r="I178" s="36"/>
+      <c r="J178" s="40"/>
+      <c r="K178" s="43"/>
+      <c r="L178" s="36"/>
+      <c r="M178" s="35"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A179" s="35"/>
+      <c r="B179" s="36"/>
+      <c r="C179" s="36"/>
+      <c r="D179" s="36"/>
+      <c r="E179" s="36"/>
+      <c r="F179" s="36"/>
+      <c r="G179" s="36"/>
+      <c r="H179" s="42"/>
+      <c r="I179" s="36"/>
+      <c r="J179" s="40"/>
+      <c r="K179" s="43"/>
+      <c r="L179" s="36"/>
+      <c r="M179" s="35"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A180" s="35"/>
+      <c r="B180" s="36"/>
+      <c r="C180" s="36"/>
+      <c r="D180" s="36"/>
+      <c r="E180" s="36"/>
+      <c r="F180" s="36"/>
+      <c r="G180" s="36"/>
+      <c r="H180" s="42"/>
+      <c r="I180" s="36"/>
+      <c r="J180" s="40"/>
+      <c r="K180" s="43"/>
+      <c r="L180" s="36"/>
+      <c r="M180" s="35"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A181" s="35"/>
+      <c r="B181" s="36"/>
+      <c r="C181" s="36"/>
+      <c r="D181" s="36"/>
+      <c r="E181" s="36"/>
+      <c r="F181" s="36"/>
+      <c r="G181" s="36"/>
+      <c r="H181" s="42"/>
+      <c r="I181" s="36"/>
+      <c r="J181" s="40"/>
+      <c r="K181" s="43"/>
+      <c r="L181" s="36"/>
+      <c r="M181" s="35"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A182" s="35"/>
+      <c r="B182" s="36"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="36"/>
+      <c r="E182" s="36"/>
+      <c r="F182" s="36"/>
+      <c r="G182" s="36"/>
+      <c r="H182" s="42"/>
+      <c r="I182" s="36"/>
+      <c r="J182" s="40"/>
+      <c r="K182" s="43"/>
+      <c r="L182" s="36"/>
+      <c r="M182" s="35"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A183" s="35"/>
+      <c r="B183" s="36"/>
+      <c r="C183" s="36"/>
+      <c r="D183" s="36"/>
+      <c r="E183" s="36"/>
+      <c r="F183" s="36"/>
+      <c r="G183" s="36"/>
+      <c r="H183" s="42"/>
+      <c r="I183" s="36"/>
+      <c r="J183" s="40"/>
+      <c r="K183" s="43"/>
+      <c r="L183" s="36"/>
+      <c r="M183" s="35"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A184" s="35"/>
+      <c r="B184" s="36"/>
+      <c r="C184" s="36"/>
+      <c r="D184" s="36"/>
+      <c r="E184" s="36"/>
+      <c r="F184" s="36"/>
+      <c r="G184" s="36"/>
+      <c r="H184" s="42"/>
+      <c r="I184" s="36"/>
+      <c r="J184" s="40"/>
+      <c r="K184" s="43"/>
+      <c r="L184" s="36"/>
+      <c r="M184" s="35"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A185" s="35"/>
+      <c r="B185" s="36"/>
+      <c r="C185" s="36"/>
+      <c r="D185" s="36"/>
+      <c r="E185" s="36"/>
+      <c r="F185" s="36"/>
+      <c r="G185" s="36"/>
+      <c r="H185" s="42"/>
+      <c r="I185" s="36"/>
+      <c r="J185" s="40"/>
+      <c r="K185" s="43"/>
+      <c r="L185" s="36"/>
+      <c r="M185" s="35"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A186" s="35"/>
+      <c r="B186" s="36"/>
+      <c r="C186" s="36"/>
+      <c r="D186" s="36"/>
+      <c r="E186" s="36"/>
+      <c r="F186" s="36"/>
+      <c r="G186" s="36"/>
+      <c r="H186" s="42"/>
+      <c r="I186" s="36"/>
+      <c r="J186" s="40"/>
+      <c r="K186" s="43"/>
+      <c r="L186" s="36"/>
+      <c r="M186" s="35"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A187" s="35"/>
+      <c r="B187" s="36"/>
+      <c r="C187" s="36"/>
+      <c r="D187" s="36"/>
+      <c r="E187" s="36"/>
+      <c r="F187" s="36"/>
+      <c r="G187" s="36"/>
+      <c r="H187" s="42"/>
+      <c r="I187" s="36"/>
+      <c r="J187" s="40"/>
+      <c r="K187" s="43"/>
+      <c r="L187" s="36"/>
+      <c r="M187" s="35"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A188" s="35"/>
+      <c r="B188" s="36"/>
+      <c r="C188" s="36"/>
+      <c r="D188" s="36"/>
+      <c r="E188" s="36"/>
+      <c r="F188" s="36"/>
+      <c r="G188" s="36"/>
+      <c r="H188" s="42"/>
+      <c r="I188" s="36"/>
+      <c r="J188" s="40"/>
+      <c r="K188" s="43"/>
+      <c r="L188" s="36"/>
+      <c r="M188" s="35"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A189" s="35"/>
+      <c r="B189" s="36"/>
+      <c r="C189" s="36"/>
+      <c r="D189" s="36"/>
+      <c r="E189" s="36"/>
+      <c r="F189" s="36"/>
+      <c r="G189" s="36"/>
+      <c r="H189" s="42"/>
+      <c r="I189" s="36"/>
+      <c r="J189" s="40"/>
+      <c r="K189" s="43"/>
+      <c r="L189" s="36"/>
+      <c r="M189" s="35"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A190" s="35"/>
+      <c r="B190" s="36"/>
+      <c r="C190" s="36"/>
+      <c r="D190" s="36"/>
+      <c r="E190" s="36"/>
+      <c r="F190" s="36"/>
+      <c r="G190" s="36"/>
+      <c r="H190" s="42"/>
+      <c r="I190" s="36"/>
+      <c r="J190" s="40"/>
+      <c r="K190" s="43"/>
+      <c r="L190" s="36"/>
+      <c r="M190" s="35"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A191" s="35"/>
+      <c r="B191" s="36"/>
+      <c r="C191" s="36"/>
+      <c r="D191" s="36"/>
+      <c r="E191" s="36"/>
+      <c r="F191" s="36"/>
+      <c r="G191" s="36"/>
+      <c r="H191" s="42"/>
+      <c r="I191" s="36"/>
+      <c r="J191" s="40"/>
+      <c r="K191" s="43"/>
+      <c r="L191" s="36"/>
+      <c r="M191" s="35"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A192" s="35"/>
+      <c r="B192" s="36"/>
+      <c r="C192" s="36"/>
+      <c r="D192" s="36"/>
+      <c r="E192" s="36"/>
+      <c r="F192" s="36"/>
+      <c r="G192" s="36"/>
+      <c r="H192" s="42"/>
+      <c r="I192" s="36"/>
+      <c r="J192" s="40"/>
+      <c r="K192" s="43"/>
+      <c r="L192" s="36"/>
+      <c r="M192" s="35"/>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A193" s="35"/>
+      <c r="B193" s="36"/>
+      <c r="C193" s="36"/>
+      <c r="D193" s="36"/>
+      <c r="E193" s="36"/>
+      <c r="F193" s="36"/>
+      <c r="G193" s="36"/>
+      <c r="H193" s="42"/>
+      <c r="I193" s="36"/>
+      <c r="J193" s="40"/>
+      <c r="K193" s="43"/>
+      <c r="L193" s="36"/>
+      <c r="M193" s="35"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A194" s="35"/>
+      <c r="B194" s="36"/>
+      <c r="C194" s="36"/>
+      <c r="D194" s="36"/>
+      <c r="E194" s="36"/>
+      <c r="F194" s="36"/>
+      <c r="G194" s="36"/>
+      <c r="H194" s="42"/>
+      <c r="I194" s="36"/>
+      <c r="J194" s="40"/>
+      <c r="K194" s="43"/>
+      <c r="L194" s="36"/>
+      <c r="M194" s="35"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A195" s="35"/>
+      <c r="B195" s="36"/>
+      <c r="C195" s="36"/>
+      <c r="D195" s="36"/>
+      <c r="E195" s="36"/>
+      <c r="F195" s="36"/>
+      <c r="G195" s="36"/>
+      <c r="H195" s="42"/>
+      <c r="I195" s="36"/>
+      <c r="J195" s="40"/>
+      <c r="K195" s="43"/>
+      <c r="L195" s="36"/>
+      <c r="M195" s="35"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A196" s="35"/>
+      <c r="B196" s="36"/>
+      <c r="C196" s="36"/>
+      <c r="D196" s="36"/>
+      <c r="E196" s="36"/>
+      <c r="F196" s="36"/>
+      <c r="G196" s="36"/>
+      <c r="H196" s="42"/>
+      <c r="I196" s="36"/>
+      <c r="J196" s="40"/>
+      <c r="K196" s="43"/>
+      <c r="L196" s="36"/>
+      <c r="M196" s="35"/>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A197" s="35"/>
+      <c r="B197" s="36"/>
+      <c r="C197" s="36"/>
+      <c r="D197" s="36"/>
+      <c r="E197" s="36"/>
+      <c r="F197" s="36"/>
+      <c r="G197" s="36"/>
+      <c r="H197" s="42"/>
+      <c r="I197" s="36"/>
+      <c r="J197" s="40"/>
+      <c r="K197" s="43"/>
+      <c r="L197" s="36"/>
+      <c r="M197" s="35"/>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A198" s="35"/>
+      <c r="B198" s="36"/>
+      <c r="C198" s="36"/>
+      <c r="D198" s="36"/>
+      <c r="E198" s="36"/>
+      <c r="F198" s="36"/>
+      <c r="G198" s="36"/>
+      <c r="H198" s="42"/>
+      <c r="I198" s="36"/>
+      <c r="J198" s="40"/>
+      <c r="K198" s="43"/>
+      <c r="L198" s="36"/>
+      <c r="M198" s="35"/>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A199" s="35"/>
+      <c r="B199" s="36"/>
+      <c r="C199" s="36"/>
+      <c r="D199" s="36"/>
+      <c r="E199" s="36"/>
+      <c r="F199" s="36"/>
+      <c r="G199" s="36"/>
+      <c r="H199" s="42"/>
+      <c r="I199" s="36"/>
+      <c r="J199" s="40"/>
+      <c r="K199" s="43"/>
+      <c r="L199" s="36"/>
+      <c r="M199" s="35"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A200" s="35"/>
+      <c r="B200" s="36"/>
+      <c r="C200" s="36"/>
+      <c r="D200" s="36"/>
+      <c r="E200" s="36"/>
+      <c r="F200" s="36"/>
+      <c r="G200" s="36"/>
+      <c r="H200" s="42"/>
+      <c r="I200" s="36"/>
+      <c r="J200" s="40"/>
+      <c r="K200" s="43"/>
+      <c r="L200" s="36"/>
+      <c r="M200" s="35"/>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A201" s="35"/>
+      <c r="B201" s="36"/>
+      <c r="C201" s="36"/>
+      <c r="D201" s="36"/>
+      <c r="E201" s="36"/>
+      <c r="F201" s="36"/>
+      <c r="G201" s="36"/>
+      <c r="H201" s="42"/>
+      <c r="I201" s="36"/>
+      <c r="J201" s="40"/>
+      <c r="K201" s="43"/>
+      <c r="L201" s="36"/>
+      <c r="M201" s="35"/>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A202" s="35"/>
+      <c r="B202" s="36"/>
+      <c r="C202" s="36"/>
+      <c r="D202" s="36"/>
+      <c r="E202" s="36"/>
+      <c r="F202" s="36"/>
+      <c r="G202" s="36"/>
+      <c r="H202" s="42"/>
+      <c r="I202" s="36"/>
+      <c r="J202" s="40"/>
+      <c r="K202" s="43"/>
+      <c r="L202" s="36"/>
+      <c r="M202" s="35"/>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A203" s="35"/>
+      <c r="B203" s="36"/>
+      <c r="C203" s="36"/>
+      <c r="D203" s="36"/>
+      <c r="E203" s="36"/>
+      <c r="F203" s="36"/>
+      <c r="G203" s="36"/>
+      <c r="H203" s="42"/>
+      <c r="I203" s="36"/>
+      <c r="J203" s="40"/>
+      <c r="K203" s="43"/>
+      <c r="L203" s="36"/>
+      <c r="M203" s="35"/>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A204" s="35"/>
+      <c r="B204" s="36"/>
+      <c r="C204" s="36"/>
+      <c r="D204" s="36"/>
+      <c r="E204" s="36"/>
+      <c r="F204" s="36"/>
+      <c r="G204" s="36"/>
+      <c r="H204" s="42"/>
+      <c r="I204" s="36"/>
+      <c r="J204" s="40"/>
+      <c r="K204" s="43"/>
+      <c r="L204" s="36"/>
+      <c r="M204" s="35"/>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A205" s="35"/>
+      <c r="B205" s="36"/>
+      <c r="C205" s="36"/>
+      <c r="D205" s="36"/>
+      <c r="E205" s="36"/>
+      <c r="F205" s="36"/>
+      <c r="G205" s="36"/>
+      <c r="H205" s="42"/>
+      <c r="I205" s="36"/>
+      <c r="J205" s="40"/>
+      <c r="K205" s="43"/>
+      <c r="L205" s="36"/>
+      <c r="M205" s="35"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A206" s="35"/>
+      <c r="B206" s="36"/>
+      <c r="C206" s="36"/>
+      <c r="D206" s="36"/>
+      <c r="E206" s="36"/>
+      <c r="F206" s="36"/>
+      <c r="G206" s="36"/>
+      <c r="H206" s="42"/>
+      <c r="I206" s="36"/>
+      <c r="J206" s="40"/>
+      <c r="K206" s="43"/>
+      <c r="L206" s="36"/>
+      <c r="M206" s="35"/>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A207" s="35"/>
+      <c r="B207" s="36"/>
+      <c r="C207" s="36"/>
+      <c r="D207" s="36"/>
+      <c r="E207" s="36"/>
+      <c r="F207" s="36"/>
+      <c r="G207" s="36"/>
+      <c r="H207" s="42"/>
+      <c r="I207" s="36"/>
+      <c r="J207" s="40"/>
+      <c r="K207" s="43"/>
+      <c r="L207" s="36"/>
+      <c r="M207" s="35"/>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A208" s="35"/>
+      <c r="B208" s="36"/>
+      <c r="C208" s="36"/>
+      <c r="D208" s="36"/>
+      <c r="E208" s="36"/>
+      <c r="F208" s="36"/>
+      <c r="G208" s="36"/>
+      <c r="H208" s="42"/>
+      <c r="I208" s="36"/>
+      <c r="J208" s="40"/>
+      <c r="K208" s="43"/>
+      <c r="L208" s="36"/>
+      <c r="M208" s="35"/>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A209" s="35"/>
+      <c r="B209" s="36"/>
+      <c r="C209" s="36"/>
+      <c r="D209" s="36"/>
+      <c r="E209" s="36"/>
+      <c r="F209" s="36"/>
+      <c r="G209" s="36"/>
+      <c r="H209" s="42"/>
+      <c r="I209" s="36"/>
+      <c r="J209" s="40"/>
+      <c r="K209" s="43"/>
+      <c r="L209" s="36"/>
+      <c r="M209" s="35"/>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A210" s="35"/>
+      <c r="B210" s="36"/>
+      <c r="C210" s="36"/>
+      <c r="D210" s="36"/>
+      <c r="E210" s="36"/>
+      <c r="F210" s="36"/>
+      <c r="G210" s="36"/>
+      <c r="H210" s="42"/>
+      <c r="I210" s="36"/>
+      <c r="J210" s="40"/>
+      <c r="K210" s="43"/>
+      <c r="L210" s="36"/>
+      <c r="M210" s="35"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A211" s="35"/>
+      <c r="B211" s="36"/>
+      <c r="C211" s="36"/>
+      <c r="D211" s="36"/>
+      <c r="E211" s="36"/>
+      <c r="F211" s="36"/>
+      <c r="G211" s="36"/>
+      <c r="H211" s="42"/>
+      <c r="I211" s="36"/>
+      <c r="J211" s="40"/>
+      <c r="K211" s="43"/>
+      <c r="L211" s="36"/>
+      <c r="M211" s="35"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A212" s="35"/>
+      <c r="B212" s="36"/>
+      <c r="C212" s="36"/>
+      <c r="D212" s="36"/>
+      <c r="E212" s="36"/>
+      <c r="F212" s="36"/>
+      <c r="G212" s="36"/>
+      <c r="H212" s="42"/>
+      <c r="I212" s="36"/>
+      <c r="J212" s="40"/>
+      <c r="K212" s="43"/>
+      <c r="L212" s="36"/>
+      <c r="M212" s="35"/>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A213" s="35"/>
+      <c r="B213" s="36"/>
+      <c r="C213" s="36"/>
+      <c r="D213" s="36"/>
+      <c r="E213" s="36"/>
+      <c r="F213" s="36"/>
+      <c r="G213" s="36"/>
+      <c r="H213" s="42"/>
+      <c r="I213" s="36"/>
+      <c r="J213" s="40"/>
+      <c r="K213" s="43"/>
+      <c r="L213" s="36"/>
+      <c r="M213" s="35"/>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A214" s="35"/>
+      <c r="B214" s="36"/>
+      <c r="C214" s="36"/>
+      <c r="D214" s="36"/>
+      <c r="E214" s="36"/>
+      <c r="F214" s="36"/>
+      <c r="G214" s="36"/>
+      <c r="H214" s="42"/>
+      <c r="I214" s="36"/>
+      <c r="J214" s="40"/>
+      <c r="K214" s="43"/>
+      <c r="L214" s="36"/>
+      <c r="M214" s="35"/>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A215" s="35"/>
+      <c r="B215" s="36"/>
+      <c r="C215" s="36"/>
+      <c r="D215" s="36"/>
+      <c r="E215" s="36"/>
+      <c r="F215" s="36"/>
+      <c r="G215" s="36"/>
+      <c r="H215" s="42"/>
+      <c r="I215" s="36"/>
+      <c r="J215" s="40"/>
+      <c r="K215" s="43"/>
+      <c r="L215" s="36"/>
+      <c r="M215" s="35"/>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A216" s="35"/>
+      <c r="B216" s="36"/>
+      <c r="C216" s="36"/>
+      <c r="D216" s="36"/>
+      <c r="E216" s="36"/>
+      <c r="F216" s="36"/>
+      <c r="G216" s="36"/>
+      <c r="H216" s="42"/>
+      <c r="I216" s="36"/>
+      <c r="J216" s="40"/>
+      <c r="K216" s="43"/>
+      <c r="L216" s="36"/>
+      <c r="M216" s="35"/>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A217" s="35"/>
+      <c r="B217" s="36"/>
+      <c r="C217" s="36"/>
+      <c r="D217" s="36"/>
+      <c r="E217" s="36"/>
+      <c r="F217" s="36"/>
+      <c r="G217" s="36"/>
+      <c r="H217" s="42"/>
+      <c r="I217" s="36"/>
+      <c r="J217" s="40"/>
+      <c r="K217" s="43"/>
+      <c r="L217" s="36"/>
+      <c r="M217" s="35"/>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A218" s="35"/>
+      <c r="B218" s="36"/>
+      <c r="C218" s="36"/>
+      <c r="D218" s="36"/>
+      <c r="E218" s="36"/>
+      <c r="F218" s="36"/>
+      <c r="G218" s="36"/>
+      <c r="H218" s="42"/>
+      <c r="I218" s="36"/>
+      <c r="J218" s="40"/>
+      <c r="K218" s="43"/>
+      <c r="L218" s="36"/>
+      <c r="M218" s="35"/>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A219" s="35"/>
+      <c r="B219" s="36"/>
+      <c r="C219" s="36"/>
+      <c r="D219" s="36"/>
+      <c r="E219" s="36"/>
+      <c r="F219" s="36"/>
+      <c r="G219" s="36"/>
+      <c r="H219" s="42"/>
+      <c r="I219" s="36"/>
+      <c r="J219" s="40"/>
+      <c r="K219" s="43"/>
+      <c r="L219" s="36"/>
+      <c r="M219" s="35"/>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A220" s="35"/>
+      <c r="B220" s="36"/>
+      <c r="C220" s="36"/>
+      <c r="D220" s="36"/>
+      <c r="E220" s="36"/>
+      <c r="F220" s="36"/>
+      <c r="G220" s="36"/>
+      <c r="H220" s="42"/>
+      <c r="I220" s="36"/>
+      <c r="J220" s="40"/>
+      <c r="K220" s="43"/>
+      <c r="L220" s="36"/>
+      <c r="M220" s="35"/>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A221" s="35"/>
+      <c r="B221" s="36"/>
+      <c r="C221" s="36"/>
+      <c r="D221" s="36"/>
+      <c r="E221" s="36"/>
+      <c r="F221" s="36"/>
+      <c r="G221" s="36"/>
+      <c r="H221" s="42"/>
+      <c r="I221" s="36"/>
+      <c r="J221" s="40"/>
+      <c r="K221" s="43"/>
+      <c r="L221" s="36"/>
+      <c r="M221" s="35"/>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A222" s="35"/>
+      <c r="B222" s="36"/>
+      <c r="C222" s="36"/>
+      <c r="D222" s="36"/>
+      <c r="E222" s="36"/>
+      <c r="F222" s="36"/>
+      <c r="G222" s="36"/>
+      <c r="H222" s="42"/>
+      <c r="I222" s="36"/>
+      <c r="J222" s="40"/>
+      <c r="K222" s="43"/>
+      <c r="L222" s="36"/>
+      <c r="M222" s="35"/>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A223" s="35"/>
+      <c r="B223" s="36"/>
+      <c r="C223" s="36"/>
+      <c r="D223" s="36"/>
+      <c r="E223" s="36"/>
+      <c r="F223" s="36"/>
+      <c r="G223" s="36"/>
+      <c r="H223" s="42"/>
+      <c r="I223" s="36"/>
+      <c r="J223" s="40"/>
+      <c r="K223" s="43"/>
+      <c r="L223" s="36"/>
+      <c r="M223" s="35"/>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A224" s="35"/>
+      <c r="B224" s="36"/>
+      <c r="C224" s="36"/>
+      <c r="D224" s="36"/>
+      <c r="E224" s="36"/>
+      <c r="F224" s="36"/>
+      <c r="G224" s="36"/>
+      <c r="H224" s="42"/>
+      <c r="I224" s="36"/>
+      <c r="J224" s="40"/>
+      <c r="K224" s="43"/>
+      <c r="L224" s="36"/>
+      <c r="M224" s="35"/>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A225" s="35"/>
+      <c r="B225" s="36"/>
+      <c r="C225" s="36"/>
+      <c r="D225" s="36"/>
+      <c r="E225" s="36"/>
+      <c r="F225" s="36"/>
+      <c r="G225" s="36"/>
+      <c r="H225" s="42"/>
+      <c r="I225" s="36"/>
+      <c r="J225" s="40"/>
+      <c r="K225" s="43"/>
+      <c r="L225" s="36"/>
+      <c r="M225" s="35"/>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A226" s="35"/>
+      <c r="B226" s="36"/>
+      <c r="C226" s="36"/>
+      <c r="D226" s="36"/>
+      <c r="E226" s="36"/>
+      <c r="F226" s="36"/>
+      <c r="G226" s="36"/>
+      <c r="H226" s="42"/>
+      <c r="I226" s="36"/>
+      <c r="J226" s="40"/>
+      <c r="K226" s="43"/>
+      <c r="L226" s="36"/>
+      <c r="M226" s="35"/>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A227" s="35"/>
+      <c r="B227" s="36"/>
+      <c r="C227" s="36"/>
+      <c r="D227" s="36"/>
+      <c r="E227" s="36"/>
+      <c r="F227" s="36"/>
+      <c r="G227" s="36"/>
+      <c r="H227" s="42"/>
+      <c r="I227" s="36"/>
+      <c r="J227" s="40"/>
+      <c r="K227" s="43"/>
+      <c r="L227" s="36"/>
+      <c r="M227" s="35"/>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A228" s="35"/>
+      <c r="B228" s="36"/>
+      <c r="C228" s="36"/>
+      <c r="D228" s="36"/>
+      <c r="E228" s="36"/>
+      <c r="F228" s="36"/>
+      <c r="G228" s="36"/>
+      <c r="H228" s="42"/>
+      <c r="I228" s="36"/>
+      <c r="J228" s="40"/>
+      <c r="K228" s="43"/>
+      <c r="L228" s="36"/>
+      <c r="M228" s="35"/>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A229" s="35"/>
+      <c r="B229" s="36"/>
+      <c r="C229" s="36"/>
+      <c r="D229" s="36"/>
+      <c r="E229" s="36"/>
+      <c r="F229" s="36"/>
+      <c r="G229" s="36"/>
+      <c r="H229" s="42"/>
+      <c r="I229" s="36"/>
+      <c r="J229" s="40"/>
+      <c r="K229" s="43"/>
+      <c r="L229" s="36"/>
+      <c r="M229" s="35"/>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A230" s="35"/>
+      <c r="B230" s="36"/>
+      <c r="C230" s="36"/>
+      <c r="D230" s="36"/>
+      <c r="E230" s="36"/>
+      <c r="F230" s="36"/>
+      <c r="G230" s="36"/>
+      <c r="H230" s="42"/>
+      <c r="I230" s="36"/>
+      <c r="J230" s="40"/>
+      <c r="K230" s="43"/>
+      <c r="L230" s="36"/>
+      <c r="M230" s="35"/>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A231" s="35"/>
+      <c r="B231" s="36"/>
+      <c r="C231" s="36"/>
+      <c r="D231" s="36"/>
+      <c r="E231" s="36"/>
+      <c r="F231" s="36"/>
+      <c r="G231" s="36"/>
+      <c r="H231" s="42"/>
+      <c r="I231" s="36"/>
+      <c r="J231" s="40"/>
+      <c r="K231" s="43"/>
+      <c r="L231" s="36"/>
+      <c r="M231" s="35"/>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A232" s="35"/>
+      <c r="B232" s="36"/>
+      <c r="C232" s="36"/>
+      <c r="D232" s="36"/>
+      <c r="E232" s="36"/>
+      <c r="F232" s="36"/>
+      <c r="G232" s="36"/>
+      <c r="H232" s="42"/>
+      <c r="I232" s="36"/>
+      <c r="J232" s="40"/>
+      <c r="K232" s="43"/>
+      <c r="L232" s="36"/>
+      <c r="M232" s="35"/>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A233" s="35"/>
+      <c r="B233" s="36"/>
+      <c r="C233" s="36"/>
+      <c r="D233" s="36"/>
+      <c r="E233" s="36"/>
+      <c r="F233" s="36"/>
+      <c r="G233" s="36"/>
+      <c r="H233" s="42"/>
+      <c r="I233" s="36"/>
+      <c r="J233" s="40"/>
+      <c r="K233" s="43"/>
+      <c r="L233" s="36"/>
+      <c r="M233" s="35"/>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A234" s="35"/>
+      <c r="B234" s="36"/>
+      <c r="C234" s="36"/>
+      <c r="D234" s="36"/>
+      <c r="E234" s="36"/>
+      <c r="F234" s="36"/>
+      <c r="G234" s="36"/>
+      <c r="H234" s="42"/>
+      <c r="I234" s="36"/>
+      <c r="J234" s="40"/>
+      <c r="K234" s="43"/>
+      <c r="L234" s="36"/>
+      <c r="M234" s="35"/>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A235" s="35"/>
+      <c r="B235" s="36"/>
+      <c r="C235" s="36"/>
+      <c r="D235" s="36"/>
+      <c r="E235" s="36"/>
+      <c r="F235" s="36"/>
+      <c r="G235" s="36"/>
+      <c r="H235" s="42"/>
+      <c r="I235" s="36"/>
+      <c r="J235" s="40"/>
+      <c r="K235" s="43"/>
+      <c r="L235" s="36"/>
+      <c r="M235" s="35"/>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A236" s="35"/>
+      <c r="B236" s="36"/>
+      <c r="C236" s="36"/>
+      <c r="D236" s="36"/>
+      <c r="E236" s="36"/>
+      <c r="F236" s="36"/>
+      <c r="G236" s="36"/>
+      <c r="H236" s="42"/>
+      <c r="I236" s="36"/>
+      <c r="J236" s="40"/>
+      <c r="K236" s="43"/>
+      <c r="L236" s="36"/>
+      <c r="M236" s="35"/>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A237" s="35"/>
+      <c r="B237" s="36"/>
+      <c r="C237" s="36"/>
+      <c r="D237" s="36"/>
+      <c r="E237" s="36"/>
+      <c r="F237" s="36"/>
+      <c r="G237" s="36"/>
+      <c r="H237" s="42"/>
+      <c r="I237" s="36"/>
+      <c r="J237" s="40"/>
+      <c r="K237" s="43"/>
+      <c r="L237" s="36"/>
+      <c r="M237" s="35"/>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A238" s="35"/>
+      <c r="B238" s="36"/>
+      <c r="C238" s="36"/>
+      <c r="D238" s="36"/>
+      <c r="E238" s="36"/>
+      <c r="F238" s="36"/>
+      <c r="G238" s="36"/>
+      <c r="H238" s="42"/>
+      <c r="I238" s="36"/>
+      <c r="J238" s="40"/>
+      <c r="K238" s="43"/>
+      <c r="L238" s="36"/>
+      <c r="M238" s="35"/>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A239" s="35"/>
+      <c r="B239" s="36"/>
+      <c r="C239" s="36"/>
+      <c r="D239" s="36"/>
+      <c r="E239" s="36"/>
+      <c r="F239" s="36"/>
+      <c r="G239" s="36"/>
+      <c r="H239" s="42"/>
+      <c r="I239" s="36"/>
+      <c r="J239" s="40"/>
+      <c r="K239" s="43"/>
+      <c r="L239" s="36"/>
+      <c r="M239" s="35"/>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A240" s="35"/>
+      <c r="B240" s="36"/>
+      <c r="C240" s="36"/>
+      <c r="D240" s="36"/>
+      <c r="E240" s="36"/>
+      <c r="F240" s="36"/>
+      <c r="G240" s="36"/>
+      <c r="H240" s="42"/>
+      <c r="I240" s="36"/>
+      <c r="J240" s="40"/>
+      <c r="K240" s="43"/>
+      <c r="L240" s="36"/>
+      <c r="M240" s="35"/>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A241" s="35"/>
+      <c r="B241" s="36"/>
+      <c r="C241" s="36"/>
+      <c r="D241" s="36"/>
+      <c r="E241" s="36"/>
+      <c r="F241" s="36"/>
+      <c r="G241" s="36"/>
+      <c r="H241" s="42"/>
+      <c r="I241" s="36"/>
+      <c r="J241" s="40"/>
+      <c r="K241" s="43"/>
+      <c r="L241" s="36"/>
+      <c r="M241" s="35"/>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A242" s="35"/>
+      <c r="B242" s="36"/>
+      <c r="C242" s="36"/>
+      <c r="D242" s="36"/>
+      <c r="E242" s="36"/>
+      <c r="F242" s="36"/>
+      <c r="G242" s="36"/>
+      <c r="H242" s="42"/>
+      <c r="I242" s="36"/>
+      <c r="J242" s="40"/>
+      <c r="K242" s="43"/>
+      <c r="L242" s="36"/>
+      <c r="M242" s="35"/>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A243" s="35"/>
+      <c r="B243" s="36"/>
+      <c r="C243" s="36"/>
+      <c r="D243" s="36"/>
+      <c r="E243" s="36"/>
+      <c r="F243" s="36"/>
+      <c r="G243" s="36"/>
+      <c r="H243" s="42"/>
+      <c r="I243" s="36"/>
+      <c r="J243" s="40"/>
+      <c r="K243" s="43"/>
+      <c r="L243" s="36"/>
+      <c r="M243" s="35"/>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A244" s="35"/>
+      <c r="B244" s="36"/>
+      <c r="C244" s="36"/>
+      <c r="D244" s="36"/>
+      <c r="E244" s="36"/>
+      <c r="F244" s="36"/>
+      <c r="G244" s="36"/>
+      <c r="H244" s="42"/>
+      <c r="I244" s="36"/>
+      <c r="J244" s="40"/>
+      <c r="K244" s="43"/>
+      <c r="L244" s="36"/>
+      <c r="M244" s="35"/>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A245" s="35"/>
+      <c r="B245" s="36"/>
+      <c r="C245" s="36"/>
+      <c r="D245" s="36"/>
+      <c r="E245" s="36"/>
+      <c r="F245" s="36"/>
+      <c r="G245" s="36"/>
+      <c r="H245" s="42"/>
+      <c r="I245" s="36"/>
+      <c r="J245" s="40"/>
+      <c r="K245" s="43"/>
+      <c r="L245" s="36"/>
+      <c r="M245" s="35"/>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A246" s="35"/>
+      <c r="B246" s="36"/>
+      <c r="C246" s="36"/>
+      <c r="D246" s="36"/>
+      <c r="E246" s="36"/>
+      <c r="F246" s="36"/>
+      <c r="G246" s="36"/>
+      <c r="H246" s="42"/>
+      <c r="I246" s="36"/>
+      <c r="J246" s="40"/>
+      <c r="K246" s="43"/>
+      <c r="L246" s="36"/>
+      <c r="M246" s="35"/>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A247" s="35"/>
+      <c r="B247" s="36"/>
+      <c r="C247" s="36"/>
+      <c r="D247" s="36"/>
+      <c r="E247" s="36"/>
+      <c r="F247" s="36"/>
+      <c r="G247" s="36"/>
+      <c r="H247" s="42"/>
+      <c r="I247" s="36"/>
+      <c r="J247" s="40"/>
+      <c r="K247" s="43"/>
+      <c r="L247" s="36"/>
+      <c r="M247" s="35"/>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A248" s="35"/>
+      <c r="B248" s="36"/>
+      <c r="C248" s="36"/>
+      <c r="D248" s="36"/>
+      <c r="E248" s="36"/>
+      <c r="F248" s="36"/>
+      <c r="G248" s="36"/>
+      <c r="H248" s="42"/>
+      <c r="I248" s="36"/>
+      <c r="J248" s="40"/>
+      <c r="K248" s="43"/>
+      <c r="L248" s="36"/>
+      <c r="M248" s="35"/>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A249" s="35"/>
+      <c r="B249" s="36"/>
+      <c r="C249" s="36"/>
+      <c r="D249" s="36"/>
+      <c r="E249" s="36"/>
+      <c r="F249" s="36"/>
+      <c r="G249" s="36"/>
+      <c r="H249" s="42"/>
+      <c r="I249" s="36"/>
+      <c r="J249" s="40"/>
+      <c r="K249" s="43"/>
+      <c r="L249" s="36"/>
+      <c r="M249" s="35"/>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A250" s="35"/>
+      <c r="B250" s="36"/>
+      <c r="C250" s="36"/>
+      <c r="D250" s="36"/>
+      <c r="E250" s="36"/>
+      <c r="F250" s="36"/>
+      <c r="G250" s="36"/>
+      <c r="H250" s="42"/>
+      <c r="I250" s="36"/>
+      <c r="J250" s="40"/>
+      <c r="K250" s="43"/>
+      <c r="L250" s="36"/>
+      <c r="M250" s="35"/>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A251" s="35"/>
+      <c r="B251" s="36"/>
+      <c r="C251" s="36"/>
+      <c r="D251" s="36"/>
+      <c r="E251" s="36"/>
+      <c r="F251" s="36"/>
+      <c r="G251" s="36"/>
+      <c r="H251" s="42"/>
+      <c r="I251" s="36"/>
+      <c r="J251" s="40"/>
+      <c r="K251" s="43"/>
+      <c r="L251" s="36"/>
+      <c r="M251" s="35"/>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A252" s="35"/>
+      <c r="B252" s="36"/>
+      <c r="C252" s="36"/>
+      <c r="D252" s="36"/>
+      <c r="E252" s="36"/>
+      <c r="F252" s="36"/>
+      <c r="G252" s="36"/>
+      <c r="H252" s="42"/>
+      <c r="I252" s="36"/>
+      <c r="J252" s="40"/>
+      <c r="K252" s="43"/>
+      <c r="L252" s="36"/>
+      <c r="M252" s="35"/>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A253" s="35"/>
+      <c r="B253" s="36"/>
+      <c r="C253" s="36"/>
+      <c r="D253" s="36"/>
+      <c r="E253" s="36"/>
+      <c r="F253" s="36"/>
+      <c r="G253" s="36"/>
+      <c r="H253" s="42"/>
+      <c r="I253" s="36"/>
+      <c r="J253" s="40"/>
+      <c r="K253" s="43"/>
+      <c r="L253" s="36"/>
+      <c r="M253" s="35"/>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A254" s="35"/>
+      <c r="B254" s="36"/>
+      <c r="C254" s="36"/>
+      <c r="D254" s="36"/>
+      <c r="E254" s="36"/>
+      <c r="F254" s="36"/>
+      <c r="G254" s="36"/>
+      <c r="H254" s="42"/>
+      <c r="I254" s="36"/>
+      <c r="J254" s="40"/>
+      <c r="K254" s="43"/>
+      <c r="L254" s="36"/>
+      <c r="M254" s="35"/>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A255" s="35"/>
+      <c r="B255" s="36"/>
+      <c r="C255" s="36"/>
+      <c r="D255" s="36"/>
+      <c r="E255" s="36"/>
+      <c r="F255" s="36"/>
+      <c r="G255" s="36"/>
+      <c r="H255" s="42"/>
+      <c r="I255" s="36"/>
+      <c r="J255" s="40"/>
+      <c r="K255" s="43"/>
+      <c r="L255" s="36"/>
+      <c r="M255" s="35"/>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A256" s="35"/>
+      <c r="B256" s="36"/>
+      <c r="C256" s="36"/>
+      <c r="D256" s="36"/>
+      <c r="E256" s="36"/>
+      <c r="F256" s="36"/>
+      <c r="G256" s="36"/>
+      <c r="H256" s="42"/>
+      <c r="I256" s="36"/>
+      <c r="J256" s="40"/>
+      <c r="K256" s="43"/>
+      <c r="L256" s="36"/>
+      <c r="M256" s="35"/>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A257" s="35"/>
+      <c r="B257" s="36"/>
+      <c r="C257" s="36"/>
+      <c r="D257" s="36"/>
+      <c r="E257" s="36"/>
+      <c r="F257" s="36"/>
+      <c r="G257" s="36"/>
+      <c r="H257" s="42"/>
+      <c r="I257" s="36"/>
+      <c r="J257" s="40"/>
+      <c r="K257" s="43"/>
+      <c r="L257" s="36"/>
+      <c r="M257" s="35"/>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A258" s="35"/>
+      <c r="B258" s="36"/>
+      <c r="C258" s="36"/>
+      <c r="D258" s="36"/>
+      <c r="E258" s="36"/>
+      <c r="F258" s="36"/>
+      <c r="G258" s="36"/>
+      <c r="H258" s="42"/>
+      <c r="I258" s="36"/>
+      <c r="J258" s="40"/>
+      <c r="K258" s="43"/>
+      <c r="L258" s="36"/>
+      <c r="M258" s="35"/>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A259" s="35"/>
+      <c r="B259" s="36"/>
+      <c r="C259" s="36"/>
+      <c r="D259" s="36"/>
+      <c r="E259" s="36"/>
+      <c r="F259" s="36"/>
+      <c r="G259" s="36"/>
+      <c r="H259" s="42"/>
+      <c r="I259" s="36"/>
+      <c r="J259" s="40"/>
+      <c r="K259" s="43"/>
+      <c r="L259" s="36"/>
+      <c r="M259" s="35"/>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A260" s="35"/>
+      <c r="B260" s="36"/>
+      <c r="C260" s="36"/>
+      <c r="D260" s="36"/>
+      <c r="E260" s="36"/>
+      <c r="F260" s="36"/>
+      <c r="G260" s="36"/>
+      <c r="H260" s="42"/>
+      <c r="I260" s="36"/>
+      <c r="J260" s="40"/>
+      <c r="K260" s="43"/>
+      <c r="L260" s="36"/>
+      <c r="M260" s="35"/>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A261" s="35"/>
+      <c r="B261" s="36"/>
+      <c r="C261" s="36"/>
+      <c r="D261" s="36"/>
+      <c r="E261" s="36"/>
+      <c r="F261" s="36"/>
+      <c r="G261" s="36"/>
+      <c r="H261" s="42"/>
+      <c r="I261" s="36"/>
+      <c r="J261" s="40"/>
+      <c r="K261" s="43"/>
+      <c r="L261" s="36"/>
+      <c r="M261" s="35"/>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A262" s="35"/>
+      <c r="B262" s="36"/>
+      <c r="C262" s="36"/>
+      <c r="D262" s="36"/>
+      <c r="E262" s="36"/>
+      <c r="F262" s="36"/>
+      <c r="G262" s="36"/>
+      <c r="H262" s="42"/>
+      <c r="I262" s="36"/>
+      <c r="J262" s="40"/>
+      <c r="K262" s="43"/>
+      <c r="L262" s="36"/>
+      <c r="M262" s="35"/>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A263" s="35"/>
+      <c r="B263" s="36"/>
+      <c r="C263" s="36"/>
+      <c r="D263" s="36"/>
+      <c r="E263" s="36"/>
+      <c r="F263" s="36"/>
+      <c r="G263" s="36"/>
+      <c r="H263" s="42"/>
+      <c r="I263" s="36"/>
+      <c r="J263" s="40"/>
+      <c r="K263" s="43"/>
+      <c r="L263" s="36"/>
+      <c r="M263" s="35"/>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A264" s="35"/>
+      <c r="B264" s="36"/>
+      <c r="C264" s="36"/>
+      <c r="D264" s="36"/>
+      <c r="E264" s="36"/>
+      <c r="F264" s="36"/>
+      <c r="G264" s="36"/>
+      <c r="H264" s="42"/>
+      <c r="I264" s="36"/>
+      <c r="J264" s="40"/>
+      <c r="K264" s="43"/>
+      <c r="L264" s="36"/>
+      <c r="M264" s="35"/>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A265" s="35"/>
+      <c r="B265" s="36"/>
+      <c r="C265" s="36"/>
+      <c r="D265" s="36"/>
+      <c r="E265" s="36"/>
+      <c r="F265" s="36"/>
+      <c r="G265" s="36"/>
+      <c r="H265" s="42"/>
+      <c r="I265" s="36"/>
+      <c r="J265" s="40"/>
+      <c r="K265" s="43"/>
+      <c r="L265" s="36"/>
+      <c r="M265" s="35"/>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A266" s="35"/>
+      <c r="B266" s="36"/>
+      <c r="C266" s="36"/>
+      <c r="D266" s="36"/>
+      <c r="E266" s="36"/>
+      <c r="F266" s="36"/>
+      <c r="G266" s="36"/>
+      <c r="H266" s="42"/>
+      <c r="I266" s="36"/>
+      <c r="J266" s="40"/>
+      <c r="K266" s="43"/>
+      <c r="L266" s="36"/>
+      <c r="M266" s="35"/>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A267" s="35"/>
+      <c r="B267" s="36"/>
+      <c r="C267" s="36"/>
+      <c r="D267" s="36"/>
+      <c r="E267" s="36"/>
+      <c r="F267" s="36"/>
+      <c r="G267" s="36"/>
+      <c r="H267" s="42"/>
+      <c r="I267" s="36"/>
+      <c r="J267" s="40"/>
+      <c r="K267" s="43"/>
+      <c r="L267" s="36"/>
+      <c r="M267" s="35"/>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A268" s="35"/>
+      <c r="B268" s="36"/>
+      <c r="C268" s="36"/>
+      <c r="D268" s="36"/>
+      <c r="E268" s="36"/>
+      <c r="F268" s="36"/>
+      <c r="G268" s="36"/>
+      <c r="H268" s="42"/>
+      <c r="I268" s="36"/>
+      <c r="J268" s="40"/>
+      <c r="K268" s="43"/>
+      <c r="L268" s="36"/>
+      <c r="M268" s="35"/>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A269" s="35"/>
+      <c r="B269" s="36"/>
+      <c r="C269" s="36"/>
+      <c r="D269" s="36"/>
+      <c r="E269" s="36"/>
+      <c r="F269" s="36"/>
+      <c r="G269" s="36"/>
+      <c r="H269" s="42"/>
+      <c r="I269" s="36"/>
+      <c r="J269" s="40"/>
+      <c r="K269" s="43"/>
+      <c r="L269" s="36"/>
+      <c r="M269" s="35"/>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A270" s="35"/>
+      <c r="B270" s="36"/>
+      <c r="C270" s="36"/>
+      <c r="D270" s="36"/>
+      <c r="E270" s="36"/>
+      <c r="F270" s="36"/>
+      <c r="G270" s="36"/>
+      <c r="H270" s="42"/>
+      <c r="I270" s="36"/>
+      <c r="J270" s="40"/>
+      <c r="K270" s="43"/>
+      <c r="L270" s="36"/>
+      <c r="M270" s="35"/>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A271" s="35"/>
+      <c r="B271" s="36"/>
+      <c r="C271" s="36"/>
+      <c r="D271" s="36"/>
+      <c r="E271" s="36"/>
+      <c r="F271" s="36"/>
+      <c r="G271" s="36"/>
+      <c r="H271" s="42"/>
+      <c r="I271" s="36"/>
+      <c r="J271" s="40"/>
+      <c r="K271" s="43"/>
+      <c r="L271" s="36"/>
+      <c r="M271" s="35"/>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A272" s="35"/>
+      <c r="B272" s="36"/>
+      <c r="C272" s="36"/>
+      <c r="D272" s="36"/>
+      <c r="E272" s="36"/>
+      <c r="F272" s="36"/>
+      <c r="G272" s="36"/>
+      <c r="H272" s="42"/>
+      <c r="I272" s="36"/>
+      <c r="J272" s="40"/>
+      <c r="K272" s="43"/>
+      <c r="L272" s="36"/>
+      <c r="M272" s="35"/>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A273" s="35"/>
+      <c r="B273" s="36"/>
+      <c r="C273" s="36"/>
+      <c r="D273" s="36"/>
+      <c r="E273" s="36"/>
+      <c r="F273" s="36"/>
+      <c r="G273" s="36"/>
+      <c r="H273" s="42"/>
+      <c r="I273" s="36"/>
+      <c r="J273" s="40"/>
+      <c r="K273" s="43"/>
+      <c r="L273" s="36"/>
+      <c r="M273" s="35"/>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A274" s="35"/>
+      <c r="B274" s="36"/>
+      <c r="C274" s="36"/>
+      <c r="D274" s="36"/>
+      <c r="E274" s="36"/>
+      <c r="F274" s="36"/>
+      <c r="G274" s="36"/>
+      <c r="H274" s="42"/>
+      <c r="I274" s="36"/>
+      <c r="J274" s="40"/>
+      <c r="K274" s="43"/>
+      <c r="L274" s="36"/>
+      <c r="M274" s="35"/>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A275" s="35"/>
+      <c r="B275" s="36"/>
+      <c r="C275" s="36"/>
+      <c r="D275" s="36"/>
+      <c r="E275" s="36"/>
+      <c r="F275" s="36"/>
+      <c r="G275" s="36"/>
+      <c r="H275" s="42"/>
+      <c r="I275" s="36"/>
+      <c r="J275" s="40"/>
+      <c r="K275" s="43"/>
+      <c r="L275" s="36"/>
+      <c r="M275" s="35"/>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A276" s="35"/>
+      <c r="B276" s="36"/>
+      <c r="C276" s="36"/>
+      <c r="D276" s="36"/>
+      <c r="E276" s="36"/>
+      <c r="F276" s="36"/>
+      <c r="G276" s="36"/>
+      <c r="H276" s="42"/>
+      <c r="I276" s="36"/>
+      <c r="J276" s="40"/>
+      <c r="K276" s="43"/>
+      <c r="L276" s="36"/>
+      <c r="M276" s="35"/>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A277" s="35"/>
+      <c r="B277" s="36"/>
+      <c r="C277" s="36"/>
+      <c r="D277" s="36"/>
+      <c r="E277" s="36"/>
+      <c r="F277" s="36"/>
+      <c r="G277" s="36"/>
+      <c r="H277" s="42"/>
+      <c r="I277" s="36"/>
+      <c r="J277" s="40"/>
+      <c r="K277" s="43"/>
+      <c r="L277" s="36"/>
+      <c r="M277" s="35"/>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A278" s="35"/>
+      <c r="B278" s="36"/>
+      <c r="C278" s="36"/>
+      <c r="D278" s="36"/>
+      <c r="E278" s="36"/>
+      <c r="F278" s="36"/>
+      <c r="G278" s="36"/>
+      <c r="H278" s="42"/>
+      <c r="I278" s="36"/>
+      <c r="J278" s="40"/>
+      <c r="K278" s="43"/>
+      <c r="L278" s="36"/>
+      <c r="M278" s="35"/>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A279" s="35"/>
+      <c r="B279" s="36"/>
+      <c r="C279" s="36"/>
+      <c r="D279" s="36"/>
+      <c r="E279" s="36"/>
+      <c r="F279" s="36"/>
+      <c r="G279" s="36"/>
+      <c r="H279" s="42"/>
+      <c r="I279" s="36"/>
+      <c r="J279" s="40"/>
+      <c r="K279" s="43"/>
+      <c r="L279" s="36"/>
+      <c r="M279" s="35"/>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A280" s="35"/>
+      <c r="B280" s="36"/>
+      <c r="C280" s="36"/>
+      <c r="D280" s="36"/>
+      <c r="E280" s="36"/>
+      <c r="F280" s="36"/>
+      <c r="G280" s="36"/>
+      <c r="H280" s="42"/>
+      <c r="I280" s="36"/>
+      <c r="J280" s="40"/>
+      <c r="K280" s="43"/>
+      <c r="L280" s="36"/>
+      <c r="M280" s="35"/>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A281" s="35"/>
+      <c r="B281" s="36"/>
+      <c r="C281" s="36"/>
+      <c r="D281" s="36"/>
+      <c r="E281" s="36"/>
+      <c r="F281" s="36"/>
+      <c r="G281" s="36"/>
+      <c r="H281" s="42"/>
+      <c r="I281" s="36"/>
+      <c r="J281" s="40"/>
+      <c r="K281" s="43"/>
+      <c r="L281" s="36"/>
+      <c r="M281" s="35"/>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A282" s="35"/>
+      <c r="B282" s="36"/>
+      <c r="C282" s="36"/>
+      <c r="D282" s="36"/>
+      <c r="E282" s="36"/>
+      <c r="F282" s="36"/>
+      <c r="G282" s="36"/>
+      <c r="H282" s="42"/>
+      <c r="I282" s="36"/>
+      <c r="J282" s="40"/>
+      <c r="K282" s="43"/>
+      <c r="L282" s="36"/>
+      <c r="M282" s="35"/>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A283" s="35"/>
+      <c r="B283" s="36"/>
+      <c r="C283" s="36"/>
+      <c r="D283" s="36"/>
+      <c r="E283" s="36"/>
+      <c r="F283" s="36"/>
+      <c r="G283" s="36"/>
+      <c r="H283" s="42"/>
+      <c r="I283" s="36"/>
+      <c r="J283" s="40"/>
+      <c r="K283" s="43"/>
+      <c r="L283" s="36"/>
+      <c r="M283" s="35"/>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A284" s="35"/>
+      <c r="B284" s="36"/>
+      <c r="C284" s="36"/>
+      <c r="D284" s="36"/>
+      <c r="E284" s="36"/>
+      <c r="F284" s="36"/>
+      <c r="G284" s="36"/>
+      <c r="H284" s="42"/>
+      <c r="I284" s="36"/>
+      <c r="J284" s="40"/>
+      <c r="K284" s="43"/>
+      <c r="L284" s="36"/>
+      <c r="M284" s="35"/>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A285" s="35"/>
+      <c r="B285" s="36"/>
+      <c r="C285" s="36"/>
+      <c r="D285" s="36"/>
+      <c r="E285" s="36"/>
+      <c r="F285" s="36"/>
+      <c r="G285" s="36"/>
+      <c r="H285" s="42"/>
+      <c r="I285" s="36"/>
+      <c r="J285" s="40"/>
+      <c r="K285" s="43"/>
+      <c r="L285" s="36"/>
+      <c r="M285" s="35"/>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A286" s="35"/>
+      <c r="B286" s="36"/>
+      <c r="C286" s="36"/>
+      <c r="D286" s="36"/>
+      <c r="E286" s="36"/>
+      <c r="F286" s="36"/>
+      <c r="G286" s="36"/>
+      <c r="H286" s="42"/>
+      <c r="I286" s="36"/>
+      <c r="J286" s="40"/>
+      <c r="K286" s="43"/>
+      <c r="L286" s="36"/>
+      <c r="M286" s="35"/>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A287" s="35"/>
+      <c r="B287" s="36"/>
+      <c r="C287" s="36"/>
+      <c r="D287" s="36"/>
+      <c r="E287" s="36"/>
+      <c r="F287" s="36"/>
+      <c r="G287" s="36"/>
+      <c r="H287" s="42"/>
+      <c r="I287" s="36"/>
+      <c r="J287" s="40"/>
+      <c r="K287" s="43"/>
+      <c r="L287" s="36"/>
+      <c r="M287" s="35"/>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A288" s="35"/>
+      <c r="B288" s="36"/>
+      <c r="C288" s="36"/>
+      <c r="D288" s="36"/>
+      <c r="E288" s="36"/>
+      <c r="F288" s="36"/>
+      <c r="G288" s="36"/>
+      <c r="H288" s="42"/>
+      <c r="I288" s="36"/>
+      <c r="J288" s="40"/>
+      <c r="K288" s="43"/>
+      <c r="L288" s="36"/>
+      <c r="M288" s="35"/>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A289" s="35"/>
+      <c r="B289" s="36"/>
+      <c r="C289" s="36"/>
+      <c r="D289" s="36"/>
+      <c r="E289" s="36"/>
+      <c r="F289" s="36"/>
+      <c r="G289" s="36"/>
+      <c r="H289" s="42"/>
+      <c r="I289" s="36"/>
+      <c r="J289" s="40"/>
+      <c r="K289" s="43"/>
+      <c r="L289" s="36"/>
+      <c r="M289" s="35"/>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A290" s="35"/>
+      <c r="B290" s="36"/>
+      <c r="C290" s="36"/>
+      <c r="D290" s="36"/>
+      <c r="E290" s="36"/>
+      <c r="F290" s="36"/>
+      <c r="G290" s="36"/>
+      <c r="H290" s="42"/>
+      <c r="I290" s="36"/>
+      <c r="J290" s="40"/>
+      <c r="K290" s="43"/>
+      <c r="L290" s="36"/>
+      <c r="M290" s="35"/>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A291" s="35"/>
+      <c r="B291" s="36"/>
+      <c r="C291" s="36"/>
+      <c r="D291" s="36"/>
+      <c r="E291" s="36"/>
+      <c r="F291" s="36"/>
+      <c r="G291" s="36"/>
+      <c r="H291" s="42"/>
+      <c r="I291" s="36"/>
+      <c r="J291" s="40"/>
+      <c r="K291" s="43"/>
+      <c r="L291" s="36"/>
+      <c r="M291" s="35"/>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A292" s="35"/>
+      <c r="B292" s="36"/>
+      <c r="C292" s="36"/>
+      <c r="D292" s="36"/>
+      <c r="E292" s="36"/>
+      <c r="F292" s="36"/>
+      <c r="G292" s="36"/>
+      <c r="H292" s="42"/>
+      <c r="I292" s="36"/>
+      <c r="J292" s="40"/>
+      <c r="K292" s="43"/>
+      <c r="L292" s="36"/>
+      <c r="M292" s="35"/>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A293" s="35"/>
+      <c r="B293" s="36"/>
+      <c r="C293" s="36"/>
+      <c r="D293" s="36"/>
+      <c r="E293" s="36"/>
+      <c r="F293" s="36"/>
+      <c r="G293" s="36"/>
+      <c r="H293" s="42"/>
+      <c r="I293" s="36"/>
+      <c r="J293" s="40"/>
+      <c r="K293" s="43"/>
+      <c r="L293" s="36"/>
+      <c r="M293" s="35"/>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A294" s="35"/>
+      <c r="B294" s="36"/>
+      <c r="C294" s="36"/>
+      <c r="D294" s="36"/>
+      <c r="E294" s="36"/>
+      <c r="F294" s="36"/>
+      <c r="G294" s="36"/>
+      <c r="H294" s="42"/>
+      <c r="I294" s="36"/>
+      <c r="J294" s="40"/>
+      <c r="K294" s="43"/>
+      <c r="L294" s="36"/>
+      <c r="M294" s="35"/>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A295" s="35"/>
+      <c r="B295" s="36"/>
+      <c r="C295" s="36"/>
+      <c r="D295" s="36"/>
+      <c r="E295" s="36"/>
+      <c r="F295" s="36"/>
+      <c r="G295" s="36"/>
+      <c r="H295" s="42"/>
+      <c r="I295" s="36"/>
+      <c r="J295" s="40"/>
+      <c r="K295" s="43"/>
+      <c r="L295" s="36"/>
+      <c r="M295" s="35"/>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A296" s="35"/>
+      <c r="B296" s="36"/>
+      <c r="C296" s="36"/>
+      <c r="D296" s="36"/>
+      <c r="E296" s="36"/>
+      <c r="F296" s="36"/>
+      <c r="G296" s="36"/>
+      <c r="H296" s="42"/>
+      <c r="I296" s="36"/>
+      <c r="J296" s="40"/>
+      <c r="K296" s="43"/>
+      <c r="L296" s="36"/>
+      <c r="M296" s="35"/>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A297" s="35"/>
+      <c r="B297" s="36"/>
+      <c r="C297" s="36"/>
+      <c r="D297" s="36"/>
+      <c r="E297" s="36"/>
+      <c r="F297" s="36"/>
+      <c r="G297" s="36"/>
+      <c r="H297" s="42"/>
+      <c r="I297" s="36"/>
+      <c r="J297" s="40"/>
+      <c r="K297" s="43"/>
+      <c r="L297" s="36"/>
+      <c r="M297" s="35"/>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A298" s="35"/>
+      <c r="B298" s="36"/>
+      <c r="C298" s="36"/>
+      <c r="D298" s="36"/>
+      <c r="E298" s="36"/>
+      <c r="F298" s="36"/>
+      <c r="G298" s="36"/>
+      <c r="H298" s="42"/>
+      <c r="I298" s="36"/>
+      <c r="J298" s="40"/>
+      <c r="K298" s="43"/>
+      <c r="L298" s="36"/>
+      <c r="M298" s="35"/>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A299" s="35"/>
+      <c r="B299" s="36"/>
+      <c r="C299" s="36"/>
+      <c r="D299" s="36"/>
+      <c r="E299" s="36"/>
+      <c r="F299" s="36"/>
+      <c r="G299" s="36"/>
+      <c r="H299" s="42"/>
+      <c r="I299" s="36"/>
+      <c r="J299" s="40"/>
+      <c r="K299" s="43"/>
+      <c r="L299" s="36"/>
+      <c r="M299" s="35"/>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A300" s="35"/>
+      <c r="B300" s="36"/>
+      <c r="C300" s="36"/>
+      <c r="D300" s="36"/>
+      <c r="E300" s="36"/>
+      <c r="F300" s="36"/>
+      <c r="G300" s="36"/>
+      <c r="H300" s="42"/>
+      <c r="I300" s="36"/>
+      <c r="J300" s="40"/>
+      <c r="K300" s="43"/>
+      <c r="L300" s="36"/>
+      <c r="M300" s="35"/>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A301" s="35"/>
+      <c r="B301" s="36"/>
+      <c r="C301" s="36"/>
+      <c r="D301" s="36"/>
+      <c r="E301" s="36"/>
+      <c r="F301" s="36"/>
+      <c r="G301" s="36"/>
+      <c r="H301" s="42"/>
+      <c r="I301" s="36"/>
+      <c r="J301" s="40"/>
+      <c r="K301" s="43"/>
+      <c r="L301" s="36"/>
+      <c r="M301" s="35"/>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A302" s="35"/>
+      <c r="B302" s="36"/>
+      <c r="C302" s="36"/>
+      <c r="D302" s="36"/>
+      <c r="E302" s="36"/>
+      <c r="F302" s="36"/>
+      <c r="G302" s="36"/>
+      <c r="H302" s="42"/>
+      <c r="I302" s="36"/>
+      <c r="J302" s="40"/>
+      <c r="K302" s="43"/>
+      <c r="L302" s="36"/>
+      <c r="M302" s="35"/>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A303" s="35"/>
+      <c r="B303" s="36"/>
+      <c r="C303" s="36"/>
+      <c r="D303" s="36"/>
+      <c r="E303" s="36"/>
+      <c r="F303" s="36"/>
+      <c r="G303" s="36"/>
+      <c r="H303" s="42"/>
+      <c r="I303" s="36"/>
+      <c r="J303" s="40"/>
+      <c r="K303" s="43"/>
+      <c r="L303" s="36"/>
+      <c r="M303" s="35"/>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A304" s="35"/>
+      <c r="B304" s="36"/>
+      <c r="C304" s="36"/>
+      <c r="D304" s="36"/>
+      <c r="E304" s="36"/>
+      <c r="F304" s="36"/>
+      <c r="G304" s="36"/>
+      <c r="H304" s="42"/>
+      <c r="I304" s="36"/>
+      <c r="J304" s="40"/>
+      <c r="K304" s="43"/>
+      <c r="L304" s="36"/>
+      <c r="M304" s="35"/>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A305" s="35"/>
+      <c r="B305" s="36"/>
+      <c r="C305" s="36"/>
+      <c r="D305" s="36"/>
+      <c r="E305" s="36"/>
+      <c r="F305" s="36"/>
+      <c r="G305" s="36"/>
+      <c r="H305" s="42"/>
+      <c r="I305" s="36"/>
+      <c r="J305" s="40"/>
+      <c r="K305" s="43"/>
+      <c r="L305" s="36"/>
+      <c r="M305" s="35"/>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A306" s="35"/>
+      <c r="B306" s="36"/>
+      <c r="C306" s="36"/>
+      <c r="D306" s="36"/>
+      <c r="E306" s="36"/>
+      <c r="F306" s="36"/>
+      <c r="G306" s="36"/>
+      <c r="H306" s="42"/>
+      <c r="I306" s="36"/>
+      <c r="J306" s="40"/>
+      <c r="K306" s="43"/>
+      <c r="L306" s="36"/>
+      <c r="M306" s="35"/>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A307" s="35"/>
+      <c r="B307" s="36"/>
+      <c r="C307" s="36"/>
+      <c r="D307" s="36"/>
+      <c r="E307" s="36"/>
+      <c r="F307" s="36"/>
+      <c r="G307" s="36"/>
+      <c r="H307" s="42"/>
+      <c r="I307" s="36"/>
+      <c r="J307" s="40"/>
+      <c r="K307" s="43"/>
+      <c r="L307" s="36"/>
+      <c r="M307" s="35"/>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A308" s="35"/>
+      <c r="B308" s="36"/>
+      <c r="C308" s="36"/>
+      <c r="D308" s="36"/>
+      <c r="E308" s="36"/>
+      <c r="F308" s="36"/>
+      <c r="G308" s="36"/>
+      <c r="H308" s="42"/>
+      <c r="I308" s="36"/>
+      <c r="J308" s="40"/>
+      <c r="K308" s="43"/>
+      <c r="L308" s="36"/>
+      <c r="M308" s="35"/>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A309" s="35"/>
+      <c r="B309" s="36"/>
+      <c r="C309" s="36"/>
+      <c r="D309" s="36"/>
+      <c r="E309" s="36"/>
+      <c r="F309" s="36"/>
+      <c r="G309" s="36"/>
+      <c r="H309" s="42"/>
+      <c r="I309" s="36"/>
+      <c r="J309" s="40"/>
+      <c r="K309" s="43"/>
+      <c r="L309" s="36"/>
+      <c r="M309" s="35"/>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A310" s="35"/>
+      <c r="B310" s="36"/>
+      <c r="C310" s="36"/>
+      <c r="D310" s="36"/>
+      <c r="E310" s="36"/>
+      <c r="F310" s="36"/>
+      <c r="G310" s="36"/>
+      <c r="H310" s="42"/>
+      <c r="I310" s="36"/>
+      <c r="J310" s="40"/>
+      <c r="K310" s="43"/>
+      <c r="L310" s="36"/>
+      <c r="M310" s="35"/>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A311" s="35"/>
+      <c r="B311" s="36"/>
+      <c r="C311" s="36"/>
+      <c r="D311" s="36"/>
+      <c r="E311" s="36"/>
+      <c r="F311" s="36"/>
+      <c r="G311" s="36"/>
+      <c r="H311" s="42"/>
+      <c r="I311" s="36"/>
+      <c r="J311" s="40"/>
+      <c r="K311" s="43"/>
+      <c r="L311" s="36"/>
+      <c r="M311" s="35"/>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A312" s="35"/>
+      <c r="B312" s="36"/>
+      <c r="C312" s="36"/>
+      <c r="D312" s="36"/>
+      <c r="E312" s="36"/>
+      <c r="F312" s="36"/>
+      <c r="G312" s="36"/>
+      <c r="H312" s="42"/>
+      <c r="I312" s="36"/>
+      <c r="J312" s="40"/>
+      <c r="K312" s="43"/>
+      <c r="L312" s="36"/>
+      <c r="M312" s="35"/>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A313" s="35"/>
+      <c r="B313" s="36"/>
+      <c r="C313" s="36"/>
+      <c r="D313" s="36"/>
+      <c r="E313" s="36"/>
+      <c r="F313" s="36"/>
+      <c r="G313" s="36"/>
+      <c r="H313" s="42"/>
+      <c r="I313" s="36"/>
+      <c r="J313" s="40"/>
+      <c r="K313" s="43"/>
+      <c r="L313" s="36"/>
+      <c r="M313" s="35"/>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A314" s="35"/>
+      <c r="B314" s="36"/>
+      <c r="C314" s="36"/>
+      <c r="D314" s="36"/>
+      <c r="E314" s="36"/>
+      <c r="F314" s="36"/>
+      <c r="G314" s="36"/>
+      <c r="H314" s="42"/>
+      <c r="I314" s="36"/>
+      <c r="J314" s="40"/>
+      <c r="K314" s="43"/>
+      <c r="L314" s="36"/>
+      <c r="M314" s="35"/>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A315" s="35"/>
+      <c r="B315" s="36"/>
+      <c r="C315" s="36"/>
+      <c r="D315" s="36"/>
+      <c r="E315" s="36"/>
+      <c r="F315" s="36"/>
+      <c r="G315" s="36"/>
+      <c r="H315" s="42"/>
+      <c r="I315" s="36"/>
+      <c r="J315" s="40"/>
+      <c r="K315" s="43"/>
+      <c r="L315" s="36"/>
+      <c r="M315" s="35"/>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A316" s="35"/>
+      <c r="B316" s="36"/>
+      <c r="C316" s="36"/>
+      <c r="D316" s="36"/>
+      <c r="E316" s="36"/>
+      <c r="F316" s="36"/>
+      <c r="G316" s="36"/>
+      <c r="H316" s="42"/>
+      <c r="I316" s="36"/>
+      <c r="J316" s="40"/>
+      <c r="K316" s="43"/>
+      <c r="L316" s="36"/>
+      <c r="M316" s="35"/>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A317" s="35"/>
+      <c r="B317" s="36"/>
+      <c r="C317" s="36"/>
+      <c r="D317" s="36"/>
+      <c r="E317" s="36"/>
+      <c r="F317" s="36"/>
+      <c r="G317" s="36"/>
+      <c r="H317" s="42"/>
+      <c r="I317" s="36"/>
+      <c r="J317" s="40"/>
+      <c r="K317" s="43"/>
+      <c r="L317" s="36"/>
+      <c r="M317" s="35"/>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A318" s="35"/>
+      <c r="B318" s="36"/>
+      <c r="C318" s="36"/>
+      <c r="D318" s="36"/>
+      <c r="E318" s="36"/>
+      <c r="F318" s="36"/>
+      <c r="G318" s="36"/>
+      <c r="H318" s="42"/>
+      <c r="I318" s="36"/>
+      <c r="J318" s="40"/>
+      <c r="K318" s="43"/>
+      <c r="L318" s="36"/>
+      <c r="M318" s="35"/>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A319" s="35"/>
+      <c r="B319" s="36"/>
+      <c r="C319" s="36"/>
+      <c r="D319" s="36"/>
+      <c r="E319" s="36"/>
+      <c r="F319" s="36"/>
+      <c r="G319" s="36"/>
+      <c r="H319" s="42"/>
+      <c r="I319" s="36"/>
+      <c r="J319" s="40"/>
+      <c r="K319" s="43"/>
+      <c r="L319" s="36"/>
+      <c r="M319" s="35"/>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A320" s="35"/>
+      <c r="B320" s="36"/>
+      <c r="C320" s="36"/>
+      <c r="D320" s="36"/>
+      <c r="E320" s="36"/>
+      <c r="F320" s="36"/>
+      <c r="G320" s="36"/>
+      <c r="H320" s="42"/>
+      <c r="I320" s="36"/>
+      <c r="J320" s="40"/>
+      <c r="K320" s="43"/>
+      <c r="L320" s="36"/>
+      <c r="M320" s="35"/>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A321" s="35"/>
+      <c r="B321" s="36"/>
+      <c r="C321" s="36"/>
+      <c r="D321" s="36"/>
+      <c r="E321" s="36"/>
+      <c r="F321" s="36"/>
+      <c r="G321" s="36"/>
+      <c r="H321" s="42"/>
+      <c r="I321" s="36"/>
+      <c r="J321" s="40"/>
+      <c r="K321" s="43"/>
+      <c r="L321" s="36"/>
+      <c r="M321" s="35"/>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A322" s="35"/>
+      <c r="B322" s="36"/>
+      <c r="C322" s="36"/>
+      <c r="D322" s="36"/>
+      <c r="E322" s="36"/>
+      <c r="F322" s="36"/>
+      <c r="G322" s="36"/>
+      <c r="H322" s="42"/>
+      <c r="I322" s="36"/>
+      <c r="J322" s="40"/>
+      <c r="K322" s="43"/>
+      <c r="L322" s="36"/>
+      <c r="M322" s="35"/>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A323" s="35"/>
+      <c r="B323" s="36"/>
+      <c r="C323" s="36"/>
+      <c r="D323" s="36"/>
+      <c r="E323" s="36"/>
+      <c r="F323" s="36"/>
+      <c r="G323" s="36"/>
+      <c r="H323" s="42"/>
+      <c r="I323" s="36"/>
+      <c r="J323" s="40"/>
+      <c r="K323" s="43"/>
+      <c r="L323" s="36"/>
+      <c r="M323" s="35"/>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A324" s="35"/>
+      <c r="B324" s="36"/>
+      <c r="C324" s="36"/>
+      <c r="D324" s="36"/>
+      <c r="E324" s="36"/>
+      <c r="F324" s="36"/>
+      <c r="G324" s="36"/>
+      <c r="H324" s="42"/>
+      <c r="I324" s="36"/>
+      <c r="J324" s="40"/>
+      <c r="K324" s="43"/>
+      <c r="L324" s="36"/>
+      <c r="M324" s="35"/>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A325" s="35"/>
+      <c r="B325" s="36"/>
+      <c r="C325" s="36"/>
+      <c r="D325" s="36"/>
+      <c r="E325" s="36"/>
+      <c r="F325" s="36"/>
+      <c r="G325" s="36"/>
+      <c r="H325" s="42"/>
+      <c r="I325" s="36"/>
+      <c r="J325" s="40"/>
+      <c r="K325" s="43"/>
+      <c r="L325" s="36"/>
+      <c r="M325" s="35"/>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A326" s="35"/>
+      <c r="B326" s="36"/>
+      <c r="C326" s="36"/>
+      <c r="D326" s="36"/>
+      <c r="E326" s="36"/>
+      <c r="F326" s="36"/>
+      <c r="G326" s="36"/>
+      <c r="H326" s="42"/>
+      <c r="I326" s="36"/>
+      <c r="J326" s="40"/>
+      <c r="K326" s="43"/>
+      <c r="L326" s="36"/>
+      <c r="M326" s="35"/>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A327" s="35"/>
+      <c r="B327" s="36"/>
+      <c r="C327" s="36"/>
+      <c r="D327" s="36"/>
+      <c r="E327" s="36"/>
+      <c r="F327" s="36"/>
+      <c r="G327" s="36"/>
+      <c r="H327" s="42"/>
+      <c r="I327" s="36"/>
+      <c r="J327" s="40"/>
+      <c r="K327" s="43"/>
+      <c r="L327" s="36"/>
+      <c r="M327" s="35"/>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A328" s="35"/>
+      <c r="B328" s="36"/>
+      <c r="C328" s="36"/>
+      <c r="D328" s="36"/>
+      <c r="E328" s="36"/>
+      <c r="F328" s="36"/>
+      <c r="G328" s="36"/>
+      <c r="H328" s="42"/>
+      <c r="I328" s="36"/>
+      <c r="J328" s="40"/>
+      <c r="K328" s="43"/>
+      <c r="L328" s="36"/>
+      <c r="M328" s="35"/>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A329" s="35"/>
+      <c r="B329" s="36"/>
+      <c r="C329" s="36"/>
+      <c r="D329" s="36"/>
+      <c r="E329" s="36"/>
+      <c r="F329" s="36"/>
+      <c r="G329" s="36"/>
+      <c r="H329" s="42"/>
+      <c r="I329" s="36"/>
+      <c r="J329" s="40"/>
+      <c r="K329" s="43"/>
+      <c r="L329" s="36"/>
+      <c r="M329" s="35"/>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A330" s="35"/>
+      <c r="B330" s="36"/>
+      <c r="C330" s="36"/>
+      <c r="D330" s="36"/>
+      <c r="E330" s="36"/>
+      <c r="F330" s="36"/>
+      <c r="G330" s="36"/>
+      <c r="H330" s="42"/>
+      <c r="I330" s="36"/>
+      <c r="J330" s="40"/>
+      <c r="K330" s="43"/>
+      <c r="L330" s="36"/>
+      <c r="M330" s="35"/>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A331" s="35"/>
+      <c r="B331" s="36"/>
+      <c r="C331" s="36"/>
+      <c r="D331" s="36"/>
+      <c r="E331" s="36"/>
+      <c r="F331" s="36"/>
+      <c r="G331" s="36"/>
+      <c r="H331" s="42"/>
+      <c r="I331" s="36"/>
+      <c r="J331" s="40"/>
+      <c r="K331" s="43"/>
+      <c r="L331" s="36"/>
+      <c r="M331" s="35"/>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A332" s="35"/>
+      <c r="B332" s="36"/>
+      <c r="C332" s="36"/>
+      <c r="D332" s="36"/>
+      <c r="E332" s="36"/>
+      <c r="F332" s="36"/>
+      <c r="G332" s="36"/>
+      <c r="H332" s="42"/>
+      <c r="I332" s="36"/>
+      <c r="J332" s="40"/>
+      <c r="K332" s="43"/>
+      <c r="L332" s="36"/>
+      <c r="M332" s="35"/>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A333" s="35"/>
+      <c r="B333" s="36"/>
+      <c r="C333" s="36"/>
+      <c r="D333" s="36"/>
+      <c r="E333" s="36"/>
+      <c r="F333" s="36"/>
+      <c r="G333" s="36"/>
+      <c r="H333" s="42"/>
+      <c r="I333" s="36"/>
+      <c r="J333" s="40"/>
+      <c r="K333" s="43"/>
+      <c r="L333" s="36"/>
+      <c r="M333" s="35"/>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A334" s="35"/>
+      <c r="B334" s="36"/>
+      <c r="C334" s="36"/>
+      <c r="D334" s="36"/>
+      <c r="E334" s="36"/>
+      <c r="F334" s="36"/>
+      <c r="G334" s="36"/>
+      <c r="H334" s="42"/>
+      <c r="I334" s="36"/>
+      <c r="J334" s="40"/>
+      <c r="K334" s="43"/>
+      <c r="L334" s="36"/>
+      <c r="M334" s="35"/>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A335" s="35"/>
+      <c r="B335" s="36"/>
+      <c r="C335" s="36"/>
+      <c r="D335" s="36"/>
+      <c r="E335" s="36"/>
+      <c r="F335" s="36"/>
+      <c r="G335" s="36"/>
+      <c r="H335" s="42"/>
+      <c r="I335" s="36"/>
+      <c r="J335" s="40"/>
+      <c r="K335" s="43"/>
+      <c r="L335" s="36"/>
+      <c r="M335" s="35"/>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A336" s="35"/>
+      <c r="B336" s="36"/>
+      <c r="C336" s="36"/>
+      <c r="D336" s="36"/>
+      <c r="E336" s="36"/>
+      <c r="F336" s="36"/>
+      <c r="G336" s="36"/>
+      <c r="H336" s="42"/>
+      <c r="I336" s="36"/>
+      <c r="J336" s="40"/>
+      <c r="K336" s="43"/>
+      <c r="L336" s="36"/>
+      <c r="M336" s="35"/>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A337" s="35"/>
+      <c r="B337" s="36"/>
+      <c r="C337" s="36"/>
+      <c r="D337" s="36"/>
+      <c r="E337" s="36"/>
+      <c r="F337" s="36"/>
+      <c r="G337" s="36"/>
+      <c r="H337" s="42"/>
+      <c r="I337" s="36"/>
+      <c r="J337" s="40"/>
+      <c r="K337" s="43"/>
+      <c r="L337" s="36"/>
+      <c r="M337" s="35"/>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A338" s="35"/>
+      <c r="B338" s="36"/>
+      <c r="C338" s="36"/>
+      <c r="D338" s="36"/>
+      <c r="E338" s="36"/>
+      <c r="F338" s="36"/>
+      <c r="G338" s="36"/>
+      <c r="H338" s="42"/>
+      <c r="I338" s="36"/>
+      <c r="J338" s="40"/>
+      <c r="K338" s="43"/>
+      <c r="L338" s="36"/>
+      <c r="M338" s="35"/>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A339" s="35"/>
+      <c r="B339" s="36"/>
+      <c r="C339" s="36"/>
+      <c r="D339" s="36"/>
+      <c r="E339" s="36"/>
+      <c r="F339" s="36"/>
+      <c r="G339" s="36"/>
+      <c r="H339" s="42"/>
+      <c r="I339" s="36"/>
+      <c r="J339" s="40"/>
+      <c r="K339" s="43"/>
+      <c r="L339" s="36"/>
+      <c r="M339" s="35"/>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A340" s="35"/>
+      <c r="B340" s="36"/>
+      <c r="C340" s="36"/>
+      <c r="D340" s="36"/>
+      <c r="E340" s="36"/>
+      <c r="F340" s="36"/>
+      <c r="G340" s="36"/>
+      <c r="H340" s="42"/>
+      <c r="I340" s="36"/>
+      <c r="J340" s="40"/>
+      <c r="K340" s="43"/>
+      <c r="L340" s="36"/>
+      <c r="M340" s="35"/>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A341" s="35"/>
+      <c r="B341" s="36"/>
+      <c r="C341" s="36"/>
+      <c r="D341" s="36"/>
+      <c r="E341" s="36"/>
+      <c r="F341" s="36"/>
+      <c r="G341" s="36"/>
+      <c r="H341" s="42"/>
+      <c r="I341" s="36"/>
+      <c r="J341" s="40"/>
+      <c r="K341" s="43"/>
+      <c r="L341" s="36"/>
+      <c r="M341" s="35"/>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A342" s="35"/>
+      <c r="B342" s="36"/>
+      <c r="C342" s="36"/>
+      <c r="D342" s="36"/>
+      <c r="E342" s="36"/>
+      <c r="F342" s="36"/>
+      <c r="G342" s="36"/>
+      <c r="H342" s="42"/>
+      <c r="I342" s="36"/>
+      <c r="J342" s="40"/>
+      <c r="K342" s="43"/>
+      <c r="L342" s="36"/>
+      <c r="M342" s="35"/>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A343" s="35"/>
+      <c r="B343" s="36"/>
+      <c r="C343" s="36"/>
+      <c r="D343" s="36"/>
+      <c r="E343" s="36"/>
+      <c r="F343" s="36"/>
+      <c r="G343" s="36"/>
+      <c r="H343" s="42"/>
+      <c r="I343" s="36"/>
+      <c r="J343" s="40"/>
+      <c r="K343" s="43"/>
+      <c r="L343" s="36"/>
+      <c r="M343" s="35"/>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A344" s="35"/>
+      <c r="B344" s="36"/>
+      <c r="C344" s="36"/>
+      <c r="D344" s="36"/>
+      <c r="E344" s="36"/>
+      <c r="F344" s="36"/>
+      <c r="G344" s="36"/>
+      <c r="H344" s="42"/>
+      <c r="I344" s="36"/>
+      <c r="J344" s="40"/>
+      <c r="K344" s="43"/>
+      <c r="L344" s="36"/>
+      <c r="M344" s="35"/>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A345" s="35"/>
+      <c r="B345" s="36"/>
+      <c r="C345" s="36"/>
+      <c r="D345" s="36"/>
+      <c r="E345" s="36"/>
+      <c r="F345" s="36"/>
+      <c r="G345" s="36"/>
+      <c r="H345" s="42"/>
+      <c r="I345" s="36"/>
+      <c r="J345" s="40"/>
+      <c r="K345" s="43"/>
+      <c r="L345" s="36"/>
+      <c r="M345" s="35"/>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A346" s="35"/>
+      <c r="B346" s="36"/>
+      <c r="C346" s="36"/>
+      <c r="D346" s="36"/>
+      <c r="E346" s="36"/>
+      <c r="F346" s="36"/>
+      <c r="G346" s="36"/>
+      <c r="H346" s="42"/>
+      <c r="I346" s="36"/>
+      <c r="J346" s="40"/>
+      <c r="K346" s="43"/>
+      <c r="L346" s="36"/>
+      <c r="M346" s="35"/>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A347" s="35"/>
+      <c r="B347" s="36"/>
+      <c r="C347" s="36"/>
+      <c r="D347" s="36"/>
+      <c r="E347" s="36"/>
+      <c r="F347" s="36"/>
+      <c r="G347" s="36"/>
+      <c r="H347" s="42"/>
+      <c r="I347" s="36"/>
+      <c r="J347" s="40"/>
+      <c r="K347" s="43"/>
+      <c r="L347" s="36"/>
+      <c r="M347" s="35"/>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A348" s="35"/>
+      <c r="B348" s="36"/>
+      <c r="C348" s="36"/>
+      <c r="D348" s="36"/>
+      <c r="E348" s="36"/>
+      <c r="F348" s="36"/>
+      <c r="G348" s="36"/>
+      <c r="H348" s="42"/>
+      <c r="I348" s="36"/>
+      <c r="J348" s="40"/>
+      <c r="K348" s="43"/>
+      <c r="L348" s="36"/>
+      <c r="M348" s="35"/>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A349" s="35"/>
+      <c r="B349" s="36"/>
+      <c r="C349" s="36"/>
+      <c r="D349" s="36"/>
+      <c r="E349" s="36"/>
+      <c r="F349" s="36"/>
+      <c r="G349" s="36"/>
+      <c r="H349" s="42"/>
+      <c r="I349" s="36"/>
+      <c r="J349" s="40"/>
+      <c r="K349" s="43"/>
+      <c r="L349" s="36"/>
+      <c r="M349" s="35"/>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A350" s="35"/>
+      <c r="B350" s="36"/>
+      <c r="C350" s="36"/>
+      <c r="D350" s="36"/>
+      <c r="E350" s="36"/>
+      <c r="F350" s="36"/>
+      <c r="G350" s="36"/>
+      <c r="H350" s="42"/>
+      <c r="I350" s="36"/>
+      <c r="J350" s="40"/>
+      <c r="K350" s="43"/>
+      <c r="L350" s="36"/>
+      <c r="M350" s="35"/>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A351" s="35"/>
+      <c r="B351" s="36"/>
+      <c r="C351" s="36"/>
+      <c r="D351" s="36"/>
+      <c r="E351" s="36"/>
+      <c r="F351" s="36"/>
+      <c r="G351" s="36"/>
+      <c r="H351" s="42"/>
+      <c r="I351" s="36"/>
+      <c r="J351" s="40"/>
+      <c r="K351" s="43"/>
+      <c r="L351" s="36"/>
+      <c r="M351" s="35"/>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A352" s="35"/>
+      <c r="B352" s="36"/>
+      <c r="C352" s="36"/>
+      <c r="D352" s="36"/>
+      <c r="E352" s="36"/>
+      <c r="F352" s="36"/>
+      <c r="G352" s="36"/>
+      <c r="H352" s="42"/>
+      <c r="I352" s="36"/>
+      <c r="J352" s="40"/>
+      <c r="K352" s="43"/>
+      <c r="L352" s="36"/>
+      <c r="M352" s="35"/>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A353" s="35"/>
+      <c r="B353" s="36"/>
+      <c r="C353" s="36"/>
+      <c r="D353" s="36"/>
+      <c r="E353" s="36"/>
+      <c r="F353" s="36"/>
+      <c r="G353" s="36"/>
+      <c r="H353" s="42"/>
+      <c r="I353" s="36"/>
+      <c r="J353" s="40"/>
+      <c r="K353" s="43"/>
+      <c r="L353" s="36"/>
+      <c r="M353" s="35"/>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A354" s="35"/>
+      <c r="B354" s="36"/>
+      <c r="C354" s="36"/>
+      <c r="D354" s="36"/>
+      <c r="E354" s="36"/>
+      <c r="F354" s="36"/>
+      <c r="G354" s="36"/>
+      <c r="H354" s="42"/>
+      <c r="I354" s="36"/>
+      <c r="J354" s="40"/>
+      <c r="K354" s="43"/>
+      <c r="L354" s="36"/>
+      <c r="M354" s="35"/>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A355" s="35"/>
+      <c r="B355" s="36"/>
+      <c r="C355" s="36"/>
+      <c r="D355" s="36"/>
+      <c r="E355" s="36"/>
+      <c r="F355" s="36"/>
+      <c r="G355" s="36"/>
+      <c r="H355" s="42"/>
+      <c r="I355" s="36"/>
+      <c r="J355" s="40"/>
+      <c r="K355" s="43"/>
+      <c r="L355" s="36"/>
+      <c r="M355" s="35"/>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A356" s="35"/>
+      <c r="B356" s="36"/>
+      <c r="C356" s="36"/>
+      <c r="D356" s="36"/>
+      <c r="E356" s="36"/>
+      <c r="F356" s="36"/>
+      <c r="G356" s="36"/>
+      <c r="H356" s="42"/>
+      <c r="I356" s="36"/>
+      <c r="J356" s="40"/>
+      <c r="K356" s="43"/>
+      <c r="L356" s="36"/>
+      <c r="M356" s="35"/>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A357" s="35"/>
+      <c r="B357" s="36"/>
+      <c r="C357" s="36"/>
+      <c r="D357" s="36"/>
+      <c r="E357" s="36"/>
+      <c r="F357" s="36"/>
+      <c r="G357" s="36"/>
+      <c r="H357" s="42"/>
+      <c r="I357" s="36"/>
+      <c r="J357" s="40"/>
+      <c r="K357" s="43"/>
+      <c r="L357" s="36"/>
+      <c r="M357" s="35"/>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A358" s="35"/>
+      <c r="B358" s="36"/>
+      <c r="C358" s="36"/>
+      <c r="D358" s="36"/>
+      <c r="E358" s="36"/>
+      <c r="F358" s="36"/>
+      <c r="G358" s="36"/>
+      <c r="H358" s="42"/>
+      <c r="I358" s="36"/>
+      <c r="J358" s="40"/>
+      <c r="K358" s="43"/>
+      <c r="L358" s="36"/>
+      <c r="M358" s="35"/>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A359" s="35"/>
+      <c r="B359" s="36"/>
+      <c r="C359" s="36"/>
+      <c r="D359" s="36"/>
+      <c r="E359" s="36"/>
+      <c r="F359" s="36"/>
+      <c r="G359" s="36"/>
+      <c r="H359" s="42"/>
+      <c r="I359" s="36"/>
+      <c r="J359" s="40"/>
+      <c r="K359" s="43"/>
+      <c r="L359" s="36"/>
+      <c r="M359" s="35"/>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A360" s="35"/>
+      <c r="B360" s="36"/>
+      <c r="C360" s="36"/>
+      <c r="D360" s="36"/>
+      <c r="E360" s="36"/>
+      <c r="F360" s="36"/>
+      <c r="G360" s="36"/>
+      <c r="H360" s="42"/>
+      <c r="I360" s="36"/>
+      <c r="J360" s="40"/>
+      <c r="K360" s="43"/>
+      <c r="L360" s="36"/>
+      <c r="M360" s="35"/>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A361" s="35"/>
+      <c r="B361" s="36"/>
+      <c r="C361" s="36"/>
+      <c r="D361" s="36"/>
+      <c r="E361" s="36"/>
+      <c r="F361" s="36"/>
+      <c r="G361" s="36"/>
+      <c r="H361" s="42"/>
+      <c r="I361" s="36"/>
+      <c r="J361" s="40"/>
+      <c r="K361" s="43"/>
+      <c r="L361" s="36"/>
+      <c r="M361" s="35"/>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A362" s="35"/>
+      <c r="B362" s="36"/>
+      <c r="C362" s="36"/>
+      <c r="D362" s="36"/>
+      <c r="E362" s="36"/>
+      <c r="F362" s="36"/>
+      <c r="G362" s="36"/>
+      <c r="H362" s="42"/>
+      <c r="I362" s="36"/>
+      <c r="J362" s="40"/>
+      <c r="K362" s="43"/>
+      <c r="L362" s="36"/>
+      <c r="M362" s="35"/>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A363" s="35"/>
+      <c r="B363" s="36"/>
+      <c r="C363" s="36"/>
+      <c r="D363" s="36"/>
+      <c r="E363" s="36"/>
+      <c r="F363" s="36"/>
+      <c r="G363" s="36"/>
+      <c r="H363" s="42"/>
+      <c r="I363" s="36"/>
+      <c r="J363" s="40"/>
+      <c r="K363" s="43"/>
+      <c r="L363" s="36"/>
+      <c r="M363" s="35"/>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A364" s="35"/>
+      <c r="B364" s="36"/>
+      <c r="C364" s="36"/>
+      <c r="D364" s="36"/>
+      <c r="E364" s="36"/>
+      <c r="F364" s="36"/>
+      <c r="G364" s="36"/>
+      <c r="H364" s="42"/>
+      <c r="I364" s="36"/>
+      <c r="J364" s="40"/>
+      <c r="K364" s="43"/>
+      <c r="L364" s="36"/>
+      <c r="M364" s="35"/>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A365" s="35"/>
+      <c r="B365" s="36"/>
+      <c r="C365" s="36"/>
+      <c r="D365" s="36"/>
+      <c r="E365" s="36"/>
+      <c r="F365" s="36"/>
+      <c r="G365" s="36"/>
+      <c r="H365" s="42"/>
+      <c r="I365" s="36"/>
+      <c r="J365" s="40"/>
+      <c r="K365" s="43"/>
+      <c r="L365" s="36"/>
+      <c r="M365" s="35"/>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A366" s="35"/>
+      <c r="B366" s="36"/>
+      <c r="C366" s="36"/>
+      <c r="D366" s="36"/>
+      <c r="E366" s="36"/>
+      <c r="F366" s="36"/>
+      <c r="G366" s="36"/>
+      <c r="H366" s="42"/>
+      <c r="I366" s="36"/>
+      <c r="J366" s="40"/>
+      <c r="K366" s="43"/>
+      <c r="L366" s="36"/>
+      <c r="M366" s="35"/>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A367" s="35"/>
+      <c r="B367" s="36"/>
+      <c r="C367" s="36"/>
+      <c r="D367" s="36"/>
+      <c r="E367" s="36"/>
+      <c r="F367" s="36"/>
+      <c r="G367" s="36"/>
+      <c r="H367" s="42"/>
+      <c r="I367" s="36"/>
+      <c r="J367" s="40"/>
+      <c r="K367" s="43"/>
+      <c r="L367" s="36"/>
+      <c r="M367" s="35"/>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A368" s="35"/>
+      <c r="B368" s="36"/>
+      <c r="C368" s="36"/>
+      <c r="D368" s="36"/>
+      <c r="E368" s="36"/>
+      <c r="F368" s="36"/>
+      <c r="G368" s="36"/>
+      <c r="H368" s="42"/>
+      <c r="I368" s="36"/>
+      <c r="J368" s="40"/>
+      <c r="K368" s="43"/>
+      <c r="L368" s="36"/>
+      <c r="M368" s="35"/>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A369" s="35"/>
+      <c r="B369" s="36"/>
+      <c r="C369" s="36"/>
+      <c r="D369" s="36"/>
+      <c r="E369" s="36"/>
+      <c r="F369" s="36"/>
+      <c r="G369" s="36"/>
+      <c r="H369" s="42"/>
+      <c r="I369" s="36"/>
+      <c r="J369" s="40"/>
+      <c r="K369" s="43"/>
+      <c r="L369" s="36"/>
+      <c r="M369" s="35"/>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A370" s="35"/>
+      <c r="B370" s="36"/>
+      <c r="C370" s="36"/>
+      <c r="D370" s="36"/>
+      <c r="E370" s="36"/>
+      <c r="F370" s="36"/>
+      <c r="G370" s="36"/>
+      <c r="H370" s="42"/>
+      <c r="I370" s="36"/>
+      <c r="J370" s="40"/>
+      <c r="K370" s="43"/>
+      <c r="L370" s="36"/>
+      <c r="M370" s="35"/>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A371" s="35"/>
+      <c r="B371" s="36"/>
+      <c r="C371" s="36"/>
+      <c r="D371" s="36"/>
+      <c r="E371" s="36"/>
+      <c r="F371" s="36"/>
+      <c r="G371" s="36"/>
+      <c r="H371" s="42"/>
+      <c r="I371" s="36"/>
+      <c r="J371" s="40"/>
+      <c r="K371" s="43"/>
+      <c r="L371" s="36"/>
+      <c r="M371" s="35"/>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A372" s="35"/>
+      <c r="B372" s="36"/>
+      <c r="C372" s="36"/>
+      <c r="D372" s="36"/>
+      <c r="E372" s="36"/>
+      <c r="F372" s="36"/>
+      <c r="G372" s="36"/>
+      <c r="H372" s="42"/>
+      <c r="I372" s="36"/>
+      <c r="J372" s="40"/>
+      <c r="K372" s="43"/>
+      <c r="L372" s="36"/>
+      <c r="M372" s="35"/>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A373" s="35"/>
+      <c r="B373" s="36"/>
+      <c r="C373" s="36"/>
+      <c r="D373" s="36"/>
+      <c r="E373" s="36"/>
+      <c r="F373" s="36"/>
+      <c r="G373" s="36"/>
+      <c r="H373" s="42"/>
+      <c r="I373" s="36"/>
+      <c r="J373" s="40"/>
+      <c r="K373" s="43"/>
+      <c r="L373" s="36"/>
+      <c r="M373" s="35"/>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A374" s="35"/>
+      <c r="B374" s="36"/>
+      <c r="C374" s="36"/>
+      <c r="D374" s="36"/>
+      <c r="E374" s="36"/>
+      <c r="F374" s="36"/>
+      <c r="G374" s="36"/>
+      <c r="H374" s="42"/>
+      <c r="I374" s="36"/>
+      <c r="J374" s="40"/>
+      <c r="K374" s="43"/>
+      <c r="L374" s="36"/>
+      <c r="M374" s="35"/>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A375" s="35"/>
+      <c r="B375" s="36"/>
+      <c r="C375" s="36"/>
+      <c r="D375" s="36"/>
+      <c r="E375" s="36"/>
+      <c r="F375" s="36"/>
+      <c r="G375" s="36"/>
+      <c r="H375" s="42"/>
+      <c r="I375" s="36"/>
+      <c r="J375" s="40"/>
+      <c r="K375" s="43"/>
+      <c r="L375" s="36"/>
+      <c r="M375" s="35"/>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A376" s="35"/>
+      <c r="B376" s="36"/>
+      <c r="C376" s="36"/>
+      <c r="D376" s="36"/>
+      <c r="E376" s="36"/>
+      <c r="F376" s="36"/>
+      <c r="G376" s="36"/>
+      <c r="H376" s="42"/>
+      <c r="I376" s="36"/>
+      <c r="J376" s="40"/>
+      <c r="K376" s="43"/>
+      <c r="L376" s="36"/>
+      <c r="M376" s="35"/>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A377" s="35"/>
+      <c r="B377" s="36"/>
+      <c r="C377" s="36"/>
+      <c r="D377" s="36"/>
+      <c r="E377" s="36"/>
+      <c r="F377" s="36"/>
+      <c r="G377" s="36"/>
+      <c r="H377" s="42"/>
+      <c r="I377" s="36"/>
+      <c r="J377" s="40"/>
+      <c r="K377" s="43"/>
+      <c r="L377" s="36"/>
+      <c r="M377" s="35"/>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A378" s="35"/>
+      <c r="B378" s="36"/>
+      <c r="C378" s="36"/>
+      <c r="D378" s="36"/>
+      <c r="E378" s="36"/>
+      <c r="F378" s="36"/>
+      <c r="G378" s="36"/>
+      <c r="H378" s="42"/>
+      <c r="I378" s="36"/>
+      <c r="J378" s="40"/>
+      <c r="K378" s="43"/>
+      <c r="L378" s="36"/>
+      <c r="M378" s="35"/>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A379" s="35"/>
+      <c r="B379" s="36"/>
+      <c r="C379" s="36"/>
+      <c r="D379" s="36"/>
+      <c r="E379" s="36"/>
+      <c r="F379" s="36"/>
+      <c r="G379" s="36"/>
+      <c r="H379" s="42"/>
+      <c r="I379" s="36"/>
+      <c r="J379" s="40"/>
+      <c r="K379" s="43"/>
+      <c r="L379" s="36"/>
+      <c r="M379" s="35"/>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A380" s="35"/>
+      <c r="B380" s="36"/>
+      <c r="C380" s="36"/>
+      <c r="D380" s="36"/>
+      <c r="E380" s="36"/>
+      <c r="F380" s="36"/>
+      <c r="G380" s="36"/>
+      <c r="H380" s="42"/>
+      <c r="I380" s="36"/>
+      <c r="J380" s="40"/>
+      <c r="K380" s="43"/>
+      <c r="L380" s="36"/>
+      <c r="M380" s="35"/>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A381" s="35"/>
+      <c r="B381" s="36"/>
+      <c r="C381" s="36"/>
+      <c r="D381" s="36"/>
+      <c r="E381" s="36"/>
+      <c r="F381" s="36"/>
+      <c r="G381" s="36"/>
+      <c r="H381" s="42"/>
+      <c r="I381" s="36"/>
+      <c r="J381" s="40"/>
+      <c r="K381" s="43"/>
+      <c r="L381" s="36"/>
+      <c r="M381" s="35"/>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A382" s="35"/>
+      <c r="B382" s="36"/>
+      <c r="C382" s="36"/>
+      <c r="D382" s="36"/>
+      <c r="E382" s="36"/>
+      <c r="F382" s="36"/>
+      <c r="G382" s="36"/>
+      <c r="H382" s="42"/>
+      <c r="I382" s="36"/>
+      <c r="J382" s="40"/>
+      <c r="K382" s="43"/>
+      <c r="L382" s="36"/>
+      <c r="M382" s="35"/>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A383" s="35"/>
+      <c r="B383" s="36"/>
+      <c r="C383" s="36"/>
+      <c r="D383" s="36"/>
+      <c r="E383" s="36"/>
+      <c r="F383" s="36"/>
+      <c r="G383" s="36"/>
+      <c r="H383" s="42"/>
+      <c r="I383" s="36"/>
+      <c r="J383" s="40"/>
+      <c r="K383" s="43"/>
+      <c r="L383" s="36"/>
+      <c r="M383" s="35"/>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A384" s="35"/>
+      <c r="B384" s="36"/>
+      <c r="C384" s="36"/>
+      <c r="D384" s="36"/>
+      <c r="E384" s="36"/>
+      <c r="F384" s="36"/>
+      <c r="G384" s="36"/>
+      <c r="H384" s="42"/>
+      <c r="I384" s="36"/>
+      <c r="J384" s="40"/>
+      <c r="K384" s="43"/>
+      <c r="L384" s="36"/>
+      <c r="M384" s="35"/>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A385" s="35"/>
+      <c r="B385" s="36"/>
+      <c r="C385" s="36"/>
+      <c r="D385" s="36"/>
+      <c r="E385" s="36"/>
+      <c r="F385" s="36"/>
+      <c r="G385" s="36"/>
+      <c r="H385" s="42"/>
+      <c r="I385" s="36"/>
+      <c r="J385" s="40"/>
+      <c r="K385" s="43"/>
+      <c r="L385" s="36"/>
+      <c r="M385" s="35"/>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A386" s="35"/>
+      <c r="B386" s="36"/>
+      <c r="C386" s="36"/>
+      <c r="D386" s="36"/>
+      <c r="E386" s="36"/>
+      <c r="F386" s="36"/>
+      <c r="G386" s="36"/>
+      <c r="H386" s="42"/>
+      <c r="I386" s="36"/>
+      <c r="J386" s="40"/>
+      <c r="K386" s="43"/>
+      <c r="L386" s="36"/>
+      <c r="M386" s="35"/>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A387" s="35"/>
+      <c r="B387" s="36"/>
+      <c r="C387" s="36"/>
+      <c r="D387" s="36"/>
+      <c r="E387" s="36"/>
+      <c r="F387" s="36"/>
+      <c r="G387" s="36"/>
+      <c r="H387" s="42"/>
+      <c r="I387" s="36"/>
+      <c r="J387" s="40"/>
+      <c r="K387" s="43"/>
+      <c r="L387" s="36"/>
+      <c r="M387" s="35"/>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A388" s="35"/>
+      <c r="B388" s="36"/>
+      <c r="C388" s="36"/>
+      <c r="D388" s="36"/>
+      <c r="E388" s="36"/>
+      <c r="F388" s="36"/>
+      <c r="G388" s="36"/>
+      <c r="H388" s="42"/>
+      <c r="I388" s="36"/>
+      <c r="J388" s="40"/>
+      <c r="K388" s="43"/>
+      <c r="L388" s="36"/>
+      <c r="M388" s="35"/>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A389" s="35"/>
+      <c r="B389" s="36"/>
+      <c r="C389" s="36"/>
+      <c r="D389" s="36"/>
+      <c r="E389" s="36"/>
+      <c r="F389" s="36"/>
+      <c r="G389" s="36"/>
+      <c r="H389" s="42"/>
+      <c r="I389" s="36"/>
+      <c r="J389" s="40"/>
+      <c r="K389" s="43"/>
+      <c r="L389" s="36"/>
+      <c r="M389" s="35"/>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A390" s="35"/>
+      <c r="B390" s="36"/>
+      <c r="C390" s="36"/>
+      <c r="D390" s="36"/>
+      <c r="E390" s="36"/>
+      <c r="F390" s="36"/>
+      <c r="G390" s="36"/>
+      <c r="H390" s="42"/>
+      <c r="I390" s="36"/>
+      <c r="J390" s="40"/>
+      <c r="K390" s="43"/>
+      <c r="L390" s="36"/>
+      <c r="M390" s="35"/>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A391" s="35"/>
+      <c r="B391" s="36"/>
+      <c r="C391" s="36"/>
+      <c r="D391" s="36"/>
+      <c r="E391" s="36"/>
+      <c r="F391" s="36"/>
+      <c r="G391" s="36"/>
+      <c r="H391" s="42"/>
+      <c r="I391" s="36"/>
+      <c r="J391" s="40"/>
+      <c r="K391" s="43"/>
+      <c r="L391" s="36"/>
+      <c r="M391" s="35"/>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A392" s="35"/>
+      <c r="B392" s="36"/>
+      <c r="C392" s="36"/>
+      <c r="D392" s="36"/>
+      <c r="E392" s="36"/>
+      <c r="F392" s="36"/>
+      <c r="G392" s="36"/>
+      <c r="H392" s="42"/>
+      <c r="I392" s="36"/>
+      <c r="J392" s="40"/>
+      <c r="K392" s="43"/>
+      <c r="L392" s="36"/>
+      <c r="M392" s="35"/>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A393" s="35"/>
+      <c r="B393" s="36"/>
+      <c r="C393" s="36"/>
+      <c r="D393" s="36"/>
+      <c r="E393" s="36"/>
+      <c r="F393" s="36"/>
+      <c r="G393" s="36"/>
+      <c r="H393" s="42"/>
+      <c r="I393" s="36"/>
+      <c r="J393" s="40"/>
+      <c r="K393" s="43"/>
+      <c r="L393" s="36"/>
+      <c r="M393" s="35"/>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A394" s="35"/>
+      <c r="B394" s="36"/>
+      <c r="C394" s="36"/>
+      <c r="D394" s="36"/>
+      <c r="E394" s="36"/>
+      <c r="F394" s="36"/>
+      <c r="G394" s="36"/>
+      <c r="H394" s="42"/>
+      <c r="I394" s="36"/>
+      <c r="J394" s="40"/>
+      <c r="K394" s="43"/>
+      <c r="L394" s="36"/>
+      <c r="M394" s="35"/>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A395" s="35"/>
+      <c r="B395" s="36"/>
+      <c r="C395" s="36"/>
+      <c r="D395" s="36"/>
+      <c r="E395" s="36"/>
+      <c r="F395" s="36"/>
+      <c r="G395" s="36"/>
+      <c r="H395" s="42"/>
+      <c r="I395" s="36"/>
+      <c r="J395" s="40"/>
+      <c r="K395" s="43"/>
+      <c r="L395" s="36"/>
+      <c r="M395" s="35"/>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A396" s="35"/>
+      <c r="B396" s="36"/>
+      <c r="C396" s="36"/>
+      <c r="D396" s="36"/>
+      <c r="E396" s="36"/>
+      <c r="F396" s="36"/>
+      <c r="G396" s="36"/>
+      <c r="H396" s="42"/>
+      <c r="I396" s="36"/>
+      <c r="J396" s="40"/>
+      <c r="K396" s="43"/>
+      <c r="L396" s="36"/>
+      <c r="M396" s="35"/>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A397" s="35"/>
+      <c r="B397" s="36"/>
+      <c r="C397" s="36"/>
+      <c r="D397" s="36"/>
+      <c r="E397" s="36"/>
+      <c r="F397" s="36"/>
+      <c r="G397" s="36"/>
+      <c r="H397" s="42"/>
+      <c r="I397" s="36"/>
+      <c r="J397" s="40"/>
+      <c r="K397" s="43"/>
+      <c r="L397" s="36"/>
+      <c r="M397" s="35"/>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A398" s="35"/>
+      <c r="B398" s="36"/>
+      <c r="C398" s="36"/>
+      <c r="D398" s="36"/>
+      <c r="E398" s="36"/>
+      <c r="F398" s="36"/>
+      <c r="G398" s="36"/>
+      <c r="H398" s="42"/>
+      <c r="I398" s="36"/>
+      <c r="J398" s="40"/>
+      <c r="K398" s="43"/>
+      <c r="L398" s="36"/>
+      <c r="M398" s="35"/>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A399" s="35"/>
+      <c r="B399" s="36"/>
+      <c r="C399" s="36"/>
+      <c r="D399" s="36"/>
+      <c r="E399" s="36"/>
+      <c r="F399" s="36"/>
+      <c r="G399" s="36"/>
+      <c r="H399" s="42"/>
+      <c r="I399" s="36"/>
+      <c r="J399" s="40"/>
+      <c r="K399" s="43"/>
+      <c r="L399" s="36"/>
+      <c r="M399" s="35"/>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A400" s="35"/>
+      <c r="B400" s="36"/>
+      <c r="C400" s="36"/>
+      <c r="D400" s="36"/>
+      <c r="E400" s="36"/>
+      <c r="F400" s="36"/>
+      <c r="G400" s="36"/>
+      <c r="H400" s="42"/>
+      <c r="I400" s="36"/>
+      <c r="J400" s="40"/>
+      <c r="K400" s="43"/>
+      <c r="L400" s="36"/>
+      <c r="M400" s="35"/>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A401" s="35"/>
+      <c r="B401" s="36"/>
+      <c r="C401" s="36"/>
+      <c r="D401" s="36"/>
+      <c r="E401" s="36"/>
+      <c r="F401" s="36"/>
+      <c r="G401" s="36"/>
+      <c r="H401" s="42"/>
+      <c r="I401" s="36"/>
+      <c r="J401" s="40"/>
+      <c r="K401" s="43"/>
+      <c r="L401" s="36"/>
+      <c r="M401" s="35"/>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A402" s="35"/>
+      <c r="B402" s="36"/>
+      <c r="C402" s="36"/>
+      <c r="D402" s="36"/>
+      <c r="E402" s="36"/>
+      <c r="F402" s="36"/>
+      <c r="G402" s="36"/>
+      <c r="H402" s="42"/>
+      <c r="I402" s="36"/>
+      <c r="J402" s="40"/>
+      <c r="K402" s="43"/>
+      <c r="L402" s="36"/>
+      <c r="M402" s="35"/>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A403" s="35"/>
+      <c r="B403" s="36"/>
+      <c r="C403" s="36"/>
+      <c r="D403" s="36"/>
+      <c r="E403" s="36"/>
+      <c r="F403" s="36"/>
+      <c r="G403" s="36"/>
+      <c r="H403" s="42"/>
+      <c r="I403" s="36"/>
+      <c r="J403" s="40"/>
+      <c r="K403" s="43"/>
+      <c r="L403" s="36"/>
+      <c r="M403" s="35"/>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A404" s="35"/>
+      <c r="B404" s="36"/>
+      <c r="C404" s="36"/>
+      <c r="D404" s="36"/>
+      <c r="E404" s="36"/>
+      <c r="F404" s="36"/>
+      <c r="G404" s="36"/>
+      <c r="H404" s="42"/>
+      <c r="I404" s="36"/>
+      <c r="J404" s="40"/>
+      <c r="K404" s="43"/>
+      <c r="L404" s="36"/>
+      <c r="M404" s="35"/>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A405" s="35"/>
+      <c r="B405" s="36"/>
+      <c r="C405" s="36"/>
+      <c r="D405" s="36"/>
+      <c r="E405" s="36"/>
+      <c r="F405" s="36"/>
+      <c r="G405" s="36"/>
+      <c r="H405" s="42"/>
+      <c r="I405" s="36"/>
+      <c r="J405" s="40"/>
+      <c r="K405" s="43"/>
+      <c r="L405" s="36"/>
+      <c r="M405" s="35"/>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A406" s="35"/>
+      <c r="B406" s="36"/>
+      <c r="C406" s="36"/>
+      <c r="D406" s="36"/>
+      <c r="E406" s="36"/>
+      <c r="F406" s="36"/>
+      <c r="G406" s="36"/>
+      <c r="H406" s="42"/>
+      <c r="I406" s="36"/>
+      <c r="J406" s="40"/>
+      <c r="K406" s="43"/>
+      <c r="L406" s="36"/>
+      <c r="M406" s="35"/>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A407" s="35"/>
+      <c r="B407" s="36"/>
+      <c r="C407" s="36"/>
+      <c r="D407" s="36"/>
+      <c r="E407" s="36"/>
+      <c r="F407" s="36"/>
+      <c r="G407" s="36"/>
+      <c r="H407" s="42"/>
+      <c r="I407" s="36"/>
+      <c r="J407" s="40"/>
+      <c r="K407" s="43"/>
+      <c r="L407" s="36"/>
+      <c r="M407" s="35"/>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A408" s="35"/>
+      <c r="B408" s="36"/>
+      <c r="C408" s="36"/>
+      <c r="D408" s="36"/>
+      <c r="E408" s="36"/>
+      <c r="F408" s="36"/>
+      <c r="G408" s="36"/>
+      <c r="H408" s="42"/>
+      <c r="I408" s="36"/>
+      <c r="J408" s="40"/>
+      <c r="K408" s="43"/>
+      <c r="L408" s="36"/>
+      <c r="M408" s="35"/>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A409" s="35"/>
+      <c r="B409" s="36"/>
+      <c r="C409" s="36"/>
+      <c r="D409" s="36"/>
+      <c r="E409" s="36"/>
+      <c r="F409" s="36"/>
+      <c r="G409" s="36"/>
+      <c r="H409" s="42"/>
+      <c r="I409" s="36"/>
+      <c r="J409" s="40"/>
+      <c r="K409" s="43"/>
+      <c r="L409" s="36"/>
+      <c r="M409" s="35"/>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A410" s="35"/>
+      <c r="B410" s="36"/>
+      <c r="C410" s="36"/>
+      <c r="D410" s="36"/>
+      <c r="E410" s="36"/>
+      <c r="F410" s="36"/>
+      <c r="G410" s="36"/>
+      <c r="H410" s="42"/>
+      <c r="I410" s="36"/>
+      <c r="J410" s="40"/>
+      <c r="K410" s="43"/>
+      <c r="L410" s="36"/>
+      <c r="M410" s="35"/>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A411" s="35"/>
+      <c r="B411" s="36"/>
+      <c r="C411" s="36"/>
+      <c r="D411" s="36"/>
+      <c r="E411" s="36"/>
+      <c r="F411" s="36"/>
+      <c r="G411" s="36"/>
+      <c r="H411" s="42"/>
+      <c r="I411" s="36"/>
+      <c r="J411" s="40"/>
+      <c r="K411" s="43"/>
+      <c r="L411" s="36"/>
+      <c r="M411" s="35"/>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A412" s="35"/>
+      <c r="B412" s="36"/>
+      <c r="C412" s="36"/>
+      <c r="D412" s="36"/>
+      <c r="E412" s="36"/>
+      <c r="F412" s="36"/>
+      <c r="G412" s="36"/>
+      <c r="H412" s="42"/>
+      <c r="I412" s="36"/>
+      <c r="J412" s="40"/>
+      <c r="K412" s="43"/>
+      <c r="L412" s="36"/>
+      <c r="M412" s="35"/>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A413" s="35"/>
+      <c r="B413" s="36"/>
+      <c r="C413" s="36"/>
+      <c r="D413" s="36"/>
+      <c r="E413" s="36"/>
+      <c r="F413" s="36"/>
+      <c r="G413" s="36"/>
+      <c r="H413" s="42"/>
+      <c r="I413" s="36"/>
+      <c r="J413" s="40"/>
+      <c r="K413" s="43"/>
+      <c r="L413" s="36"/>
+      <c r="M413" s="35"/>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A414" s="35"/>
+      <c r="B414" s="36"/>
+      <c r="C414" s="36"/>
+      <c r="D414" s="36"/>
+      <c r="E414" s="36"/>
+      <c r="F414" s="36"/>
+      <c r="G414" s="36"/>
+      <c r="H414" s="42"/>
+      <c r="I414" s="36"/>
+      <c r="J414" s="40"/>
+      <c r="K414" s="43"/>
+      <c r="L414" s="36"/>
+      <c r="M414" s="35"/>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A415" s="35"/>
+      <c r="B415" s="36"/>
+      <c r="C415" s="36"/>
+      <c r="D415" s="36"/>
+      <c r="E415" s="36"/>
+      <c r="F415" s="36"/>
+      <c r="G415" s="36"/>
+      <c r="H415" s="42"/>
+      <c r="I415" s="36"/>
+      <c r="J415" s="40"/>
+      <c r="K415" s="43"/>
+      <c r="L415" s="36"/>
+      <c r="M415" s="35"/>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A416" s="35"/>
+      <c r="B416" s="36"/>
+      <c r="C416" s="36"/>
+      <c r="D416" s="36"/>
+      <c r="E416" s="36"/>
+      <c r="F416" s="36"/>
+      <c r="G416" s="36"/>
+      <c r="H416" s="42"/>
+      <c r="I416" s="36"/>
+      <c r="J416" s="40"/>
+      <c r="K416" s="43"/>
+      <c r="L416" s="36"/>
+      <c r="M416" s="35"/>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A417" s="35"/>
+      <c r="B417" s="36"/>
+      <c r="C417" s="36"/>
+      <c r="D417" s="36"/>
+      <c r="E417" s="36"/>
+      <c r="F417" s="36"/>
+      <c r="G417" s="36"/>
+      <c r="H417" s="42"/>
+      <c r="I417" s="36"/>
+      <c r="J417" s="40"/>
+      <c r="K417" s="43"/>
+      <c r="L417" s="36"/>
+      <c r="M417" s="35"/>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A418" s="35"/>
+      <c r="B418" s="36"/>
+      <c r="C418" s="36"/>
+      <c r="D418" s="36"/>
+      <c r="E418" s="36"/>
+      <c r="F418" s="36"/>
+      <c r="G418" s="36"/>
+      <c r="H418" s="42"/>
+      <c r="I418" s="36"/>
+      <c r="J418" s="40"/>
+      <c r="K418" s="43"/>
+      <c r="L418" s="36"/>
+      <c r="M418" s="35"/>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A419" s="35"/>
+      <c r="B419" s="36"/>
+      <c r="C419" s="36"/>
+      <c r="D419" s="36"/>
+      <c r="E419" s="36"/>
+      <c r="F419" s="36"/>
+      <c r="G419" s="36"/>
+      <c r="H419" s="42"/>
+      <c r="I419" s="36"/>
+      <c r="J419" s="40"/>
+      <c r="K419" s="43"/>
+      <c r="L419" s="36"/>
+      <c r="M419" s="35"/>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A420" s="35"/>
+      <c r="B420" s="36"/>
+      <c r="C420" s="36"/>
+      <c r="D420" s="36"/>
+      <c r="E420" s="36"/>
+      <c r="F420" s="36"/>
+      <c r="G420" s="36"/>
+      <c r="H420" s="42"/>
+      <c r="I420" s="36"/>
+      <c r="J420" s="40"/>
+      <c r="K420" s="43"/>
+      <c r="L420" s="36"/>
+      <c r="M420" s="35"/>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A421" s="35"/>
+      <c r="B421" s="36"/>
+      <c r="C421" s="36"/>
+      <c r="D421" s="36"/>
+      <c r="E421" s="36"/>
+      <c r="F421" s="36"/>
+      <c r="G421" s="36"/>
+      <c r="H421" s="42"/>
+      <c r="I421" s="36"/>
+      <c r="J421" s="40"/>
+      <c r="K421" s="43"/>
+      <c r="L421" s="36"/>
+      <c r="M421" s="35"/>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A422" s="35"/>
+      <c r="B422" s="36"/>
+      <c r="C422" s="36"/>
+      <c r="D422" s="36"/>
+      <c r="E422" s="36"/>
+      <c r="F422" s="36"/>
+      <c r="G422" s="36"/>
+      <c r="H422" s="42"/>
+      <c r="I422" s="36"/>
+      <c r="J422" s="40"/>
+      <c r="K422" s="43"/>
+      <c r="L422" s="36"/>
+      <c r="M422" s="35"/>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A423" s="35"/>
+      <c r="B423" s="36"/>
+      <c r="C423" s="36"/>
+      <c r="D423" s="36"/>
+      <c r="E423" s="36"/>
+      <c r="F423" s="36"/>
+      <c r="G423" s="36"/>
+      <c r="H423" s="42"/>
+      <c r="I423" s="36"/>
+      <c r="J423" s="40"/>
+      <c r="K423" s="43"/>
+      <c r="L423" s="36"/>
+      <c r="M423" s="35"/>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A424" s="35"/>
+      <c r="B424" s="36"/>
+      <c r="C424" s="36"/>
+      <c r="D424" s="36"/>
+      <c r="E424" s="36"/>
+      <c r="F424" s="36"/>
+      <c r="G424" s="36"/>
+      <c r="H424" s="42"/>
+      <c r="I424" s="36"/>
+      <c r="J424" s="40"/>
+      <c r="K424" s="43"/>
+      <c r="L424" s="36"/>
+      <c r="M424" s="35"/>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A425" s="35"/>
+      <c r="B425" s="36"/>
+      <c r="C425" s="36"/>
+      <c r="D425" s="36"/>
+      <c r="E425" s="36"/>
+      <c r="F425" s="36"/>
+      <c r="G425" s="36"/>
+      <c r="H425" s="42"/>
+      <c r="I425" s="36"/>
+      <c r="J425" s="40"/>
+      <c r="K425" s="43"/>
+      <c r="L425" s="36"/>
+      <c r="M425" s="35"/>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A426" s="35"/>
+      <c r="B426" s="36"/>
+      <c r="C426" s="36"/>
+      <c r="D426" s="36"/>
+      <c r="E426" s="36"/>
+      <c r="F426" s="36"/>
+      <c r="G426" s="36"/>
+      <c r="H426" s="42"/>
+      <c r="I426" s="36"/>
+      <c r="J426" s="40"/>
+      <c r="K426" s="43"/>
+      <c r="L426" s="36"/>
+      <c r="M426" s="35"/>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A427" s="35"/>
+      <c r="B427" s="36"/>
+      <c r="C427" s="36"/>
+      <c r="D427" s="36"/>
+      <c r="E427" s="36"/>
+      <c r="F427" s="36"/>
+      <c r="G427" s="36"/>
+      <c r="H427" s="42"/>
+      <c r="I427" s="36"/>
+      <c r="J427" s="40"/>
+      <c r="K427" s="43"/>
+      <c r="L427" s="36"/>
+      <c r="M427" s="35"/>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A428" s="35"/>
+      <c r="B428" s="36"/>
+      <c r="C428" s="36"/>
+      <c r="D428" s="36"/>
+      <c r="E428" s="36"/>
+      <c r="F428" s="36"/>
+      <c r="G428" s="36"/>
+      <c r="H428" s="42"/>
+      <c r="I428" s="36"/>
+      <c r="J428" s="40"/>
+      <c r="K428" s="43"/>
+      <c r="L428" s="36"/>
+      <c r="M428" s="35"/>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A429" s="35"/>
+      <c r="B429" s="36"/>
+      <c r="C429" s="36"/>
+      <c r="D429" s="36"/>
+      <c r="E429" s="36"/>
+      <c r="F429" s="36"/>
+      <c r="G429" s="36"/>
+      <c r="H429" s="42"/>
+      <c r="I429" s="36"/>
+      <c r="J429" s="40"/>
+      <c r="K429" s="43"/>
+      <c r="L429" s="36"/>
+      <c r="M429" s="35"/>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A430" s="35"/>
+      <c r="B430" s="36"/>
+      <c r="C430" s="36"/>
+      <c r="D430" s="36"/>
+      <c r="E430" s="36"/>
+      <c r="F430" s="36"/>
+      <c r="G430" s="36"/>
+      <c r="H430" s="42"/>
+      <c r="I430" s="36"/>
+      <c r="J430" s="40"/>
+      <c r="K430" s="43"/>
+      <c r="L430" s="36"/>
+      <c r="M430" s="35"/>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A431" s="35"/>
+      <c r="B431" s="36"/>
+      <c r="C431" s="36"/>
+      <c r="D431" s="36"/>
+      <c r="E431" s="36"/>
+      <c r="F431" s="36"/>
+      <c r="G431" s="36"/>
+      <c r="H431" s="42"/>
+      <c r="I431" s="36"/>
+      <c r="J431" s="40"/>
+      <c r="K431" s="43"/>
+      <c r="L431" s="36"/>
+      <c r="M431" s="35"/>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A432" s="35"/>
+      <c r="B432" s="36"/>
+      <c r="C432" s="36"/>
+      <c r="D432" s="36"/>
+      <c r="E432" s="36"/>
+      <c r="F432" s="36"/>
+      <c r="G432" s="36"/>
+      <c r="H432" s="42"/>
+      <c r="I432" s="36"/>
+      <c r="J432" s="40"/>
+      <c r="K432" s="43"/>
+      <c r="L432" s="36"/>
+      <c r="M432" s="35"/>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A433" s="35"/>
+      <c r="B433" s="36"/>
+      <c r="C433" s="36"/>
+      <c r="D433" s="36"/>
+      <c r="E433" s="36"/>
+      <c r="F433" s="36"/>
+      <c r="G433" s="36"/>
+      <c r="H433" s="42"/>
+      <c r="I433" s="36"/>
+      <c r="J433" s="40"/>
+      <c r="K433" s="43"/>
+      <c r="L433" s="36"/>
+      <c r="M433" s="35"/>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A434" s="35"/>
+      <c r="B434" s="36"/>
+      <c r="C434" s="36"/>
+      <c r="D434" s="36"/>
+      <c r="E434" s="36"/>
+      <c r="F434" s="36"/>
+      <c r="G434" s="36"/>
+      <c r="H434" s="42"/>
+      <c r="I434" s="36"/>
+      <c r="J434" s="40"/>
+      <c r="K434" s="43"/>
+      <c r="L434" s="36"/>
+      <c r="M434" s="35"/>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A435" s="35"/>
+      <c r="B435" s="36"/>
+      <c r="C435" s="36"/>
+      <c r="D435" s="36"/>
+      <c r="E435" s="36"/>
+      <c r="F435" s="36"/>
+      <c r="G435" s="36"/>
+      <c r="H435" s="42"/>
+      <c r="I435" s="36"/>
+      <c r="J435" s="40"/>
+      <c r="K435" s="43"/>
+      <c r="L435" s="36"/>
+      <c r="M435" s="35"/>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A436" s="35"/>
+      <c r="B436" s="36"/>
+      <c r="C436" s="36"/>
+      <c r="D436" s="36"/>
+      <c r="E436" s="36"/>
+      <c r="F436" s="36"/>
+      <c r="G436" s="36"/>
+      <c r="H436" s="42"/>
+      <c r="I436" s="36"/>
+      <c r="J436" s="40"/>
+      <c r="K436" s="43"/>
+      <c r="L436" s="36"/>
+      <c r="M436" s="35"/>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A437" s="35"/>
+      <c r="B437" s="36"/>
+      <c r="C437" s="36"/>
+      <c r="D437" s="36"/>
+      <c r="E437" s="36"/>
+      <c r="F437" s="36"/>
+      <c r="G437" s="36"/>
+      <c r="H437" s="42"/>
+      <c r="I437" s="36"/>
+      <c r="J437" s="40"/>
+      <c r="K437" s="43"/>
+      <c r="L437" s="36"/>
+      <c r="M437" s="35"/>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A438" s="35"/>
+      <c r="B438" s="36"/>
+      <c r="C438" s="36"/>
+      <c r="D438" s="36"/>
+      <c r="E438" s="36"/>
+      <c r="F438" s="36"/>
+      <c r="G438" s="36"/>
+      <c r="H438" s="42"/>
+      <c r="I438" s="36"/>
+      <c r="J438" s="40"/>
+      <c r="K438" s="43"/>
+      <c r="L438" s="36"/>
+      <c r="M438" s="35"/>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A439" s="35"/>
+      <c r="B439" s="36"/>
+      <c r="C439" s="36"/>
+      <c r="D439" s="36"/>
+      <c r="E439" s="36"/>
+      <c r="F439" s="36"/>
+      <c r="G439" s="36"/>
+      <c r="H439" s="42"/>
+      <c r="I439" s="36"/>
+      <c r="J439" s="40"/>
+      <c r="K439" s="43"/>
+      <c r="L439" s="36"/>
+      <c r="M439" s="35"/>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A440" s="35"/>
+      <c r="B440" s="36"/>
+      <c r="C440" s="36"/>
+      <c r="D440" s="36"/>
+      <c r="E440" s="36"/>
+      <c r="F440" s="36"/>
+      <c r="G440" s="36"/>
+      <c r="H440" s="42"/>
+      <c r="I440" s="36"/>
+      <c r="J440" s="40"/>
+      <c r="K440" s="43"/>
+      <c r="L440" s="36"/>
+      <c r="M440" s="35"/>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A441" s="35"/>
+      <c r="B441" s="36"/>
+      <c r="C441" s="36"/>
+      <c r="D441" s="36"/>
+      <c r="E441" s="36"/>
+      <c r="F441" s="36"/>
+      <c r="G441" s="36"/>
+      <c r="H441" s="42"/>
+      <c r="I441" s="36"/>
+      <c r="J441" s="40"/>
+      <c r="K441" s="43"/>
+      <c r="L441" s="36"/>
+      <c r="M441" s="35"/>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A442" s="35"/>
+      <c r="B442" s="36"/>
+      <c r="C442" s="36"/>
+      <c r="D442" s="36"/>
+      <c r="E442" s="36"/>
+      <c r="F442" s="36"/>
+      <c r="G442" s="36"/>
+      <c r="H442" s="42"/>
+      <c r="I442" s="36"/>
+      <c r="J442" s="40"/>
+      <c r="K442" s="43"/>
+      <c r="L442" s="36"/>
+      <c r="M442" s="35"/>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A443" s="35"/>
+      <c r="B443" s="36"/>
+      <c r="C443" s="36"/>
+      <c r="D443" s="36"/>
+      <c r="E443" s="36"/>
+      <c r="F443" s="36"/>
+      <c r="G443" s="36"/>
+      <c r="H443" s="42"/>
+      <c r="I443" s="36"/>
+      <c r="J443" s="40"/>
+      <c r="K443" s="43"/>
+      <c r="L443" s="36"/>
+      <c r="M443" s="35"/>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A444" s="35"/>
+      <c r="B444" s="36"/>
+      <c r="C444" s="36"/>
+      <c r="D444" s="36"/>
+      <c r="E444" s="36"/>
+      <c r="F444" s="36"/>
+      <c r="G444" s="36"/>
+      <c r="H444" s="42"/>
+      <c r="I444" s="36"/>
+      <c r="J444" s="40"/>
+      <c r="K444" s="43"/>
+      <c r="L444" s="36"/>
+      <c r="M444" s="35"/>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A445" s="35"/>
+      <c r="B445" s="36"/>
+      <c r="C445" s="36"/>
+      <c r="D445" s="36"/>
+      <c r="E445" s="36"/>
+      <c r="F445" s="36"/>
+      <c r="G445" s="36"/>
+      <c r="H445" s="42"/>
+      <c r="I445" s="36"/>
+      <c r="J445" s="40"/>
+      <c r="K445" s="43"/>
+      <c r="L445" s="36"/>
+      <c r="M445" s="35"/>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A446" s="35"/>
+      <c r="B446" s="36"/>
+      <c r="C446" s="36"/>
+      <c r="D446" s="36"/>
+      <c r="E446" s="36"/>
+      <c r="F446" s="36"/>
+      <c r="G446" s="36"/>
+      <c r="H446" s="42"/>
+      <c r="I446" s="36"/>
+      <c r="J446" s="40"/>
+      <c r="K446" s="43"/>
+      <c r="L446" s="36"/>
+      <c r="M446" s="35"/>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A447" s="35"/>
+      <c r="B447" s="36"/>
+      <c r="C447" s="36"/>
+      <c r="D447" s="36"/>
+      <c r="E447" s="36"/>
+      <c r="F447" s="36"/>
+      <c r="G447" s="36"/>
+      <c r="H447" s="42"/>
+      <c r="I447" s="36"/>
+      <c r="J447" s="40"/>
+      <c r="K447" s="43"/>
+      <c r="L447" s="36"/>
+      <c r="M447" s="35"/>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A448" s="35"/>
+      <c r="B448" s="36"/>
+      <c r="C448" s="36"/>
+      <c r="D448" s="36"/>
+      <c r="E448" s="36"/>
+      <c r="F448" s="36"/>
+      <c r="G448" s="36"/>
+      <c r="H448" s="42"/>
+      <c r="I448" s="36"/>
+      <c r="J448" s="40"/>
+      <c r="K448" s="43"/>
+      <c r="L448" s="36"/>
+      <c r="M448" s="35"/>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A449" s="35"/>
+      <c r="B449" s="36"/>
+      <c r="C449" s="36"/>
+      <c r="D449" s="36"/>
+      <c r="E449" s="36"/>
+      <c r="F449" s="36"/>
+      <c r="G449" s="36"/>
+      <c r="H449" s="42"/>
+      <c r="I449" s="36"/>
+      <c r="J449" s="40"/>
+      <c r="K449" s="43"/>
+      <c r="L449" s="36"/>
+      <c r="M449" s="35"/>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A450" s="35"/>
+      <c r="B450" s="36"/>
+      <c r="C450" s="36"/>
+      <c r="D450" s="36"/>
+      <c r="E450" s="36"/>
+      <c r="F450" s="36"/>
+      <c r="G450" s="36"/>
+      <c r="H450" s="42"/>
+      <c r="I450" s="36"/>
+      <c r="J450" s="40"/>
+      <c r="K450" s="43"/>
+      <c r="L450" s="36"/>
+      <c r="M450" s="35"/>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A451" s="35"/>
+      <c r="B451" s="36"/>
+      <c r="C451" s="36"/>
+      <c r="D451" s="36"/>
+      <c r="E451" s="36"/>
+      <c r="F451" s="36"/>
+      <c r="G451" s="36"/>
+      <c r="H451" s="42"/>
+      <c r="I451" s="36"/>
+      <c r="J451" s="40"/>
+      <c r="K451" s="43"/>
+      <c r="L451" s="36"/>
+      <c r="M451" s="35"/>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A452" s="35"/>
+      <c r="B452" s="36"/>
+      <c r="C452" s="36"/>
+      <c r="D452" s="36"/>
+      <c r="E452" s="36"/>
+      <c r="F452" s="36"/>
+      <c r="G452" s="36"/>
+      <c r="H452" s="42"/>
+      <c r="I452" s="36"/>
+      <c r="J452" s="40"/>
+      <c r="K452" s="43"/>
+      <c r="L452" s="36"/>
+      <c r="M452" s="35"/>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A453" s="35"/>
+      <c r="B453" s="36"/>
+      <c r="C453" s="36"/>
+      <c r="D453" s="36"/>
+      <c r="E453" s="36"/>
+      <c r="F453" s="36"/>
+      <c r="G453" s="36"/>
+      <c r="H453" s="42"/>
+      <c r="I453" s="36"/>
+      <c r="J453" s="40"/>
+      <c r="K453" s="43"/>
+      <c r="L453" s="36"/>
+      <c r="M453" s="35"/>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A454" s="35"/>
+      <c r="B454" s="36"/>
+      <c r="C454" s="36"/>
+      <c r="D454" s="36"/>
+      <c r="E454" s="36"/>
+      <c r="F454" s="36"/>
+      <c r="G454" s="36"/>
+      <c r="H454" s="42"/>
+      <c r="I454" s="36"/>
+      <c r="J454" s="40"/>
+      <c r="K454" s="43"/>
+      <c r="L454" s="36"/>
+      <c r="M454" s="35"/>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A455" s="35"/>
+      <c r="B455" s="36"/>
+      <c r="C455" s="36"/>
+      <c r="D455" s="36"/>
+      <c r="E455" s="36"/>
+      <c r="F455" s="36"/>
+      <c r="G455" s="36"/>
+      <c r="H455" s="42"/>
+      <c r="I455" s="36"/>
+      <c r="J455" s="40"/>
+      <c r="K455" s="43"/>
+      <c r="L455" s="36"/>
+      <c r="M455" s="35"/>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A456" s="35"/>
+      <c r="B456" s="36"/>
+      <c r="C456" s="36"/>
+      <c r="D456" s="36"/>
+      <c r="E456" s="36"/>
+      <c r="F456" s="36"/>
+      <c r="G456" s="36"/>
+      <c r="H456" s="42"/>
+      <c r="I456" s="36"/>
+      <c r="J456" s="40"/>
+      <c r="K456" s="43"/>
+      <c r="L456" s="36"/>
+      <c r="M456" s="35"/>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A457" s="35"/>
+      <c r="B457" s="36"/>
+      <c r="C457" s="36"/>
+      <c r="D457" s="36"/>
+      <c r="E457" s="36"/>
+      <c r="F457" s="36"/>
+      <c r="G457" s="36"/>
+      <c r="H457" s="42"/>
+      <c r="I457" s="36"/>
+      <c r="J457" s="40"/>
+      <c r="K457" s="43"/>
+      <c r="L457" s="36"/>
+      <c r="M457" s="35"/>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A458" s="35"/>
+      <c r="B458" s="36"/>
+      <c r="C458" s="36"/>
+      <c r="D458" s="36"/>
+      <c r="E458" s="36"/>
+      <c r="F458" s="36"/>
+      <c r="G458" s="36"/>
+      <c r="H458" s="42"/>
+      <c r="I458" s="36"/>
+      <c r="J458" s="40"/>
+      <c r="K458" s="43"/>
+      <c r="L458" s="36"/>
+      <c r="M458" s="35"/>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A459" s="35"/>
+      <c r="B459" s="36"/>
+      <c r="C459" s="36"/>
+      <c r="D459" s="36"/>
+      <c r="E459" s="36"/>
+      <c r="F459" s="36"/>
+      <c r="G459" s="36"/>
+      <c r="H459" s="42"/>
+      <c r="I459" s="36"/>
+      <c r="J459" s="40"/>
+      <c r="K459" s="43"/>
+      <c r="L459" s="36"/>
+      <c r="M459" s="35"/>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A460" s="35"/>
+      <c r="B460" s="36"/>
+      <c r="C460" s="36"/>
+      <c r="D460" s="36"/>
+      <c r="E460" s="36"/>
+      <c r="F460" s="36"/>
+      <c r="G460" s="36"/>
+      <c r="H460" s="42"/>
+      <c r="I460" s="36"/>
+      <c r="J460" s="40"/>
+      <c r="K460" s="43"/>
+      <c r="L460" s="36"/>
+      <c r="M460" s="35"/>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A461" s="35"/>
+      <c r="B461" s="36"/>
+      <c r="C461" s="36"/>
+      <c r="D461" s="36"/>
+      <c r="E461" s="36"/>
+      <c r="F461" s="36"/>
+      <c r="G461" s="36"/>
+      <c r="H461" s="42"/>
+      <c r="I461" s="36"/>
+      <c r="J461" s="40"/>
+      <c r="K461" s="43"/>
+      <c r="L461" s="36"/>
+      <c r="M461" s="35"/>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A462" s="35"/>
+      <c r="B462" s="36"/>
+      <c r="C462" s="36"/>
+      <c r="D462" s="36"/>
+      <c r="E462" s="36"/>
+      <c r="F462" s="36"/>
+      <c r="G462" s="36"/>
+      <c r="H462" s="42"/>
+      <c r="I462" s="36"/>
+      <c r="J462" s="40"/>
+      <c r="K462" s="43"/>
+      <c r="L462" s="36"/>
+      <c r="M462" s="35"/>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A463" s="35"/>
+      <c r="B463" s="36"/>
+      <c r="C463" s="36"/>
+      <c r="D463" s="36"/>
+      <c r="E463" s="36"/>
+      <c r="F463" s="36"/>
+      <c r="G463" s="36"/>
+      <c r="H463" s="42"/>
+      <c r="I463" s="36"/>
+      <c r="J463" s="40"/>
+      <c r="K463" s="43"/>
+      <c r="L463" s="36"/>
+      <c r="M463" s="35"/>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A464" s="35"/>
+      <c r="B464" s="36"/>
+      <c r="C464" s="36"/>
+      <c r="D464" s="36"/>
+      <c r="E464" s="36"/>
+      <c r="F464" s="36"/>
+      <c r="G464" s="36"/>
+      <c r="H464" s="42"/>
+      <c r="I464" s="36"/>
+      <c r="J464" s="40"/>
+      <c r="K464" s="43"/>
+      <c r="L464" s="36"/>
+      <c r="M464" s="35"/>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A465" s="35"/>
+      <c r="B465" s="36"/>
+      <c r="C465" s="36"/>
+      <c r="D465" s="36"/>
+      <c r="E465" s="36"/>
+      <c r="F465" s="36"/>
+      <c r="G465" s="36"/>
+      <c r="H465" s="42"/>
+      <c r="I465" s="36"/>
+      <c r="J465" s="40"/>
+      <c r="K465" s="43"/>
+      <c r="L465" s="36"/>
+      <c r="M465" s="35"/>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A466" s="35"/>
+      <c r="B466" s="36"/>
+      <c r="C466" s="36"/>
+      <c r="D466" s="36"/>
+      <c r="E466" s="36"/>
+      <c r="F466" s="36"/>
+      <c r="G466" s="36"/>
+      <c r="H466" s="42"/>
+      <c r="I466" s="36"/>
+      <c r="J466" s="40"/>
+      <c r="K466" s="43"/>
+      <c r="L466" s="36"/>
+      <c r="M466" s="35"/>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A467" s="35"/>
+      <c r="B467" s="36"/>
+      <c r="C467" s="36"/>
+      <c r="D467" s="36"/>
+      <c r="E467" s="36"/>
+      <c r="F467" s="36"/>
+      <c r="G467" s="36"/>
+      <c r="H467" s="42"/>
+      <c r="I467" s="36"/>
+      <c r="J467" s="40"/>
+      <c r="K467" s="43"/>
+      <c r="L467" s="36"/>
+      <c r="M467" s="35"/>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A468" s="35"/>
+      <c r="B468" s="36"/>
+      <c r="C468" s="36"/>
+      <c r="D468" s="36"/>
+      <c r="E468" s="36"/>
+      <c r="F468" s="36"/>
+      <c r="G468" s="36"/>
+      <c r="H468" s="42"/>
+      <c r="I468" s="36"/>
+      <c r="J468" s="40"/>
+      <c r="K468" s="43"/>
+      <c r="L468" s="36"/>
+      <c r="M468" s="35"/>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A469" s="35"/>
+      <c r="B469" s="36"/>
+      <c r="C469" s="36"/>
+      <c r="D469" s="36"/>
+      <c r="E469" s="36"/>
+      <c r="F469" s="36"/>
+      <c r="G469" s="36"/>
+      <c r="H469" s="42"/>
+      <c r="I469" s="36"/>
+      <c r="J469" s="40"/>
+      <c r="K469" s="43"/>
+      <c r="L469" s="36"/>
+      <c r="M469" s="35"/>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A470" s="35"/>
+      <c r="B470" s="36"/>
+      <c r="C470" s="36"/>
+      <c r="D470" s="36"/>
+      <c r="E470" s="36"/>
+      <c r="F470" s="36"/>
+      <c r="G470" s="36"/>
+      <c r="H470" s="42"/>
+      <c r="I470" s="36"/>
+      <c r="J470" s="40"/>
+      <c r="K470" s="43"/>
+      <c r="L470" s="36"/>
+      <c r="M470" s="35"/>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A471" s="35"/>
+      <c r="B471" s="36"/>
+      <c r="C471" s="36"/>
+      <c r="D471" s="36"/>
+      <c r="E471" s="36"/>
+      <c r="F471" s="36"/>
+      <c r="G471" s="36"/>
+      <c r="H471" s="42"/>
+      <c r="I471" s="36"/>
+      <c r="J471" s="40"/>
+      <c r="K471" s="43"/>
+      <c r="L471" s="36"/>
+      <c r="M471" s="35"/>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A472" s="35"/>
+      <c r="B472" s="36"/>
+      <c r="C472" s="36"/>
+      <c r="D472" s="36"/>
+      <c r="E472" s="36"/>
+      <c r="F472" s="36"/>
+      <c r="G472" s="36"/>
+      <c r="H472" s="42"/>
+      <c r="I472" s="36"/>
+      <c r="J472" s="40"/>
+      <c r="K472" s="43"/>
+      <c r="L472" s="36"/>
+      <c r="M472" s="35"/>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A473" s="35"/>
+      <c r="B473" s="36"/>
+      <c r="C473" s="36"/>
+      <c r="D473" s="36"/>
+      <c r="E473" s="36"/>
+      <c r="F473" s="36"/>
+      <c r="G473" s="36"/>
+      <c r="H473" s="42"/>
+      <c r="I473" s="36"/>
+      <c r="J473" s="40"/>
+      <c r="K473" s="43"/>
+      <c r="L473" s="36"/>
+      <c r="M473" s="35"/>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A474" s="35"/>
+      <c r="B474" s="36"/>
+      <c r="C474" s="36"/>
+      <c r="D474" s="36"/>
+      <c r="E474" s="36"/>
+      <c r="F474" s="36"/>
+      <c r="G474" s="36"/>
+      <c r="H474" s="42"/>
+      <c r="I474" s="36"/>
+      <c r="J474" s="40"/>
+      <c r="K474" s="43"/>
+      <c r="L474" s="36"/>
+      <c r="M474" s="35"/>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A475" s="35"/>
+      <c r="B475" s="36"/>
+      <c r="C475" s="36"/>
+      <c r="D475" s="36"/>
+      <c r="E475" s="36"/>
+      <c r="F475" s="36"/>
+      <c r="G475" s="36"/>
+      <c r="H475" s="42"/>
+      <c r="I475" s="36"/>
+      <c r="J475" s="40"/>
+      <c r="K475" s="43"/>
+      <c r="L475" s="36"/>
+      <c r="M475" s="35"/>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A476" s="35"/>
+      <c r="B476" s="36"/>
+      <c r="C476" s="36"/>
+      <c r="D476" s="36"/>
+      <c r="E476" s="36"/>
+      <c r="F476" s="36"/>
+      <c r="G476" s="36"/>
+      <c r="H476" s="42"/>
+      <c r="I476" s="36"/>
+      <c r="J476" s="40"/>
+      <c r="K476" s="43"/>
+      <c r="L476" s="36"/>
+      <c r="M476" s="35"/>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A477" s="35"/>
+      <c r="B477" s="36"/>
+      <c r="C477" s="36"/>
+      <c r="D477" s="36"/>
+      <c r="E477" s="36"/>
+      <c r="F477" s="36"/>
+      <c r="G477" s="36"/>
+      <c r="H477" s="42"/>
+      <c r="I477" s="36"/>
+      <c r="J477" s="40"/>
+      <c r="K477" s="43"/>
+      <c r="L477" s="36"/>
+      <c r="M477" s="35"/>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A478" s="35"/>
+      <c r="B478" s="36"/>
+      <c r="C478" s="36"/>
+      <c r="D478" s="36"/>
+      <c r="E478" s="36"/>
+      <c r="F478" s="36"/>
+      <c r="G478" s="36"/>
+      <c r="H478" s="42"/>
+      <c r="I478" s="36"/>
+      <c r="J478" s="40"/>
+      <c r="K478" s="43"/>
+      <c r="L478" s="36"/>
+      <c r="M478" s="35"/>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A479" s="35"/>
+      <c r="B479" s="36"/>
+      <c r="C479" s="36"/>
+      <c r="D479" s="36"/>
+      <c r="E479" s="36"/>
+      <c r="F479" s="36"/>
+      <c r="G479" s="36"/>
+      <c r="H479" s="42"/>
+      <c r="I479" s="36"/>
+      <c r="J479" s="40"/>
+      <c r="K479" s="43"/>
+      <c r="L479" s="36"/>
+      <c r="M479" s="35"/>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A480" s="35"/>
+      <c r="B480" s="36"/>
+      <c r="C480" s="36"/>
+      <c r="D480" s="36"/>
+      <c r="E480" s="36"/>
+      <c r="F480" s="36"/>
+      <c r="G480" s="36"/>
+      <c r="H480" s="42"/>
+      <c r="I480" s="36"/>
+      <c r="J480" s="40"/>
+      <c r="K480" s="43"/>
+      <c r="L480" s="36"/>
+      <c r="M480" s="35"/>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A481" s="35"/>
+      <c r="B481" s="36"/>
+      <c r="C481" s="36"/>
+      <c r="D481" s="36"/>
+      <c r="E481" s="36"/>
+      <c r="F481" s="36"/>
+      <c r="G481" s="36"/>
+      <c r="H481" s="42"/>
+      <c r="I481" s="36"/>
+      <c r="J481" s="40"/>
+      <c r="K481" s="43"/>
+      <c r="L481" s="36"/>
+      <c r="M481" s="35"/>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A482" s="35"/>
+      <c r="B482" s="36"/>
+      <c r="C482" s="36"/>
+      <c r="D482" s="36"/>
+      <c r="E482" s="36"/>
+      <c r="F482" s="36"/>
+      <c r="G482" s="36"/>
+      <c r="H482" s="42"/>
+      <c r="I482" s="36"/>
+      <c r="J482" s="40"/>
+      <c r="K482" s="43"/>
+      <c r="L482" s="36"/>
+      <c r="M482" s="35"/>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A483" s="35"/>
+      <c r="B483" s="36"/>
+      <c r="C483" s="36"/>
+      <c r="D483" s="36"/>
+      <c r="E483" s="36"/>
+      <c r="F483" s="36"/>
+      <c r="G483" s="36"/>
+      <c r="H483" s="42"/>
+      <c r="I483" s="36"/>
+      <c r="J483" s="40"/>
+      <c r="K483" s="43"/>
+      <c r="L483" s="36"/>
+      <c r="M483" s="35"/>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A484" s="35"/>
+      <c r="B484" s="36"/>
+      <c r="C484" s="36"/>
+      <c r="D484" s="36"/>
+      <c r="E484" s="36"/>
+      <c r="F484" s="36"/>
+      <c r="G484" s="36"/>
+      <c r="H484" s="42"/>
+      <c r="I484" s="36"/>
+      <c r="J484" s="40"/>
+      <c r="K484" s="43"/>
+      <c r="L484" s="36"/>
+      <c r="M484" s="35"/>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A485" s="35"/>
+      <c r="B485" s="36"/>
+      <c r="C485" s="36"/>
+      <c r="D485" s="36"/>
+      <c r="E485" s="36"/>
+      <c r="F485" s="36"/>
+      <c r="G485" s="36"/>
+      <c r="H485" s="42"/>
+      <c r="I485" s="36"/>
+      <c r="J485" s="40"/>
+      <c r="K485" s="43"/>
+      <c r="L485" s="36"/>
+      <c r="M485" s="35"/>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A486" s="35"/>
+      <c r="B486" s="36"/>
+      <c r="C486" s="36"/>
+      <c r="D486" s="36"/>
+      <c r="E486" s="36"/>
+      <c r="F486" s="36"/>
+      <c r="G486" s="36"/>
+      <c r="H486" s="42"/>
+      <c r="I486" s="36"/>
+      <c r="J486" s="40"/>
+      <c r="K486" s="43"/>
+      <c r="L486" s="36"/>
+      <c r="M486" s="35"/>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A487" s="35"/>
+      <c r="B487" s="36"/>
+      <c r="C487" s="36"/>
+      <c r="D487" s="36"/>
+      <c r="E487" s="36"/>
+      <c r="F487" s="36"/>
+      <c r="G487" s="36"/>
+      <c r="H487" s="42"/>
+      <c r="I487" s="36"/>
+      <c r="J487" s="40"/>
+      <c r="K487" s="43"/>
+      <c r="L487" s="36"/>
+      <c r="M487" s="35"/>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A488" s="35"/>
+      <c r="B488" s="36"/>
+      <c r="C488" s="36"/>
+      <c r="D488" s="36"/>
+      <c r="E488" s="36"/>
+      <c r="F488" s="36"/>
+      <c r="G488" s="36"/>
+      <c r="H488" s="42"/>
+      <c r="I488" s="36"/>
+      <c r="J488" s="40"/>
+      <c r="K488" s="43"/>
+      <c r="L488" s="36"/>
+      <c r="M488" s="35"/>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A489" s="35"/>
+      <c r="B489" s="36"/>
+      <c r="C489" s="36"/>
+      <c r="D489" s="36"/>
+      <c r="E489" s="36"/>
+      <c r="F489" s="36"/>
+      <c r="G489" s="36"/>
+      <c r="H489" s="42"/>
+      <c r="I489" s="36"/>
+      <c r="J489" s="40"/>
+      <c r="K489" s="43"/>
+      <c r="L489" s="36"/>
+      <c r="M489" s="35"/>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A490" s="35"/>
+      <c r="B490" s="36"/>
+      <c r="C490" s="36"/>
+      <c r="D490" s="36"/>
+      <c r="E490" s="36"/>
+      <c r="F490" s="36"/>
+      <c r="G490" s="36"/>
+      <c r="H490" s="42"/>
+      <c r="I490" s="36"/>
+      <c r="J490" s="40"/>
+      <c r="K490" s="43"/>
+      <c r="L490" s="36"/>
+      <c r="M490" s="35"/>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A491" s="35"/>
+      <c r="B491" s="36"/>
+      <c r="C491" s="36"/>
+      <c r="D491" s="36"/>
+      <c r="E491" s="36"/>
+      <c r="F491" s="36"/>
+      <c r="G491" s="36"/>
+      <c r="H491" s="42"/>
+      <c r="I491" s="36"/>
+      <c r="J491" s="40"/>
+      <c r="K491" s="43"/>
+      <c r="L491" s="36"/>
+      <c r="M491" s="35"/>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A492" s="35"/>
+      <c r="B492" s="36"/>
+      <c r="C492" s="36"/>
+      <c r="D492" s="36"/>
+      <c r="E492" s="36"/>
+      <c r="F492" s="36"/>
+      <c r="G492" s="36"/>
+      <c r="H492" s="42"/>
+      <c r="I492" s="36"/>
+      <c r="J492" s="40"/>
+      <c r="K492" s="43"/>
+      <c r="L492" s="36"/>
+      <c r="M492" s="35"/>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A493" s="35"/>
+      <c r="B493" s="36"/>
+      <c r="C493" s="36"/>
+      <c r="D493" s="36"/>
+      <c r="E493" s="36"/>
+      <c r="F493" s="36"/>
+      <c r="G493" s="36"/>
+      <c r="H493" s="42"/>
+      <c r="I493" s="36"/>
+      <c r="J493" s="40"/>
+      <c r="K493" s="43"/>
+      <c r="L493" s="36"/>
+      <c r="M493" s="35"/>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A494" s="35"/>
+      <c r="B494" s="36"/>
+      <c r="C494" s="36"/>
+      <c r="D494" s="36"/>
+      <c r="E494" s="36"/>
+      <c r="F494" s="36"/>
+      <c r="G494" s="36"/>
+      <c r="H494" s="42"/>
+      <c r="I494" s="36"/>
+      <c r="J494" s="40"/>
+      <c r="K494" s="43"/>
+      <c r="L494" s="36"/>
+      <c r="M494" s="35"/>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A495" s="35"/>
+      <c r="B495" s="36"/>
+      <c r="C495" s="36"/>
+      <c r="D495" s="36"/>
+      <c r="E495" s="36"/>
+      <c r="F495" s="36"/>
+      <c r="G495" s="36"/>
+      <c r="H495" s="42"/>
+      <c r="I495" s="36"/>
+      <c r="J495" s="40"/>
+      <c r="K495" s="43"/>
+      <c r="L495" s="36"/>
+      <c r="M495" s="35"/>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A496" s="35"/>
+      <c r="B496" s="36"/>
+      <c r="C496" s="36"/>
+      <c r="D496" s="36"/>
+      <c r="E496" s="36"/>
+      <c r="F496" s="36"/>
+      <c r="G496" s="36"/>
+      <c r="H496" s="42"/>
+      <c r="I496" s="36"/>
+      <c r="J496" s="40"/>
+      <c r="K496" s="43"/>
+      <c r="L496" s="36"/>
+      <c r="M496" s="35"/>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A497" s="35"/>
+      <c r="B497" s="36"/>
+      <c r="C497" s="36"/>
+      <c r="D497" s="36"/>
+      <c r="E497" s="36"/>
+      <c r="F497" s="36"/>
+      <c r="G497" s="36"/>
+      <c r="H497" s="42"/>
+      <c r="I497" s="36"/>
+      <c r="J497" s="40"/>
+      <c r="K497" s="43"/>
+      <c r="L497" s="36"/>
+      <c r="M497" s="35"/>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A498" s="35"/>
+      <c r="B498" s="36"/>
+      <c r="C498" s="36"/>
+      <c r="D498" s="36"/>
+      <c r="E498" s="36"/>
+      <c r="F498" s="36"/>
+      <c r="G498" s="36"/>
+      <c r="H498" s="42"/>
+      <c r="I498" s="36"/>
+      <c r="J498" s="40"/>
+      <c r="K498" s="43"/>
+      <c r="L498" s="36"/>
+      <c r="M498" s="35"/>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A499" s="35"/>
+      <c r="B499" s="36"/>
+      <c r="C499" s="36"/>
+      <c r="D499" s="36"/>
+      <c r="E499" s="36"/>
+      <c r="F499" s="36"/>
+      <c r="G499" s="36"/>
+      <c r="H499" s="42"/>
+      <c r="I499" s="36"/>
+      <c r="J499" s="40"/>
+      <c r="K499" s="43"/>
+      <c r="L499" s="36"/>
+      <c r="M499" s="35"/>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A500" s="35"/>
+      <c r="B500" s="36"/>
+      <c r="C500" s="36"/>
+      <c r="D500" s="36"/>
+      <c r="E500" s="36"/>
+      <c r="F500" s="36"/>
+      <c r="G500" s="36"/>
+      <c r="H500" s="42"/>
+      <c r="I500" s="36"/>
+      <c r="J500" s="40"/>
+      <c r="K500" s="43"/>
+      <c r="L500" s="36"/>
+      <c r="M500" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D5:F5"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J500">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C500">
+      <formula1>"Epic,Story"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B500">
+      <formula1>"Feature,Enabler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I500">
+      <formula1>"1,2,3,5,8,13"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L500">
+      <formula1>"Initial,Scheduled,WIP,Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\AgilePM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="ProductBacklog" sheetId="2" r:id="rId2"/>
-    <sheet name="TeacherAppProdBaklog" sheetId="3" r:id="rId3"/>
+    <sheet name="OldProductBacklog" sheetId="2" r:id="rId2"/>
+    <sheet name="ProductBacklog" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ProductBacklog!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OldProductBacklog!$A$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -29,7 +24,7 @@
     <author>Sydney</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +250,7 @@
     <author>Sydney</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -441,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -476,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="218">
   <si>
     <t>Anodiam</t>
   </si>
@@ -2772,6 +2767,139 @@
   </si>
   <si>
     <t>..\ProjectExecution\BA\SpecsWireframes\004TeacherAppFunctionalSpecs.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I type anodiam.com/teacher on a web browser
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see the page: containing a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>form to log in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (for registered teachers) and also a link to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sign up as a teacher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to the teacher application.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Signup / Login page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> at the link </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>anodiam.com/teacher</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3623,7 +3751,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6177,7 +6305,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6240,24 +6368,26 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="35">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="62" t="s">
+      <c r="E2" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="62" t="s">
-        <v>203</v>
+      <c r="G2" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="H2" s="42" t="s">
         <v>214</v>
@@ -6271,23 +6401,25 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="63" t="s">
+      <c r="A3" s="35">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="36" t="s">
         <v>204</v>
       </c>
       <c r="H3" s="42" t="s">
@@ -6310,22 +6442,22 @@
     </row>
     <row r="4" spans="1:13" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="36" t="s">
         <v>205</v>
       </c>
       <c r="H4" s="36"/>
@@ -6337,18 +6469,18 @@
     </row>
     <row r="5" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="62" t="s">
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="36" t="s">
         <v>191</v>
       </c>
       <c r="H5" s="36"/>
@@ -6360,22 +6492,22 @@
     </row>
     <row r="6" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="36" t="s">
         <v>196</v>
       </c>
       <c r="H6" s="36"/>
@@ -6387,22 +6519,22 @@
     </row>
     <row r="7" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="36" t="s">
         <v>208</v>
       </c>
       <c r="H7" s="36"/>
@@ -6414,22 +6546,22 @@
     </row>
     <row r="8" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="62" t="s">
+      <c r="G8" s="36" t="s">
         <v>209</v>
       </c>
       <c r="H8" s="36"/>
@@ -6441,22 +6573,22 @@
     </row>
     <row r="9" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="36" t="s">
         <v>213</v>
       </c>
       <c r="H9" s="36"/>
@@ -6477,7 +6609,7 @@
       <c r="D10" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="36" t="s">
         <v>187</v>
       </c>
       <c r="F10" s="36" t="s">
@@ -13895,6 +14027,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="243">
   <si>
     <t>Anodiam</t>
   </si>
@@ -2899,6 +2899,1138 @@
         <family val="2"/>
       </rPr>
       <t>anodiam.com/teacher</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I key in all the mandatory and other details in the form including choosing my user id, attach my CV, accept the terms and conditions and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see a dialogue box saying that Anodiam admin will contact me. Also I should receive an email from Anodiam Admin stating the same. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can create </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for my chosen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>user id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Receive a congratulations email from Anodiam Admin about the status (acceptance) of my above teacher's expression of interest. The email should have a link to create password for my chosen user id.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Password Creation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page to create my password where "enter password", "confirm password" (both in hide / show password format) and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button will be displayed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create the password putting my details in the "enter password" and "confirm password" fields and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I create the password
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by password will be saved</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My password will be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>saved.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>As an (unsigned)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">of Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>teacher app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>visit the Signup / Login page at the link anodiam.com/teacher, key in my valid user id and password and click on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Login button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to the teacher app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sign up as teacher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Signup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> form with all its relevent fields, a control to upload my CV, Cover letter, Profile photo, the terms and conditions and a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <t>Anodiam admin app will be notified to accept or reject my teacher's expression of interest to join Anodiam.</t>
+  </si>
+  <si>
+    <t>I can start creating a new course</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create a course by clicking the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create Course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button in my </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a logged in teacher user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create Course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button in my Teacher Home page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to create a new course</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a logged in teacher user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I log into Anodiam teacher app and view my Teacher Home page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to see the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Course Titles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> gird of all the courses I have created</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">View my Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Teacher Home </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a logged in teacher user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I log into Anodiam teacher app and view my Anodiam Teacher Home page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to see the Menu Bar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I shall be forwarded to my </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I create the password and my password will be saved
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I must be forwarded to my </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I can view the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Course Titles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> gird of all the courses I have created. (Details of Course Title grid is explained in the functional specs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can view the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Menu Bar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. (Details of Menu Bar is explained in the functional specs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a logged in teacher user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I log into Anodiam Teacher App
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to see my Anodiam teacher app's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t>I can view my welcome message on top (details in Finctional Spec)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a logged in teacher user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I log into Anodiam Teache App and view my Teacher Home page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to see my Anodiam teacher app's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page with my welcome message on top (details in Finctional Spec)</t>
     </r>
   </si>
 </sst>
@@ -3197,7 +4329,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3360,6 +4492,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3643,31 +4776,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3864,11 +4997,11 @@
       <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="56"/>
       <c r="H3" s="42" t="s">
         <v>185</v>
@@ -3940,11 +5073,11 @@
       <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="56"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36">
@@ -4012,11 +5145,11 @@
       <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="59" t="s">
         <v>178</v>
       </c>
@@ -4158,11 +5291,11 @@
       <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="36" t="s">
         <v>161</v>
       </c>
@@ -4192,11 +5325,11 @@
       <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="76"/>
       <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
@@ -4318,11 +5451,11 @@
       <c r="C16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="62" t="s">
         <v>191</v>
       </c>
@@ -6299,27 +7432,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M500"/>
+  <dimension ref="A1:M502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" style="64" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="64" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" style="64" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="64" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="64" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" style="64" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" style="64" customWidth="1"/>
     <col min="7" max="7" width="58.42578125" style="64" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" style="64" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="64" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="64" customWidth="1"/>
+    <col min="9" max="9" width="9" style="64" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="64" customWidth="1"/>
     <col min="11" max="11" width="9" style="64" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" style="64" customWidth="1"/>
     <col min="13" max="13" width="10" style="64" customWidth="1"/>
@@ -6397,7 +7530,9 @@
         <v>5</v>
       </c>
       <c r="K2" s="43"/>
-      <c r="L2" s="35"/>
+      <c r="L2" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6420,20 +7555,18 @@
         <v>190</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="H3" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="I3" s="36">
-        <v>13</v>
-      </c>
+      <c r="I3" s="36"/>
       <c r="J3" s="40">
         <v>5</v>
       </c>
       <c r="K3" s="43">
-        <f t="shared" ref="K3:K11" si="0">IF(I3=0,0,J3/I3)</f>
-        <v>0.38461538461538464</v>
+        <f>IF(I3=0,0,J3/I3)</f>
+        <v>0</v>
       </c>
       <c r="L3" s="35" t="s">
         <v>24</v>
@@ -6441,7 +7574,9 @@
       <c r="M3" s="35"/>
     </row>
     <row r="4" spans="1:13" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="A4" s="35">
+        <v>3</v>
+      </c>
       <c r="B4" s="35" t="s">
         <v>17</v>
       </c>
@@ -6455,43 +7590,55 @@
         <v>199</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="40"/>
+      <c r="J4" s="40">
+        <v>2</v>
+      </c>
       <c r="K4" s="43"/>
-      <c r="L4" s="35"/>
+      <c r="L4" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="35">
+        <v>4</v>
+      </c>
       <c r="B5" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="36" t="s">
         <v>191</v>
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="40"/>
+      <c r="J5" s="40">
+        <v>2</v>
+      </c>
       <c r="K5" s="43"/>
-      <c r="L5" s="35"/>
+      <c r="L5" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="M5" s="35"/>
     </row>
-    <row r="6" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+    <row r="6" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="35">
+        <v>5</v>
+      </c>
       <c r="B6" s="35" t="s">
         <v>17</v>
       </c>
@@ -6512,13 +7659,19 @@
       </c>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="40"/>
+      <c r="J6" s="40">
+        <v>2</v>
+      </c>
       <c r="K6" s="43"/>
-      <c r="L6" s="35"/>
+      <c r="L6" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="M6" s="35"/>
     </row>
-    <row r="7" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:13" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="35">
+        <v>6</v>
+      </c>
       <c r="B7" s="35" t="s">
         <v>17</v>
       </c>
@@ -6529,23 +7682,27 @@
         <v>197</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G7" s="36" t="s">
         <v>208</v>
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="40"/>
+      <c r="J7" s="40">
+        <v>2</v>
+      </c>
       <c r="K7" s="43"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
     </row>
-    <row r="8" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+    <row r="8" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="35">
+        <v>7</v>
+      </c>
       <c r="B8" s="36" t="s">
         <v>17</v>
       </c>
@@ -6559,20 +7716,24 @@
         <v>207</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>209</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="40"/>
+      <c r="J8" s="40">
+        <v>2</v>
+      </c>
       <c r="K8" s="43"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
     </row>
-    <row r="9" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="35">
+        <v>8</v>
+      </c>
       <c r="B9" s="36" t="s">
         <v>17</v>
       </c>
@@ -6583,59 +7744,58 @@
         <v>197</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
-      <c r="J9" s="40"/>
+      <c r="J9" s="40">
+        <v>5</v>
+      </c>
       <c r="K9" s="43"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
     </row>
-    <row r="10" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35" t="s">
+    <row r="10" spans="1:13" s="65" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="35">
+        <v>9</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="36">
-        <v>13</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="40">
         <v>5</v>
       </c>
-      <c r="K10" s="43">
-        <f t="shared" si="0"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>24</v>
-      </c>
+      <c r="K10" s="43"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="35"/>
     </row>
-    <row r="11" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+    <row r="11" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35">
+        <v>10</v>
+      </c>
       <c r="B11" s="35" t="s">
         <v>17</v>
       </c>
@@ -6643,89 +7803,152 @@
         <v>19</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="H11" s="42"/>
-      <c r="I11" s="36">
-        <v>13</v>
-      </c>
+      <c r="I11" s="36"/>
       <c r="J11" s="40">
         <v>5</v>
       </c>
       <c r="K11" s="43">
-        <f t="shared" si="0"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>24</v>
-      </c>
+        <f t="shared" ref="K11:K14" si="0">IF(I11=0,0,J11/I11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="36"/>
       <c r="M11" s="35"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+    <row r="12" spans="1:13" s="65" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35">
+        <v>11</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>242</v>
+      </c>
       <c r="H12" s="42"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="40"/>
+      <c r="J12" s="40">
+        <v>5</v>
+      </c>
       <c r="K12" s="43"/>
       <c r="L12" s="36"/>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+    <row r="13" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>235</v>
+      </c>
       <c r="H13" s="42"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="40"/>
+      <c r="J13" s="40">
+        <v>5</v>
+      </c>
       <c r="K13" s="43"/>
       <c r="L13" s="36"/>
       <c r="M13" s="35"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+    <row r="14" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35">
+        <v>13</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>233</v>
+      </c>
       <c r="H14" s="42"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="43"/>
+      <c r="J14" s="40">
+        <v>5</v>
+      </c>
+      <c r="K14" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L14" s="36"/>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
+    <row r="15" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="35">
+        <v>14</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>232</v>
+      </c>
       <c r="H15" s="42"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="40"/>
+      <c r="J15" s="40">
+        <v>5</v>
+      </c>
       <c r="K15" s="43"/>
       <c r="L15" s="36"/>
       <c r="M15" s="35"/>
@@ -14005,24 +15228,54 @@
       <c r="L500" s="36"/>
       <c r="M500" s="35"/>
     </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A501" s="35"/>
+      <c r="B501" s="36"/>
+      <c r="C501" s="36"/>
+      <c r="D501" s="36"/>
+      <c r="E501" s="36"/>
+      <c r="F501" s="36"/>
+      <c r="G501" s="36"/>
+      <c r="H501" s="42"/>
+      <c r="I501" s="36"/>
+      <c r="J501" s="40"/>
+      <c r="K501" s="43"/>
+      <c r="L501" s="36"/>
+      <c r="M501" s="35"/>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A502" s="35"/>
+      <c r="B502" s="36"/>
+      <c r="C502" s="36"/>
+      <c r="D502" s="36"/>
+      <c r="E502" s="36"/>
+      <c r="F502" s="36"/>
+      <c r="G502" s="36"/>
+      <c r="H502" s="42"/>
+      <c r="I502" s="36"/>
+      <c r="J502" s="40"/>
+      <c r="K502" s="43"/>
+      <c r="L502" s="36"/>
+      <c r="M502" s="35"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D5:F5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J500">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J502">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C500">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C502">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B500">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B502">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I500">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I502">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L500">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L502">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="259">
   <si>
     <t>Anodiam</t>
   </si>
@@ -4031,6 +4031,659 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> page with my welcome message on top (details in Finctional Spec)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>As a(intending to login)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">of Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>teacher app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">visit the Signup / Login page at the link anodiam.com/teacher, get an option to create new password if forgotton and redirected to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>login page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I shall be able to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Change Password </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have forgotton or want to chage my password in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Login page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on "Forgot Password" button in Anodiam Teacher App
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to receive an Email in my valid Emai Id containing the link to go to Change/Forgot Password page in Teacher App.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the Forgot Password / Change Password link </t>
+  </si>
+  <si>
+    <r>
+      <t>I shall be able to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Change Password in the Teacher App</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have clicked on the forgotton / chage my password link in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>my Valid Email Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on "Forgot Password / Change Password" link in my valid Emai id
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to go to the Forgot Password / Change Password page in the Teacher App.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the Password </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have typed new password in the "New Password field in "Forgot Password / Change Password" page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I type the new Password 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to create a New Password  the Teacher App.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>As a(intending to Change Password)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">of Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>teacher app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>As a(intending tohave a new Password)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">of Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>teacher app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>As a(intending to have a new Password)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">of Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>teacher app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I shall be able to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Change Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Teacher App </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>through creating a new password</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirme Password </t>
+  </si>
+  <si>
+    <r>
+      <t>I shall be able to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Change Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Teacher App </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>through confirming the new password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have typed new password 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I type the new Password 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to create a New Password  in the Teacher App.</t>
     </r>
   </si>
 </sst>
@@ -4329,7 +4982,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4492,6 +5145,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4776,31 +5430,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -4997,11 +5651,11 @@
       <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="56"/>
       <c r="H3" s="42" t="s">
         <v>185</v>
@@ -5073,11 +5727,11 @@
       <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="56"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36">
@@ -5145,11 +5799,11 @@
       <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="59" t="s">
         <v>178</v>
       </c>
@@ -5291,11 +5945,11 @@
       <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="36" t="s">
         <v>161</v>
       </c>
@@ -5325,11 +5979,11 @@
       <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="75"/>
-      <c r="F12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
       <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
@@ -5451,11 +6105,11 @@
       <c r="C16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="62" t="s">
         <v>191</v>
       </c>
@@ -7432,13 +8086,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M502"/>
+  <dimension ref="A1:M506"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7459,7 +8113,7 @@
     <col min="14" max="16384" width="19.5703125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="39" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>11</v>
       </c>
@@ -7616,11 +8270,11 @@
       <c r="C5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
       <c r="G5" s="36" t="s">
         <v>191</v>
       </c>
@@ -7820,13 +8474,13 @@
         <v>5</v>
       </c>
       <c r="K11" s="43">
-        <f t="shared" ref="K11:K14" si="0">IF(I11=0,0,J11/I11)</f>
+        <f t="shared" ref="K11:K18" si="0">IF(I11=0,0,J11/I11)</f>
         <v>0</v>
       </c>
       <c r="L11" s="36"/>
       <c r="M11" s="35"/>
     </row>
-    <row r="12" spans="1:13" s="65" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="66" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -7837,78 +8491,84 @@
         <v>19</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="36"/>
       <c r="J12" s="40">
         <v>5</v>
       </c>
-      <c r="K12" s="43"/>
+      <c r="K12" s="43">
+        <f t="shared" ref="K12" si="1">IF(I12=0,0,J12/I12)</f>
+        <v>0</v>
+      </c>
       <c r="L12" s="36"/>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35">
         <v>12</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="36"/>
       <c r="J13" s="40">
         <v>5</v>
       </c>
-      <c r="K13" s="43"/>
+      <c r="K13" s="43">
+        <f t="shared" ref="K13" si="2">IF(I13=0,0,J13/I13)</f>
+        <v>0</v>
+      </c>
       <c r="L13" s="36"/>
       <c r="M13" s="35"/>
     </row>
-    <row r="14" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
         <v>13</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="36"/>
@@ -7916,99 +8576,169 @@
         <v>5</v>
       </c>
       <c r="K14" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K14" si="3">IF(I14=0,0,J14/I14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="36"/>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
         <v>14</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="H15" s="42"/>
       <c r="I15" s="36"/>
       <c r="J15" s="40">
         <v>5</v>
       </c>
-      <c r="K15" s="43"/>
+      <c r="K15" s="43">
+        <f t="shared" ref="K15" si="4">IF(I15=0,0,J15/I15)</f>
+        <v>0</v>
+      </c>
       <c r="L15" s="36"/>
       <c r="M15" s="35"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+    <row r="16" spans="1:13" s="65" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35">
+        <v>15</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>242</v>
+      </c>
       <c r="H16" s="42"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="40"/>
+      <c r="J16" s="40">
+        <v>5</v>
+      </c>
       <c r="K16" s="43"/>
       <c r="L16" s="36"/>
       <c r="M16" s="35"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
+    <row r="17" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35">
+        <v>16</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>235</v>
+      </c>
       <c r="H17" s="42"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="40"/>
+      <c r="J17" s="40">
+        <v>5</v>
+      </c>
       <c r="K17" s="43"/>
       <c r="L17" s="36"/>
       <c r="M17" s="35"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
+    <row r="18" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35">
+        <v>17</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>233</v>
+      </c>
       <c r="H18" s="42"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="43"/>
+      <c r="J18" s="40">
+        <v>5</v>
+      </c>
+      <c r="K18" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L18" s="36"/>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+    <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="35">
+        <v>18</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>232</v>
+      </c>
       <c r="H19" s="42"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="40"/>
+      <c r="J19" s="40">
+        <v>5</v>
+      </c>
       <c r="K19" s="43"/>
       <c r="L19" s="36"/>
       <c r="M19" s="35"/>
@@ -15258,24 +15988,84 @@
       <c r="L502" s="36"/>
       <c r="M502" s="35"/>
     </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A503" s="35"/>
+      <c r="B503" s="36"/>
+      <c r="C503" s="36"/>
+      <c r="D503" s="36"/>
+      <c r="E503" s="36"/>
+      <c r="F503" s="36"/>
+      <c r="G503" s="36"/>
+      <c r="H503" s="42"/>
+      <c r="I503" s="36"/>
+      <c r="J503" s="40"/>
+      <c r="K503" s="43"/>
+      <c r="L503" s="36"/>
+      <c r="M503" s="35"/>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A504" s="35"/>
+      <c r="B504" s="36"/>
+      <c r="C504" s="36"/>
+      <c r="D504" s="36"/>
+      <c r="E504" s="36"/>
+      <c r="F504" s="36"/>
+      <c r="G504" s="36"/>
+      <c r="H504" s="42"/>
+      <c r="I504" s="36"/>
+      <c r="J504" s="40"/>
+      <c r="K504" s="43"/>
+      <c r="L504" s="36"/>
+      <c r="M504" s="35"/>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A505" s="35"/>
+      <c r="B505" s="36"/>
+      <c r="C505" s="36"/>
+      <c r="D505" s="36"/>
+      <c r="E505" s="36"/>
+      <c r="F505" s="36"/>
+      <c r="G505" s="36"/>
+      <c r="H505" s="42"/>
+      <c r="I505" s="36"/>
+      <c r="J505" s="40"/>
+      <c r="K505" s="43"/>
+      <c r="L505" s="36"/>
+      <c r="M505" s="35"/>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A506" s="35"/>
+      <c r="B506" s="36"/>
+      <c r="C506" s="36"/>
+      <c r="D506" s="36"/>
+      <c r="E506" s="36"/>
+      <c r="F506" s="36"/>
+      <c r="G506" s="36"/>
+      <c r="H506" s="42"/>
+      <c r="I506" s="36"/>
+      <c r="J506" s="40"/>
+      <c r="K506" s="43"/>
+      <c r="L506" s="36"/>
+      <c r="M506" s="35"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D5:F5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J502">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J506">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C502">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C506">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B502">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B506">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I502">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I506">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L502">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L506">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="261">
   <si>
     <t>Anodiam</t>
   </si>
@@ -3244,30 +3244,6 @@
   </si>
   <si>
     <r>
-      <t>visit the Signup / Login page at the link anodiam.com/teacher, key in my valid user id and password and click on the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Login button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="10"/>
@@ -4034,91 +4010,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>As a(intending to login)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>user</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">of Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>teacher app</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">visit the Signup / Login page at the link anodiam.com/teacher, get an option to create new password if forgotton and redirected to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>login page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">Click on the Forgot Password / Change Password link </t>
   </si>
   <si>
     <r>
@@ -4132,7 +4024,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Change Password </t>
+      <t xml:space="preserve"> Change Password in the Teacher App</t>
     </r>
   </si>
   <si>
@@ -4153,17 +4045,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I have forgotton or want to chage my password in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Teacher Login page</t>
+      <t xml:space="preserve"> I have clicked on the forgotton / chage my password link in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>my Valid Email Id</t>
     </r>
     <r>
       <rPr>
@@ -4192,104 +4084,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I click on "Forgot Password" button in Anodiam Teacher App
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I shall be able to receive an Email in my valid Emai Id containing the link to go to Change/Forgot Password page in Teacher App.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the Forgot Password / Change Password link </t>
-  </si>
-  <si>
-    <r>
-      <t>I shall be able to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Change Password in the Teacher App</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I have clicked on the forgotton / chage my password link in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>my Valid Email Id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> I click on "Forgot Password / Change Password" link in my valid Emai id
 </t>
     </r>
@@ -4684,6 +4478,229 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> I shall be able to create a New Password  in the Teacher App.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>visit the Signup / Login page at anodiam.com/teacher, key in my valid user id and password and click on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Login button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>visit the Signup / Login page at anodiam.com/teacher, and find a link to create new password</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Unsigned user with forgotton password of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>teacher app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I shall be able to click the link and visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Forget Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> I shall be able to receive an Email in my valid Emai Id containing the link to go to Change/Forgot Password page in Teacher App.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have forgotton my password for Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> app
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Forgot Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link in Anodiam Teacher app, Login / Signup page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to visit the Forget Password page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">visit the Forget Password page, fill  up the required verification details and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Send Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
     </r>
   </si>
 </sst>
@@ -4982,7 +4999,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5145,6 +5162,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5430,31 +5448,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -5651,11 +5669,11 @@
       <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="56"/>
       <c r="H3" s="42" t="s">
         <v>185</v>
@@ -5727,11 +5745,11 @@
       <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="56"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36">
@@ -5799,11 +5817,11 @@
       <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="59" t="s">
         <v>178</v>
       </c>
@@ -5945,11 +5963,11 @@
       <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="36" t="s">
         <v>161</v>
       </c>
@@ -5979,11 +5997,11 @@
       <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
@@ -6105,11 +6123,11 @@
       <c r="C16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="62" t="s">
         <v>191</v>
       </c>
@@ -8086,13 +8104,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M506"/>
+  <dimension ref="A1:M507"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8209,7 +8227,7 @@
         <v>190</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H3" s="42" t="s">
         <v>215</v>
@@ -8244,7 +8262,7 @@
         <v>199</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G4" s="36" t="s">
         <v>218</v>
@@ -8270,11 +8288,11 @@
       <c r="C5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="36" t="s">
         <v>191</v>
       </c>
@@ -8432,10 +8450,10 @@
         <v>222</v>
       </c>
       <c r="F10" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>236</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>237</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
@@ -8460,13 +8478,13 @@
         <v>225</v>
       </c>
       <c r="E11" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>227</v>
-      </c>
       <c r="G11" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H11" s="42"/>
       <c r="I11" s="36"/>
@@ -8474,7 +8492,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="43">
-        <f t="shared" ref="K11:K18" si="0">IF(I11=0,0,J11/I11)</f>
+        <f t="shared" ref="K11:K19" si="0">IF(I11=0,0,J11/I11)</f>
         <v>0</v>
       </c>
       <c r="L11" s="36"/>
@@ -8491,18 +8509,20 @@
         <v>19</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="H12" s="42"/>
+        <v>259</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>258</v>
+      </c>
       <c r="I12" s="36"/>
       <c r="J12" s="40">
         <v>5</v>
@@ -8514,43 +8534,34 @@
       <c r="L12" s="36"/>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="67" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35">
         <v>12</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>249</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="42"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="40">
-        <v>5</v>
-      </c>
-      <c r="K13" s="43">
-        <f t="shared" ref="K13" si="2">IF(I13=0,0,J13/I13)</f>
-        <v>0</v>
-      </c>
+      <c r="J13" s="40"/>
+      <c r="K13" s="43"/>
       <c r="L13" s="36"/>
       <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>17</v>
@@ -8559,16 +8570,16 @@
         <v>19</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="36"/>
@@ -8576,7 +8587,7 @@
         <v>5</v>
       </c>
       <c r="K14" s="43">
-        <f t="shared" ref="K14" si="3">IF(I14=0,0,J14/I14)</f>
+        <f t="shared" ref="K14" si="2">IF(I14=0,0,J14/I14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="36"/>
@@ -8584,7 +8595,7 @@
     </row>
     <row r="15" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>17</v>
@@ -8593,16 +8604,16 @@
         <v>19</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="H15" s="42"/>
       <c r="I15" s="36"/>
@@ -8610,46 +8621,49 @@
         <v>5</v>
       </c>
       <c r="K15" s="43">
-        <f t="shared" ref="K15" si="4">IF(I15=0,0,J15/I15)</f>
+        <f t="shared" ref="K15" si="3">IF(I15=0,0,J15/I15)</f>
         <v>0</v>
       </c>
       <c r="L15" s="36"/>
       <c r="M15" s="35"/>
     </row>
-    <row r="16" spans="1:13" s="65" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="36"/>
       <c r="J16" s="40">
         <v>5</v>
       </c>
-      <c r="K16" s="43"/>
+      <c r="K16" s="43">
+        <f t="shared" ref="K16" si="4">IF(I16=0,0,J16/I16)</f>
+        <v>0</v>
+      </c>
       <c r="L16" s="36"/>
       <c r="M16" s="35"/>
     </row>
-    <row r="17" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="65" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>17</v>
@@ -8661,13 +8675,13 @@
         <v>180</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="36"/>
@@ -8678,9 +8692,9 @@
       <c r="L17" s="36"/>
       <c r="M17" s="35"/>
     </row>
-    <row r="18" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>17</v>
@@ -8692,44 +8706,41 @@
         <v>180</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>238</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="36"/>
       <c r="J18" s="40">
         <v>5</v>
       </c>
-      <c r="K18" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K18" s="43"/>
       <c r="L18" s="36"/>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
-        <v>18</v>
-      </c>
-      <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="B19" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>180</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>232</v>
@@ -8739,21 +8750,40 @@
       <c r="J19" s="40">
         <v>5</v>
       </c>
-      <c r="K19" s="43"/>
+      <c r="K19" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L19" s="36"/>
       <c r="M19" s="35"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+    <row r="20" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="35">
+        <v>18</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>231</v>
+      </c>
       <c r="H20" s="42"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="40"/>
+      <c r="J20" s="40">
+        <v>5</v>
+      </c>
       <c r="K20" s="43"/>
       <c r="L20" s="36"/>
       <c r="M20" s="35"/>
@@ -16048,24 +16078,39 @@
       <c r="L506" s="36"/>
       <c r="M506" s="35"/>
     </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A507" s="35"/>
+      <c r="B507" s="36"/>
+      <c r="C507" s="36"/>
+      <c r="D507" s="36"/>
+      <c r="E507" s="36"/>
+      <c r="F507" s="36"/>
+      <c r="G507" s="36"/>
+      <c r="H507" s="42"/>
+      <c r="I507" s="36"/>
+      <c r="J507" s="40"/>
+      <c r="K507" s="43"/>
+      <c r="L507" s="36"/>
+      <c r="M507" s="35"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D5:F5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J506">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J507">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C506">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C507">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B506">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B507">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I506">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I507">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L506">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L507">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="259">
   <si>
     <t>Anodiam</t>
   </si>
@@ -3244,6 +3244,30 @@
   </si>
   <si>
     <r>
+      <t>visit the Signup / Login page at the link anodiam.com/teacher, key in my valid user id and password and click on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Login button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="10"/>
@@ -4010,7 +4034,91 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Click on the Forgot Password / Change Password link </t>
+    <r>
+      <t>As a(intending to login)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">of Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>teacher app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">visit the Signup / Login page at the link anodiam.com/teacher, get an option to create new password if forgotton and redirected to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>login page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <r>
@@ -4024,7 +4132,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Change Password in the Teacher App</t>
+      <t xml:space="preserve"> Change Password </t>
     </r>
   </si>
   <si>
@@ -4045,17 +4153,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I have clicked on the forgotton / chage my password link in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>my Valid Email Id</t>
+      <t xml:space="preserve"> I have forgotton or want to chage my password in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Login page</t>
     </r>
     <r>
       <rPr>
@@ -4084,6 +4192,104 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> I click on "Forgot Password" button in Anodiam Teacher App
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to receive an Email in my valid Emai Id containing the link to go to Change/Forgot Password page in Teacher App.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the Forgot Password / Change Password link </t>
+  </si>
+  <si>
+    <r>
+      <t>I shall be able to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Change Password in the Teacher App</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have clicked on the forgotton / chage my password link in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>my Valid Email Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> I click on "Forgot Password / Change Password" link in my valid Emai id
 </t>
     </r>
@@ -4478,229 +4684,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> I shall be able to create a New Password  in the Teacher App.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>visit the Signup / Login page at anodiam.com/teacher, key in my valid user id and password and click on the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Login button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>visit the Signup / Login page at anodiam.com/teacher, and find a link to create new password</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Unsigned user with forgotton password of</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>teacher app</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I shall be able to click the link and visit the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Forget Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> I shall be able to receive an Email in my valid Emai Id containing the link to go to Change/Forgot Password page in Teacher App.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I have forgotton my password for Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Teacher</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> app
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Forgot Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link in Anodiam Teacher app, Login / Signup page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I shall be able to visit the Forget Password page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">visit the Forget Password page, fill  up the required verification details and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Send Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button</t>
     </r>
   </si>
 </sst>
@@ -4999,7 +4982,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5162,7 +5145,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5448,31 +5430,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -5669,11 +5651,11 @@
       <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="56"/>
       <c r="H3" s="42" t="s">
         <v>185</v>
@@ -5745,11 +5727,11 @@
       <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="56"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36">
@@ -5817,11 +5799,11 @@
       <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="59" t="s">
         <v>178</v>
       </c>
@@ -5963,11 +5945,11 @@
       <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="36" t="s">
         <v>161</v>
       </c>
@@ -5997,11 +5979,11 @@
       <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="78"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
       <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
@@ -6123,11 +6105,11 @@
       <c r="C16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="75"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="62" t="s">
         <v>191</v>
       </c>
@@ -8104,13 +8086,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M507"/>
+  <dimension ref="A1:M506"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8227,7 +8209,7 @@
         <v>190</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H3" s="42" t="s">
         <v>215</v>
@@ -8262,7 +8244,7 @@
         <v>199</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G4" s="36" t="s">
         <v>218</v>
@@ -8288,11 +8270,11 @@
       <c r="C5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="78"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
       <c r="G5" s="36" t="s">
         <v>191</v>
       </c>
@@ -8450,10 +8432,10 @@
         <v>222</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
@@ -8478,13 +8460,13 @@
         <v>225</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H11" s="42"/>
       <c r="I11" s="36"/>
@@ -8492,7 +8474,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="43">
-        <f t="shared" ref="K11:K19" si="0">IF(I11=0,0,J11/I11)</f>
+        <f t="shared" ref="K11:K18" si="0">IF(I11=0,0,J11/I11)</f>
         <v>0</v>
       </c>
       <c r="L11" s="36"/>
@@ -8509,20 +8491,18 @@
         <v>19</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>258</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="H12" s="42"/>
       <c r="I12" s="36"/>
       <c r="J12" s="40">
         <v>5</v>
@@ -8534,34 +8514,43 @@
       <c r="L12" s="36"/>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:13" s="67" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35">
         <v>12</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+        <v>247</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>249</v>
+      </c>
       <c r="H13" s="42"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="43"/>
+      <c r="J13" s="40">
+        <v>5</v>
+      </c>
+      <c r="K13" s="43">
+        <f t="shared" ref="K13" si="2">IF(I13=0,0,J13/I13)</f>
+        <v>0</v>
+      </c>
       <c r="L13" s="36"/>
       <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>17</v>
@@ -8570,16 +8559,16 @@
         <v>19</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="36"/>
@@ -8587,7 +8576,7 @@
         <v>5</v>
       </c>
       <c r="K14" s="43">
-        <f t="shared" ref="K14" si="2">IF(I14=0,0,J14/I14)</f>
+        <f t="shared" ref="K14" si="3">IF(I14=0,0,J14/I14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="36"/>
@@ -8595,7 +8584,7 @@
     </row>
     <row r="15" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>17</v>
@@ -8604,16 +8593,16 @@
         <v>19</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="H15" s="42"/>
       <c r="I15" s="36"/>
@@ -8621,49 +8610,46 @@
         <v>5</v>
       </c>
       <c r="K15" s="43">
-        <f t="shared" ref="K15" si="3">IF(I15=0,0,J15/I15)</f>
+        <f t="shared" ref="K15" si="4">IF(I15=0,0,J15/I15)</f>
         <v>0</v>
       </c>
       <c r="L15" s="36"/>
       <c r="M15" s="35"/>
     </row>
-    <row r="16" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="65" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="36"/>
       <c r="J16" s="40">
         <v>5</v>
       </c>
-      <c r="K16" s="43">
-        <f t="shared" ref="K16" si="4">IF(I16=0,0,J16/I16)</f>
-        <v>0</v>
-      </c>
+      <c r="K16" s="43"/>
       <c r="L16" s="36"/>
       <c r="M16" s="35"/>
     </row>
-    <row r="17" spans="1:13" s="65" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>17</v>
@@ -8675,13 +8661,13 @@
         <v>180</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="36"/>
@@ -8692,9 +8678,9 @@
       <c r="L17" s="36"/>
       <c r="M17" s="35"/>
     </row>
-    <row r="18" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>17</v>
@@ -8706,41 +8692,44 @@
         <v>180</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>238</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="36"/>
       <c r="J18" s="40">
         <v>5</v>
       </c>
-      <c r="K18" s="43"/>
+      <c r="K18" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L18" s="36"/>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
+        <v>18</v>
+      </c>
+      <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>180</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>232</v>
@@ -8750,40 +8739,21 @@
       <c r="J19" s="40">
         <v>5</v>
       </c>
-      <c r="K19" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K19" s="43"/>
       <c r="L19" s="36"/>
       <c r="M19" s="35"/>
     </row>
-    <row r="20" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="35">
-        <v>18</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>231</v>
-      </c>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="42"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="40">
-        <v>5</v>
-      </c>
+      <c r="J20" s="40"/>
       <c r="K20" s="43"/>
       <c r="L20" s="36"/>
       <c r="M20" s="35"/>
@@ -16078,39 +16048,24 @@
       <c r="L506" s="36"/>
       <c r="M506" s="35"/>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A507" s="35"/>
-      <c r="B507" s="36"/>
-      <c r="C507" s="36"/>
-      <c r="D507" s="36"/>
-      <c r="E507" s="36"/>
-      <c r="F507" s="36"/>
-      <c r="G507" s="36"/>
-      <c r="H507" s="42"/>
-      <c r="I507" s="36"/>
-      <c r="J507" s="40"/>
-      <c r="K507" s="43"/>
-      <c r="L507" s="36"/>
-      <c r="M507" s="35"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D5:F5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J507">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J506">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C507">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C506">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B507">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B506">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I507">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I506">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L507">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L506">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -15,6 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OldProductBacklog!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -471,7 +472,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="284">
   <si>
     <t>Anodiam</t>
   </si>
@@ -4701,6 +4702,855 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the link to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Forgot Password/Change Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to get a message asking for my valid Email Id.</t>
+    </r>
+  </si>
+  <si>
+    <t>Click on the link to change my password</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Password Creation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Forgot Password/Change Password Hyperlink</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> will be displayed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Provide my valid Email Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Email Id can be validated </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I provide my valid Email Id 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to get Email with the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Password Reset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link.</t>
+    </r>
+  </si>
+  <si>
+    <t>Click on the Password Reset Link in my Valid Email</t>
+  </si>
+  <si>
+    <t>I can go to the Create Password page.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Reset Password Link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in my valid Email 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to go to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create Password Page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in Teacher app.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> New Password Field </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to Create my </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>New Password</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm the Password </t>
+  </si>
+  <si>
+    <t>I can Create my New Password</t>
+  </si>
+  <si>
+    <t>I can Confirm the New Password</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I repeat the Password in the Confirm Password Field 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to write the new Password again in the Confirm Password Field.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit the Password </t>
+  </si>
+  <si>
+    <t>I can Submit the New Password</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the Submit Button 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to Create my New Password.</t>
+    </r>
+  </si>
+  <si>
+    <t>Click on the Login Button</t>
+  </si>
+  <si>
+    <t>I can Login</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Login Button </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to Go to the Login Page of Anodiam Teacher App</t>
+    </r>
+  </si>
+  <si>
+    <t>Login with the New Password</t>
+  </si>
+  <si>
+    <t>I can Login into My Home Page in Teacher app</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Provide my valid login details
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to Go to the My Teacher Home page of Anodiam Teacher App</t>
     </r>
   </si>
 </sst>
@@ -4999,7 +5849,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5162,6 +6012,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5448,31 +6299,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -5669,11 +6520,11 @@
       <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="56"/>
       <c r="H3" s="42" t="s">
         <v>185</v>
@@ -5745,11 +6596,11 @@
       <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="56"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36">
@@ -5817,11 +6668,11 @@
       <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="85"/>
       <c r="G7" s="59" t="s">
         <v>178</v>
       </c>
@@ -5963,11 +6814,11 @@
       <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="36" t="s">
         <v>161</v>
       </c>
@@ -5997,11 +6848,11 @@
       <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
@@ -6123,11 +6974,11 @@
       <c r="C16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="62" t="s">
         <v>191</v>
       </c>
@@ -8104,13 +8955,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M507"/>
+  <dimension ref="A1:M515"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8288,11 +9139,11 @@
       <c r="C5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="36" t="s">
         <v>191</v>
       </c>
@@ -8402,9 +9253,9 @@
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
     </row>
-    <row r="9" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" s="35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>17</v>
@@ -8416,26 +9267,26 @@
         <v>197</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K9" s="43"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
     </row>
-    <row r="10" spans="1:13" s="65" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>17</v>
@@ -8447,285 +9298,254 @@
         <v>197</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K10" s="43"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
     </row>
-    <row r="11" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="35">
-        <v>10</v>
-      </c>
-      <c r="B11" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="H11" s="42"/>
+        <v>269</v>
+      </c>
+      <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="40">
-        <v>5</v>
-      </c>
-      <c r="K11" s="43">
-        <f t="shared" ref="K11:K19" si="0">IF(I11=0,0,J11/I11)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="36"/>
+        <v>2</v>
+      </c>
+      <c r="K11" s="43"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="35"/>
     </row>
-    <row r="12" spans="1:13" s="66" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35">
-        <v>11</v>
-      </c>
-      <c r="B12" s="35" t="s">
+    <row r="12" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>258</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="H12" s="36"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="40">
-        <v>5</v>
-      </c>
-      <c r="K12" s="43">
-        <f t="shared" ref="K12" si="1">IF(I12=0,0,J12/I12)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="36"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="35"/>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:13" s="67" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35">
-        <v>12</v>
-      </c>
-      <c r="B13" s="35" t="s">
+    <row r="13" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="42"/>
+        <v>271</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="40"/>
       <c r="K13" s="43"/>
-      <c r="L13" s="36"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="35"/>
     </row>
-    <row r="14" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35">
-        <v>12</v>
-      </c>
-      <c r="B14" s="35" t="s">
+    <row r="14" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="H14" s="42"/>
+        <v>277</v>
+      </c>
+      <c r="H14" s="36"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="40">
-        <v>5</v>
-      </c>
-      <c r="K14" s="43">
-        <f t="shared" ref="K14" si="2">IF(I14=0,0,J14/I14)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="36"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35">
-        <v>13</v>
-      </c>
-      <c r="B15" s="35" t="s">
+    <row r="15" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="H15" s="42"/>
+        <v>280</v>
+      </c>
+      <c r="H15" s="36"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="40">
-        <v>5</v>
-      </c>
-      <c r="K15" s="43">
-        <f t="shared" ref="K15" si="3">IF(I15=0,0,J15/I15)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="36"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="35"/>
     </row>
-    <row r="16" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35">
-        <v>14</v>
-      </c>
-      <c r="B16" s="35" t="s">
+    <row r="16" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="H16" s="42"/>
+        <v>283</v>
+      </c>
+      <c r="H16" s="36"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="40">
-        <v>5</v>
-      </c>
-      <c r="K16" s="43">
-        <f t="shared" ref="K16" si="4">IF(I16=0,0,J16/I16)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="36"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="35"/>
       <c r="M16" s="35"/>
     </row>
-    <row r="17" spans="1:13" s="65" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A17" s="35">
-        <v>15</v>
-      </c>
-      <c r="B17" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="H17" s="42"/>
+        <v>223</v>
+      </c>
+      <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="40">
         <v>5</v>
       </c>
       <c r="K17" s="43"/>
-      <c r="L17" s="36"/>
+      <c r="L17" s="35"/>
       <c r="M17" s="35"/>
     </row>
-    <row r="18" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="65" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
-        <v>16</v>
-      </c>
-      <c r="B18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="H18" s="42"/>
+        <v>236</v>
+      </c>
+      <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="40">
         <v>5</v>
       </c>
       <c r="K18" s="43"/>
-      <c r="L18" s="36"/>
+      <c r="L18" s="35"/>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>17</v>
@@ -8734,16 +9554,16 @@
         <v>19</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="36"/>
@@ -8751,49 +9571,64 @@
         <v>5</v>
       </c>
       <c r="K19" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K19:K27" si="0">IF(I19=0,0,J19/I19)</f>
         <v>0</v>
       </c>
       <c r="L19" s="36"/>
       <c r="M19" s="35"/>
     </row>
-    <row r="20" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="66" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35">
-        <v>18</v>
-      </c>
-      <c r="B20" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H20" s="42"/>
+        <v>259</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>258</v>
+      </c>
       <c r="I20" s="36"/>
       <c r="J20" s="40">
         <v>5</v>
       </c>
-      <c r="K20" s="43"/>
+      <c r="K20" s="43">
+        <f t="shared" ref="K20" si="1">IF(I20=0,0,J20/I20)</f>
+        <v>0</v>
+      </c>
       <c r="L20" s="36"/>
       <c r="M20" s="35"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
+    <row r="21" spans="1:13" s="67" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="35">
+        <v>12</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>260</v>
+      </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
       <c r="H21" s="42"/>
@@ -8803,107 +9638,231 @@
       <c r="L21" s="36"/>
       <c r="M21" s="35"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
+    <row r="22" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="35">
+        <v>12</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>244</v>
+      </c>
       <c r="H22" s="42"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="43"/>
+      <c r="J22" s="40">
+        <v>5</v>
+      </c>
+      <c r="K22" s="43">
+        <f t="shared" ref="K22" si="2">IF(I22=0,0,J22/I22)</f>
+        <v>0</v>
+      </c>
       <c r="L22" s="36"/>
       <c r="M22" s="35"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+    <row r="23" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="35">
+        <v>13</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>246</v>
+      </c>
       <c r="H23" s="42"/>
       <c r="I23" s="36"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="43"/>
+      <c r="J23" s="40">
+        <v>5</v>
+      </c>
+      <c r="K23" s="43">
+        <f t="shared" ref="K23" si="3">IF(I23=0,0,J23/I23)</f>
+        <v>0</v>
+      </c>
       <c r="L23" s="36"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+    <row r="24" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="35">
+        <v>14</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>253</v>
+      </c>
       <c r="H24" s="42"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="43"/>
+      <c r="J24" s="40">
+        <v>5</v>
+      </c>
+      <c r="K24" s="43">
+        <f t="shared" ref="K24" si="4">IF(I24=0,0,J24/I24)</f>
+        <v>0</v>
+      </c>
       <c r="L24" s="36"/>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
+    <row r="25" spans="1:13" s="65" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="35">
+        <v>15</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>241</v>
+      </c>
       <c r="H25" s="42"/>
       <c r="I25" s="36"/>
-      <c r="J25" s="40"/>
+      <c r="J25" s="40">
+        <v>5</v>
+      </c>
       <c r="K25" s="43"/>
       <c r="L25" s="36"/>
       <c r="M25" s="35"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
+    <row r="26" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="35">
+        <v>16</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>234</v>
+      </c>
       <c r="H26" s="42"/>
       <c r="I26" s="36"/>
-      <c r="J26" s="40"/>
+      <c r="J26" s="40">
+        <v>5</v>
+      </c>
       <c r="K26" s="43"/>
       <c r="L26" s="36"/>
       <c r="M26" s="35"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
+    <row r="27" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="35">
+        <v>17</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>232</v>
+      </c>
       <c r="H27" s="42"/>
       <c r="I27" s="36"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="43"/>
+      <c r="J27" s="40">
+        <v>5</v>
+      </c>
+      <c r="K27" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L27" s="36"/>
       <c r="M27" s="35"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+    <row r="28" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="35">
+        <v>18</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>231</v>
+      </c>
       <c r="H28" s="42"/>
       <c r="I28" s="36"/>
-      <c r="J28" s="40"/>
+      <c r="J28" s="40">
+        <v>5</v>
+      </c>
       <c r="K28" s="43"/>
       <c r="L28" s="36"/>
       <c r="M28" s="35"/>
@@ -16093,24 +17052,144 @@
       <c r="L507" s="36"/>
       <c r="M507" s="35"/>
     </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A508" s="35"/>
+      <c r="B508" s="36"/>
+      <c r="C508" s="36"/>
+      <c r="D508" s="36"/>
+      <c r="E508" s="36"/>
+      <c r="F508" s="36"/>
+      <c r="G508" s="36"/>
+      <c r="H508" s="42"/>
+      <c r="I508" s="36"/>
+      <c r="J508" s="40"/>
+      <c r="K508" s="43"/>
+      <c r="L508" s="36"/>
+      <c r="M508" s="35"/>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A509" s="35"/>
+      <c r="B509" s="36"/>
+      <c r="C509" s="36"/>
+      <c r="D509" s="36"/>
+      <c r="E509" s="36"/>
+      <c r="F509" s="36"/>
+      <c r="G509" s="36"/>
+      <c r="H509" s="42"/>
+      <c r="I509" s="36"/>
+      <c r="J509" s="40"/>
+      <c r="K509" s="43"/>
+      <c r="L509" s="36"/>
+      <c r="M509" s="35"/>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A510" s="35"/>
+      <c r="B510" s="36"/>
+      <c r="C510" s="36"/>
+      <c r="D510" s="36"/>
+      <c r="E510" s="36"/>
+      <c r="F510" s="36"/>
+      <c r="G510" s="36"/>
+      <c r="H510" s="42"/>
+      <c r="I510" s="36"/>
+      <c r="J510" s="40"/>
+      <c r="K510" s="43"/>
+      <c r="L510" s="36"/>
+      <c r="M510" s="35"/>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A511" s="35"/>
+      <c r="B511" s="36"/>
+      <c r="C511" s="36"/>
+      <c r="D511" s="36"/>
+      <c r="E511" s="36"/>
+      <c r="F511" s="36"/>
+      <c r="G511" s="36"/>
+      <c r="H511" s="42"/>
+      <c r="I511" s="36"/>
+      <c r="J511" s="40"/>
+      <c r="K511" s="43"/>
+      <c r="L511" s="36"/>
+      <c r="M511" s="35"/>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A512" s="35"/>
+      <c r="B512" s="36"/>
+      <c r="C512" s="36"/>
+      <c r="D512" s="36"/>
+      <c r="E512" s="36"/>
+      <c r="F512" s="36"/>
+      <c r="G512" s="36"/>
+      <c r="H512" s="42"/>
+      <c r="I512" s="36"/>
+      <c r="J512" s="40"/>
+      <c r="K512" s="43"/>
+      <c r="L512" s="36"/>
+      <c r="M512" s="35"/>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A513" s="35"/>
+      <c r="B513" s="36"/>
+      <c r="C513" s="36"/>
+      <c r="D513" s="36"/>
+      <c r="E513" s="36"/>
+      <c r="F513" s="36"/>
+      <c r="G513" s="36"/>
+      <c r="H513" s="42"/>
+      <c r="I513" s="36"/>
+      <c r="J513" s="40"/>
+      <c r="K513" s="43"/>
+      <c r="L513" s="36"/>
+      <c r="M513" s="35"/>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A514" s="35"/>
+      <c r="B514" s="36"/>
+      <c r="C514" s="36"/>
+      <c r="D514" s="36"/>
+      <c r="E514" s="36"/>
+      <c r="F514" s="36"/>
+      <c r="G514" s="36"/>
+      <c r="H514" s="42"/>
+      <c r="I514" s="36"/>
+      <c r="J514" s="40"/>
+      <c r="K514" s="43"/>
+      <c r="L514" s="36"/>
+      <c r="M514" s="35"/>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A515" s="35"/>
+      <c r="B515" s="36"/>
+      <c r="C515" s="36"/>
+      <c r="D515" s="36"/>
+      <c r="E515" s="36"/>
+      <c r="F515" s="36"/>
+      <c r="G515" s="36"/>
+      <c r="H515" s="42"/>
+      <c r="I515" s="36"/>
+      <c r="J515" s="40"/>
+      <c r="K515" s="43"/>
+      <c r="L515" s="36"/>
+      <c r="M515" s="35"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D5:F5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J507">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J515">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C507">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C515">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B507">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B515">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I507">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I515">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L507">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L515">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -15,7 +15,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OldProductBacklog!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -8958,7 +8957,7 @@
   <dimension ref="A1:M515"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G16" sqref="G16"/>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="283">
   <si>
     <t>Anodiam</t>
   </si>
@@ -2770,6 +2770,1326 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Signup / Login page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> at the link </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>anodiam.com/teacher</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can create </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for my chosen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>user id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Receive a congratulations email from Anodiam Admin about the status (acceptance) of my above teacher's expression of interest. The email should have a link to create password for my chosen user id.</t>
+  </si>
+  <si>
+    <t>Anodiam admin app will be notified to accept or reject my teacher's expression of interest to join Anodiam.</t>
+  </si>
+  <si>
+    <t>I can start creating a new course</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create a course by clicking the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create Course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button in my </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a logged in teacher user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create Course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button in my Teacher Home page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to create a new course</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a logged in teacher user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I log into Anodiam teacher app and view my Teacher Home page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to see the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Course Titles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> gird of all the courses I have created</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">View my Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Teacher Home </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a logged in teacher user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I log into Anodiam teacher app and view my Anodiam Teacher Home page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to see the Menu Bar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I can view the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Course Titles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> gird of all the courses I have created. (Details of Course Title grid is explained in the functional specs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can view the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Menu Bar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. (Details of Menu Bar is explained in the functional specs)</t>
+    </r>
+  </si>
+  <si>
+    <t>I can view my welcome message on top (details in Finctional Spec)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a logged in teacher user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I log into Anodiam Teache App and view my Teacher Home page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to see my Anodiam teacher app's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page with my welcome message on top (details in Finctional Spec)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the Forgot Password / Change Password link </t>
+  </si>
+  <si>
+    <r>
+      <t>I shall be able to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Change Password in the Teacher App</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have clicked on the forgotton / chage my password link in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>my Valid Email Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on "Forgot Password / Change Password" link in my valid Emai id
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to go to the Forgot Password / Change Password page in the Teacher App.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the Password </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have typed new password in the "New Password field in "Forgot Password / Change Password" page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I type the new Password 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to create a New Password  the Teacher App.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>As a(intending to Change Password)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">of Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>teacher app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>As a(intending tohave a new Password)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">of Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>teacher app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>As a(intending to have a new Password)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">of Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>teacher app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I shall be able to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Change Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Teacher App </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>through creating a new password</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirme Password </t>
+  </si>
+  <si>
+    <r>
+      <t>I shall be able to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Change Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Teacher App </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>through confirming the new password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have typed new password 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I type the new Password 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to create a New Password  in the Teacher App.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>visit the Signup / Login page at anodiam.com/teacher, and find a link to create new password</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Unsigned user with forgotton password of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>teacher app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I shall be able to click the link and visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Forget Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have forgotton my password for Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> app
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Forgot Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link in Anodiam Teacher app, Login / Signup page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to visit the Forget Password page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">visit the Forget Password page, fill  up the required verification details and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Send Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <t>Click on the Password Reset Link in my Valid Email</t>
+  </si>
+  <si>
+    <t>I can go to the Create Password page.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Reset Password Link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in my valid Email 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to go to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create Password Page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in Teacher app.</t>
+    </r>
+  </si>
+  <si>
+    <t>I can view link to sign up (for teacher registration) and a form to login (for registered teachers) and a link to Forget/Change password</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Unsigned User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (intending to be teacher)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="10"/>
@@ -2806,6 +4126,129 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> I click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sign up here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link on the Signup / Login page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Signup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> form.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Click on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sign up here </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>link on the Signup / Login page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> I type anodiam.com/teacher on a web browser
 </t>
     </r>
@@ -2826,17 +4269,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be able to see the page: containing a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>form to log in</t>
+      <t xml:space="preserve"> I should be able to see the page: containing a form to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> log in</t>
     </r>
     <r>
       <rPr>
@@ -2855,7 +4298,45 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Sign up as a teacher</t>
+      <t xml:space="preserve">Sign up here </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>as a teacher</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>and another link to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Forget/Change password</t>
     </r>
     <r>
       <rPr>
@@ -2869,37 +4350,73 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">visit the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Signup / Login page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> at the link </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>anodiam.com/teacher</t>
-    </r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button in the Teacher Signup form after filling up the relevent fields</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check availability of my entered user name in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> field in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Teacher Signup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>form</t>
+    </r>
+  </si>
+  <si>
+    <t>I can check whether the Teacher Id is available or not</t>
   </si>
   <si>
     <r>
@@ -2939,7 +4456,71 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I key in all the mandatory and other details in the form including choosing my user id, attach my CV, accept the terms and conditions and click on the </t>
+      <t xml:space="preserve"> I entere user name in the Teacher Id field in the Teacher Signup form
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to check whether the Teacher Id is available or not.</t>
+    </r>
+  </si>
+  <si>
+    <t>I should be able to see a message on the same Teachers Signup form saying that Anodiam admin will contact me.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I key in all the mandatory and other details in the Teachers Signup form click on the </t>
     </r>
     <r>
       <rPr>
@@ -2978,54 +4559,171 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be able to see a dialogue box saying that Anodiam admin will contact me. Also I should receive an email from Anodiam Admin stating the same. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can create </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> for my chosen </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>user id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Receive a congratulations email from Anodiam Admin about the status (acceptance) of my above teacher's expression of interest. The email should have a link to create password for my chosen user id.</t>
+      <t xml:space="preserve"> I should be able to see a message on the same Teachers Signup form saying that Anodiam admin will contact me.</t>
+    </r>
+  </si>
+  <si>
+    <t>I should receive an email from Anodiam Admin stating that they have been notified and they will contact me soon.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I key in all the mandatory and other details in the Teachers Signup form click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to receive an email from Anodiam Admin stating that they have been notified and they will contact me soon.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I key in all the mandatory and other details in the Teachers Signup form click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Anodiam admin app will be notified to accept or reject my teacher's expression of interest to join Anodiam.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3039,59 +4737,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Password Creation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> page to create my password where "enter password", "confirm password" (both in hide / show password format) and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>submit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button will be displayed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create the password putting my details in the "enter password" and "confirm password" fields and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>submit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button.</t>
+      <t xml:space="preserve">Create Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page to create my password.</t>
     </r>
   </si>
   <si>
@@ -3151,7 +4806,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I create the password
+      <t xml:space="preserve"> I click on the link to visit the page to create password for my user id
 </t>
     </r>
     <r>
@@ -3171,254 +4826,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> by password will be saved</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">My password will be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>saved.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>As an (unsigned)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>user</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">of Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>teacher app</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to the teacher app</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sign up as teacher</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to see the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Teacher Signup</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> form with all its relevent fields, a control to upload my CV, Cover letter, Profile photo, the terms and conditions and a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>submit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <t>Anodiam admin app will be notified to accept or reject my teacher's expression of interest to join Anodiam.</t>
-  </si>
-  <si>
-    <t>I can start creating a new course</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create a course by clicking the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Create Course</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button in my </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Teacher Home</t>
+      <t xml:space="preserve"> I should be able to visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create Password</t>
     </r>
     <r>
       <rPr>
@@ -3432,271 +4850,69 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am a logged in teacher user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Create Course</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button in my Teacher Home page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I shall be able to create a new course</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am a logged in teacher user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I log into Anodiam teacher app and view my Teacher Home page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I shall be able to see the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Course Titles</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> gird of all the courses I have created</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">View my Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Teacher Home </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am a logged in teacher user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I log into Anodiam teacher app and view my Anodiam Teacher Home page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I shall be able to see the Menu Bar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I shall be forwarded to my </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Teacher Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> page.</t>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Forget Password/Change Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sign up / Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Page </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Forgot Password/Change Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page.</t>
     </r>
   </si>
   <si>
@@ -3756,306 +4972,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I create the password and my password will be saved
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I must be forwarded to my </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Teacher Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> page.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>I can view the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Course Titles</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> gird of all the courses I have created. (Details of Course Title grid is explained in the functional specs)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can view the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Menu Bar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. (Details of Menu Bar is explained in the functional specs)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am a logged in teacher user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I log into Anodiam Teacher App
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I shall be able to see my Anodiam teacher app's </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Teacher Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
-    <t>I can view my welcome message on top (details in Finctional Spec)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am a logged in teacher user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I log into Anodiam Teache App and view my Teacher Home page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I shall be able to see my Anodiam teacher app's </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Teacher Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> page with my welcome message on top (details in Finctional Spec)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the Forgot Password / Change Password link </t>
-  </si>
-  <si>
-    <r>
-      <t>I shall be able to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Change Password in the Teacher App</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I have clicked on the forgotton / chage my password link in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>my Valid Email Id</t>
+      <t xml:space="preserve"> I click on the link to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Forgot Password/Change Password </t>
     </r>
     <r>
       <rPr>
@@ -4075,26 +5002,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click on "Forgot Password / Change Password" link in my valid Emai id
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Then</t>
     </r>
     <r>
@@ -4104,603 +5011,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I shall be able to go to the Forgot Password / Change Password page in the Teacher App.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Change the Password </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I have typed new password in the "New Password field in "Forgot Password / Change Password" page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I type the new Password 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I shall be able to create a New Password  the Teacher App.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>As a(intending to Change Password)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>user</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">of Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>teacher app</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>As a(intending tohave a new Password)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>user</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">of Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>teacher app</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>As a(intending to have a new Password)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>user</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">of Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>teacher app</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>I shall be able to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Change Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Teacher App </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>through creating a new password</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirme Password </t>
-  </si>
-  <si>
-    <r>
-      <t>I shall be able to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Change Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Teacher App </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>through confirming the new password</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I have typed new password 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I type the new Password 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I shall be able to create a New Password  in the Teacher App.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>visit the Signup / Login page at anodiam.com/teacher, key in my valid user id and password and click on the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Login button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>visit the Signup / Login page at anodiam.com/teacher, and find a link to create new password</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Unsigned user with forgotton password of</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>teacher app</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I shall be able to click the link and visit the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Forget Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> I shall be able to receive an Email in my valid Emai Id containing the link to go to Change/Forgot Password page in Teacher App.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I have forgotton my password for Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Teacher</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> app
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Forgot Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link in Anodiam Teacher app, Login / Signup page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I shall be able to visit the Forget Password page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">visit the Forget Password page, fill  up the required verification details and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Send Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button</t>
+      <t xml:space="preserve"> I should be able to visit the Forgot Password/Change Password page.</t>
     </r>
   </si>
   <si>
@@ -4760,17 +5071,169 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I click on the link to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Forgot Password/Change Password </t>
+      <t xml:space="preserve"> I Provide my valid identification details including my registered email Id and click on the submit button 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to receive an email from Anodiam admin in my registered Email Id with a temporary Password Reset link.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Provide my valid identification details including my registered email Id and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Submit button.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can receive an email from Anodiam admin in my registered Email Id with a temporary </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Password Reset link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can get the link on the same page saying </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Click here to Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I enter a new Valid Password and Confirm the new Password in the Create Password page and click Submit Button</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -4799,60 +5262,78 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be able to get a message asking for my valid Email Id.</t>
-    </r>
-  </si>
-  <si>
-    <t>Click on the link to change my password</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can visit the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Password Creation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> page where </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Forgot Password/Change Password Hyperlink</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> will be displayed.</t>
-    </r>
-  </si>
-  <si>
-    <t>Provide my valid Email Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Email Id can be validated </t>
+      <t xml:space="preserve"> I should be able toI can get the link on the same page saying Click here to Login.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Click here to Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create Password page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter a new Valid Password and Confirm the new Password in the Create Password page and click Submit Button.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can visit the Teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Signup/Login </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4911,7 +5392,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I provide my valid Email Id 
+      <t xml:space="preserve"> I Click on the Click here to Login link in the Create Password page.
 </t>
     </r>
     <r>
@@ -4931,33 +5412,36 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be able to get Email with the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Password Reset</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link.</t>
-    </r>
-  </si>
-  <si>
-    <t>Click on the Password Reset Link in my Valid Email</t>
-  </si>
-  <si>
-    <t>I can go to the Create Password page.</t>
+      <t xml:space="preserve"> I should be able to visit the Teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Signup/Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t>Provide my Teacher Id and valid Password in Teacher Signup/Login page and click on Login Button</t>
+  </si>
+  <si>
+    <t>I can go to the My Home Page in Teacher app</t>
+  </si>
+  <si>
+    <t>I can Login as a Teacher User In the Anodiam Teacher App</t>
   </si>
   <si>
     <r>
@@ -5016,26 +5500,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I click on the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Reset Password Link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in my valid Email 
+      <t xml:space="preserve"> I provide my Teacher Id and valid Password in Teacher Signup/Login page and click on Login Button
 </t>
     </r>
     <r>
@@ -5055,26 +5520,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be able to go to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Create Password Page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in Teacher app.</t>
+      <t xml:space="preserve"> I should be able to Login as a Teacher User In the Anodiam Teacher App.</t>
     </r>
   </si>
   <si>
@@ -5134,26 +5580,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I click on the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> New Password Field </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve"> I Provide my Teacher Id and valid Password in Teacher Signup/Login page and click on Login Button
 </t>
     </r>
     <r>
@@ -5173,383 +5600,26 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be able to Create my </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>New Password</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirm the Password </t>
-  </si>
-  <si>
-    <t>I can Create my New Password</t>
-  </si>
-  <si>
-    <t>I can Confirm the New Password</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I repeat the Password in the Confirm Password Field 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to write the new Password again in the Confirm Password Field.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Submit the Password </t>
-  </si>
-  <si>
-    <t>I can Submit the New Password</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click on the Submit Button 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to Create my New Password.</t>
-    </r>
-  </si>
-  <si>
-    <t>Click on the Login Button</t>
-  </si>
-  <si>
-    <t>I can Login</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Login Button </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to Go to the Login Page of Anodiam Teacher App</t>
-    </r>
-  </si>
-  <si>
-    <t>Login with the New Password</t>
-  </si>
-  <si>
-    <t>I can Login into My Home Page in Teacher app</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I Provide my valid login details
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to Go to the My Teacher Home page of Anodiam Teacher App</t>
+      <t xml:space="preserve"> I should be able to Go to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>My Teache Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page in Teacher app.</t>
     </r>
   </si>
 </sst>
@@ -5848,7 +5918,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6016,6 +6086,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6062,6 +6133,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6298,31 +6372,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -6519,11 +6593,11 @@
       <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
       <c r="G3" s="56"/>
       <c r="H3" s="42" t="s">
         <v>185</v>
@@ -6595,11 +6669,11 @@
       <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
       <c r="G5" s="56"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36">
@@ -6667,11 +6741,11 @@
       <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
       <c r="G7" s="59" t="s">
         <v>178</v>
       </c>
@@ -6813,11 +6887,11 @@
       <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="36" t="s">
         <v>161</v>
       </c>
@@ -6847,11 +6921,11 @@
       <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="80"/>
       <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
@@ -6973,11 +7047,11 @@
       <c r="C16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="62" t="s">
         <v>191</v>
       </c>
@@ -8954,13 +9028,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M515"/>
+  <dimension ref="A1:M514"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9022,27 +9096,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="35">
+    <row r="2" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="63">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="36" t="s">
+      <c r="D2" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="62" t="s">
         <v>216</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>254</v>
       </c>
       <c r="H2" s="42" t="s">
         <v>214</v>
@@ -9058,26 +9132,26 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35">
+      <c r="A3" s="63">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="36" t="s">
+      <c r="E3" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>227</v>
+      <c r="G3" s="62" t="s">
+        <v>252</v>
       </c>
       <c r="H3" s="42" t="s">
         <v>215</v>
@@ -9095,56 +9169,56 @@
       </c>
       <c r="M3" s="35"/>
     </row>
-    <row r="4" spans="1:13" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="35">
+    <row r="4" spans="1:13" s="69" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="63">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="H4" s="36"/>
+      <c r="E4" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>258</v>
+      </c>
+      <c r="H4" s="42"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="40">
-        <v>2</v>
-      </c>
+      <c r="J4" s="40"/>
       <c r="K4" s="43"/>
-      <c r="L4" s="35" t="s">
-        <v>24</v>
-      </c>
+      <c r="L4" s="35"/>
       <c r="M4" s="35"/>
     </row>
-    <row r="5" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
+    <row r="5" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="63">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="77" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="36" t="s">
-        <v>191</v>
+      <c r="D5" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>263</v>
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
@@ -9152,96 +9226,86 @@
         <v>2</v>
       </c>
       <c r="K5" s="43"/>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="35" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="35"/>
     </row>
-    <row r="6" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
+    <row r="6" spans="1:13" s="69" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="63">
         <v>5</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>196</v>
+      <c r="D6" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>260</v>
       </c>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="40">
-        <v>2</v>
-      </c>
+      <c r="J6" s="40"/>
       <c r="K6" s="43"/>
-      <c r="L6" s="36" t="s">
-        <v>24</v>
-      </c>
+      <c r="L6" s="35"/>
       <c r="M6" s="35"/>
     </row>
-    <row r="7" spans="1:13" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="35">
+    <row r="7" spans="1:13" s="69" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="63">
         <v>6</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>208</v>
+      <c r="D7" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>262</v>
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="40">
-        <v>2</v>
-      </c>
+      <c r="J7" s="40"/>
       <c r="K7" s="43"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
     </row>
-    <row r="8" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" s="35">
+    <row r="8" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="63">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>209</v>
+      <c r="D8" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="62" t="s">
+        <v>191</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
@@ -9249,30 +9313,32 @@
         <v>2</v>
       </c>
       <c r="K8" s="43"/>
-      <c r="L8" s="35"/>
+      <c r="L8" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="M8" s="35"/>
     </row>
-    <row r="9" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="35">
-        <v>7</v>
-      </c>
-      <c r="B9" s="36" t="s">
+    <row r="9" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="63">
+        <v>8</v>
+      </c>
+      <c r="B9" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>261</v>
+      <c r="D9" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>196</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
@@ -9280,30 +9346,32 @@
         <v>2</v>
       </c>
       <c r="K9" s="43"/>
-      <c r="L9" s="35"/>
+      <c r="L9" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="M9" s="35"/>
     </row>
-    <row r="10" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="35">
-        <v>7</v>
-      </c>
-      <c r="B10" s="36" t="s">
+    <row r="10" spans="1:13" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="63">
+        <v>9</v>
+      </c>
+      <c r="B10" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="E10" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>266</v>
+      <c r="E10" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>208</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
@@ -9314,27 +9382,27 @@
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
     </row>
-    <row r="11" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="35">
-        <v>7</v>
-      </c>
-      <c r="B11" s="36" t="s">
+    <row r="11" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="63">
+        <v>10</v>
+      </c>
+      <c r="B11" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="E11" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>269</v>
+      <c r="E11" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>265</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -9346,105 +9414,119 @@
       <c r="M11" s="35"/>
     </row>
     <row r="12" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="63">
+        <v>11</v>
+      </c>
+      <c r="B12" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>270</v>
+      <c r="E12" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>268</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="40"/>
+      <c r="J12" s="40">
+        <v>2</v>
+      </c>
       <c r="K12" s="43"/>
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
     </row>
     <row r="13" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="63">
+        <v>12</v>
+      </c>
+      <c r="B13" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="F13" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>274</v>
+      <c r="G13" s="62" t="s">
+        <v>269</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="40"/>
+      <c r="J13" s="40">
+        <v>2</v>
+      </c>
       <c r="K13" s="43"/>
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="63">
+        <v>13</v>
+      </c>
+      <c r="B14" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>277</v>
+      <c r="E14" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>249</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="40"/>
+      <c r="J14" s="40">
+        <v>2</v>
+      </c>
       <c r="K14" s="43"/>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
     </row>
     <row r="15" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="63">
+        <v>14</v>
+      </c>
+      <c r="B15" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="E15" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>280</v>
+      <c r="E15" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>273</v>
       </c>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
@@ -9454,24 +9536,26 @@
       <c r="M15" s="35"/>
     </row>
     <row r="16" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="63">
+        <v>15</v>
+      </c>
+      <c r="B16" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="E16" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>283</v>
+      <c r="E16" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="G16" s="62" t="s">
+        <v>277</v>
       </c>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
@@ -9480,89 +9564,85 @@
       <c r="L16" s="35"/>
       <c r="M16" s="35"/>
     </row>
-    <row r="17" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="35">
-        <v>8</v>
-      </c>
-      <c r="B17" s="36" t="s">
+    <row r="17" spans="1:13" s="69" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="63">
+        <v>16</v>
+      </c>
+      <c r="B17" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>223</v>
+      <c r="E17" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>281</v>
       </c>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="40">
-        <v>5</v>
-      </c>
+      <c r="J17" s="40"/>
       <c r="K17" s="43"/>
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
     </row>
-    <row r="18" spans="1:13" s="65" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="35">
-        <v>9</v>
-      </c>
-      <c r="B18" s="36" t="s">
+    <row r="18" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="63">
         <v>17</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="B18" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="E18" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>236</v>
+      <c r="E18" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="F18" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="G18" s="62" t="s">
+        <v>282</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="40">
-        <v>5</v>
-      </c>
+      <c r="J18" s="40"/>
       <c r="K18" s="43"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="66" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="36"/>
@@ -9570,15 +9650,15 @@
         <v>5</v>
       </c>
       <c r="K19" s="43">
-        <f t="shared" ref="K19:K27" si="0">IF(I19=0,0,J19/I19)</f>
+        <f t="shared" ref="K19" si="0">IF(I19=0,0,J19/I19)</f>
         <v>0</v>
       </c>
       <c r="L19" s="36"/>
       <c r="M19" s="35"/>
     </row>
-    <row r="20" spans="1:13" s="66" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="67" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>17</v>
@@ -9587,59 +9667,57 @@
         <v>19</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>258</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="40">
-        <v>5</v>
-      </c>
-      <c r="K20" s="43">
-        <f t="shared" ref="K20" si="1">IF(I20=0,0,J20/I20)</f>
-        <v>0</v>
-      </c>
+      <c r="J20" s="40"/>
+      <c r="K20" s="43"/>
       <c r="L20" s="36"/>
       <c r="M20" s="35"/>
     </row>
-    <row r="21" spans="1:13" s="67" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35">
         <v>12</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
+        <v>230</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>232</v>
+      </c>
       <c r="H21" s="42"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="43"/>
+      <c r="J21" s="40">
+        <v>5</v>
+      </c>
+      <c r="K21" s="43">
+        <f t="shared" ref="K21" si="1">IF(I21=0,0,J21/I21)</f>
+        <v>0</v>
+      </c>
       <c r="L21" s="36"/>
       <c r="M21" s="35"/>
     </row>
     <row r="22" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="35" t="s">
         <v>17</v>
@@ -9648,16 +9726,16 @@
         <v>19</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="36"/>
@@ -9673,7 +9751,7 @@
     </row>
     <row r="23" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>17</v>
@@ -9682,16 +9760,16 @@
         <v>19</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H23" s="42"/>
       <c r="I23" s="36"/>
@@ -9705,43 +9783,40 @@
       <c r="L23" s="36"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="24" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="65" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="36"/>
       <c r="J24" s="40">
         <v>5</v>
       </c>
-      <c r="K24" s="43">
-        <f t="shared" ref="K24" si="4">IF(I24=0,0,J24/I24)</f>
-        <v>0</v>
-      </c>
+      <c r="K24" s="43"/>
       <c r="L24" s="36"/>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="1:13" s="65" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="35" t="s">
         <v>17</v>
@@ -9753,13 +9828,13 @@
         <v>180</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="H25" s="42"/>
       <c r="I25" s="36"/>
@@ -9770,9 +9845,9 @@
       <c r="L25" s="36"/>
       <c r="M25" s="35"/>
     </row>
-    <row r="26" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>17</v>
@@ -9784,84 +9859,68 @@
         <v>180</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="H26" s="42"/>
       <c r="I26" s="36"/>
       <c r="J26" s="40">
         <v>5</v>
       </c>
-      <c r="K26" s="43"/>
+      <c r="K26" s="43">
+        <f t="shared" ref="K26" si="4">IF(I26=0,0,J26/I26)</f>
+        <v>0</v>
+      </c>
       <c r="L26" s="36"/>
       <c r="M26" s="35"/>
     </row>
-    <row r="27" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="35">
+        <v>18</v>
+      </c>
+      <c r="B27" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>180</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="36"/>
       <c r="J27" s="40">
         <v>5</v>
       </c>
-      <c r="K27" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K27" s="43"/>
       <c r="L27" s="36"/>
       <c r="M27" s="35"/>
     </row>
-    <row r="28" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="35">
-        <v>18</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>231</v>
-      </c>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="42"/>
       <c r="I28" s="36"/>
-      <c r="J28" s="40">
-        <v>5</v>
-      </c>
+      <c r="J28" s="40"/>
       <c r="K28" s="43"/>
       <c r="L28" s="36"/>
       <c r="M28" s="35"/>
@@ -17156,39 +17215,24 @@
       <c r="L514" s="36"/>
       <c r="M514" s="35"/>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A515" s="35"/>
-      <c r="B515" s="36"/>
-      <c r="C515" s="36"/>
-      <c r="D515" s="36"/>
-      <c r="E515" s="36"/>
-      <c r="F515" s="36"/>
-      <c r="G515" s="36"/>
-      <c r="H515" s="42"/>
-      <c r="I515" s="36"/>
-      <c r="J515" s="40"/>
-      <c r="K515" s="43"/>
-      <c r="L515" s="36"/>
-      <c r="M515" s="35"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J515">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J514">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C515">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C514">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B515">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B514">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I515">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I514">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L515">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L514">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="284">
   <si>
     <t>Anodiam</t>
   </si>
@@ -3274,22 +3274,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Click on the Forgot Password / Change Password link </t>
-  </si>
-  <si>
-    <r>
-      <t>I shall be able to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Change Password in the Teacher App</t>
-    </r>
+    <t>Click on the Password Reset Link in my Valid Email</t>
+  </si>
+  <si>
+    <t>I can go to the Create Password page.</t>
   </si>
   <si>
     <r>
@@ -3309,17 +3297,1025 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I have clicked on the forgotton / chage my password link in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>my Valid Email Id</t>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Reset Password Link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in my valid Email 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to go to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create Password Page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in Teacher app.</t>
+    </r>
+  </si>
+  <si>
+    <t>I can view link to sign up (for teacher registration) and a form to login (for registered teachers) and a link to Forget/Change password</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Unsigned User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (intending to be teacher)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sign up here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link on the Signup / Login page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Signup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> form.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Click on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sign up here </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>link on the Signup / Login page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I type anodiam.com/teacher on a web browser
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see the page: containing a form to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> log in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (for registered teachers) and also a link to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Sign up here </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>as a teacher</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>and another link to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Forget/Change password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to the teacher application.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button in the Teacher Signup form after filling up the relevent fields</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check availability of my entered user name in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> field in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Teacher Signup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>form</t>
+    </r>
+  </si>
+  <si>
+    <t>I can check whether the Teacher Id is available or not</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I entere user name in the Teacher Id field in the Teacher Signup form
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to check whether the Teacher Id is available or not.</t>
+    </r>
+  </si>
+  <si>
+    <t>I should be able to see a message on the same Teachers Signup form saying that Anodiam admin will contact me.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I key in all the mandatory and other details in the Teachers Signup form click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see a message on the same Teachers Signup form saying that Anodiam admin will contact me.</t>
+    </r>
+  </si>
+  <si>
+    <t>I should receive an email from Anodiam Admin stating that they have been notified and they will contact me soon.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I key in all the mandatory and other details in the Teachers Signup form click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to receive an email from Anodiam Admin stating that they have been notified and they will contact me soon.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I key in all the mandatory and other details in the Teachers Signup form click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Anodiam admin app will be notified to accept or reject my teacher's expression of interest to join Anodiam.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Create Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page to create my password.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the link to visit the page to create password for my user id
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Forget Password/Change Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sign up / Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Page </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Forgot Password/Change Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the link to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Forgot Password/Change Password </t>
     </r>
     <r>
       <rPr>
@@ -3339,6 +4335,66 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to visit the Forgot Password/Change Password page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>When</t>
     </r>
     <r>
@@ -3348,7 +4404,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I click on "Forgot Password / Change Password" link in my valid Emai id
+      <t xml:space="preserve"> I Provide my valid identification details including my registered email Id and click on the submit button 
 </t>
     </r>
     <r>
@@ -3368,11 +4424,80 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I shall be able to go to the Forgot Password / Change Password page in the Teacher App.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Change the Password </t>
+      <t xml:space="preserve"> I should be able to receive an email from Anodiam admin in my registered Email Id with a temporary Password Reset link.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Provide my valid identification details including my registered email Id and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Submit button.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can receive an email from Anodiam admin in my registered Email Id with a temporary </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Password Reset link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can get the link on the same page saying </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Click here to Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3392,7 +4517,26 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I have typed new password in the "New Password field in "Forgot Password / Change Password" page
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
 </t>
     </r>
     <r>
@@ -3412,7 +4556,26 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I type the new Password 
+      <t xml:space="preserve"> I enter a new Valid Password and Confirm the new Password in the Create Password page and click Submit Button</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -3432,12 +4595,601 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I shall be able to create a New Password  the Teacher App.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>As a(intending to Change Password)</t>
+      <t xml:space="preserve"> I should be able toI can get the link on the same page saying Click here to Login.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Click here to Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create Password page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter a new Valid Password and Confirm the new Password in the Create Password page and click Submit Button.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can visit the Teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Signup/Login </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Click on the Click here to Login link in the Create Password page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to visit the Teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Signup/Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t>Provide my Teacher Id and valid Password in Teacher Signup/Login page and click on Login Button</t>
+  </si>
+  <si>
+    <t>I can go to the My Home Page in Teacher app</t>
+  </si>
+  <si>
+    <t>I can Login as a Teacher User In the Anodiam Teacher App</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I provide my Teacher Id and valid Password in Teacher Signup/Login page and click on Login Button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to Login as a Teacher User In the Anodiam Teacher App.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Provide my Teacher Id and valid Password in Teacher Signup/Login page and click on Login Button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to Go to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>My Teache Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page in Teacher app.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the Forgot Password / Change Password link in Signup / Login page </t>
+  </si>
+  <si>
+    <t>I can go to the Forget / Change Password page.</t>
+  </si>
+  <si>
+    <t>I can receive an email from Anodiam admin in my registered Email Id with a temporary Password Reset link.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Click here to Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link in the Create Password page.</t>
+    </r>
+  </si>
+  <si>
+    <t>I can go to the Sign up / Login page in the Teacher App</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have forgotton my password for Anodiam Teacher app
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">lick on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Click here to Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link in the Create Password page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to go to the Sign up / Login page in the Teacher App</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide valid credentials and details along with the registered Email Id in the Forget Password / Change Password form in the Forget / Change password page and click on the submit button </t>
+  </si>
+  <si>
+    <t>Click on the Password Reset link in my registered Email Id.</t>
+  </si>
+  <si>
+    <t>I can visit the create Password page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fillup the create Password and conform password fileds with a new valid password and click on submit </t>
+  </si>
+  <si>
+    <t>The new Password is saved</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have forgotton my password for Anodiam Teacher app
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> fillup the create Password and conform password fileds with a new valid password and click on submit 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>the new Password shoild be saved.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Click here to login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link is displayed on top of the same page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unsigned </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Valid Teacher user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> who has  forgotton password or wants to change  password of</t>
     </r>
     <r>
       <rPr>
@@ -3456,26 +5208,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>user</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">of Anodiam </t>
+      <t xml:space="preserve">Anodiam </t>
     </r>
     <r>
       <rPr>
@@ -3490,201 +5223,6 @@
   </si>
   <si>
     <r>
-      <t>As a(intending tohave a new Password)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>user</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">of Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>teacher app</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>As a(intending to have a new Password)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>user</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">of Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>teacher app</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>I shall be able to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Change Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Teacher App </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>through creating a new password</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirme Password </t>
-  </si>
-  <si>
-    <r>
-      <t>I shall be able to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Change Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Teacher App </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>through confirming the new password</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="10"/>
@@ -3701,141 +5239,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I have typed new password 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I type the new Password 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I shall be able to create a New Password  in the Teacher App.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>visit the Signup / Login page at anodiam.com/teacher, and find a link to create new password</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Unsigned user with forgotton password of</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>teacher app</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I shall be able to click the link and visit the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Forget Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I have forgotton my password for Anodiam </t>
+      <t xml:space="preserve"> I have forgotton my password or want to change my password for Anodiam </t>
     </r>
     <r>
       <rPr>
@@ -3884,1105 +5288,26 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Forgot Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link in Anodiam Teacher app, Login / Signup page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I shall be able to visit the Forget Password page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">visit the Forget Password page, fill  up the required verification details and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Send Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button</t>
-    </r>
-  </si>
-  <si>
-    <t>Click on the Password Reset Link in my Valid Email</t>
-  </si>
-  <si>
-    <t>I can go to the Create Password page.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click on the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Reset Password Link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in my valid Email 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to go to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Create Password Page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in Teacher app.</t>
-    </r>
-  </si>
-  <si>
-    <t>I can view link to sign up (for teacher registration) and a form to login (for registered teachers) and a link to Forget/Change password</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Unsigned User</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (intending to be teacher)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sign up here</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link on the Signup / Login page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to see the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Teacher Signup</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> form.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Click on the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sign up here </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>link on the Signup / Login page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I type anodiam.com/teacher on a web browser
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to see the page: containing a form to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> log in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (for registered teachers) and also a link to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sign up here </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>as a teacher</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>and another link to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Forget/Change password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to the teacher application.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Submit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button in the Teacher Signup form after filling up the relevent fields</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check availability of my entered user name in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Teacher Id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> field in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Teacher Signup </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>form</t>
-    </r>
-  </si>
-  <si>
-    <t>I can check whether the Teacher Id is available or not</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I entere user name in the Teacher Id field in the Teacher Signup form
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to check whether the Teacher Id is available or not.</t>
-    </r>
-  </si>
-  <si>
-    <t>I should be able to see a message on the same Teachers Signup form saying that Anodiam admin will contact me.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I key in all the mandatory and other details in the Teachers Signup form click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Submit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to see a message on the same Teachers Signup form saying that Anodiam admin will contact me.</t>
-    </r>
-  </si>
-  <si>
-    <t>I should receive an email from Anodiam Admin stating that they have been notified and they will contact me soon.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I key in all the mandatory and other details in the Teachers Signup form click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Submit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to receive an email from Anodiam Admin stating that they have been notified and they will contact me soon.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I key in all the mandatory and other details in the Teachers Signup form click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Submit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Then </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Anodiam admin app will be notified to accept or reject my teacher's expression of interest to join Anodiam.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can visit the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Create Password </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>page to create my password.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click on the link to visit the page to create password for my user id
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to visit the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Create Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> page.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Forget Password/Change Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sign up / Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Page </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can visit the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Forgot Password/Change Password </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>page.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click on the link to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Forgot Password/Change Password </t>
+      <t xml:space="preserve"> the Forgot Password / Change Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>link in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Signup / Login page </t>
     </r>
     <r>
       <rPr>
@@ -5011,7 +5336,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be able to visit the Forgot Password/Change Password page.</t>
+      <t xml:space="preserve"> I shall be able to go to the Forget / Change Password page.</t>
     </r>
   </si>
   <si>
@@ -5032,26 +5357,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+      <t xml:space="preserve"> I have forgotton my password  or want to change my password for Anodiam Teacher app
 </t>
     </r>
     <r>
@@ -5071,7 +5377,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I Provide my valid identification details including my registered email Id and click on the submit button 
+      <t xml:space="preserve"> I provide valid credentials and details along with the registered Email Id in the Forget Password / Change Password form in the Forget / Change password page and click on the submit button 
 </t>
     </r>
     <r>
@@ -5091,79 +5397,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be able to receive an email from Anodiam admin in my registered Email Id with a temporary Password Reset link.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Provide my valid identification details including my registered email Id and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Submit button.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can receive an email from Anodiam admin in my registered Email Id with a temporary </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Password Reset link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can get the link on the same page saying </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Click here to Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
+      <t xml:space="preserve"> I shall be able to receive an email from Anodiam admin in my registered Email Id with a temporary Password Reset link.</t>
     </r>
   </si>
   <si>
@@ -5184,26 +5418,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+      <t xml:space="preserve"> I have forgotton my password  or want to change my password for Anodiam Teacher app
 </t>
     </r>
     <r>
@@ -5214,6 +5429,67 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">click on the Password Reset link in my registered Email Id.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to visit the create Password page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have forgotton my password  or want to change my password for Anodiam Teacher app
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>When</t>
     </r>
     <r>
@@ -5223,26 +5499,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I enter a new Valid Password and Confirm the new Password in the Create Password page and click Submit Button</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve"> fillup the create Password and conform password fileds with a new valid password and click on submit 
 </t>
     </r>
     <r>
@@ -5253,373 +5510,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able toI can get the link on the same page saying Click here to Login.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Click here to Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Create Password page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Enter a new Valid Password and Confirm the new Password in the Create Password page and click Submit Button.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can visit the Teacher </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Signup/Login </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I Click on the Click here to Login link in the Create Password page.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to visit the Teacher </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Signup/Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
-    <t>Provide my Teacher Id and valid Password in Teacher Signup/Login page and click on Login Button</t>
-  </si>
-  <si>
-    <t>I can go to the My Home Page in Teacher app</t>
-  </si>
-  <si>
-    <t>I can Login as a Teacher User In the Anodiam Teacher App</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I provide my Teacher Id and valid Password in Teacher Signup/Login page and click on Login Button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to Login as a Teacher User In the Anodiam Teacher App.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I Provide my Teacher Id and valid Password in Teacher Signup/Login page and click on Login Button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to Go to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>My Teache Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> page in Teacher app.</t>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>click here to login link is displayed on top of the same page</t>
     </r>
   </si>
 </sst>
@@ -5918,7 +5818,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6087,6 +5987,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6133,9 +6037,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6372,31 +6273,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -6593,11 +6494,11 @@
       <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
       <c r="G3" s="56"/>
       <c r="H3" s="42" t="s">
         <v>185</v>
@@ -6669,11 +6570,11 @@
       <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="56"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36">
@@ -6741,11 +6642,11 @@
       <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="88"/>
       <c r="G7" s="59" t="s">
         <v>178</v>
       </c>
@@ -6887,11 +6788,11 @@
       <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="36" t="s">
         <v>161</v>
       </c>
@@ -6921,11 +6822,11 @@
       <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="80"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
@@ -7047,11 +6948,11 @@
       <c r="C16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
       <c r="G16" s="62" t="s">
         <v>191</v>
       </c>
@@ -9028,13 +8929,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M514"/>
+  <dimension ref="A1:M515"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9107,16 +9008,16 @@
         <v>19</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E2" s="62" t="s">
         <v>216</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="G2" s="62" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="H2" s="42" t="s">
         <v>214</v>
@@ -9145,13 +9046,13 @@
         <v>193</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="F3" s="62" t="s">
         <v>190</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H3" s="42" t="s">
         <v>215</v>
@@ -9183,13 +9084,13 @@
         <v>193</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="F4" s="62" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G4" s="62" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="H4" s="42"/>
       <c r="I4" s="36"/>
@@ -9212,13 +9113,13 @@
         <v>193</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F5" s="62" t="s">
         <v>219</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
@@ -9245,13 +9146,13 @@
         <v>193</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="F6" s="87" t="s">
-        <v>259</v>
+        <v>238</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>242</v>
       </c>
       <c r="G6" s="62" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
@@ -9274,13 +9175,13 @@
         <v>193</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="F7" s="87" t="s">
-        <v>261</v>
+        <v>238</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>244</v>
       </c>
       <c r="G7" s="62" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
@@ -9299,11 +9200,11 @@
       <c r="C8" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="77"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="62" t="s">
         <v>191</v>
       </c>
@@ -9399,10 +9300,10 @@
         <v>207</v>
       </c>
       <c r="F11" s="62" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -9427,13 +9328,13 @@
         <v>197</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
@@ -9458,13 +9359,13 @@
         <v>197</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F13" s="62" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="G13" s="62" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
@@ -9489,13 +9390,13 @@
         <v>197</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F14" s="62" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="G14" s="62" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
@@ -9520,13 +9421,13 @@
         <v>197</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F15" s="62" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="G15" s="62" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
@@ -9549,13 +9450,13 @@
         <v>197</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F16" s="62" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="G16" s="62" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
@@ -9578,13 +9479,13 @@
         <v>197</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="F17" s="62" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
@@ -9607,13 +9508,13 @@
         <v>197</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="F18" s="62" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="G18" s="62" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
@@ -9622,86 +9523,90 @@
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:13" s="66" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35">
-        <v>11</v>
-      </c>
-      <c r="B19" s="35" t="s">
+    <row r="19" spans="1:13" s="67" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="63">
+        <v>18</v>
+      </c>
+      <c r="B19" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>245</v>
+      <c r="D19" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>280</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="40">
-        <v>5</v>
-      </c>
-      <c r="K19" s="43">
-        <f t="shared" ref="K19" si="0">IF(I19=0,0,J19/I19)</f>
-        <v>0</v>
-      </c>
+      <c r="J19" s="40"/>
+      <c r="K19" s="43"/>
       <c r="L19" s="36"/>
       <c r="M19" s="35"/>
     </row>
-    <row r="20" spans="1:13" s="67" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35">
-        <v>12</v>
-      </c>
-      <c r="B20" s="35" t="s">
+    <row r="20" spans="1:13" s="66" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="63">
+        <v>19</v>
+      </c>
+      <c r="B20" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="D20" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>281</v>
+      </c>
       <c r="H20" s="42"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="43"/>
+      <c r="J20" s="40">
+        <v>5</v>
+      </c>
+      <c r="K20" s="43">
+        <f t="shared" ref="K20" si="0">IF(I20=0,0,J20/I20)</f>
+        <v>0</v>
+      </c>
       <c r="L20" s="36"/>
       <c r="M20" s="35"/>
     </row>
-    <row r="21" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35">
-        <v>12</v>
-      </c>
-      <c r="B21" s="35" t="s">
+    <row r="21" spans="1:13" s="70" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="63">
+        <v>20</v>
+      </c>
+      <c r="B21" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>232</v>
+      <c r="D21" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" s="62" t="s">
+        <v>282</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="36"/>
@@ -9715,27 +9620,27 @@
       <c r="L21" s="36"/>
       <c r="M21" s="35"/>
     </row>
-    <row r="22" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35">
-        <v>13</v>
-      </c>
-      <c r="B22" s="35" t="s">
+    <row r="22" spans="1:13" s="70" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="63">
+        <v>21</v>
+      </c>
+      <c r="B22" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>234</v>
+      <c r="D22" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>277</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="36"/>
@@ -9749,27 +9654,27 @@
       <c r="L22" s="36"/>
       <c r="M22" s="35"/>
     </row>
-    <row r="23" spans="1:13" s="66" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35">
-        <v>14</v>
-      </c>
-      <c r="B23" s="35" t="s">
+    <row r="23" spans="1:13" s="70" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="63">
+        <v>22</v>
+      </c>
+      <c r="B23" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>241</v>
+      <c r="D23" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>283</v>
       </c>
       <c r="H23" s="42"/>
       <c r="I23" s="36"/>
@@ -9783,40 +9688,43 @@
       <c r="L23" s="36"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="24" spans="1:13" s="65" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35">
-        <v>15</v>
-      </c>
-      <c r="B24" s="35" t="s">
+    <row r="24" spans="1:13" s="70" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="63">
+        <v>23</v>
+      </c>
+      <c r="B24" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>229</v>
+      <c r="D24" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>271</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="36"/>
       <c r="J24" s="40">
         <v>5</v>
       </c>
-      <c r="K24" s="43"/>
+      <c r="K24" s="43">
+        <f t="shared" ref="K24" si="4">IF(I24=0,0,J24/I24)</f>
+        <v>0</v>
+      </c>
       <c r="L24" s="36"/>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35">
-        <v>16</v>
+    <row r="25" spans="1:13" s="65" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="63">
+        <v>24</v>
       </c>
       <c r="B25" s="35" t="s">
         <v>17</v>
@@ -9831,10 +9739,10 @@
         <v>224</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H25" s="42"/>
       <c r="I25" s="36"/>
@@ -9845,9 +9753,9 @@
       <c r="L25" s="36"/>
       <c r="M25" s="35"/>
     </row>
-    <row r="26" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35">
-        <v>17</v>
+    <row r="26" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="63">
+        <v>25</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>17</v>
@@ -9862,71 +9770,89 @@
         <v>224</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H26" s="42"/>
       <c r="I26" s="36"/>
       <c r="J26" s="40">
         <v>5</v>
       </c>
-      <c r="K26" s="43">
-        <f t="shared" ref="K26" si="4">IF(I26=0,0,J26/I26)</f>
-        <v>0</v>
-      </c>
+      <c r="K26" s="43"/>
       <c r="L26" s="36"/>
       <c r="M26" s="35"/>
     </row>
-    <row r="27" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="35">
-        <v>18</v>
-      </c>
-      <c r="B27" s="36" t="s">
+    <row r="27" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="63">
+        <v>26</v>
+      </c>
+      <c r="B27" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>180</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="36"/>
       <c r="J27" s="40">
         <v>5</v>
       </c>
-      <c r="K27" s="43"/>
+      <c r="K27" s="43">
+        <f t="shared" ref="K27" si="5">IF(I27=0,0,J27/I27)</f>
+        <v>0</v>
+      </c>
       <c r="L27" s="36"/>
       <c r="M27" s="35"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+    <row r="28" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="63">
+        <v>27</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>222</v>
+      </c>
       <c r="H28" s="42"/>
       <c r="I28" s="36"/>
-      <c r="J28" s="40"/>
+      <c r="J28" s="40">
+        <v>5</v>
+      </c>
       <c r="K28" s="43"/>
       <c r="L28" s="36"/>
       <c r="M28" s="35"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
+      <c r="A29" s="63">
+        <v>28</v>
+      </c>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
@@ -9941,7 +9867,9 @@
       <c r="M29" s="35"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
+      <c r="A30" s="63">
+        <v>29</v>
+      </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -9956,7 +9884,9 @@
       <c r="M30" s="35"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
+      <c r="A31" s="63">
+        <v>30</v>
+      </c>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
@@ -17215,24 +17145,39 @@
       <c r="L514" s="36"/>
       <c r="M514" s="35"/>
     </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A515" s="35"/>
+      <c r="B515" s="36"/>
+      <c r="C515" s="36"/>
+      <c r="D515" s="36"/>
+      <c r="E515" s="36"/>
+      <c r="F515" s="36"/>
+      <c r="G515" s="36"/>
+      <c r="H515" s="42"/>
+      <c r="I515" s="36"/>
+      <c r="J515" s="40"/>
+      <c r="K515" s="43"/>
+      <c r="L515" s="36"/>
+      <c r="M515" s="35"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D8:F8"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J514">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J515">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C514">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C515">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B514">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B515">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I514">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I515">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L514">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L515">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="286">
   <si>
     <t>Anodiam</t>
   </si>
@@ -2852,50 +2852,7 @@
     <t>Anodiam admin app will be notified to accept or reject my teacher's expression of interest to join Anodiam.</t>
   </si>
   <si>
-    <t>I can start creating a new course</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create a course by clicking the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Create Course</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button in my </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Teacher Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> page.</t>
-    </r>
+    <t>I can view my welcome message on top (details in Finctional Spec)</t>
   </si>
   <si>
     <r>
@@ -2935,26 +2892,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Create Course</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button in my Teacher Home page
+      <t xml:space="preserve"> I log into Anodiam Teache App and view my Teacher Home page
 </t>
     </r>
     <r>
@@ -2974,7 +2912,2363 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I shall be able to create a new course</t>
+      <t xml:space="preserve"> I shall be able to see my Anodiam teacher app's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page with my welcome message on top (details in Finctional Spec)</t>
+    </r>
+  </si>
+  <si>
+    <t>Click on the Password Reset Link in my Valid Email</t>
+  </si>
+  <si>
+    <t>I can go to the Create Password page.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Reset Password Link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in my valid Email 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to go to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create Password Page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in Teacher app.</t>
+    </r>
+  </si>
+  <si>
+    <t>I can view link to sign up (for teacher registration) and a form to login (for registered teachers) and a link to Forget/Change password</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Unsigned User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (intending to be teacher)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sign up here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link on the Signup / Login page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Signup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> form.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Click on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sign up here </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>link on the Signup / Login page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I type anodiam.com/teacher on a web browser
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see the page: containing a form to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> log in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (for registered teachers) and also a link to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Sign up here </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>as a teacher</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>and another link to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Forget/Change password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to the teacher application.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button in the Teacher Signup form after filling up the relevent fields</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check availability of my entered user name in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> field in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Teacher Signup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>form</t>
+    </r>
+  </si>
+  <si>
+    <t>I can check whether the Teacher Id is available or not</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I entere user name in the Teacher Id field in the Teacher Signup form
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to check whether the Teacher Id is available or not.</t>
+    </r>
+  </si>
+  <si>
+    <t>I should be able to see a message on the same Teachers Signup form saying that Anodiam admin will contact me.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I key in all the mandatory and other details in the Teachers Signup form click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see a message on the same Teachers Signup form saying that Anodiam admin will contact me.</t>
+    </r>
+  </si>
+  <si>
+    <t>I should receive an email from Anodiam Admin stating that they have been notified and they will contact me soon.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I key in all the mandatory and other details in the Teachers Signup form click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to receive an email from Anodiam Admin stating that they have been notified and they will contact me soon.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I key in all the mandatory and other details in the Teachers Signup form click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Anodiam admin app will be notified to accept or reject my teacher's expression of interest to join Anodiam.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Create Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page to create my password.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the link to visit the page to create password for my user id
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Forget Password/Change Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sign up / Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Page </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Forgot Password/Change Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the link to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Forgot Password/Change Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to visit the Forgot Password/Change Password page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Provide my valid identification details including my registered email Id and click on the submit button 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to receive an email from Anodiam admin in my registered Email Id with a temporary Password Reset link.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Provide my valid identification details including my registered email Id and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Submit button.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can receive an email from Anodiam admin in my registered Email Id with a temporary </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Password Reset link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can get the link on the same page saying </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Click here to Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I enter a new Valid Password and Confirm the new Password in the Create Password page and click Submit Button</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able toI can get the link on the same page saying Click here to Login.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Click here to Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create Password page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter a new Valid Password and Confirm the new Password in the Create Password page and click Submit Button.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can visit the Teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Signup/Login </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Click on the Click here to Login link in the Create Password page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to visit the Teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Signup/Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t>Provide my Teacher Id and valid Password in Teacher Signup/Login page and click on Login Button</t>
+  </si>
+  <si>
+    <t>I can go to the My Home Page in Teacher app</t>
+  </si>
+  <si>
+    <t>I can Login as a Teacher User In the Anodiam Teacher App</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I provide my Teacher Id and valid Password in Teacher Signup/Login page and click on Login Button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to Login as a Teacher User In the Anodiam Teacher App.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Anodiam Admin to become a teacher
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Provide my Teacher Id and valid Password in Teacher Signup/Login page and click on Login Button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to Go to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>My Teache Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page in Teacher app.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the Forgot Password / Change Password link in Signup / Login page </t>
+  </si>
+  <si>
+    <t>I can go to the Forget / Change Password page.</t>
+  </si>
+  <si>
+    <t>I can receive an email from Anodiam admin in my registered Email Id with a temporary Password Reset link.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Click here to Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link in the Create Password page.</t>
+    </r>
+  </si>
+  <si>
+    <t>I can go to the Sign up / Login page in the Teacher App</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have forgotton my password for Anodiam Teacher app
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">lick on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Click here to Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link in the Create Password page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to go to the Sign up / Login page in the Teacher App</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide valid credentials and details along with the registered Email Id in the Forget Password / Change Password form in the Forget / Change password page and click on the submit button </t>
+  </si>
+  <si>
+    <t>Click on the Password Reset link in my registered Email Id.</t>
+  </si>
+  <si>
+    <t>I can visit the create Password page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fillup the create Password and conform password fileds with a new valid password and click on submit </t>
+  </si>
+  <si>
+    <t>The new Password is saved</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have forgotton my password for Anodiam Teacher app
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> fillup the create Password and conform password fileds with a new valid password and click on submit 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>the new Password shoild be saved.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Click here to login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link is displayed on top of the same page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unsigned </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Valid Teacher user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> who has  forgotton password or wants to change  password of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>teacher app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have forgotton my password or want to change my password for Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> app
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the Forgot Password / Change Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>link in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Signup / Login page </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to go to the Forget / Change Password page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have forgotton my password  or want to change my password for Anodiam Teacher app
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I provide valid credentials and details along with the registered Email Id in the Forget Password / Change Password form in the Forget / Change password page and click on the submit button 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to receive an email from Anodiam admin in my registered Email Id with a temporary Password Reset link.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have forgotton my password  or want to change my password for Anodiam Teacher app
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">click on the Password Reset link in my registered Email Id.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I shall be able to visit the create Password page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I have forgotton my password  or want to change my password for Anodiam Teacher app
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> fillup the create Password and conform password fileds with a new valid password and click on submit 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>click here to login link is displayed on top of the same page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">View my Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Teacher Home / View all courses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create a new Course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button in my </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teacher Home / View all courses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create course page outline tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page is displayed with Course Outline tab enabled with a form to be filled up </t>
     </r>
   </si>
   <si>
@@ -3015,7 +5309,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I log into Anodiam teacher app and view my Teacher Home page
+      <t xml:space="preserve"> I Click on the Create a new Course button in my Teacher Home / View all courses page
 </t>
     </r>
     <r>
@@ -3035,51 +5329,30 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I shall be able to see the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Course Titles</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> gird of all the courses I have created</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">View my Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Teacher Home </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>page</t>
-    </r>
+      <t xml:space="preserve"> I shall be able to view the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create course page outline tab page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with Course Outline tab enabled with a form to be filled up. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Fillup the Course Outline form with the valid informations </t>
   </si>
   <si>
     <r>
@@ -3119,7 +5392,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I log into Anodiam teacher app and view my Anodiam Teacher Home page
+      <t xml:space="preserve"> I Fillup the Course Outline form with the valid informations 
 </t>
     </r>
     <r>
@@ -3139,59 +5412,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I shall be able to see the Menu Bar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>I can view the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Course Titles</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> gird of all the courses I have created. (Details of Course Title grid is explained in the functional specs)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can view the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Menu Bar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. (Details of Menu Bar is explained in the functional specs)</t>
-    </r>
-  </si>
-  <si>
-    <t>I can view my welcome message on top (details in Finctional Spec)</t>
+      <t xml:space="preserve"> I shall be able to click on the save button to save the details I enteted in the course outline form</t>
+    </r>
+  </si>
+  <si>
+    <t>I can click on the save button to save the details I enteted in the course outline form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the cancel button </t>
+  </si>
+  <si>
+    <t>The recent activity doesn’t get saved and it restro the previous saved informtion</t>
   </si>
   <si>
     <r>
@@ -3231,7 +5462,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I log into Anodiam Teache App and view my Teacher Home page
+      <t xml:space="preserve"> I Click on the cancel button 
 </t>
     </r>
     <r>
@@ -3251,2275 +5482,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I shall be able to see my Anodiam teacher app's </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Teacher Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> page with my welcome message on top (details in Finctional Spec)</t>
-    </r>
-  </si>
-  <si>
-    <t>Click on the Password Reset Link in my Valid Email</t>
-  </si>
-  <si>
-    <t>I can go to the Create Password page.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click on the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Reset Password Link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in my valid Email 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to go to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Create Password Page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in Teacher app.</t>
-    </r>
-  </si>
-  <si>
-    <t>I can view link to sign up (for teacher registration) and a form to login (for registered teachers) and a link to Forget/Change password</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Unsigned User</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (intending to be teacher)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sign up here</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link on the Signup / Login page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to see the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Teacher Signup</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> form.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Click on the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sign up here </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>link on the Signup / Login page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I type anodiam.com/teacher on a web browser
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to see the page: containing a form to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> log in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (for registered teachers) and also a link to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sign up here </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>as a teacher</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>and another link to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Forget/Change password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to the teacher application.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Submit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button in the Teacher Signup form after filling up the relevent fields</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check availability of my entered user name in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Teacher Id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> field in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Teacher Signup </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>form</t>
-    </r>
-  </si>
-  <si>
-    <t>I can check whether the Teacher Id is available or not</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I entere user name in the Teacher Id field in the Teacher Signup form
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to check whether the Teacher Id is available or not.</t>
-    </r>
-  </si>
-  <si>
-    <t>I should be able to see a message on the same Teachers Signup form saying that Anodiam admin will contact me.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I key in all the mandatory and other details in the Teachers Signup form click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Submit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to see a message on the same Teachers Signup form saying that Anodiam admin will contact me.</t>
-    </r>
-  </si>
-  <si>
-    <t>I should receive an email from Anodiam Admin stating that they have been notified and they will contact me soon.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I key in all the mandatory and other details in the Teachers Signup form click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Submit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to receive an email from Anodiam Admin stating that they have been notified and they will contact me soon.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user (intending to be teacher)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I key in all the mandatory and other details in the Teachers Signup form click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Submit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Then </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Anodiam admin app will be notified to accept or reject my teacher's expression of interest to join Anodiam.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can visit the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Create Password </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>page to create my password.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click on the link to visit the page to create password for my user id
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to visit the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Create Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> page.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Forget Password/Change Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sign up / Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Page </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can visit the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Forgot Password/Change Password </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>page.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click on the link to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Forgot Password/Change Password </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to visit the Forgot Password/Change Password page.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I Provide my valid identification details including my registered email Id and click on the submit button 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to receive an email from Anodiam admin in my registered Email Id with a temporary Password Reset link.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Provide my valid identification details including my registered email Id and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Submit button.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can receive an email from Anodiam admin in my registered Email Id with a temporary </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Password Reset link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can get the link on the same page saying </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Click here to Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I enter a new Valid Password and Confirm the new Password in the Create Password page and click Submit Button</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able toI can get the link on the same page saying Click here to Login.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Click here to Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Create Password page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Enter a new Valid Password and Confirm the new Password in the Create Password page and click Submit Button.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can visit the Teacher </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Signup/Login </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I Click on the Click here to Login link in the Create Password page.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to visit the Teacher </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Signup/Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
-    <t>Provide my Teacher Id and valid Password in Teacher Signup/Login page and click on Login Button</t>
-  </si>
-  <si>
-    <t>I can go to the My Home Page in Teacher app</t>
-  </si>
-  <si>
-    <t>I can Login as a Teacher User In the Anodiam Teacher App</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I provide my Teacher Id and valid Password in Teacher Signup/Login page and click on Login Button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to Login as a Teacher User In the Anodiam Teacher App.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accepted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Anodiam Admin to become a teacher
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I Provide my Teacher Id and valid Password in Teacher Signup/Login page and click on Login Button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to Go to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>My Teache Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> page in Teacher app.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the Forgot Password / Change Password link in Signup / Login page </t>
-  </si>
-  <si>
-    <t>I can go to the Forget / Change Password page.</t>
-  </si>
-  <si>
-    <t>I can receive an email from Anodiam admin in my registered Email Id with a temporary Password Reset link.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Click here to Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link in the Create Password page.</t>
-    </r>
-  </si>
-  <si>
-    <t>I can go to the Sign up / Login page in the Teacher App</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I have forgotton my password for Anodiam Teacher app
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">lick on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Click here to Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link in the Create Password page.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I shall be able to go to the Sign up / Login page in the Teacher App</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide valid credentials and details along with the registered Email Id in the Forget Password / Change Password form in the Forget / Change password page and click on the submit button </t>
-  </si>
-  <si>
-    <t>Click on the Password Reset link in my registered Email Id.</t>
-  </si>
-  <si>
-    <t>I can visit the create Password page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fillup the create Password and conform password fileds with a new valid password and click on submit </t>
-  </si>
-  <si>
-    <t>The new Password is saved</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I have forgotton my password for Anodiam Teacher app
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> fillup the create Password and conform password fileds with a new valid password and click on submit 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Then </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>the new Password shoild be saved.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Click here to login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link is displayed on top of the same page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Unsigned </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Valid Teacher user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> who has  forgotton password or wants to change  password of</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>teacher app</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I have forgotton my password or want to change my password for Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Teacher</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> app
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> the Forgot Password / Change Password </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>link in</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Signup / Login page </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I shall be able to go to the Forget / Change Password page.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I have forgotton my password  or want to change my password for Anodiam Teacher app
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I provide valid credentials and details along with the registered Email Id in the Forget Password / Change Password form in the Forget / Change password page and click on the submit button 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I shall be able to receive an email from Anodiam admin in my registered Email Id with a temporary Password Reset link.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I have forgotton my password  or want to change my password for Anodiam Teacher app
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">When </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">click on the Password Reset link in my registered Email Id.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I shall be able to visit the create Password page.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I have forgotton my password  or want to change my password for Anodiam Teacher app
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> fillup the create Password and conform password fileds with a new valid password and click on submit 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Then </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>click here to login link is displayed on top of the same page</t>
+      <t xml:space="preserve"> the recent activity doesn’t get saved and it restro the previous saved informtion</t>
     </r>
   </si>
 </sst>
@@ -5818,7 +5781,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5987,7 +5950,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6038,6 +6000,16 @@
     <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6273,31 +6245,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -6494,11 +6466,11 @@
       <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
       <c r="G3" s="56"/>
       <c r="H3" s="42" t="s">
         <v>185</v>
@@ -6570,11 +6542,11 @@
       <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="85"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
       <c r="G5" s="56"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36">
@@ -6642,11 +6614,11 @@
       <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
       <c r="G7" s="59" t="s">
         <v>178</v>
       </c>
@@ -6788,11 +6760,11 @@
       <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="36" t="s">
         <v>161</v>
       </c>
@@ -6822,11 +6794,11 @@
       <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
       <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
@@ -6948,11 +6920,11 @@
       <c r="C16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="78"/>
       <c r="G16" s="62" t="s">
         <v>191</v>
       </c>
@@ -8929,13 +8901,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M515"/>
+  <dimension ref="A1:CN513"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G32:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9008,16 +8980,16 @@
         <v>19</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E2" s="62" t="s">
         <v>216</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G2" s="62" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H2" s="42" t="s">
         <v>214</v>
@@ -9046,13 +9018,13 @@
         <v>193</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F3" s="62" t="s">
         <v>190</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H3" s="42" t="s">
         <v>215</v>
@@ -9070,7 +9042,7 @@
       </c>
       <c r="M3" s="35"/>
     </row>
-    <row r="4" spans="1:13" s="69" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="68" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="63">
         <v>3</v>
       </c>
@@ -9084,13 +9056,13 @@
         <v>193</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F4" s="62" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G4" s="62" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H4" s="42"/>
       <c r="I4" s="36"/>
@@ -9113,13 +9085,13 @@
         <v>193</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F5" s="62" t="s">
         <v>219</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
@@ -9132,7 +9104,7 @@
       </c>
       <c r="M5" s="35"/>
     </row>
-    <row r="6" spans="1:13" s="69" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="68" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="63">
         <v>5</v>
       </c>
@@ -9146,13 +9118,13 @@
         <v>193</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>242</v>
+        <v>230</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>234</v>
       </c>
       <c r="G6" s="62" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
@@ -9161,7 +9133,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
     </row>
-    <row r="7" spans="1:13" s="69" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="68" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="63">
         <v>6</v>
       </c>
@@ -9175,13 +9147,13 @@
         <v>193</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>244</v>
+        <v>230</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>236</v>
       </c>
       <c r="G7" s="62" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
@@ -9200,11 +9172,11 @@
       <c r="C8" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="62" t="s">
         <v>191</v>
       </c>
@@ -9300,10 +9272,10 @@
         <v>207</v>
       </c>
       <c r="F11" s="62" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -9314,7 +9286,7 @@
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
     </row>
-    <row r="12" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="67" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A12" s="63">
         <v>11</v>
       </c>
@@ -9328,13 +9300,13 @@
         <v>197</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
@@ -9345,7 +9317,7 @@
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="67" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="63">
         <v>12</v>
       </c>
@@ -9359,13 +9331,13 @@
         <v>197</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F13" s="62" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G13" s="62" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
@@ -9376,7 +9348,7 @@
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
     </row>
-    <row r="14" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="67" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A14" s="63">
         <v>13</v>
       </c>
@@ -9390,13 +9362,13 @@
         <v>197</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F14" s="62" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G14" s="62" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
@@ -9407,7 +9379,7 @@
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="67" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A15" s="63">
         <v>14</v>
       </c>
@@ -9421,13 +9393,13 @@
         <v>197</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F15" s="62" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G15" s="62" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
@@ -9436,7 +9408,7 @@
       <c r="L15" s="35"/>
       <c r="M15" s="35"/>
     </row>
-    <row r="16" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="67" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="63">
         <v>15</v>
       </c>
@@ -9450,13 +9422,13 @@
         <v>197</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F16" s="62" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G16" s="62" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
@@ -9465,7 +9437,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="35"/>
     </row>
-    <row r="17" spans="1:13" s="69" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:92" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A17" s="63">
         <v>16</v>
       </c>
@@ -9479,13 +9451,13 @@
         <v>197</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F17" s="62" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
@@ -9494,7 +9466,7 @@
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
     </row>
-    <row r="18" spans="1:13" s="68" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:92" s="67" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="63">
         <v>17</v>
       </c>
@@ -9508,13 +9480,13 @@
         <v>197</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F18" s="62" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G18" s="62" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
@@ -9523,7 +9495,7 @@
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:13" s="67" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:92" s="66" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A19" s="63">
         <v>18</v>
       </c>
@@ -9534,16 +9506,16 @@
         <v>19</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F19" s="62" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G19" s="62" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="36"/>
@@ -9552,7 +9524,7 @@
       <c r="L19" s="36"/>
       <c r="M19" s="35"/>
     </row>
-    <row r="20" spans="1:13" s="66" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:92" s="65" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A20" s="63">
         <v>19</v>
       </c>
@@ -9563,16 +9535,16 @@
         <v>19</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="36"/>
@@ -9586,7 +9558,7 @@
       <c r="L20" s="36"/>
       <c r="M20" s="35"/>
     </row>
-    <row r="21" spans="1:13" s="70" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:92" s="69" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A21" s="63">
         <v>20</v>
       </c>
@@ -9597,16 +9569,16 @@
         <v>19</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F21" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="62" t="s">
         <v>274</v>
-      </c>
-      <c r="G21" s="62" t="s">
-        <v>282</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="36"/>
@@ -9620,7 +9592,7 @@
       <c r="L21" s="36"/>
       <c r="M21" s="35"/>
     </row>
-    <row r="22" spans="1:13" s="70" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:92" s="69" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A22" s="63">
         <v>21</v>
       </c>
@@ -9631,16 +9603,16 @@
         <v>19</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F22" s="62" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G22" s="62" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="36"/>
@@ -9654,7 +9626,7 @@
       <c r="L22" s="36"/>
       <c r="M22" s="35"/>
     </row>
-    <row r="23" spans="1:13" s="70" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:92" s="69" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A23" s="63">
         <v>22</v>
       </c>
@@ -9665,16 +9637,16 @@
         <v>19</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E23" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" s="62" t="s">
         <v>275</v>
-      </c>
-      <c r="F23" s="62" t="s">
-        <v>278</v>
-      </c>
-      <c r="G23" s="62" t="s">
-        <v>283</v>
       </c>
       <c r="H23" s="42"/>
       <c r="I23" s="36"/>
@@ -9688,7 +9660,7 @@
       <c r="L23" s="36"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="24" spans="1:13" s="70" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:92" s="69" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A24" s="63">
         <v>23</v>
       </c>
@@ -9699,16 +9671,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G24" s="62" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="36"/>
@@ -9722,105 +9694,258 @@
       <c r="L24" s="36"/>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="1:13" s="65" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:92" s="91" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A25" s="63">
         <v>24</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="40">
+      <c r="E25" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="H25" s="88"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="89">
         <v>5</v>
       </c>
-      <c r="K25" s="43"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="35"/>
-    </row>
-    <row r="26" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="90"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39"/>
+      <c r="AT25" s="39"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="39"/>
+      <c r="AX25" s="39"/>
+      <c r="AY25" s="39"/>
+      <c r="AZ25" s="39"/>
+      <c r="BA25" s="39"/>
+      <c r="BB25" s="39"/>
+      <c r="BC25" s="39"/>
+      <c r="BD25" s="39"/>
+      <c r="BE25" s="39"/>
+      <c r="BF25" s="39"/>
+      <c r="BG25" s="39"/>
+      <c r="BH25" s="39"/>
+      <c r="BI25" s="39"/>
+      <c r="BJ25" s="39"/>
+      <c r="BK25" s="39"/>
+      <c r="BL25" s="39"/>
+      <c r="BM25" s="39"/>
+      <c r="BN25" s="39"/>
+      <c r="BO25" s="39"/>
+      <c r="BP25" s="39"/>
+      <c r="BQ25" s="39"/>
+      <c r="BR25" s="39"/>
+      <c r="BS25" s="39"/>
+      <c r="BT25" s="39"/>
+      <c r="BU25" s="39"/>
+      <c r="BV25" s="39"/>
+      <c r="BW25" s="39"/>
+      <c r="BX25" s="39"/>
+      <c r="BY25" s="39"/>
+      <c r="BZ25" s="39"/>
+      <c r="CA25" s="39"/>
+      <c r="CB25" s="39"/>
+      <c r="CC25" s="39"/>
+      <c r="CD25" s="39"/>
+      <c r="CE25" s="39"/>
+      <c r="CF25" s="39"/>
+      <c r="CG25" s="39"/>
+      <c r="CH25" s="39"/>
+      <c r="CI25" s="39"/>
+      <c r="CJ25" s="39"/>
+      <c r="CK25" s="39"/>
+      <c r="CL25" s="39"/>
+      <c r="CM25" s="39"/>
+      <c r="CN25" s="39"/>
+    </row>
+    <row r="26" spans="1:92" s="91" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A26" s="63">
-        <v>25</v>
-      </c>
-      <c r="B26" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="E26" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="40">
+      <c r="E26" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="F26" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="G26" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="H26" s="88"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="89">
         <v>5</v>
       </c>
-      <c r="K26" s="43"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="35"/>
-    </row>
-    <row r="27" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="63">
-        <v>26</v>
-      </c>
-      <c r="B27" s="35" t="s">
+      <c r="K26" s="90"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="39"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="39"/>
+      <c r="AJ26" s="39"/>
+      <c r="AK26" s="39"/>
+      <c r="AL26" s="39"/>
+      <c r="AM26" s="39"/>
+      <c r="AN26" s="39"/>
+      <c r="AO26" s="39"/>
+      <c r="AP26" s="39"/>
+      <c r="AQ26" s="39"/>
+      <c r="AR26" s="39"/>
+      <c r="AS26" s="39"/>
+      <c r="AT26" s="39"/>
+      <c r="AU26" s="39"/>
+      <c r="AV26" s="39"/>
+      <c r="AW26" s="39"/>
+      <c r="AX26" s="39"/>
+      <c r="AY26" s="39"/>
+      <c r="AZ26" s="39"/>
+      <c r="BA26" s="39"/>
+      <c r="BB26" s="39"/>
+      <c r="BC26" s="39"/>
+      <c r="BD26" s="39"/>
+      <c r="BE26" s="39"/>
+      <c r="BF26" s="39"/>
+      <c r="BG26" s="39"/>
+      <c r="BH26" s="39"/>
+      <c r="BI26" s="39"/>
+      <c r="BJ26" s="39"/>
+      <c r="BK26" s="39"/>
+      <c r="BL26" s="39"/>
+      <c r="BM26" s="39"/>
+      <c r="BN26" s="39"/>
+      <c r="BO26" s="39"/>
+      <c r="BP26" s="39"/>
+      <c r="BQ26" s="39"/>
+      <c r="BR26" s="39"/>
+      <c r="BS26" s="39"/>
+      <c r="BT26" s="39"/>
+      <c r="BU26" s="39"/>
+      <c r="BV26" s="39"/>
+      <c r="BW26" s="39"/>
+      <c r="BX26" s="39"/>
+      <c r="BY26" s="39"/>
+      <c r="BZ26" s="39"/>
+      <c r="CA26" s="39"/>
+      <c r="CB26" s="39"/>
+      <c r="CC26" s="39"/>
+      <c r="CD26" s="39"/>
+      <c r="CE26" s="39"/>
+      <c r="CF26" s="39"/>
+      <c r="CG26" s="39"/>
+      <c r="CH26" s="39"/>
+      <c r="CI26" s="39"/>
+      <c r="CJ26" s="39"/>
+      <c r="CK26" s="39"/>
+      <c r="CL26" s="39"/>
+      <c r="CM26" s="39"/>
+      <c r="CN26" s="39"/>
+    </row>
+    <row r="27" spans="1:92" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="36">
+        <v>28</v>
+      </c>
+      <c r="B27" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>180</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="36"/>
-      <c r="J27" s="40">
-        <v>5</v>
-      </c>
-      <c r="K27" s="43">
-        <f t="shared" ref="K27" si="5">IF(I27=0,0,J27/I27)</f>
-        <v>0</v>
-      </c>
+      <c r="J27" s="40"/>
+      <c r="K27" s="43"/>
       <c r="L27" s="36"/>
       <c r="M27" s="35"/>
     </row>
-    <row r="28" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="63">
-        <v>27</v>
+    <row r="28" spans="1:92" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="35">
+        <v>29</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>17</v>
@@ -9832,26 +9957,24 @@
         <v>180</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="36"/>
-      <c r="J28" s="40">
-        <v>5</v>
-      </c>
+      <c r="J28" s="40"/>
       <c r="K28" s="43"/>
       <c r="L28" s="36"/>
       <c r="M28" s="35"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="63">
-        <v>28</v>
+    <row r="29" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="A29" s="35">
+        <v>30</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -9866,10 +9989,8 @@
       <c r="L29" s="36"/>
       <c r="M29" s="35"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="63">
-        <v>29</v>
-      </c>
+    <row r="30" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="A30" s="35"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -9883,10 +10004,8 @@
       <c r="L30" s="36"/>
       <c r="M30" s="35"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="63">
-        <v>30</v>
-      </c>
+    <row r="31" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="A31" s="35"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
@@ -9900,7 +10019,7 @@
       <c r="L31" s="36"/>
       <c r="M31" s="35"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -17130,54 +17249,24 @@
       <c r="L513" s="36"/>
       <c r="M513" s="35"/>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A514" s="35"/>
-      <c r="B514" s="36"/>
-      <c r="C514" s="36"/>
-      <c r="D514" s="36"/>
-      <c r="E514" s="36"/>
-      <c r="F514" s="36"/>
-      <c r="G514" s="36"/>
-      <c r="H514" s="42"/>
-      <c r="I514" s="36"/>
-      <c r="J514" s="40"/>
-      <c r="K514" s="43"/>
-      <c r="L514" s="36"/>
-      <c r="M514" s="35"/>
-    </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A515" s="35"/>
-      <c r="B515" s="36"/>
-      <c r="C515" s="36"/>
-      <c r="D515" s="36"/>
-      <c r="E515" s="36"/>
-      <c r="F515" s="36"/>
-      <c r="G515" s="36"/>
-      <c r="H515" s="42"/>
-      <c r="I515" s="36"/>
-      <c r="J515" s="40"/>
-      <c r="K515" s="43"/>
-      <c r="L515" s="36"/>
-      <c r="M515" s="35"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D8:F8"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J515">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J513">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C515">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C513">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B515">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B513">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I515">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I513">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L515">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L513">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AgilePM/ProductBacklog.xlsx
+++ b/AgilePM/ProductBacklog.xlsx
@@ -32,7 +32,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Help:</t>
         </r>
@@ -258,7 +258,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Help:</t>
         </r>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="289">
   <si>
     <t>Anodiam</t>
   </si>
@@ -5422,9 +5422,6 @@
     <t xml:space="preserve">Click on the cancel button </t>
   </si>
   <si>
-    <t>The recent activity doesn’t get saved and it restro the previous saved informtion</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -5482,15 +5479,85 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> the recent activity doesn’t get saved and it restro the previous saved informtion</t>
-    </r>
+      <t xml:space="preserve"> the recent activity doesn’t get saved and it restore the previous saved informtions</t>
+    </r>
+  </si>
+  <si>
+    <t>The recent activity doesn’t get saved and it restore the previous saved informtions</t>
+  </si>
+  <si>
+    <t>Click on the delete button</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a logged in teacher user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Click on the delete button 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> delition confirmtion dialogue box will appear</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Delition confirmation dialogue box will appear </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5501,18 +5568,21 @@
       <sz val="48"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -5545,16 +5615,9 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -5776,7 +5839,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -5888,7 +5951,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5900,16 +5963,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5953,6 +6016,16 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6000,16 +6073,6 @@
     <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6245,31 +6308,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -6466,11 +6529,11 @@
       <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
       <c r="G3" s="56"/>
       <c r="H3" s="42" t="s">
         <v>185</v>
@@ -6542,11 +6605,11 @@
       <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="56"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36">
@@ -6614,11 +6677,11 @@
       <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="59" t="s">
         <v>178</v>
       </c>
@@ -6760,11 +6823,11 @@
       <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="36" t="s">
         <v>161</v>
       </c>
@@ -6794,11 +6857,11 @@
       <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
@@ -6920,11 +6983,11 @@
       <c r="C16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="62" t="s">
         <v>191</v>
       </c>
@@ -8907,7 +8970,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G32:G33"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9172,11 +9235,11 @@
       <c r="C8" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="62" t="s">
         <v>191</v>
       </c>
@@ -9694,7 +9757,7 @@
       <c r="L24" s="36"/>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="1:92" s="91" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:92" s="74" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A25" s="63">
         <v>24</v>
       </c>
@@ -9716,12 +9779,12 @@
       <c r="G25" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="H25" s="88"/>
+      <c r="H25" s="71"/>
       <c r="I25" s="62"/>
-      <c r="J25" s="89">
+      <c r="J25" s="72">
         <v>5</v>
       </c>
-      <c r="K25" s="90"/>
+      <c r="K25" s="73"/>
       <c r="L25" s="62"/>
       <c r="M25" s="63"/>
       <c r="N25" s="39"/>
@@ -9804,7 +9867,7 @@
       <c r="CM25" s="39"/>
       <c r="CN25" s="39"/>
     </row>
-    <row r="26" spans="1:92" s="91" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:92" s="74" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A26" s="63">
         <v>27</v>
       </c>
@@ -9826,12 +9889,12 @@
       <c r="G26" s="62" t="s">
         <v>279</v>
       </c>
-      <c r="H26" s="88"/>
+      <c r="H26" s="71"/>
       <c r="I26" s="62"/>
-      <c r="J26" s="89">
+      <c r="J26" s="72">
         <v>5</v>
       </c>
-      <c r="K26" s="90"/>
+      <c r="K26" s="73"/>
       <c r="L26" s="62"/>
       <c r="M26" s="63"/>
       <c r="N26" s="39"/>
@@ -9960,10 +10023,10 @@
         <v>283</v>
       </c>
       <c r="F28" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G28" s="36" t="s">
         <v>284</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>285</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="36"/>
@@ -9972,16 +10035,28 @@
       <c r="L28" s="36"/>
       <c r="M28" s="35"/>
     </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:92" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="35">
         <v>30</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
+      <c r="B29" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>287</v>
+      </c>
       <c r="H29" s="42"/>
       <c r="I29" s="36"/>
       <c r="J29" s="40"/>
@@ -9989,11 +10064,17 @@
       <c r="L29" s="36"/>
       <c r="M29" s="35"/>
     </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:92" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
+      <c r="B30" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>180</v>
+      </c>
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
